--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -112,13 +112,13 @@
     <t>Jeonnam Dragons</t>
   </si>
   <si>
+    <t>Chungnam Asan FC</t>
+  </si>
+  <si>
     <t>Seoul ELand FC</t>
   </si>
   <si>
     <t>Seongnam FC</t>
-  </si>
-  <si>
-    <t>Chungnam Asan FC</t>
   </si>
   <si>
     <t>Bucheon</t>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6336857</v>
+        <v>6206101</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,52 +889,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
       <c r="K5">
+        <v>2.6</v>
+      </c>
+      <c r="L5">
+        <v>3.2</v>
+      </c>
+      <c r="M5">
+        <v>2.55</v>
+      </c>
+      <c r="N5">
+        <v>3.6</v>
+      </c>
+      <c r="O5">
+        <v>3.1</v>
+      </c>
+      <c r="P5">
+        <v>2.05</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>1.75</v>
+      </c>
+      <c r="S5">
+        <v>2.05</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
         <v>1.8</v>
       </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>3.75</v>
-      </c>
-      <c r="N5">
-        <v>1.571</v>
-      </c>
-      <c r="O5">
-        <v>3.75</v>
-      </c>
-      <c r="P5">
-        <v>4.75</v>
-      </c>
-      <c r="Q5">
-        <v>-1</v>
-      </c>
-      <c r="R5">
-        <v>1.9</v>
-      </c>
-      <c r="S5">
-        <v>1.9</v>
-      </c>
-      <c r="T5">
-        <v>2.5</v>
-      </c>
-      <c r="U5">
-        <v>1.875</v>
-      </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6206102</v>
+        <v>6336857</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,70 +978,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6206101</v>
+        <v>6206102</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,70 +1067,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N7">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1156,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6204305</v>
+        <v>6206108</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,76 +1509,76 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L12">
         <v>3.1</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>3.1</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1586,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6206108</v>
+        <v>6204305</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,76 +1598,76 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L13">
         <v>3.1</v>
       </c>
       <c r="M13">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O13">
         <v>3.1</v>
       </c>
       <c r="P13">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1687,7 +1687,7 @@
         <v>44996.0625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6206109</v>
+        <v>6206110</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,76 +1776,76 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N15">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O15">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6206110</v>
+        <v>6206109</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,76 +1865,76 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N16">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P16">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>-0</v>
+      </c>
+      <c r="AB16">
+        <v>-0.5</v>
+      </c>
+      <c r="AC16">
         <v>0.4375</v>
-      </c>
-      <c r="AA16">
-        <v>-0.5</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
-      <c r="AC16">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2043,10 +2043,10 @@
         <v>44997.0625</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>45003.0625</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -2669,7 +2669,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2758,7 +2758,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2844,7 +2844,7 @@
         <v>45017.16666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -3114,7 +3114,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3470,7 +3470,7 @@
         <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3645,7 +3645,7 @@
         <v>45025.16666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3734,7 +3734,7 @@
         <v>45025.27083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -4001,10 +4001,10 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4179,7 +4179,7 @@
         <v>45032.0625</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4345,7 +4345,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6206135</v>
+        <v>6206134</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4357,56 +4357,56 @@
         <v>45034.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>42</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M44">
         <v>3</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O44">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P44">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S44">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
+        <v>1.95</v>
+      </c>
+      <c r="V44">
         <v>1.85</v>
       </c>
-      <c r="V44">
-        <v>1.95</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4414,19 +4414,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB44">
+        <v>-1</v>
+      </c>
+      <c r="AC44">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC44">
-        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206134</v>
+        <v>6206135</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,7 +4446,7 @@
         <v>45034.29166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4455,47 +4455,47 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
         <v>42</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
         <v>3</v>
       </c>
       <c r="N45">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O45">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U45">
+        <v>1.85</v>
+      </c>
+      <c r="V45">
         <v>1.95</v>
       </c>
-      <c r="V45">
-        <v>1.85</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
@@ -4503,19 +4503,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>45038.16666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5069,7 +5069,7 @@
         <v>45038.27083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5158,7 +5158,7 @@
         <v>45039.0625</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
         <v>30</v>
@@ -5428,7 +5428,7 @@
         <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5870,10 +5870,10 @@
         <v>45046.16666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6140,7 +6140,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6206152</v>
+        <v>6206153</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,76 +6315,76 @@
         <v>45049.3125</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L66">
         <v>3.25</v>
       </c>
       <c r="M66">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N66">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="O66">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P66">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y66">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6392,7 +6392,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6206153</v>
+        <v>6206152</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6404,76 +6404,76 @@
         <v>45049.3125</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L67">
         <v>3.25</v>
       </c>
       <c r="M67">
+        <v>1.909</v>
+      </c>
+      <c r="N67">
+        <v>4.5</v>
+      </c>
+      <c r="O67">
+        <v>3.75</v>
+      </c>
+      <c r="P67">
+        <v>1.615</v>
+      </c>
+      <c r="Q67">
+        <v>0.75</v>
+      </c>
+      <c r="R67">
+        <v>1.975</v>
+      </c>
+      <c r="S67">
+        <v>1.825</v>
+      </c>
+      <c r="T67">
         <v>2.75</v>
       </c>
-      <c r="N67">
-        <v>1.95</v>
-      </c>
-      <c r="O67">
-        <v>3.3</v>
-      </c>
-      <c r="P67">
-        <v>3.3</v>
-      </c>
-      <c r="Q67">
+      <c r="U67">
+        <v>1.8</v>
+      </c>
+      <c r="V67">
+        <v>2</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
+        <v>0.615</v>
+      </c>
+      <c r="Z67">
         <v>-0.5</v>
       </c>
-      <c r="R67">
-        <v>2</v>
-      </c>
-      <c r="S67">
-        <v>1.8</v>
-      </c>
-      <c r="T67">
-        <v>2.25</v>
-      </c>
-      <c r="U67">
-        <v>1.95</v>
-      </c>
-      <c r="V67">
-        <v>1.85</v>
-      </c>
-      <c r="W67">
-        <v>-1</v>
-      </c>
-      <c r="X67">
-        <v>2.3</v>
-      </c>
-      <c r="Y67">
-        <v>-1</v>
-      </c>
-      <c r="Z67">
-        <v>-1</v>
-      </c>
       <c r="AA67">
+        <v>0.4125</v>
+      </c>
+      <c r="AB67">
         <v>0.8</v>
       </c>
-      <c r="AB67">
-        <v>-1</v>
-      </c>
       <c r="AC67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6206155</v>
+        <v>6206156</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,25 +6582,25 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
         <v>3</v>
@@ -6609,22 +6609,22 @@
         <v>2.375</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S69">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
         <v>1.875</v>
@@ -6633,25 +6633,25 @@
         <v>1.925</v>
       </c>
       <c r="W69">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6206156</v>
+        <v>6206155</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,25 +6671,25 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M70">
         <v>3</v>
@@ -6698,22 +6698,22 @@
         <v>2.375</v>
       </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S70">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
         <v>1.875</v>
@@ -6722,25 +6722,25 @@
         <v>1.925</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6938,7 +6938,7 @@
         <v>45053.27083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
         <v>41</v>
@@ -7027,7 +7027,7 @@
         <v>45059.0625</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>29</v>
@@ -7297,7 +7297,7 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7383,7 +7383,7 @@
         <v>45060.16666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7564,7 +7564,7 @@
         <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7828,7 +7828,7 @@
         <v>45066.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>35</v>
@@ -8273,7 +8273,7 @@
         <v>45073.27083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8365,7 +8365,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8454,7 +8454,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8718,10 +8718,10 @@
         <v>45080.27083333334</v>
       </c>
       <c r="F93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" t="s">
         <v>34</v>
-      </c>
-      <c r="G93" t="s">
-        <v>33</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8985,7 +8985,7 @@
         <v>45081.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -9255,7 +9255,7 @@
         <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9608,10 +9608,10 @@
         <v>45088.33333333334</v>
       </c>
       <c r="F103" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" t="s">
         <v>33</v>
-      </c>
-      <c r="G103" t="s">
-        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9786,7 +9786,7 @@
         <v>45101.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
         <v>35</v>
@@ -9964,7 +9964,7 @@
         <v>45102.16666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
         <v>37</v>
@@ -10142,7 +10142,7 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>39</v>
@@ -10501,7 +10501,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10590,7 +10590,7 @@
         <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6206198</v>
+        <v>6206199</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,40 +10765,40 @@
         <v>45115.25</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N116">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
         <v>2</v>
@@ -10810,31 +10810,31 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W116">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6206199</v>
+        <v>6206198</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,40 +10854,40 @@
         <v>45115.25</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N117">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
         <v>2</v>
@@ -10899,31 +10899,31 @@
         <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC117">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
         <v>38</v>
@@ -11121,7 +11121,7 @@
         <v>45117.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
         <v>31</v>
@@ -11566,7 +11566,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
         <v>39</v>
@@ -11658,7 +11658,7 @@
         <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11922,7 +11922,7 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
         <v>38</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6206211</v>
+        <v>6204320</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,76 +12100,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L131">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N131">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O131">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X131">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6204320</v>
+        <v>6206211</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,76 +12189,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K132">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M132">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N132">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P132">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12370,7 +12370,7 @@
         <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6206214</v>
+        <v>6206215</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,49 +12456,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K135">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L135">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N135">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O135">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U135">
         <v>2</v>
@@ -12507,19 +12507,19 @@
         <v>1.8</v>
       </c>
       <c r="W135">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB135">
         <v>-1</v>
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6206215</v>
+        <v>6206214</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,49 +12545,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N136">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P136">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q136">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U136">
         <v>2</v>
@@ -12596,19 +12596,19 @@
         <v>1.8</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -12637,7 +12637,7 @@
         <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12990,7 +12990,7 @@
         <v>45136.3125</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
         <v>31</v>
@@ -13257,10 +13257,10 @@
         <v>45138.29166666666</v>
       </c>
       <c r="F144" t="s">
+        <v>33</v>
+      </c>
+      <c r="G144" t="s">
         <v>32</v>
-      </c>
-      <c r="G144" t="s">
-        <v>34</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13702,7 +13702,7 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -13794,7 +13794,7 @@
         <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -14239,7 +14239,7 @@
         <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14417,7 +14417,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>45158.27083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
         <v>40</v>
@@ -14770,7 +14770,7 @@
         <v>45159.29166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
         <v>35</v>
@@ -14951,7 +14951,7 @@
         <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15129,7 +15129,7 @@
         <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15218,7 +15218,7 @@
         <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15482,7 +15482,7 @@
         <v>45167.29166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
         <v>30</v>
@@ -15749,7 +15749,7 @@
         <v>45168.29166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
         <v>31</v>
@@ -15826,7 +15826,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15838,73 +15838,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L173">
+        <v>3.2</v>
+      </c>
+      <c r="M173">
+        <v>2.875</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173">
         <v>3.3</v>
       </c>
-      <c r="M173">
-        <v>2</v>
-      </c>
-      <c r="N173">
-        <v>3.5</v>
-      </c>
-      <c r="O173">
-        <v>3.2</v>
-      </c>
       <c r="P173">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB173">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,73 +15927,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
       <c r="I174">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L174">
+        <v>3.3</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>3.5</v>
+      </c>
+      <c r="O174">
         <v>3.2</v>
       </c>
-      <c r="M174">
-        <v>2.875</v>
-      </c>
-      <c r="N174">
-        <v>2</v>
-      </c>
-      <c r="O174">
-        <v>3.3</v>
-      </c>
       <c r="P174">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16019,7 +16019,7 @@
         <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16286,7 +16286,7 @@
         <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16375,7 +16375,7 @@
         <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16639,7 +16639,7 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
         <v>29</v>
@@ -16731,7 +16731,7 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -16906,7 +16906,7 @@
         <v>45186.16666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>39</v>
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6206260</v>
+        <v>6206261</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,40 +17173,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K188">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L188">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M188">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -17215,34 +17215,34 @@
         <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6206261</v>
+        <v>6206260</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,40 +17262,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F189" t="s">
+        <v>36</v>
+      </c>
+      <c r="G189" t="s">
         <v>33</v>
       </c>
-      <c r="G189" t="s">
-        <v>41</v>
-      </c>
       <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
       <c r="J189" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K189">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L189">
+        <v>3.2</v>
+      </c>
+      <c r="M189">
+        <v>2.75</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189">
+        <v>3.3</v>
+      </c>
+      <c r="P189">
         <v>3.4</v>
       </c>
-      <c r="M189">
-        <v>1.909</v>
-      </c>
-      <c r="N189">
-        <v>4</v>
-      </c>
-      <c r="O189">
-        <v>3.5</v>
-      </c>
-      <c r="P189">
-        <v>1.8</v>
-      </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
         <v>2</v>
@@ -17304,34 +17304,34 @@
         <v>1.8</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17529,7 +17529,7 @@
         <v>45189.3125</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G192" t="s">
         <v>31</v>
@@ -17618,7 +17618,7 @@
         <v>45192.0625</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
         <v>36</v>
@@ -17888,7 +17888,7 @@
         <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17974,7 +17974,7 @@
         <v>45193.16666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G197" t="s">
         <v>37</v>
@@ -18155,7 +18155,7 @@
         <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18330,10 +18330,10 @@
         <v>45199.27083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18864,10 +18864,10 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -19042,7 +19042,7 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
         <v>30</v>
@@ -19220,7 +19220,7 @@
         <v>45213.16666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
         <v>36</v>
@@ -19312,7 +19312,7 @@
         <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -19487,7 +19487,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
         <v>40</v>
@@ -19932,7 +19932,7 @@
         <v>45227.16666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G219" t="s">
         <v>29</v>
@@ -20024,7 +20024,7 @@
         <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20377,10 +20377,10 @@
         <v>45241.0625</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20469,7 +20469,7 @@
         <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20899,7 +20899,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6531882</v>
+        <v>6540655</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20911,76 +20911,76 @@
         <v>45256.125</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G230" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K230">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M230">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N230">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O230">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P230">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R230">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
+        <v>1.825</v>
+      </c>
+      <c r="V230">
         <v>1.975</v>
       </c>
-      <c r="V230">
-        <v>1.825</v>
-      </c>
       <c r="W230">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB230">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20988,7 +20988,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6527572</v>
+        <v>6537916</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,58 +21000,58 @@
         <v>45256.125</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>43</v>
       </c>
       <c r="K231">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="L231">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M231">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N231">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="O231">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P231">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="Q231">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S231">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>1.25</v>
+        <v>0.222</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21060,16 +21060,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB231">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6531883</v>
+        <v>6537915</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,76 +21089,76 @@
         <v>45256.125</v>
       </c>
       <c r="F232" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K232">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L232">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M232">
+        <v>5.25</v>
+      </c>
+      <c r="N232">
+        <v>1.444</v>
+      </c>
+      <c r="O232">
         <v>4.2</v>
       </c>
-      <c r="N232">
-        <v>1.75</v>
-      </c>
-      <c r="O232">
-        <v>4</v>
-      </c>
       <c r="P232">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q232">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y232">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21166,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6537916</v>
+        <v>6531883</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21178,76 +21178,76 @@
         <v>45256.125</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K233">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="L233">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M233">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="N233">
-        <v>1.222</v>
+        <v>1.75</v>
       </c>
       <c r="O233">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P233">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="Q233">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T233">
         <v>3.25</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6540655</v>
+        <v>6531882</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21267,76 +21267,76 @@
         <v>45256.125</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234">
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K234">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L234">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M234">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N234">
+        <v>1.4</v>
+      </c>
+      <c r="O234">
+        <v>4.333</v>
+      </c>
+      <c r="P234">
+        <v>6</v>
+      </c>
+      <c r="Q234">
+        <v>-1.25</v>
+      </c>
+      <c r="R234">
+        <v>2</v>
+      </c>
+      <c r="S234">
+        <v>1.8</v>
+      </c>
+      <c r="T234">
         <v>2.75</v>
       </c>
-      <c r="O234">
-        <v>3.25</v>
-      </c>
-      <c r="P234">
-        <v>2.3</v>
-      </c>
-      <c r="Q234">
-        <v>0.25</v>
-      </c>
-      <c r="R234">
-        <v>1.75</v>
-      </c>
-      <c r="S234">
-        <v>2.05</v>
-      </c>
-      <c r="T234">
-        <v>2.25</v>
-      </c>
       <c r="U234">
+        <v>1.975</v>
+      </c>
+      <c r="V234">
         <v>1.825</v>
       </c>
-      <c r="V234">
-        <v>1.975</v>
-      </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA234">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC234">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6537915</v>
+        <v>6527572</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,40 +21356,40 @@
         <v>45256.125</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G235" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I235">
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K235">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M235">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N235">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O235">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P235">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q235">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
         <v>1.975</v>
@@ -21401,31 +21401,31 @@
         <v>2.5</v>
       </c>
       <c r="U235">
+        <v>1.975</v>
+      </c>
+      <c r="V235">
         <v>1.825</v>
       </c>
-      <c r="V235">
-        <v>1.975</v>
-      </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X235">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA235">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC235">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -103,22 +103,22 @@
     <t>South Korea K League 2</t>
   </si>
   <si>
+    <t>Jeonnam Dragons</t>
+  </si>
+  <si>
     <t>Cheonan City</t>
   </si>
   <si>
     <t>Gyeongnam FC</t>
   </si>
   <si>
-    <t>Jeonnam Dragons</t>
-  </si>
-  <si>
-    <t>Chungnam Asan FC</t>
-  </si>
-  <si>
     <t>Seoul ELand FC</t>
   </si>
   <si>
     <t>Seongnam FC</t>
+  </si>
+  <si>
+    <t>Chungnam Asan FC</t>
   </si>
   <si>
     <t>Bucheon</t>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6206099</v>
+        <v>6204304</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -622,52 +622,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L2">
         <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N2">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P2">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
         <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -676,19 +676,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6206100</v>
+        <v>6206099</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,73 +711,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
         <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="N3">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6204304</v>
+        <v>6206100</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
         <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N4">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
         <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6206101</v>
+        <v>6336857</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,52 +889,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
       <c r="K5">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N5">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O5">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6336857</v>
+        <v>6206102</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,70 +978,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N6">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6206102</v>
+        <v>6206101</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,70 +1067,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L7">
+        <v>3.2</v>
+      </c>
+      <c r="M7">
+        <v>2.55</v>
+      </c>
+      <c r="N7">
         <v>3.6</v>
       </c>
-      <c r="M7">
-        <v>4.2</v>
-      </c>
-      <c r="N7">
-        <v>1.909</v>
-      </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P7">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1156,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6206108</v>
+        <v>6204305</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,76 +1509,76 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L12">
         <v>3.1</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O12">
         <v>3.1</v>
       </c>
       <c r="P12">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1586,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6204305</v>
+        <v>6206108</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,76 +1598,76 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L13">
         <v>3.1</v>
       </c>
       <c r="M13">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N13">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>3.1</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1687,10 +1687,10 @@
         <v>44996.0625</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6206110</v>
+        <v>6206109</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,76 +1776,76 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M15">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N15">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P15">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>-0</v>
+      </c>
+      <c r="AB15">
+        <v>-0.5</v>
+      </c>
+      <c r="AC15">
         <v>0.4375</v>
-      </c>
-      <c r="AA15">
-        <v>-0.5</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6206109</v>
+        <v>6206110</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,76 +1865,76 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N16">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O16">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2043,10 +2043,10 @@
         <v>44997.0625</v>
       </c>
       <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>44997.16666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2221,10 +2221,10 @@
         <v>45003.0625</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6206115</v>
+        <v>6206116</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,76 +2310,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N21">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P21">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
         <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6206116</v>
+        <v>6206115</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q22">
         <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X22">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2669,7 +2669,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2758,7 +2758,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2844,7 +2844,7 @@
         <v>45017.16666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -3025,7 +3025,7 @@
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3200,10 +3200,10 @@
         <v>45018.27083333334</v>
       </c>
       <c r="F31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
         <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>45024.0625</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3467,10 +3467,10 @@
         <v>45024.27083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3645,7 +3645,7 @@
         <v>45025.16666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3734,7 +3734,7 @@
         <v>45025.27083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3823,7 +3823,7 @@
         <v>45031.0625</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -4001,10 +4001,10 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
         <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>45032.0625</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4360,7 +4360,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>45034.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -4701,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6204309</v>
+        <v>6206138</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,76 +4713,76 @@
         <v>45035.3125</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K48">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N48">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R48">
+        <v>1.825</v>
+      </c>
+      <c r="S48">
         <v>1.975</v>
       </c>
-      <c r="S48">
-        <v>1.825</v>
-      </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6206138</v>
+        <v>6204309</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45035.3125</v>
       </c>
       <c r="F49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" t="s">
         <v>29</v>
       </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L49">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N49">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
+        <v>4</v>
+      </c>
+      <c r="Q49">
+        <v>-0.75</v>
+      </c>
+      <c r="R49">
+        <v>1.975</v>
+      </c>
+      <c r="S49">
+        <v>1.825</v>
+      </c>
+      <c r="T49">
+        <v>2.75</v>
+      </c>
+      <c r="U49">
+        <v>1.85</v>
+      </c>
+      <c r="V49">
         <v>1.95</v>
       </c>
-      <c r="Q49">
-        <v>0.5</v>
-      </c>
-      <c r="R49">
-        <v>1.825</v>
-      </c>
-      <c r="S49">
-        <v>1.975</v>
-      </c>
-      <c r="T49">
-        <v>2.5</v>
-      </c>
-      <c r="U49">
-        <v>2</v>
-      </c>
-      <c r="V49">
-        <v>1.8</v>
-      </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X49">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC49">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>45038.16666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5069,7 +5069,7 @@
         <v>45038.27083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5158,10 +5158,10 @@
         <v>45039.0625</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5339,7 +5339,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5425,10 +5425,10 @@
         <v>45045.0625</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5514,10 +5514,10 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
         <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5870,10 +5870,10 @@
         <v>45046.16666666666</v>
       </c>
       <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
         <v>33</v>
-      </c>
-      <c r="G61" t="s">
-        <v>34</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         <v>45048.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>39</v>
@@ -6048,7 +6048,7 @@
         <v>45048.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
         <v>40</v>
@@ -6140,7 +6140,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6226,10 +6226,10 @@
         <v>45049.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6496,7 +6496,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6206156</v>
+        <v>6206155</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,25 +6582,25 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
         <v>3</v>
@@ -6609,22 +6609,22 @@
         <v>2.375</v>
       </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P69">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
         <v>1.875</v>
@@ -6633,25 +6633,25 @@
         <v>1.925</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6206155</v>
+        <v>6206156</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,25 +6671,25 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
         <v>3</v>
@@ -6698,22 +6698,22 @@
         <v>2.375</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S70">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
         <v>1.875</v>
@@ -6722,25 +6722,25 @@
         <v>1.925</v>
       </c>
       <c r="W70">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -6938,7 +6938,7 @@
         <v>45053.27083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
         <v>41</v>
@@ -7027,10 +7027,10 @@
         <v>45059.0625</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7294,10 +7294,10 @@
         <v>45060.0625</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7383,7 +7383,7 @@
         <v>45060.16666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7561,10 +7561,10 @@
         <v>45066.16666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6204314</v>
+        <v>6206167</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,10 +7739,10 @@
         <v>45066.27083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7754,61 +7754,61 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N82">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O82">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P82">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>1.825</v>
+      </c>
+      <c r="S82">
+        <v>1.975</v>
+      </c>
+      <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
+        <v>1.875</v>
+      </c>
+      <c r="V82">
+        <v>1.925</v>
+      </c>
+      <c r="W82">
+        <v>1.5</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
+        <v>0.825</v>
+      </c>
+      <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>-0.5</v>
       </c>
-      <c r="R82">
-        <v>2</v>
-      </c>
-      <c r="S82">
-        <v>1.8</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.975</v>
-      </c>
-      <c r="V82">
-        <v>1.825</v>
-      </c>
-      <c r="W82">
-        <v>0.95</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>-1</v>
-      </c>
-      <c r="Z82">
-        <v>1</v>
-      </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
-      <c r="AB82">
-        <v>-1</v>
-      </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6206167</v>
+        <v>6204314</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,10 +7828,10 @@
         <v>45066.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,43 +7843,43 @@
         <v>43</v>
       </c>
       <c r="K83">
+        <v>1.85</v>
+      </c>
+      <c r="L83">
+        <v>3.3</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>1.95</v>
+      </c>
+      <c r="O83">
+        <v>3.3</v>
+      </c>
+      <c r="P83">
+        <v>3.5</v>
+      </c>
+      <c r="Q83">
+        <v>-0.5</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1.8</v>
+      </c>
+      <c r="T83">
         <v>2.5</v>
       </c>
-      <c r="L83">
-        <v>3.2</v>
-      </c>
-      <c r="M83">
-        <v>2.6</v>
-      </c>
-      <c r="N83">
-        <v>2.5</v>
-      </c>
-      <c r="O83">
-        <v>3.2</v>
-      </c>
-      <c r="P83">
-        <v>2.6</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
+      <c r="U83">
+        <v>1.975</v>
+      </c>
+      <c r="V83">
         <v>1.825</v>
       </c>
-      <c r="S83">
-        <v>1.975</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>1.875</v>
-      </c>
-      <c r="V83">
-        <v>1.925</v>
-      </c>
       <c r="W83">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7888,16 +7888,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
+        <v>1</v>
+      </c>
+      <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>0.825</v>
-      </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>-0.5</v>
-      </c>
-      <c r="AC83">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>45067.16666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -8098,7 +8098,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8184,10 +8184,10 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8273,7 +8273,7 @@
         <v>45073.27083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8365,7 +8365,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8454,7 +8454,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8629,10 +8629,10 @@
         <v>45080.16666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8718,10 +8718,10 @@
         <v>45080.27083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8985,7 +8985,7 @@
         <v>45081.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -9074,7 +9074,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9252,10 +9252,10 @@
         <v>45087.27083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9433,7 +9433,7 @@
         <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9522,7 +9522,7 @@
         <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9608,10 +9608,10 @@
         <v>45088.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9786,7 +9786,7 @@
         <v>45101.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
         <v>35</v>
@@ -9878,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9964,7 +9964,7 @@
         <v>45102.16666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
         <v>37</v>
@@ -10056,7 +10056,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10142,7 +10142,7 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>39</v>
@@ -10412,7 +10412,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10501,7 +10501,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10590,7 +10590,7 @@
         <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10676,10 +10676,10 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6206199</v>
+        <v>6206198</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,40 +10765,40 @@
         <v>45115.25</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N116">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O116">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
         <v>2</v>
@@ -10810,31 +10810,31 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC116">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6206198</v>
+        <v>6206199</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,40 +10854,40 @@
         <v>45115.25</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N117">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
         <v>2</v>
@@ -10899,31 +10899,31 @@
         <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W117">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>37</v>
@@ -11032,7 +11032,7 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>38</v>
@@ -11121,10 +11121,10 @@
         <v>45117.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11299,7 +11299,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
         <v>36</v>
@@ -11566,7 +11566,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
         <v>39</v>
@@ -11658,7 +11658,7 @@
         <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11744,10 +11744,10 @@
         <v>45123.33333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11922,7 +11922,7 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>38</v>
@@ -12014,7 +12014,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12100,7 +12100,7 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>37</v>
@@ -12189,10 +12189,10 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12281,7 +12281,7 @@
         <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12370,7 +12370,7 @@
         <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12456,7 +12456,7 @@
         <v>45130.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
         <v>41</v>
@@ -12545,7 +12545,7 @@
         <v>45130.3125</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
         <v>35</v>
@@ -12634,10 +12634,10 @@
         <v>45130.33333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12901,7 +12901,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
         <v>38</v>
@@ -12990,10 +12990,10 @@
         <v>45136.3125</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13171,7 +13171,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13257,10 +13257,10 @@
         <v>45138.29166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13435,7 +13435,7 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13527,7 +13527,7 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13702,10 +13702,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13794,7 +13794,7 @@
         <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -14061,7 +14061,7 @@
         <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14147,7 +14147,7 @@
         <v>45152.3125</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14239,7 +14239,7 @@
         <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14328,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14417,7 +14417,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14592,7 +14592,7 @@
         <v>45158.27083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
         <v>40</v>
@@ -14681,7 +14681,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
         <v>41</v>
@@ -14770,7 +14770,7 @@
         <v>45159.29166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
         <v>35</v>
@@ -14859,10 +14859,10 @@
         <v>45159.3125</v>
       </c>
       <c r="F162" t="s">
+        <v>31</v>
+      </c>
+      <c r="G162" t="s">
         <v>30</v>
-      </c>
-      <c r="G162" t="s">
-        <v>29</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15126,10 +15126,10 @@
         <v>45164.3125</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15218,7 +15218,7 @@
         <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15393,7 +15393,7 @@
         <v>45165.3125</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
         <v>36</v>
@@ -15482,10 +15482,10 @@
         <v>45167.29166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15749,10 +15749,10 @@
         <v>45168.29166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15826,7 +15826,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15838,73 +15838,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K173">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L173">
+        <v>3.3</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>3.5</v>
+      </c>
+      <c r="O173">
         <v>3.2</v>
       </c>
-      <c r="M173">
-        <v>2.875</v>
-      </c>
-      <c r="N173">
-        <v>2</v>
-      </c>
-      <c r="O173">
-        <v>3.3</v>
-      </c>
       <c r="P173">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,73 +15927,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K174">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L174">
+        <v>3.2</v>
+      </c>
+      <c r="M174">
+        <v>2.875</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174">
         <v>3.3</v>
       </c>
-      <c r="M174">
-        <v>2</v>
-      </c>
-      <c r="N174">
-        <v>3.5</v>
-      </c>
-      <c r="O174">
-        <v>3.2</v>
-      </c>
       <c r="P174">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U174">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB174">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16019,7 +16019,7 @@
         <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16194,7 +16194,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>37</v>
@@ -16286,7 +16286,7 @@
         <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16372,10 +16372,10 @@
         <v>45172.27083333334</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16639,10 +16639,10 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16731,7 +16731,7 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -16817,10 +16817,10 @@
         <v>45186.0625</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16906,7 +16906,7 @@
         <v>45186.16666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
         <v>39</v>
@@ -17173,7 +17173,7 @@
         <v>45188.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>41</v>
@@ -17265,7 +17265,7 @@
         <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17354,7 +17354,7 @@
         <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17440,7 +17440,7 @@
         <v>45189.3125</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
         <v>35</v>
@@ -17529,10 +17529,10 @@
         <v>45189.3125</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17618,7 +17618,7 @@
         <v>45192.0625</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
         <v>36</v>
@@ -17796,10 +17796,10 @@
         <v>45192.27083333334</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17888,7 +17888,7 @@
         <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17974,7 +17974,7 @@
         <v>45193.16666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
         <v>37</v>
@@ -18066,7 +18066,7 @@
         <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18155,7 +18155,7 @@
         <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18330,10 +18330,10 @@
         <v>45199.27083333334</v>
       </c>
       <c r="F201" t="s">
+        <v>34</v>
+      </c>
+      <c r="G201" t="s">
         <v>32</v>
-      </c>
-      <c r="G201" t="s">
-        <v>33</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18508,7 +18508,7 @@
         <v>45200.16666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18597,7 +18597,7 @@
         <v>45200.27083333334</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -18778,7 +18778,7 @@
         <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -18864,10 +18864,10 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F207" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207" t="s">
         <v>34</v>
-      </c>
-      <c r="G207" t="s">
-        <v>32</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -18953,7 +18953,7 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
         <v>37</v>
@@ -19042,10 +19042,10 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19220,7 +19220,7 @@
         <v>45213.16666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
         <v>36</v>
@@ -19309,10 +19309,10 @@
         <v>45220.0625</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -19487,7 +19487,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G214" t="s">
         <v>40</v>
@@ -19579,7 +19579,7 @@
         <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19668,7 +19668,7 @@
         <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19843,7 +19843,7 @@
         <v>45227.0625</v>
       </c>
       <c r="F218" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G218" t="s">
         <v>37</v>
@@ -19932,10 +19932,10 @@
         <v>45227.16666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20024,7 +20024,7 @@
         <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20110,7 +20110,7 @@
         <v>45228.0625</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
         <v>36</v>
@@ -20377,10 +20377,10 @@
         <v>45241.0625</v>
       </c>
       <c r="F224" t="s">
+        <v>32</v>
+      </c>
+      <c r="G224" t="s">
         <v>33</v>
-      </c>
-      <c r="G224" t="s">
-        <v>34</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20469,7 +20469,7 @@
         <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20555,7 +20555,7 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F226" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
         <v>41</v>
@@ -20733,7 +20733,7 @@
         <v>45242.16666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
         <v>38</v>
@@ -20822,7 +20822,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
         <v>40</v>
@@ -20914,7 +20914,7 @@
         <v>38</v>
       </c>
       <c r="G230" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -21003,7 +21003,7 @@
         <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21178,7 +21178,7 @@
         <v>45256.125</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G233" t="s">
         <v>37</v>
@@ -21270,7 +21270,7 @@
         <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21359,7 +21359,7 @@
         <v>35</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H235">
         <v>4</v>
@@ -21445,7 +21445,7 @@
         <v>45259.29166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
         <v>35</v>
@@ -21537,7 +21537,7 @@
         <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H237">
         <v>2</v>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -103,28 +103,28 @@
     <t>South Korea K League 2</t>
   </si>
   <si>
-    <t>Jeonnam Dragons</t>
+    <t>Cheonan City</t>
   </si>
   <si>
-    <t>Cheonan City</t>
+    <t>Jeonnam Dragons</t>
   </si>
   <si>
     <t>Gyeongnam FC</t>
   </si>
   <si>
-    <t>Seoul ELand FC</t>
+    <t>Seongnam FC</t>
   </si>
   <si>
-    <t>Seongnam FC</t>
+    <t>Seoul ELand FC</t>
   </si>
   <si>
     <t>Chungnam Asan FC</t>
   </si>
   <si>
-    <t>Bucheon</t>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Bucheon</t>
   </si>
   <si>
     <t>Ansan Greeners FC</t>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6204304</v>
+        <v>6206099</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -622,52 +622,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L2">
         <v>3.2</v>
       </c>
       <c r="M2">
+        <v>2.55</v>
+      </c>
+      <c r="N2">
+        <v>3.1</v>
+      </c>
+      <c r="O2">
+        <v>3.1</v>
+      </c>
+      <c r="P2">
         <v>2.3</v>
       </c>
-      <c r="N2">
-        <v>2.625</v>
-      </c>
-      <c r="O2">
-        <v>3.2</v>
-      </c>
-      <c r="P2">
-        <v>2.4</v>
-      </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -676,19 +676,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6206099</v>
+        <v>6204304</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,52 +711,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>42</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L3">
         <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N3">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
         <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -765,19 +765,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6336857</v>
+        <v>6206102</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,70 +889,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N5">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6206102</v>
+        <v>6336857</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,70 +978,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6206104</v>
+        <v>6206105</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,73 +1156,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>3.2</v>
       </c>
       <c r="M8">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N8">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O8">
         <v>3.2</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6206105</v>
+        <v>6206104</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,73 +1245,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="L9">
         <v>3.2</v>
       </c>
       <c r="M9">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O9">
         <v>3.2</v>
       </c>
       <c r="P9">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1509,7 +1509,7 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -1601,7 +1601,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1687,10 +1687,10 @@
         <v>44996.0625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6206109</v>
+        <v>6206110</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,76 +1776,76 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N15">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O15">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6206110</v>
+        <v>6206109</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,76 +1865,76 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N16">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P16">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>-0</v>
+      </c>
+      <c r="AB16">
+        <v>-0.5</v>
+      </c>
+      <c r="AC16">
         <v>0.4375</v>
-      </c>
-      <c r="AA16">
-        <v>-0.5</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
-      <c r="AC16">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6206111</v>
+        <v>6206112</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,40 +1954,40 @@
         <v>44997.0625</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O17">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -1996,34 +1996,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
+        <v>-0.5</v>
+      </c>
+      <c r="AA17">
+        <v>0.4375</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.925</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>-0.5</v>
-      </c>
-      <c r="AC17">
-        <v>0.475</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6206112</v>
+        <v>6206111</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,40 +2043,40 @@
         <v>44997.0625</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P18">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2085,34 +2085,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>0.925</v>
+      </c>
+      <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
         <v>-0.5</v>
       </c>
-      <c r="AA18">
-        <v>0.4375</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,10 +2132,10 @@
         <v>44997.16666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2313,7 +2313,7 @@
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2399,7 +2399,7 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2577,7 +2577,7 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2669,7 +2669,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2844,10 +2844,10 @@
         <v>45017.16666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2936,7 +2936,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3114,7 +3114,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3200,10 +3200,10 @@
         <v>45018.27083333334</v>
       </c>
       <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
         <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>45024.0625</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3378,7 +3378,7 @@
         <v>45024.16666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3467,10 +3467,10 @@
         <v>45024.27083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3556,7 +3556,7 @@
         <v>45025.0625</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3645,7 +3645,7 @@
         <v>45025.16666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3823,10 +3823,10 @@
         <v>45031.0625</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3915,7 +3915,7 @@
         <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -4004,7 +4004,7 @@
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4179,10 +4179,10 @@
         <v>45032.0625</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4345,7 +4345,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6206134</v>
+        <v>6206135</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,53 +4360,53 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
         <v>42</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M44">
         <v>3</v>
       </c>
       <c r="N44">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U44">
+        <v>1.85</v>
+      </c>
+      <c r="V44">
         <v>1.95</v>
       </c>
-      <c r="V44">
-        <v>1.85</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4414,19 +4414,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206135</v>
+        <v>6206134</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,53 +4449,53 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>42</v>
       </c>
       <c r="K45">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M45">
         <v>3</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O45">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P45">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
+        <v>1.95</v>
+      </c>
+      <c r="V45">
         <v>1.85</v>
       </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
@@ -4503,19 +4503,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4713,7 +4713,7 @@
         <v>45035.3125</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
@@ -4805,7 +4805,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4980,7 +4980,7 @@
         <v>45038.16666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5069,7 +5069,7 @@
         <v>45038.27083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5247,10 +5247,10 @@
         <v>45039.16666666666</v>
       </c>
       <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s">
         <v>36</v>
-      </c>
-      <c r="G54" t="s">
-        <v>35</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5425,7 +5425,7 @@
         <v>45045.0625</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6206145</v>
+        <v>6206144</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,76 +5514,76 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K57">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L57">
+        <v>3.4</v>
+      </c>
+      <c r="M57">
+        <v>4.2</v>
+      </c>
+      <c r="N57">
+        <v>1.8</v>
+      </c>
+      <c r="O57">
+        <v>3.5</v>
+      </c>
+      <c r="P57">
         <v>4</v>
       </c>
-      <c r="M57">
-        <v>6.5</v>
-      </c>
-      <c r="N57">
-        <v>1.4</v>
-      </c>
-      <c r="O57">
-        <v>4.2</v>
-      </c>
-      <c r="P57">
-        <v>7</v>
-      </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.675</v>
+        <v>2.05</v>
       </c>
       <c r="S57">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.7</v>
+        <v>1.775</v>
       </c>
       <c r="V57">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W57">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB57">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6206144</v>
+        <v>6206145</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,76 +5603,76 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M58">
+        <v>6.5</v>
+      </c>
+      <c r="N58">
+        <v>1.4</v>
+      </c>
+      <c r="O58">
         <v>4.2</v>
       </c>
-      <c r="N58">
-        <v>1.8</v>
-      </c>
-      <c r="O58">
-        <v>3.5</v>
-      </c>
       <c r="P58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R58">
-        <v>2.05</v>
+        <v>1.675</v>
       </c>
       <c r="S58">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="V58">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X58">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC58">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5870,10 +5870,10 @@
         <v>45046.16666666666</v>
       </c>
       <c r="F61" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" t="s">
         <v>32</v>
-      </c>
-      <c r="G61" t="s">
-        <v>33</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6206149</v>
+        <v>6204312</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5962,73 +5962,73 @@
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K62">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="N62">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q62">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y62">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6204312</v>
+        <v>6206149</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,73 +6051,73 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="N63">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="O63">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P63">
+        <v>1.4</v>
+      </c>
+      <c r="Q63">
+        <v>1.25</v>
+      </c>
+      <c r="R63">
+        <v>1.775</v>
+      </c>
+      <c r="S63">
+        <v>2.025</v>
+      </c>
+      <c r="T63">
         <v>2.5</v>
       </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>1.95</v>
-      </c>
-      <c r="S63">
-        <v>1.85</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC63">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>45048.3125</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>34</v>
@@ -6229,7 +6229,7 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6206155</v>
+        <v>6206156</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,25 +6582,25 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
         <v>3</v>
@@ -6609,22 +6609,22 @@
         <v>2.375</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S69">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
         <v>1.875</v>
@@ -6633,25 +6633,25 @@
         <v>1.925</v>
       </c>
       <c r="W69">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6206156</v>
+        <v>6206155</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,25 +6671,25 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M70">
         <v>3</v>
@@ -6698,22 +6698,22 @@
         <v>2.375</v>
       </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S70">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
         <v>1.875</v>
@@ -6722,25 +6722,25 @@
         <v>1.925</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,10 +6760,10 @@
         <v>45053.0625</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -6938,7 +6938,7 @@
         <v>45053.27083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
         <v>41</v>
@@ -7027,10 +7027,10 @@
         <v>45059.0625</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7208,7 +7208,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7472,7 +7472,7 @@
         <v>45060.27083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7561,7 +7561,7 @@
         <v>45066.16666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
         <v>34</v>
@@ -7653,7 +7653,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7739,10 +7739,10 @@
         <v>45066.27083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7831,7 +7831,7 @@
         <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6206170</v>
+        <v>6204720</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,76 +8095,76 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M86">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N86">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q86">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T86">
         <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6204720</v>
+        <v>6206170</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N87">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R87">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z87">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8273,7 +8273,7 @@
         <v>45073.27083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8454,7 +8454,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>45075.16666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8629,7 +8629,7 @@
         <v>45080.16666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
         <v>31</v>
@@ -8721,7 +8721,7 @@
         <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8810,7 +8810,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8899,7 +8899,7 @@
         <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>45081.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -9074,7 +9074,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9430,10 +9430,10 @@
         <v>45088.16666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9519,10 +9519,10 @@
         <v>45088.16666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9608,10 +9608,10 @@
         <v>45088.33333333334</v>
       </c>
       <c r="F103" t="s">
+        <v>32</v>
+      </c>
+      <c r="G103" t="s">
         <v>33</v>
-      </c>
-      <c r="G103" t="s">
-        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9700,7 +9700,7 @@
         <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9786,10 +9786,10 @@
         <v>45101.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6204316</v>
+        <v>6206192</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,10 +10053,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10068,25 +10068,25 @@
         <v>42</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L108">
         <v>3.25</v>
       </c>
       <c r="M108">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N108">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O108">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
         <v>1.925</v>
@@ -10098,10 +10098,10 @@
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10110,7 +10110,7 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z108">
         <v>-1</v>
@@ -10119,7 +10119,7 @@
         <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10130,7 +10130,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6206192</v>
+        <v>6204316</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,10 +10142,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10157,25 +10157,25 @@
         <v>42</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L109">
         <v>3.25</v>
       </c>
       <c r="M109">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N109">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P109">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
         <v>1.925</v>
@@ -10187,10 +10187,10 @@
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10199,7 +10199,7 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.8500000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z109">
         <v>-1</v>
@@ -10208,7 +10208,7 @@
         <v>0.875</v>
       </c>
       <c r="AB109">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10320,7 +10320,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6206197</v>
+        <v>6204317</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>33</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
         <v>44</v>
       </c>
       <c r="K114">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
+        <v>2.625</v>
+      </c>
+      <c r="N114">
+        <v>2.15</v>
+      </c>
+      <c r="O114">
+        <v>3.4</v>
+      </c>
+      <c r="P114">
+        <v>3</v>
+      </c>
+      <c r="Q114">
+        <v>-0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.9</v>
+      </c>
+      <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
         <v>2.5</v>
       </c>
-      <c r="N114">
-        <v>2.7</v>
-      </c>
-      <c r="O114">
-        <v>3</v>
-      </c>
-      <c r="P114">
-        <v>2.55</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>1.925</v>
-      </c>
-      <c r="S114">
-        <v>1.875</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6204317</v>
+        <v>6206197</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
         <v>32</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>44</v>
       </c>
       <c r="K115">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L115">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P115">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6206198</v>
+        <v>6206199</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,40 +10765,40 @@
         <v>45115.25</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N116">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
         <v>2</v>
@@ -10810,31 +10810,31 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W116">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6206199</v>
+        <v>6206198</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,40 +10854,40 @@
         <v>45115.25</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N117">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
         <v>2</v>
@@ -10899,31 +10899,31 @@
         <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC117">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6206200</v>
+        <v>6206201</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,76 +10943,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M118">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N118">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="O118">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6206201</v>
+        <v>6206200</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,76 +11032,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L119">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N119">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="O119">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P119">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X119">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11299,10 +11299,10 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6206204</v>
+        <v>6206205</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,37 +11388,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N123">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O123">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P123">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q123">
         <v>0.25</v>
@@ -11430,7 +11430,7 @@
         <v>2.05</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
         <v>1.925</v>
@@ -11439,25 +11439,25 @@
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6206205</v>
+        <v>6206204</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,37 +11477,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K124">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N124">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O124">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q124">
         <v>0.25</v>
@@ -11519,7 +11519,7 @@
         <v>2.05</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
         <v>1.925</v>
@@ -11528,25 +11528,25 @@
         <v>1.875</v>
       </c>
       <c r="W124">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z124">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11747,7 +11747,7 @@
         <v>31</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11833,10 +11833,10 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F128" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" t="s">
         <v>35</v>
-      </c>
-      <c r="G128" t="s">
-        <v>36</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11922,7 +11922,7 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
         <v>38</v>
@@ -12014,7 +12014,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12100,7 +12100,7 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>37</v>
@@ -12189,7 +12189,7 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
@@ -12367,10 +12367,10 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6206215</v>
+        <v>6206214</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,49 +12456,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K135">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N135">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P135">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U135">
         <v>2</v>
@@ -12507,19 +12507,19 @@
         <v>1.8</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
         <v>-1</v>
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6206214</v>
+        <v>6206215</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,49 +12545,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K136">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N136">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O136">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U136">
         <v>2</v>
@@ -12596,19 +12596,19 @@
         <v>1.8</v>
       </c>
       <c r="W136">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -12634,10 +12634,10 @@
         <v>45130.33333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12990,10 +12990,10 @@
         <v>45136.3125</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13079,7 +13079,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13171,7 +13171,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13257,7 +13257,7 @@
         <v>45138.29166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
         <v>34</v>
@@ -13435,10 +13435,10 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13702,7 +13702,7 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>31</v>
@@ -13794,7 +13794,7 @@
         <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13883,7 +13883,7 @@
         <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -14058,7 +14058,7 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
         <v>31</v>
@@ -14147,7 +14147,7 @@
         <v>45152.3125</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14239,7 +14239,7 @@
         <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14328,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14503,7 +14503,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14592,7 +14592,7 @@
         <v>45158.27083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
         <v>40</v>
@@ -14681,7 +14681,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
         <v>41</v>
@@ -14770,10 +14770,10 @@
         <v>45159.29166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14862,7 +14862,7 @@
         <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15129,7 +15129,7 @@
         <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15215,10 +15215,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15393,10 +15393,10 @@
         <v>45165.3125</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15663,7 +15663,7 @@
         <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15749,10 +15749,10 @@
         <v>45168.29166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15826,7 +15826,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15838,73 +15838,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L173">
+        <v>3.2</v>
+      </c>
+      <c r="M173">
+        <v>2.875</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173">
         <v>3.3</v>
       </c>
-      <c r="M173">
-        <v>2</v>
-      </c>
-      <c r="N173">
-        <v>3.5</v>
-      </c>
-      <c r="O173">
-        <v>3.2</v>
-      </c>
       <c r="P173">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB173">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,73 +15927,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
       <c r="I174">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L174">
+        <v>3.3</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>3.5</v>
+      </c>
+      <c r="O174">
         <v>3.2</v>
       </c>
-      <c r="M174">
-        <v>2.875</v>
-      </c>
-      <c r="N174">
-        <v>2</v>
-      </c>
-      <c r="O174">
-        <v>3.3</v>
-      </c>
       <c r="P174">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16016,7 +16016,7 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>34</v>
@@ -16108,7 +16108,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16194,7 +16194,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
         <v>37</v>
@@ -16286,7 +16286,7 @@
         <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16372,10 +16372,10 @@
         <v>45172.27083333334</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6206254</v>
+        <v>6206255</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,55 +16550,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
         <v>42</v>
       </c>
       <c r="K181">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M181">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N181">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O181">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P181">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T181">
         <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16607,19 +16607,19 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6206255</v>
+        <v>6206254</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,55 +16639,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
         <v>42</v>
       </c>
       <c r="K182">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L182">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N182">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O182">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P182">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T182">
         <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>-1</v>
@@ -16696,19 +16696,19 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -16820,7 +16820,7 @@
         <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16995,7 +16995,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6206261</v>
+        <v>6206260</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,40 +17173,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F188" t="s">
+        <v>35</v>
+      </c>
+      <c r="G188" t="s">
         <v>33</v>
       </c>
-      <c r="G188" t="s">
-        <v>41</v>
-      </c>
       <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
         <v>1</v>
       </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
       <c r="J188" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K188">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L188">
+        <v>3.2</v>
+      </c>
+      <c r="M188">
+        <v>2.75</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188">
+        <v>3.3</v>
+      </c>
+      <c r="P188">
         <v>3.4</v>
       </c>
-      <c r="M188">
-        <v>1.909</v>
-      </c>
-      <c r="N188">
-        <v>4</v>
-      </c>
-      <c r="O188">
-        <v>3.5</v>
-      </c>
-      <c r="P188">
-        <v>1.8</v>
-      </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -17215,34 +17215,34 @@
         <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6206260</v>
+        <v>6206261</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,40 +17262,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K189">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L189">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O189">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R189">
         <v>2</v>
@@ -17304,34 +17304,34 @@
         <v>1.8</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17428,7 +17428,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6206263</v>
+        <v>6204329</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17440,76 +17440,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F191" t="s">
+        <v>34</v>
+      </c>
+      <c r="G191" t="s">
         <v>30</v>
       </c>
-      <c r="G191" t="s">
-        <v>35</v>
-      </c>
       <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
         <v>1</v>
       </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
       <c r="J191" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K191">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L191">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M191">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N191">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O191">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V191">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z191">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17517,7 +17517,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6204329</v>
+        <v>6206263</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17529,76 +17529,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>43</v>
+      </c>
+      <c r="K192">
+        <v>3.75</v>
+      </c>
+      <c r="L192">
+        <v>3.25</v>
+      </c>
+      <c r="M192">
+        <v>2.05</v>
+      </c>
+      <c r="N192">
+        <v>3.6</v>
+      </c>
+      <c r="O192">
+        <v>3.25</v>
+      </c>
+      <c r="P192">
+        <v>2.1</v>
+      </c>
+      <c r="Q192">
+        <v>0.25</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
+        <v>1.8</v>
+      </c>
+      <c r="T192">
+        <v>2</v>
+      </c>
+      <c r="U192">
+        <v>1.775</v>
+      </c>
+      <c r="V192">
+        <v>2.025</v>
+      </c>
+      <c r="W192">
+        <v>2.6</v>
+      </c>
+      <c r="X192">
+        <v>-1</v>
+      </c>
+      <c r="Y192">
+        <v>-1</v>
+      </c>
+      <c r="Z192">
         <v>1</v>
       </c>
-      <c r="J192" t="s">
-        <v>42</v>
-      </c>
-      <c r="K192">
-        <v>2.375</v>
-      </c>
-      <c r="L192">
-        <v>3.4</v>
-      </c>
-      <c r="M192">
-        <v>2.9</v>
-      </c>
-      <c r="N192">
-        <v>2.6</v>
-      </c>
-      <c r="O192">
-        <v>3.4</v>
-      </c>
-      <c r="P192">
-        <v>2.625</v>
-      </c>
-      <c r="Q192">
-        <v>0</v>
-      </c>
-      <c r="R192">
-        <v>1.875</v>
-      </c>
-      <c r="S192">
-        <v>1.925</v>
-      </c>
-      <c r="T192">
-        <v>2.25</v>
-      </c>
-      <c r="U192">
-        <v>1.825</v>
-      </c>
-      <c r="V192">
-        <v>1.975</v>
-      </c>
-      <c r="W192">
-        <v>-1</v>
-      </c>
-      <c r="X192">
-        <v>-1</v>
-      </c>
-      <c r="Y192">
-        <v>1.625</v>
-      </c>
-      <c r="Z192">
-        <v>-1</v>
-      </c>
       <c r="AA192">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17618,10 +17618,10 @@
         <v>45192.0625</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17796,10 +17796,10 @@
         <v>45192.27083333334</v>
       </c>
       <c r="F195" t="s">
+        <v>30</v>
+      </c>
+      <c r="G195" t="s">
         <v>29</v>
-      </c>
-      <c r="G195" t="s">
-        <v>30</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17974,7 +17974,7 @@
         <v>45193.16666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G197" t="s">
         <v>37</v>
@@ -18063,7 +18063,7 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
         <v>31</v>
@@ -18155,7 +18155,7 @@
         <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         <v>34</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18419,10 +18419,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F202" t="s">
+        <v>35</v>
+      </c>
+      <c r="G202" t="s">
         <v>36</v>
-      </c>
-      <c r="G202" t="s">
-        <v>35</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18508,7 +18508,7 @@
         <v>45200.16666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18674,7 +18674,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6352815</v>
+        <v>6357144</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18686,76 +18686,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K205">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L205">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M205">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N205">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P205">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R205">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S205">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T205">
         <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB205">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18763,7 +18763,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6357144</v>
+        <v>6352815</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18775,76 +18775,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K206">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L206">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M206">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N206">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O206">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P206">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q206">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X206">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA206">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC206">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18852,7 +18852,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6414604</v>
+        <v>6352816</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18864,58 +18864,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
         <v>43</v>
       </c>
       <c r="K207">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L207">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M207">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N207">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O207">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P207">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S207">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T207">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U207">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V207">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W207">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18924,16 +18924,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC207">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18941,7 +18941,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6352816</v>
+        <v>6414604</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18953,58 +18953,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>43</v>
       </c>
       <c r="K208">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L208">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M208">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N208">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O208">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P208">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q208">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S208">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V208">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W208">
-        <v>0.7270000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19013,16 +19013,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19030,7 +19030,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6357145</v>
+        <v>6388120</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19042,73 +19042,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>43</v>
+      </c>
+      <c r="K209">
+        <v>2.8</v>
+      </c>
+      <c r="L209">
+        <v>3.2</v>
+      </c>
+      <c r="M209">
+        <v>2.5</v>
+      </c>
+      <c r="N209">
         <v>3</v>
       </c>
-      <c r="J209" t="s">
-        <v>42</v>
-      </c>
-      <c r="K209">
-        <v>3</v>
-      </c>
-      <c r="L209">
-        <v>3.25</v>
-      </c>
-      <c r="M209">
-        <v>2.375</v>
-      </c>
-      <c r="N209">
+      <c r="O209">
         <v>3.1</v>
       </c>
-      <c r="O209">
-        <v>3.25</v>
-      </c>
       <c r="P209">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q209">
         <v>0.25</v>
       </c>
       <c r="R209">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S209">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA209">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19119,7 +19119,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6388120</v>
+        <v>6357145</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19131,73 +19131,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
         <v>3</v>
       </c>
-      <c r="I210">
-        <v>0</v>
-      </c>
       <c r="J210" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K210">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N210">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O210">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P210">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q210">
         <v>0.25</v>
       </c>
       <c r="R210">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S210">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z210">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB210">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19223,7 +19223,7 @@
         <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19309,10 +19309,10 @@
         <v>45220.0625</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -19398,7 +19398,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
         <v>39</v>
@@ -19579,7 +19579,7 @@
         <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19665,7 +19665,7 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
         <v>31</v>
@@ -19935,7 +19935,7 @@
         <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20024,7 +20024,7 @@
         <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20110,10 +20110,10 @@
         <v>45228.0625</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -20202,7 +20202,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20377,10 +20377,10 @@
         <v>45241.0625</v>
       </c>
       <c r="F224" t="s">
+        <v>33</v>
+      </c>
+      <c r="G224" t="s">
         <v>32</v>
-      </c>
-      <c r="G224" t="s">
-        <v>33</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20466,7 +20466,7 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G225" t="s">
         <v>34</v>
@@ -20733,7 +20733,7 @@
         <v>45242.16666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G228" t="s">
         <v>38</v>
@@ -20822,7 +20822,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
         <v>40</v>
@@ -20899,7 +20899,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6540655</v>
+        <v>6537916</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20911,76 +20911,76 @@
         <v>45256.125</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K230">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L230">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M230">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N230">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="O230">
+        <v>5.5</v>
+      </c>
+      <c r="P230">
+        <v>10</v>
+      </c>
+      <c r="Q230">
+        <v>-1.75</v>
+      </c>
+      <c r="R230">
+        <v>1.85</v>
+      </c>
+      <c r="S230">
+        <v>1.95</v>
+      </c>
+      <c r="T230">
         <v>3.25</v>
       </c>
-      <c r="P230">
-        <v>2.3</v>
-      </c>
-      <c r="Q230">
-        <v>0.25</v>
-      </c>
-      <c r="R230">
-        <v>1.75</v>
-      </c>
-      <c r="S230">
-        <v>2.05</v>
-      </c>
-      <c r="T230">
-        <v>2.25</v>
-      </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20988,7 +20988,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6537916</v>
+        <v>6531883</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,76 +21000,76 @@
         <v>45256.125</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K231">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="L231">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M231">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="N231">
-        <v>1.222</v>
+        <v>1.75</v>
       </c>
       <c r="O231">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P231">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="Q231">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
         <v>3.25</v>
       </c>
       <c r="U231">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V231">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W231">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB231">
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6537915</v>
+        <v>6540655</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,49 +21089,49 @@
         <v>45256.125</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G232" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K232">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M232">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N232">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O232">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P232">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q232">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T232">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U232">
         <v>1.825</v>
@@ -21143,16 +21143,16 @@
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB232">
         <v>-1</v>
@@ -21166,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6531883</v>
+        <v>6527572</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21178,76 +21178,76 @@
         <v>45256.125</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K233">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L233">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M233">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N233">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P233">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q233">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S233">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA233">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC233">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6527572</v>
+        <v>6537915</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,40 +21356,40 @@
         <v>45256.125</v>
       </c>
       <c r="F235" t="s">
+        <v>40</v>
+      </c>
+      <c r="G235" t="s">
         <v>35</v>
       </c>
-      <c r="G235" t="s">
-        <v>29</v>
-      </c>
       <c r="H235">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K235">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L235">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M235">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="N235">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O235">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P235">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R235">
         <v>1.975</v>
@@ -21401,31 +21401,31 @@
         <v>2.5</v>
       </c>
       <c r="U235">
+        <v>1.825</v>
+      </c>
+      <c r="V235">
         <v>1.975</v>
       </c>
-      <c r="V235">
-        <v>1.825</v>
-      </c>
       <c r="W235">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
+        <v>-1</v>
+      </c>
+      <c r="AA235">
+        <v>0.825</v>
+      </c>
+      <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA235">
-        <v>-1</v>
-      </c>
-      <c r="AB235">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC235">
-        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H236">
         <v>0</v>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -103,13 +103,13 @@
     <t>South Korea K League 2</t>
   </si>
   <si>
+    <t>Gyeongnam FC</t>
+  </si>
+  <si>
     <t>Cheonan City</t>
   </si>
   <si>
     <t>Jeonnam Dragons</t>
-  </si>
-  <si>
-    <t>Gyeongnam FC</t>
   </si>
   <si>
     <t>Seongnam FC</t>
@@ -121,10 +121,10 @@
     <t>Chungnam Asan FC</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Bucheon</t>
   </si>
   <si>
-    <t>Bucheon</t>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
     <t>Ansan Greeners FC</t>
@@ -142,10 +142,10 @@
     <t>Gimcheon Sangmu FC</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6206099</v>
+        <v>6206100</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -622,73 +622,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
         <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="N2">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P2">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6204304</v>
+        <v>6206099</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,52 +711,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
         <v>3.2</v>
       </c>
       <c r="M3">
+        <v>2.55</v>
+      </c>
+      <c r="N3">
+        <v>3.1</v>
+      </c>
+      <c r="O3">
+        <v>3.1</v>
+      </c>
+      <c r="P3">
         <v>2.3</v>
       </c>
-      <c r="N3">
-        <v>2.625</v>
-      </c>
-      <c r="O3">
-        <v>3.2</v>
-      </c>
-      <c r="P3">
-        <v>2.4</v>
-      </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -765,19 +765,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6206100</v>
+        <v>6204304</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>43</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L4">
         <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O4">
         <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
         <v>1.4</v>
       </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>1.7</v>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1.8</v>
@@ -1076,7 +1076,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>2.6</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6206105</v>
+        <v>6206104</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,73 +1156,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>42</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="L8">
         <v>3.2</v>
       </c>
       <c r="M8">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O8">
         <v>3.2</v>
       </c>
       <c r="P8">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6206104</v>
+        <v>6206105</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,73 +1245,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>43</v>
       </c>
       <c r="K9">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L9">
         <v>3.2</v>
       </c>
       <c r="M9">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N9">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <v>3.2</v>
       </c>
       <c r="P9">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z9">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>2.55</v>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>2.15</v>
@@ -1509,10 +1509,10 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>2.45</v>
@@ -1690,7 +1690,7 @@
         <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.05</v>
@@ -1779,7 +1779,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>40</v>
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6206112</v>
+        <v>6206111</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,40 +1954,40 @@
         <v>44997.0625</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -1996,34 +1996,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
+        <v>0.925</v>
+      </c>
+      <c r="AA17">
+        <v>-1</v>
+      </c>
+      <c r="AB17">
         <v>-0.5</v>
       </c>
-      <c r="AA17">
-        <v>0.4375</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
       <c r="AC17">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6206111</v>
+        <v>6206112</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,40 +2043,40 @@
         <v>44997.0625</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2085,34 +2085,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>-0.5</v>
+      </c>
+      <c r="AA18">
+        <v>0.4375</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.925</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>-0.5</v>
-      </c>
-      <c r="AC18">
-        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,10 +2132,10 @@
         <v>44997.16666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>3.2</v>
@@ -2224,7 +2224,7 @@
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6206116</v>
+        <v>6206115</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,76 +2310,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N21">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q21">
         <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X21">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6206115</v>
+        <v>6206116</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
         <v>36</v>
       </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N22">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q22">
         <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>3.2</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6204307</v>
+        <v>6206118</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>42</v>
       </c>
       <c r="K24">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N24">
+        <v>2.25</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>3.2</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
         <v>1.95</v>
       </c>
-      <c r="O24">
-        <v>3.25</v>
-      </c>
-      <c r="P24">
-        <v>3.5</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>2.05</v>
-      </c>
       <c r="S24">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6206118</v>
+        <v>6204307</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,76 +2666,76 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>43</v>
       </c>
       <c r="K25">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L25">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N25">
+        <v>1.95</v>
+      </c>
+      <c r="O25">
+        <v>3.25</v>
+      </c>
+      <c r="P25">
+        <v>3.5</v>
+      </c>
+      <c r="Q25">
+        <v>-0.5</v>
+      </c>
+      <c r="R25">
+        <v>2.05</v>
+      </c>
+      <c r="S25">
+        <v>1.75</v>
+      </c>
+      <c r="T25">
         <v>2.25</v>
       </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>3.2</v>
-      </c>
-      <c r="Q25">
-        <v>-0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.95</v>
-      </c>
-      <c r="S25">
-        <v>1.85</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
         <v>2.05</v>
@@ -2847,7 +2847,7 @@
         <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2856,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>1.666</v>
@@ -2936,7 +2936,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>2.1</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>2.4</v>
@@ -3200,10 +3200,10 @@
         <v>45018.27083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>3.1</v>
@@ -3289,7 +3289,7 @@
         <v>45024.0625</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3301,7 +3301,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>4.5</v>
@@ -3378,7 +3378,7 @@
         <v>45024.16666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3390,7 +3390,7 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>2.75</v>
@@ -3467,7 +3467,7 @@
         <v>45024.27083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -3556,7 +3556,7 @@
         <v>45025.0625</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36">
         <v>1.75</v>
@@ -3823,10 +3823,10 @@
         <v>45031.0625</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K38">
         <v>1.95</v>
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6206130</v>
+        <v>6206129</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3912,49 +3912,49 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L39">
         <v>3.2</v>
       </c>
       <c r="M39">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N39">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
         <v>1.85</v>
@@ -3963,7 +3963,7 @@
         <v>1.95</v>
       </c>
       <c r="W39">
-        <v>0.833</v>
+        <v>1.7</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3972,16 +3972,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6206129</v>
+        <v>6206130</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,49 +4001,49 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K40">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L40">
         <v>3.2</v>
       </c>
       <c r="M40">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N40">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P40">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
         <v>1.85</v>
@@ -4052,7 +4052,7 @@
         <v>1.95</v>
       </c>
       <c r="W40">
-        <v>1.7</v>
+        <v>0.833</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4061,16 +4061,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42">
         <v>1.333</v>
@@ -4280,7 +4280,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>2.3</v>
@@ -4345,7 +4345,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6206135</v>
+        <v>6206134</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,53 +4360,53 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M44">
         <v>3</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O44">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P44">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S44">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
+        <v>1.95</v>
+      </c>
+      <c r="V44">
         <v>1.85</v>
       </c>
-      <c r="V44">
-        <v>1.95</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4414,19 +4414,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB44">
+        <v>-1</v>
+      </c>
+      <c r="AC44">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC44">
-        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206134</v>
+        <v>6206135</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,53 +4449,53 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
         <v>3</v>
       </c>
       <c r="N45">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O45">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U45">
+        <v>1.85</v>
+      </c>
+      <c r="V45">
         <v>1.95</v>
       </c>
-      <c r="V45">
-        <v>1.85</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
@@ -4503,19 +4503,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>45034.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -4547,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>2.625</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47">
         <v>2.9</v>
@@ -4713,7 +4713,7 @@
         <v>45035.3125</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
@@ -4805,7 +4805,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K49">
         <v>2.15</v>
@@ -4903,7 +4903,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>1.833</v>
@@ -4992,7 +4992,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>2.05</v>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -5161,7 +5161,7 @@
         <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5247,10 +5247,10 @@
         <v>45039.16666666666</v>
       </c>
       <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
         <v>35</v>
-      </c>
-      <c r="G54" t="s">
-        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5259,7 +5259,7 @@
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54">
         <v>2.7</v>
@@ -5339,7 +5339,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -5425,7 +5425,7 @@
         <v>45045.0625</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K56">
         <v>2.15</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6206144</v>
+        <v>6206145</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,76 +5514,76 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K57">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M57">
+        <v>6.5</v>
+      </c>
+      <c r="N57">
+        <v>1.4</v>
+      </c>
+      <c r="O57">
         <v>4.2</v>
       </c>
-      <c r="N57">
-        <v>1.8</v>
-      </c>
-      <c r="O57">
-        <v>3.5</v>
-      </c>
       <c r="P57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>2.05</v>
+        <v>1.675</v>
       </c>
       <c r="S57">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="V57">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X57">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC57">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6206145</v>
+        <v>6206144</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,76 +5603,76 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K58">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L58">
+        <v>3.4</v>
+      </c>
+      <c r="M58">
+        <v>4.2</v>
+      </c>
+      <c r="N58">
+        <v>1.8</v>
+      </c>
+      <c r="O58">
+        <v>3.5</v>
+      </c>
+      <c r="P58">
         <v>4</v>
       </c>
-      <c r="M58">
-        <v>6.5</v>
-      </c>
-      <c r="N58">
-        <v>1.4</v>
-      </c>
-      <c r="O58">
-        <v>4.2</v>
-      </c>
-      <c r="P58">
-        <v>7</v>
-      </c>
       <c r="Q58">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.675</v>
+        <v>2.05</v>
       </c>
       <c r="S58">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.7</v>
+        <v>1.775</v>
       </c>
       <c r="V58">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W58">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB58">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K59">
         <v>1.571</v>
@@ -5793,7 +5793,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>2.55</v>
@@ -5882,7 +5882,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>2.45</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6204312</v>
+        <v>6206149</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5962,73 +5962,73 @@
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K62">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="N62">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="O62">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P62">
+        <v>1.4</v>
+      </c>
+      <c r="Q62">
+        <v>1.25</v>
+      </c>
+      <c r="R62">
+        <v>1.775</v>
+      </c>
+      <c r="S62">
+        <v>2.025</v>
+      </c>
+      <c r="T62">
         <v>2.5</v>
       </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>1.95</v>
-      </c>
-      <c r="S62">
-        <v>1.85</v>
-      </c>
-      <c r="T62">
-        <v>2.25</v>
-      </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC62">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6206149</v>
+        <v>6204312</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,76 +6048,76 @@
         <v>45048.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K63">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M63">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="N63">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q63">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y63">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB63">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>45048.3125</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
         <v>34</v>
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6226,7 +6226,7 @@
         <v>45049.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6238,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>2.2</v>
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6206153</v>
+        <v>6206152</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,76 +6315,76 @@
         <v>45049.3125</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K66">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L66">
         <v>3.25</v>
       </c>
       <c r="M66">
+        <v>1.909</v>
+      </c>
+      <c r="N66">
+        <v>4.5</v>
+      </c>
+      <c r="O66">
+        <v>3.75</v>
+      </c>
+      <c r="P66">
+        <v>1.615</v>
+      </c>
+      <c r="Q66">
+        <v>0.75</v>
+      </c>
+      <c r="R66">
+        <v>1.975</v>
+      </c>
+      <c r="S66">
+        <v>1.825</v>
+      </c>
+      <c r="T66">
         <v>2.75</v>
       </c>
-      <c r="N66">
-        <v>1.95</v>
-      </c>
-      <c r="O66">
-        <v>3.3</v>
-      </c>
-      <c r="P66">
-        <v>3.3</v>
-      </c>
-      <c r="Q66">
+      <c r="U66">
+        <v>1.8</v>
+      </c>
+      <c r="V66">
+        <v>2</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>0.615</v>
+      </c>
+      <c r="Z66">
         <v>-0.5</v>
       </c>
-      <c r="R66">
-        <v>2</v>
-      </c>
-      <c r="S66">
-        <v>1.8</v>
-      </c>
-      <c r="T66">
-        <v>2.25</v>
-      </c>
-      <c r="U66">
-        <v>1.95</v>
-      </c>
-      <c r="V66">
-        <v>1.85</v>
-      </c>
-      <c r="W66">
-        <v>-1</v>
-      </c>
-      <c r="X66">
-        <v>2.3</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
-      <c r="Z66">
-        <v>-1</v>
-      </c>
       <c r="AA66">
+        <v>0.4125</v>
+      </c>
+      <c r="AB66">
         <v>0.8</v>
       </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
       <c r="AC66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6392,7 +6392,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6206152</v>
+        <v>6206153</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6404,76 +6404,76 @@
         <v>45049.3125</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L67">
         <v>3.25</v>
       </c>
       <c r="M67">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N67">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P67">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="Q67">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y67">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6206156</v>
+        <v>6206155</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,25 +6582,25 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K69">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
         <v>3</v>
@@ -6609,22 +6609,22 @@
         <v>2.375</v>
       </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P69">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
         <v>1.875</v>
@@ -6633,25 +6633,25 @@
         <v>1.925</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6206155</v>
+        <v>6206156</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,25 +6671,25 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
         <v>3</v>
@@ -6698,22 +6698,22 @@
         <v>2.375</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S70">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
         <v>1.875</v>
@@ -6722,25 +6722,25 @@
         <v>1.925</v>
       </c>
       <c r="W70">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,10 +6760,10 @@
         <v>45053.0625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -6772,7 +6772,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K71">
         <v>2.5</v>
@@ -6861,7 +6861,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>1.909</v>
@@ -7030,7 +7030,7 @@
         <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7039,7 +7039,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
         <v>1.7</v>
@@ -7208,7 +7208,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7217,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K76">
         <v>2.2</v>
@@ -7294,7 +7294,7 @@
         <v>45060.0625</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
         <v>32</v>
@@ -7395,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>2.5</v>
@@ -7472,7 +7472,7 @@
         <v>45060.27083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
         <v>2.55</v>
@@ -7561,7 +7561,7 @@
         <v>45066.16666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
         <v>34</v>
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>4</v>
@@ -7662,7 +7662,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>2.9</v>
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6206167</v>
+        <v>6204314</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,10 +7739,10 @@
         <v>45066.27083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7751,46 +7751,46 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K82">
+        <v>1.85</v>
+      </c>
+      <c r="L82">
+        <v>3.3</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>1.95</v>
+      </c>
+      <c r="O82">
+        <v>3.3</v>
+      </c>
+      <c r="P82">
+        <v>3.5</v>
+      </c>
+      <c r="Q82">
+        <v>-0.5</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>1.8</v>
+      </c>
+      <c r="T82">
         <v>2.5</v>
       </c>
-      <c r="L82">
-        <v>3.2</v>
-      </c>
-      <c r="M82">
-        <v>2.6</v>
-      </c>
-      <c r="N82">
-        <v>2.5</v>
-      </c>
-      <c r="O82">
-        <v>3.2</v>
-      </c>
-      <c r="P82">
-        <v>2.6</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
+      <c r="U82">
+        <v>1.975</v>
+      </c>
+      <c r="V82">
         <v>1.825</v>
       </c>
-      <c r="S82">
-        <v>1.975</v>
-      </c>
-      <c r="T82">
-        <v>2.25</v>
-      </c>
-      <c r="U82">
-        <v>1.875</v>
-      </c>
-      <c r="V82">
-        <v>1.925</v>
-      </c>
       <c r="W82">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7799,16 +7799,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>0.825</v>
-      </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
-      <c r="AB82">
-        <v>-0.5</v>
-      </c>
-      <c r="AC82">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6204314</v>
+        <v>6206167</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,10 +7828,10 @@
         <v>45066.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7840,64 +7840,64 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K83">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N83">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
+        <v>1.975</v>
+      </c>
+      <c r="T83">
+        <v>2.25</v>
+      </c>
+      <c r="U83">
+        <v>1.875</v>
+      </c>
+      <c r="V83">
+        <v>1.925</v>
+      </c>
+      <c r="W83">
+        <v>1.5</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0.825</v>
+      </c>
+      <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>-0.5</v>
       </c>
-      <c r="R83">
-        <v>2</v>
-      </c>
-      <c r="S83">
-        <v>1.8</v>
-      </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.975</v>
-      </c>
-      <c r="V83">
-        <v>1.825</v>
-      </c>
-      <c r="W83">
-        <v>0.95</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
-      <c r="Z83">
-        <v>1</v>
-      </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
       <c r="AC83">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>45067.16666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>2.25</v>
@@ -8009,7 +8009,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8095,11 +8095,11 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s">
         <v>30</v>
       </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
       <c r="H86">
         <v>2</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K86">
         <v>1.571</v>
@@ -8184,10 +8184,10 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8196,7 +8196,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>3.75</v>
@@ -8285,7 +8285,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K89">
         <v>2.05</v>
@@ -8463,7 +8463,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>2.8</v>
@@ -8540,7 +8540,7 @@
         <v>45075.16666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K91">
         <v>2.4</v>
@@ -8629,10 +8629,10 @@
         <v>45080.16666666666</v>
       </c>
       <c r="F92" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s">
         <v>29</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8641,7 +8641,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>4.5</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K93">
         <v>2.45</v>
@@ -8810,7 +8810,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8899,7 +8899,7 @@
         <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K95">
         <v>1.666</v>
@@ -8997,7 +8997,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>2.6</v>
@@ -9074,7 +9074,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>3.6</v>
@@ -9175,7 +9175,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>1.444</v>
@@ -9252,7 +9252,7 @@
         <v>45087.27083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
         <v>34</v>
@@ -9264,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
         <v>2.05</v>
@@ -9430,10 +9430,10 @@
         <v>45088.16666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -9442,7 +9442,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K101">
         <v>3.5</v>
@@ -9519,10 +9519,10 @@
         <v>45088.16666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9620,7 +9620,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>2.15</v>
@@ -9700,7 +9700,7 @@
         <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9789,7 +9789,7 @@
         <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>2.55</v>
@@ -9878,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9887,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9976,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
         <v>1.8</v>
@@ -10065,7 +10065,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>3</v>
@@ -10145,7 +10145,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10154,7 +10154,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>2.2</v>
@@ -10243,7 +10243,7 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>3.8</v>
@@ -10320,7 +10320,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10332,7 +10332,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>2.8</v>
@@ -10412,7 +10412,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>4</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.909</v>
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6204317</v>
+        <v>6206197</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>44</v>
       </c>
       <c r="K114">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L114">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M114">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P114">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA114">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6206197</v>
+        <v>6204317</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
         <v>44</v>
       </c>
       <c r="K115">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
+        <v>2.625</v>
+      </c>
+      <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
+        <v>3.4</v>
+      </c>
+      <c r="P115">
+        <v>3</v>
+      </c>
+      <c r="Q115">
+        <v>-0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.9</v>
+      </c>
+      <c r="S115">
+        <v>1.9</v>
+      </c>
+      <c r="T115">
         <v>2.5</v>
       </c>
-      <c r="N115">
-        <v>2.7</v>
-      </c>
-      <c r="O115">
-        <v>3</v>
-      </c>
-      <c r="P115">
-        <v>2.55</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>1.925</v>
-      </c>
-      <c r="S115">
-        <v>1.875</v>
-      </c>
-      <c r="T115">
-        <v>2.25</v>
-      </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10765,7 +10765,7 @@
         <v>45115.25</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
         <v>33</v>
@@ -10854,7 +10854,7 @@
         <v>45115.25</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
         <v>39</v>
@@ -10866,7 +10866,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K117">
         <v>4.75</v>
@@ -11032,7 +11032,7 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
         <v>37</v>
@@ -11044,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K119">
         <v>1.666</v>
@@ -11124,7 +11124,7 @@
         <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11222,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K121">
         <v>1.833</v>
@@ -11299,10 +11299,10 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6206205</v>
+        <v>6206204</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,37 +11388,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
         <v>43</v>
       </c>
       <c r="K123">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N123">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P123">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q123">
         <v>0.25</v>
@@ -11430,7 +11430,7 @@
         <v>2.05</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
         <v>1.925</v>
@@ -11439,25 +11439,25 @@
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z123">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6206204</v>
+        <v>6206205</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,37 +11477,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
         <v>42</v>
       </c>
       <c r="K124">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N124">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O124">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P124">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q124">
         <v>0.25</v>
@@ -11519,7 +11519,7 @@
         <v>2.05</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
         <v>1.925</v>
@@ -11528,25 +11528,25 @@
         <v>1.875</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA124">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11578,7 +11578,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K125">
         <v>3.2</v>
@@ -11667,7 +11667,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>1.909</v>
@@ -11744,11 +11744,11 @@
         <v>45123.33333333334</v>
       </c>
       <c r="F127" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" t="s">
         <v>31</v>
       </c>
-      <c r="G127" t="s">
-        <v>30</v>
-      </c>
       <c r="H127">
         <v>0</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>2</v>
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,76 +11833,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N128">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P128">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.825</v>
-      </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
+        <v>1.95</v>
+      </c>
+      <c r="V128">
         <v>1.85</v>
       </c>
-      <c r="V128">
-        <v>1.95</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K129">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N129">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O129">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
         <v>1.825</v>
       </c>
-      <c r="S129">
-        <v>1.975</v>
-      </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
+        <v>1.85</v>
+      </c>
+      <c r="V129">
         <v>1.95</v>
       </c>
-      <c r="V129">
-        <v>1.85</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y129">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12100,7 +12100,7 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>37</v>
@@ -12112,7 +12112,7 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K131">
         <v>1.666</v>
@@ -12192,7 +12192,7 @@
         <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12290,7 +12290,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K133">
         <v>1.65</v>
@@ -12367,7 +12367,7 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
         <v>33</v>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K134">
         <v>2.9</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6206214</v>
+        <v>6206215</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,49 +12456,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>43</v>
       </c>
       <c r="K135">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L135">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N135">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O135">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U135">
         <v>2</v>
@@ -12507,19 +12507,19 @@
         <v>1.8</v>
       </c>
       <c r="W135">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB135">
         <v>-1</v>
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6206215</v>
+        <v>6206214</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,49 +12545,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>42</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N136">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P136">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q136">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U136">
         <v>2</v>
@@ -12596,19 +12596,19 @@
         <v>1.8</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -12634,7 +12634,7 @@
         <v>45130.33333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>32</v>
@@ -12646,7 +12646,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K137">
         <v>3.25</v>
@@ -12735,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K138">
         <v>1.727</v>
@@ -12824,7 +12824,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K139">
         <v>2.55</v>
@@ -12901,7 +12901,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
         <v>38</v>
@@ -12993,7 +12993,7 @@
         <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13002,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141">
         <v>2.45</v>
@@ -13079,7 +13079,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13171,7 +13171,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K143">
         <v>2.05</v>
@@ -13358,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K145">
         <v>2.5</v>
@@ -13435,10 +13435,10 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K146">
         <v>2.15</v>
@@ -13527,7 +13527,7 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K147">
         <v>1.4</v>
@@ -13625,7 +13625,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K148">
         <v>3.2</v>
@@ -13705,7 +13705,7 @@
         <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13714,7 +13714,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K149">
         <v>2.55</v>
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K150">
         <v>1.6</v>
@@ -13883,7 +13883,7 @@
         <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K151">
         <v>3</v>
@@ -14058,10 +14058,10 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K153">
         <v>2.45</v>
@@ -14147,7 +14147,7 @@
         <v>45152.3125</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14159,7 +14159,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>3.8</v>
@@ -14248,7 +14248,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14328,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14337,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K156">
         <v>1.909</v>
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14503,7 +14503,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K158">
         <v>2.9</v>
@@ -14604,7 +14604,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K159">
         <v>2.625</v>
@@ -14681,7 +14681,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
         <v>41</v>
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K160">
         <v>3.3</v>
@@ -14773,7 +14773,7 @@
         <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14859,10 +14859,10 @@
         <v>45159.3125</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14960,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K163">
         <v>1.6</v>
@@ -15049,7 +15049,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K164">
         <v>3.1</v>
@@ -15126,7 +15126,7 @@
         <v>45164.3125</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
         <v>32</v>
@@ -15138,7 +15138,7 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K165">
         <v>2.3</v>
@@ -15215,7 +15215,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
         <v>33</v>
@@ -15227,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K166">
         <v>2.25</v>
@@ -15307,7 +15307,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K167">
         <v>1.909</v>
@@ -15393,10 +15393,10 @@
         <v>45165.3125</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15485,7 +15485,7 @@
         <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15494,7 +15494,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K169">
         <v>2.4</v>
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6206246</v>
+        <v>6206245</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,76 +15571,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>43</v>
       </c>
       <c r="K170">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L170">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M170">
+        <v>2.15</v>
+      </c>
+      <c r="N170">
+        <v>3.2</v>
+      </c>
+      <c r="O170">
+        <v>3.1</v>
+      </c>
+      <c r="P170">
         <v>2.2</v>
-      </c>
-      <c r="N170">
-        <v>2.9</v>
-      </c>
-      <c r="O170">
-        <v>3.4</v>
-      </c>
-      <c r="P170">
-        <v>2.25</v>
       </c>
       <c r="Q170">
         <v>0.25</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6206245</v>
+        <v>6206246</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,76 +15660,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>42</v>
       </c>
       <c r="K171">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L171">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M171">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N171">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O171">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P171">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q171">
         <v>0.25</v>
       </c>
       <c r="R171">
+        <v>1.85</v>
+      </c>
+      <c r="S171">
+        <v>1.95</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
         <v>1.875</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.925</v>
       </c>
-      <c r="T171">
-        <v>2.25</v>
-      </c>
-      <c r="U171">
-        <v>1.975</v>
-      </c>
-      <c r="V171">
-        <v>1.825</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA171">
+        <v>-1</v>
+      </c>
+      <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
         <v>0.925</v>
-      </c>
-      <c r="AB171">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC171">
-        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15761,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K172">
         <v>2.7</v>
@@ -15826,7 +15826,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15838,73 +15838,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F173" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>42</v>
       </c>
       <c r="K173">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L173">
+        <v>3.3</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>3.5</v>
+      </c>
+      <c r="O173">
         <v>3.2</v>
       </c>
-      <c r="M173">
-        <v>2.875</v>
-      </c>
-      <c r="N173">
-        <v>2</v>
-      </c>
-      <c r="O173">
-        <v>3.3</v>
-      </c>
       <c r="P173">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,73 +15927,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J174" t="s">
         <v>43</v>
       </c>
       <c r="K174">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L174">
+        <v>3.2</v>
+      </c>
+      <c r="M174">
+        <v>2.875</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174">
         <v>3.3</v>
       </c>
-      <c r="M174">
-        <v>2</v>
-      </c>
-      <c r="N174">
-        <v>3.5</v>
-      </c>
-      <c r="O174">
-        <v>3.2</v>
-      </c>
       <c r="P174">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U174">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB174">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16016,7 +16016,7 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
         <v>34</v>
@@ -16028,7 +16028,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K175">
         <v>2.25</v>
@@ -16108,7 +16108,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16194,7 +16194,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>37</v>
@@ -16295,7 +16295,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K178">
         <v>2</v>
@@ -16372,7 +16372,7 @@
         <v>45172.27083333334</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
         <v>32</v>
@@ -16473,7 +16473,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K180">
         <v>2.2</v>
@@ -16553,7 +16553,7 @@
         <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16562,7 +16562,7 @@
         <v>3</v>
       </c>
       <c r="J181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K181">
         <v>1.666</v>
@@ -16642,7 +16642,7 @@
         <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16651,7 +16651,7 @@
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K182">
         <v>3.1</v>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K183">
         <v>1.666</v>
@@ -16817,10 +16817,10 @@
         <v>45186.0625</v>
       </c>
       <c r="F184" t="s">
+        <v>29</v>
+      </c>
+      <c r="G184" t="s">
         <v>31</v>
-      </c>
-      <c r="G184" t="s">
-        <v>30</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16829,7 +16829,7 @@
         <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K184">
         <v>1.909</v>
@@ -16918,7 +16918,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K185">
         <v>3.4</v>
@@ -16995,7 +16995,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17096,7 +17096,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K187">
         <v>1.5</v>
@@ -17173,7 +17173,7 @@
         <v>45188.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
         <v>33</v>
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K188">
         <v>2.375</v>
@@ -17274,7 +17274,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K189">
         <v>3.6</v>
@@ -17354,7 +17354,7 @@
         <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17428,7 +17428,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6204329</v>
+        <v>6206263</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17440,76 +17440,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>42</v>
       </c>
       <c r="K191">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L191">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M191">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N191">
+        <v>3.6</v>
+      </c>
+      <c r="O191">
+        <v>3.25</v>
+      </c>
+      <c r="P191">
+        <v>2.1</v>
+      </c>
+      <c r="Q191">
+        <v>0.25</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>1.8</v>
+      </c>
+      <c r="T191">
+        <v>2</v>
+      </c>
+      <c r="U191">
+        <v>1.775</v>
+      </c>
+      <c r="V191">
+        <v>2.025</v>
+      </c>
+      <c r="W191">
         <v>2.6</v>
       </c>
-      <c r="O191">
-        <v>3.4</v>
-      </c>
-      <c r="P191">
-        <v>2.625</v>
-      </c>
-      <c r="Q191">
-        <v>0</v>
-      </c>
-      <c r="R191">
-        <v>1.875</v>
-      </c>
-      <c r="S191">
-        <v>1.925</v>
-      </c>
-      <c r="T191">
-        <v>2.25</v>
-      </c>
-      <c r="U191">
-        <v>1.825</v>
-      </c>
-      <c r="V191">
-        <v>1.975</v>
-      </c>
-      <c r="W191">
-        <v>-1</v>
-      </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17517,7 +17517,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6206263</v>
+        <v>6204329</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17529,76 +17529,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
         <v>1</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>43</v>
       </c>
       <c r="K192">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L192">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M192">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N192">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O192">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P192">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V192">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z192">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17630,7 +17630,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K193">
         <v>2.25</v>
@@ -17719,7 +17719,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K194">
         <v>1.909</v>
@@ -17796,10 +17796,10 @@
         <v>45192.27083333334</v>
       </c>
       <c r="F195" t="s">
+        <v>31</v>
+      </c>
+      <c r="G195" t="s">
         <v>30</v>
-      </c>
-      <c r="G195" t="s">
-        <v>29</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17808,7 +17808,7 @@
         <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K195">
         <v>1.7</v>
@@ -17897,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K196">
         <v>2.2</v>
@@ -17986,7 +17986,7 @@
         <v>4</v>
       </c>
       <c r="J197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>1.75</v>
@@ -18063,10 +18063,10 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18075,7 +18075,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K198">
         <v>2.625</v>
@@ -18342,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K201">
         <v>2.15</v>
@@ -18419,10 +18419,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F202" t="s">
+        <v>36</v>
+      </c>
+      <c r="G202" t="s">
         <v>35</v>
-      </c>
-      <c r="G202" t="s">
-        <v>36</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18508,7 +18508,7 @@
         <v>45200.16666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18520,7 +18520,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K203">
         <v>5.25</v>
@@ -18597,7 +18597,7 @@
         <v>45200.27083333334</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -18609,7 +18609,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K204">
         <v>2.625</v>
@@ -18689,7 +18689,7 @@
         <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18778,7 +18778,7 @@
         <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H206">
         <v>3</v>
@@ -18787,7 +18787,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K206">
         <v>1.65</v>
@@ -18864,7 +18864,7 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
         <v>37</v>
@@ -18876,7 +18876,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K207">
         <v>1.666</v>
@@ -18965,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K208">
         <v>2.4</v>
@@ -19054,7 +19054,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K209">
         <v>2.8</v>
@@ -19134,7 +19134,7 @@
         <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19143,7 +19143,7 @@
         <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K210">
         <v>3</v>
@@ -19223,7 +19223,7 @@
         <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19232,7 +19232,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K211">
         <v>2.3</v>
@@ -19309,7 +19309,7 @@
         <v>45220.0625</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
         <v>32</v>
@@ -19321,7 +19321,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K212">
         <v>3.1</v>
@@ -19398,7 +19398,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G213" t="s">
         <v>39</v>
@@ -19499,7 +19499,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K214">
         <v>3.3</v>
@@ -19579,7 +19579,7 @@
         <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19588,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K215">
         <v>2.1</v>
@@ -19665,10 +19665,10 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19766,7 +19766,7 @@
         <v>7</v>
       </c>
       <c r="J217" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K217">
         <v>4.5</v>
@@ -19843,7 +19843,7 @@
         <v>45227.0625</v>
       </c>
       <c r="F218" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G218" t="s">
         <v>37</v>
@@ -19855,7 +19855,7 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K218">
         <v>1.55</v>
@@ -19935,7 +19935,7 @@
         <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -19944,7 +19944,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K219">
         <v>1.8</v>
@@ -20033,7 +20033,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K220">
         <v>1.666</v>
@@ -20110,10 +20110,10 @@
         <v>45228.0625</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -20122,7 +20122,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K221">
         <v>2.1</v>
@@ -20202,7 +20202,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K222">
         <v>1.85</v>
@@ -20300,7 +20300,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K223">
         <v>1.727</v>
@@ -20389,7 +20389,7 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K224">
         <v>2.8</v>
@@ -20466,7 +20466,7 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
         <v>34</v>
@@ -20478,7 +20478,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K225">
         <v>2.375</v>
@@ -20555,7 +20555,7 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G226" t="s">
         <v>41</v>
@@ -20656,7 +20656,7 @@
         <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K227">
         <v>4</v>
@@ -20733,7 +20733,7 @@
         <v>45242.16666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
         <v>38</v>
@@ -20822,7 +20822,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
         <v>40</v>
@@ -20834,7 +20834,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K229">
         <v>3.1</v>
@@ -20923,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K230">
         <v>1.3</v>
@@ -20988,7 +20988,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6531883</v>
+        <v>6537915</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,76 +21000,76 @@
         <v>45256.125</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K231">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L231">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M231">
+        <v>5.25</v>
+      </c>
+      <c r="N231">
+        <v>1.444</v>
+      </c>
+      <c r="O231">
         <v>4.2</v>
       </c>
-      <c r="N231">
-        <v>1.75</v>
-      </c>
-      <c r="O231">
-        <v>4</v>
-      </c>
       <c r="P231">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T231">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V231">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y231">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB231">
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6540655</v>
+        <v>6531883</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,76 +21089,76 @@
         <v>45256.125</v>
       </c>
       <c r="F232" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H232">
         <v>0</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K232">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L232">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M232">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N232">
+        <v>1.75</v>
+      </c>
+      <c r="O232">
+        <v>4</v>
+      </c>
+      <c r="P232">
+        <v>3.75</v>
+      </c>
+      <c r="Q232">
+        <v>-0.75</v>
+      </c>
+      <c r="R232">
+        <v>2</v>
+      </c>
+      <c r="S232">
+        <v>1.8</v>
+      </c>
+      <c r="T232">
+        <v>3.25</v>
+      </c>
+      <c r="U232">
+        <v>2</v>
+      </c>
+      <c r="V232">
+        <v>1.8</v>
+      </c>
+      <c r="W232">
+        <v>-1</v>
+      </c>
+      <c r="X232">
+        <v>-1</v>
+      </c>
+      <c r="Y232">
         <v>2.75</v>
       </c>
-      <c r="O232">
-        <v>3.25</v>
-      </c>
-      <c r="P232">
-        <v>2.3</v>
-      </c>
-      <c r="Q232">
-        <v>0.25</v>
-      </c>
-      <c r="R232">
-        <v>1.75</v>
-      </c>
-      <c r="S232">
-        <v>2.05</v>
-      </c>
-      <c r="T232">
-        <v>2.25</v>
-      </c>
-      <c r="U232">
-        <v>1.825</v>
-      </c>
-      <c r="V232">
-        <v>1.975</v>
-      </c>
-      <c r="W232">
-        <v>-1</v>
-      </c>
-      <c r="X232">
-        <v>-1</v>
-      </c>
-      <c r="Y232">
-        <v>1.3</v>
-      </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21166,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6527572</v>
+        <v>6540655</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21178,13 +21178,13 @@
         <v>45256.125</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G233" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H233">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -21193,61 +21193,61 @@
         <v>43</v>
       </c>
       <c r="K233">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L233">
         <v>3.3</v>
       </c>
       <c r="M233">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N233">
+        <v>2.75</v>
+      </c>
+      <c r="O233">
+        <v>3.25</v>
+      </c>
+      <c r="P233">
+        <v>2.3</v>
+      </c>
+      <c r="Q233">
+        <v>0.25</v>
+      </c>
+      <c r="R233">
+        <v>1.75</v>
+      </c>
+      <c r="S233">
+        <v>2.05</v>
+      </c>
+      <c r="T233">
         <v>2.25</v>
       </c>
-      <c r="O233">
-        <v>3.3</v>
-      </c>
-      <c r="P233">
-        <v>2.9</v>
-      </c>
-      <c r="Q233">
-        <v>-0.25</v>
-      </c>
-      <c r="R233">
+      <c r="U233">
+        <v>1.825</v>
+      </c>
+      <c r="V233">
         <v>1.975</v>
       </c>
-      <c r="S233">
-        <v>1.825</v>
-      </c>
-      <c r="T233">
-        <v>2.5</v>
-      </c>
-      <c r="U233">
-        <v>1.975</v>
-      </c>
-      <c r="V233">
-        <v>1.825</v>
-      </c>
       <c r="W233">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
+        <v>1.05</v>
+      </c>
+      <c r="AB233">
+        <v>-1</v>
+      </c>
+      <c r="AC233">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA233">
-        <v>-1</v>
-      </c>
-      <c r="AB233">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC233">
-        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21279,7 +21279,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K234">
         <v>1.571</v>
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6537915</v>
+        <v>6527572</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,40 +21356,40 @@
         <v>45256.125</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G235" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I235">
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K235">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M235">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N235">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O235">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P235">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q235">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
         <v>1.975</v>
@@ -21401,31 +21401,31 @@
         <v>2.5</v>
       </c>
       <c r="U235">
+        <v>1.975</v>
+      </c>
+      <c r="V235">
         <v>1.825</v>
       </c>
-      <c r="V235">
-        <v>1.975</v>
-      </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X235">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA235">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC235">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21445,10 +21445,10 @@
         <v>45259.29166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21537,7 +21537,7 @@
         <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H237">
         <v>2</v>
@@ -21546,7 +21546,7 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K237">
         <v>2.625</v>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -106,25 +106,25 @@
     <t>Gyeongnam FC</t>
   </si>
   <si>
+    <t>Jeonnam Dragons</t>
+  </si>
+  <si>
     <t>Cheonan City</t>
   </si>
   <si>
-    <t>Jeonnam Dragons</t>
+    <t>Seoul ELand FC</t>
   </si>
   <si>
     <t>Seongnam FC</t>
   </si>
   <si>
-    <t>Seoul ELand FC</t>
-  </si>
-  <si>
     <t>Chungnam Asan FC</t>
   </si>
   <si>
-    <t>Bucheon</t>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Bucheon</t>
   </si>
   <si>
     <t>Ansan Greeners FC</t>
@@ -622,7 +622,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6206099</v>
+        <v>6204304</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,52 +711,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>43</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L3">
         <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N3">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
         <v>1.8</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -765,19 +765,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6204304</v>
+        <v>6206099</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,52 +800,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>43</v>
       </c>
       <c r="K4">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L4">
         <v>3.2</v>
       </c>
       <c r="M4">
+        <v>2.55</v>
+      </c>
+      <c r="N4">
+        <v>3.1</v>
+      </c>
+      <c r="O4">
+        <v>3.1</v>
+      </c>
+      <c r="P4">
         <v>2.3</v>
       </c>
-      <c r="N4">
-        <v>2.625</v>
-      </c>
-      <c r="O4">
-        <v>3.2</v>
-      </c>
-      <c r="P4">
-        <v>2.4</v>
-      </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -854,19 +854,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6206102</v>
+        <v>6336857</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,70 +889,70 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6336857</v>
+        <v>6206102</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,70 +978,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N6">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6206104</v>
+        <v>6206105</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,73 +1156,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>3.2</v>
       </c>
       <c r="M8">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N8">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O8">
         <v>3.2</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6206105</v>
+        <v>6206104</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,73 +1245,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="L9">
         <v>3.2</v>
       </c>
       <c r="M9">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O9">
         <v>3.2</v>
       </c>
       <c r="P9">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1509,7 +1509,7 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
@@ -1601,7 +1601,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1687,10 +1687,10 @@
         <v>44996.0625</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6206110</v>
+        <v>6206109</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,76 +1776,76 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M15">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N15">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P15">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>-0</v>
+      </c>
+      <c r="AB15">
+        <v>-0.5</v>
+      </c>
+      <c r="AC15">
         <v>0.4375</v>
-      </c>
-      <c r="AA15">
-        <v>-0.5</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6206109</v>
+        <v>6206110</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,76 +1865,76 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N16">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O16">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6206111</v>
+        <v>6206112</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,40 +1954,40 @@
         <v>44997.0625</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O17">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -1996,34 +1996,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
+        <v>-0.5</v>
+      </c>
+      <c r="AA17">
+        <v>0.4375</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.925</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>-0.5</v>
-      </c>
-      <c r="AC17">
-        <v>0.475</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6206112</v>
+        <v>6206111</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,40 +2043,40 @@
         <v>44997.0625</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P18">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2085,34 +2085,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>0.925</v>
+      </c>
+      <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
         <v>-0.5</v>
       </c>
-      <c r="AA18">
-        <v>0.4375</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,10 +2132,10 @@
         <v>44997.16666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6206115</v>
+        <v>6206116</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,76 +2310,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
         <v>35</v>
       </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N21">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P21">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
         <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6206116</v>
+        <v>6206115</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q22">
         <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X22">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6206118</v>
+        <v>6204307</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N24">
+        <v>1.95</v>
+      </c>
+      <c r="O24">
+        <v>3.25</v>
+      </c>
+      <c r="P24">
+        <v>3.5</v>
+      </c>
+      <c r="Q24">
+        <v>-0.5</v>
+      </c>
+      <c r="R24">
+        <v>2.05</v>
+      </c>
+      <c r="S24">
+        <v>1.75</v>
+      </c>
+      <c r="T24">
         <v>2.25</v>
       </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>3.2</v>
-      </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.95</v>
-      </c>
-      <c r="S24">
-        <v>1.85</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6204307</v>
+        <v>6206118</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,76 +2666,76 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N25">
+        <v>2.25</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>3.2</v>
+      </c>
+      <c r="Q25">
+        <v>-0.25</v>
+      </c>
+      <c r="R25">
         <v>1.95</v>
       </c>
-      <c r="O25">
-        <v>3.25</v>
-      </c>
-      <c r="P25">
-        <v>3.5</v>
-      </c>
-      <c r="Q25">
-        <v>-0.5</v>
-      </c>
-      <c r="R25">
-        <v>2.05</v>
-      </c>
       <c r="S25">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA25">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2844,10 +2844,10 @@
         <v>45017.16666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2936,7 +2936,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3114,7 +3114,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3200,10 +3200,10 @@
         <v>45018.27083333334</v>
       </c>
       <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
         <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>45024.0625</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3378,7 +3378,7 @@
         <v>45024.16666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3467,10 +3467,10 @@
         <v>45024.27083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3556,7 +3556,7 @@
         <v>45025.0625</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3645,7 +3645,7 @@
         <v>45025.16666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3823,10 +3823,10 @@
         <v>45031.0625</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6206129</v>
+        <v>6206130</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3912,49 +3912,49 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>42</v>
       </c>
       <c r="K39">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L39">
         <v>3.2</v>
       </c>
       <c r="M39">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N39">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
         <v>1.85</v>
@@ -3963,7 +3963,7 @@
         <v>1.95</v>
       </c>
       <c r="W39">
-        <v>1.7</v>
+        <v>0.833</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3972,16 +3972,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6206130</v>
+        <v>6206129</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,49 +4001,49 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>42</v>
       </c>
       <c r="K40">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L40">
         <v>3.2</v>
       </c>
       <c r="M40">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N40">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O40">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
         <v>1.85</v>
@@ -4052,7 +4052,7 @@
         <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.833</v>
+        <v>1.7</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4061,16 +4061,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4179,10 +4179,10 @@
         <v>45032.0625</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4345,7 +4345,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6206134</v>
+        <v>6206135</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,53 +4360,53 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
         <v>43</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M44">
         <v>3</v>
       </c>
       <c r="N44">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U44">
+        <v>1.85</v>
+      </c>
+      <c r="V44">
         <v>1.95</v>
       </c>
-      <c r="V44">
-        <v>1.85</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4414,19 +4414,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206135</v>
+        <v>6206134</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,53 +4449,53 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>43</v>
       </c>
       <c r="K45">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M45">
         <v>3</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O45">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P45">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
+        <v>1.95</v>
+      </c>
+      <c r="V45">
         <v>1.85</v>
       </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
@@ -4503,19 +4503,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4701,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6206138</v>
+        <v>6204309</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,76 +4713,76 @@
         <v>45035.3125</v>
       </c>
       <c r="F48" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" t="s">
         <v>30</v>
       </c>
-      <c r="G48" t="s">
-        <v>37</v>
-      </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N48">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P48">
+        <v>4</v>
+      </c>
+      <c r="Q48">
+        <v>-0.75</v>
+      </c>
+      <c r="R48">
+        <v>1.975</v>
+      </c>
+      <c r="S48">
+        <v>1.825</v>
+      </c>
+      <c r="T48">
+        <v>2.75</v>
+      </c>
+      <c r="U48">
+        <v>1.85</v>
+      </c>
+      <c r="V48">
         <v>1.95</v>
       </c>
-      <c r="Q48">
-        <v>0.5</v>
-      </c>
-      <c r="R48">
-        <v>1.825</v>
-      </c>
-      <c r="S48">
-        <v>1.975</v>
-      </c>
-      <c r="T48">
-        <v>2.5</v>
-      </c>
-      <c r="U48">
-        <v>2</v>
-      </c>
-      <c r="V48">
-        <v>1.8</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X48">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC48">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6204309</v>
+        <v>6206138</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45035.3125</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K49">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M49">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N49">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O49">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R49">
+        <v>1.825</v>
+      </c>
+      <c r="S49">
         <v>1.975</v>
       </c>
-      <c r="S49">
-        <v>1.825</v>
-      </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W49">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>45038.16666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5069,7 +5069,7 @@
         <v>45038.27083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5247,10 +5247,10 @@
         <v>45039.16666666666</v>
       </c>
       <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s">
         <v>36</v>
-      </c>
-      <c r="G54" t="s">
-        <v>35</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5425,7 +5425,7 @@
         <v>45045.0625</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6206145</v>
+        <v>6206144</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,76 +5514,76 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K57">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L57">
+        <v>3.4</v>
+      </c>
+      <c r="M57">
+        <v>4.2</v>
+      </c>
+      <c r="N57">
+        <v>1.8</v>
+      </c>
+      <c r="O57">
+        <v>3.5</v>
+      </c>
+      <c r="P57">
         <v>4</v>
       </c>
-      <c r="M57">
-        <v>6.5</v>
-      </c>
-      <c r="N57">
-        <v>1.4</v>
-      </c>
-      <c r="O57">
-        <v>4.2</v>
-      </c>
-      <c r="P57">
-        <v>7</v>
-      </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.675</v>
+        <v>2.05</v>
       </c>
       <c r="S57">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.7</v>
+        <v>1.775</v>
       </c>
       <c r="V57">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W57">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB57">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6206144</v>
+        <v>6206145</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,76 +5603,76 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K58">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M58">
+        <v>6.5</v>
+      </c>
+      <c r="N58">
+        <v>1.4</v>
+      </c>
+      <c r="O58">
         <v>4.2</v>
       </c>
-      <c r="N58">
-        <v>1.8</v>
-      </c>
-      <c r="O58">
-        <v>3.5</v>
-      </c>
       <c r="P58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R58">
-        <v>2.05</v>
+        <v>1.675</v>
       </c>
       <c r="S58">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="V58">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X58">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC58">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5695,7 +5695,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5870,10 +5870,10 @@
         <v>45046.16666666666</v>
       </c>
       <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
         <v>33</v>
-      </c>
-      <c r="G61" t="s">
-        <v>32</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6206149</v>
+        <v>6204312</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5962,73 +5962,73 @@
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K62">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="N62">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P62">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q62">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R62">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y62">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB62">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6204312</v>
+        <v>6206149</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,73 +6051,73 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="L63">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="N63">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="O63">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P63">
+        <v>1.4</v>
+      </c>
+      <c r="Q63">
+        <v>1.25</v>
+      </c>
+      <c r="R63">
+        <v>1.775</v>
+      </c>
+      <c r="S63">
+        <v>2.025</v>
+      </c>
+      <c r="T63">
         <v>2.5</v>
       </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>1.95</v>
-      </c>
-      <c r="S63">
-        <v>1.85</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z63">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC63">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>45048.3125</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>34</v>
@@ -6229,7 +6229,7 @@
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6206152</v>
+        <v>6206153</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,76 +6315,76 @@
         <v>45049.3125</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L66">
         <v>3.25</v>
       </c>
       <c r="M66">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N66">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="O66">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P66">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y66">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6392,7 +6392,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6206153</v>
+        <v>6206152</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6404,76 +6404,76 @@
         <v>45049.3125</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K67">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L67">
         <v>3.25</v>
       </c>
       <c r="M67">
+        <v>1.909</v>
+      </c>
+      <c r="N67">
+        <v>4.5</v>
+      </c>
+      <c r="O67">
+        <v>3.75</v>
+      </c>
+      <c r="P67">
+        <v>1.615</v>
+      </c>
+      <c r="Q67">
+        <v>0.75</v>
+      </c>
+      <c r="R67">
+        <v>1.975</v>
+      </c>
+      <c r="S67">
+        <v>1.825</v>
+      </c>
+      <c r="T67">
         <v>2.75</v>
       </c>
-      <c r="N67">
-        <v>1.95</v>
-      </c>
-      <c r="O67">
-        <v>3.3</v>
-      </c>
-      <c r="P67">
-        <v>3.3</v>
-      </c>
-      <c r="Q67">
+      <c r="U67">
+        <v>1.8</v>
+      </c>
+      <c r="V67">
+        <v>2</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
+        <v>0.615</v>
+      </c>
+      <c r="Z67">
         <v>-0.5</v>
       </c>
-      <c r="R67">
-        <v>2</v>
-      </c>
-      <c r="S67">
-        <v>1.8</v>
-      </c>
-      <c r="T67">
-        <v>2.25</v>
-      </c>
-      <c r="U67">
-        <v>1.95</v>
-      </c>
-      <c r="V67">
-        <v>1.85</v>
-      </c>
-      <c r="W67">
-        <v>-1</v>
-      </c>
-      <c r="X67">
-        <v>2.3</v>
-      </c>
-      <c r="Y67">
-        <v>-1</v>
-      </c>
-      <c r="Z67">
-        <v>-1</v>
-      </c>
       <c r="AA67">
+        <v>0.4125</v>
+      </c>
+      <c r="AB67">
         <v>0.8</v>
       </c>
-      <c r="AB67">
-        <v>-1</v>
-      </c>
       <c r="AC67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6582,10 +6582,10 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6674,7 +6674,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>45053.0625</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -6938,7 +6938,7 @@
         <v>45053.27083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
         <v>41</v>
@@ -7027,10 +7027,10 @@
         <v>45059.0625</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7208,7 +7208,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7472,7 +7472,7 @@
         <v>45060.27083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6206166</v>
+        <v>6206165</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,56 +7561,56 @@
         <v>45066.16666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
         <v>43</v>
       </c>
       <c r="K80">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="L80">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
+        <v>2.25</v>
+      </c>
+      <c r="N80">
+        <v>3.1</v>
+      </c>
+      <c r="O80">
+        <v>3.3</v>
+      </c>
+      <c r="P80">
+        <v>2.15</v>
+      </c>
+      <c r="Q80">
+        <v>0.25</v>
+      </c>
+      <c r="R80">
+        <v>1.875</v>
+      </c>
+      <c r="S80">
+        <v>1.925</v>
+      </c>
+      <c r="T80">
+        <v>2.5</v>
+      </c>
+      <c r="U80">
+        <v>1.95</v>
+      </c>
+      <c r="V80">
         <v>1.85</v>
       </c>
-      <c r="N80">
-        <v>4.2</v>
-      </c>
-      <c r="O80">
-        <v>3.2</v>
-      </c>
-      <c r="P80">
-        <v>1.85</v>
-      </c>
-      <c r="Q80">
-        <v>0.5</v>
-      </c>
-      <c r="R80">
-        <v>1.925</v>
-      </c>
-      <c r="S80">
-        <v>1.875</v>
-      </c>
-      <c r="T80">
-        <v>2.25</v>
-      </c>
-      <c r="U80">
-        <v>2</v>
-      </c>
-      <c r="V80">
-        <v>1.8</v>
-      </c>
       <c r="W80">
         <v>-1</v>
       </c>
@@ -7618,19 +7618,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.8500000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6206165</v>
+        <v>6206166</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,55 +7650,55 @@
         <v>45066.16666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
         <v>43</v>
       </c>
       <c r="K81">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M81">
+        <v>1.85</v>
+      </c>
+      <c r="N81">
+        <v>4.2</v>
+      </c>
+      <c r="O81">
+        <v>3.2</v>
+      </c>
+      <c r="P81">
+        <v>1.85</v>
+      </c>
+      <c r="Q81">
+        <v>0.5</v>
+      </c>
+      <c r="R81">
+        <v>1.925</v>
+      </c>
+      <c r="S81">
+        <v>1.875</v>
+      </c>
+      <c r="T81">
         <v>2.25</v>
       </c>
-      <c r="N81">
-        <v>3.1</v>
-      </c>
-      <c r="O81">
-        <v>3.3</v>
-      </c>
-      <c r="P81">
-        <v>2.15</v>
-      </c>
-      <c r="Q81">
-        <v>0.25</v>
-      </c>
-      <c r="R81">
-        <v>1.875</v>
-      </c>
-      <c r="S81">
-        <v>1.925</v>
-      </c>
-      <c r="T81">
-        <v>2.5</v>
-      </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7707,19 +7707,19 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7828,10 +7828,10 @@
         <v>45066.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6204720</v>
+        <v>6206170</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,76 +8095,76 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L86">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N86">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R86">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
         <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6206170</v>
+        <v>6204720</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M87">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N87">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q87">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8273,7 +8273,7 @@
         <v>45073.27083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8454,7 +8454,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>45075.16666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8629,7 +8629,7 @@
         <v>45080.16666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>29</v>
@@ -8721,7 +8721,7 @@
         <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8810,7 +8810,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8899,7 +8899,7 @@
         <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>45081.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -9074,7 +9074,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6204719</v>
+        <v>6206186</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,70 +9436,70 @@
         <v>31</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K101">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M101">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N101">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O101">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9507,7 +9507,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6206186</v>
+        <v>6204719</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,70 +9525,70 @@
         <v>30</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M102">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N102">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O102">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q102">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X102">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9608,10 +9608,10 @@
         <v>45088.33333333334</v>
       </c>
       <c r="F103" t="s">
+        <v>33</v>
+      </c>
+      <c r="G103" t="s">
         <v>32</v>
-      </c>
-      <c r="G103" t="s">
-        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9700,7 +9700,7 @@
         <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9786,10 +9786,10 @@
         <v>45101.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6206192</v>
+        <v>6204316</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,10 +10053,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10068,25 +10068,25 @@
         <v>43</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L108">
         <v>3.25</v>
       </c>
       <c r="M108">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N108">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P108">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q108">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
         <v>1.925</v>
@@ -10098,10 +10098,10 @@
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10110,7 +10110,7 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.8500000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z108">
         <v>-1</v>
@@ -10119,7 +10119,7 @@
         <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10130,7 +10130,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6204316</v>
+        <v>6206192</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,10 +10142,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10157,25 +10157,25 @@
         <v>43</v>
       </c>
       <c r="K109">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L109">
         <v>3.25</v>
       </c>
       <c r="M109">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N109">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O109">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P109">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
         <v>1.925</v>
@@ -10187,10 +10187,10 @@
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10199,7 +10199,7 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>2.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z109">
         <v>-1</v>
@@ -10208,7 +10208,7 @@
         <v>0.875</v>
       </c>
       <c r="AB109">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10320,7 +10320,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10587,10 +10587,10 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10676,10 +10676,10 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6206199</v>
+        <v>6206198</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,40 +10765,40 @@
         <v>45115.25</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N116">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O116">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
         <v>2</v>
@@ -10810,31 +10810,31 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC116">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6206198</v>
+        <v>6206199</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,40 +10854,40 @@
         <v>45115.25</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K117">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N117">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
         <v>2</v>
@@ -10899,31 +10899,31 @@
         <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W117">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
         <v>38</v>
@@ -11124,7 +11124,7 @@
         <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11299,10 +11299,10 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6206204</v>
+        <v>6206205</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,37 +11388,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K123">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N123">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O123">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P123">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q123">
         <v>0.25</v>
@@ -11430,7 +11430,7 @@
         <v>2.05</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
         <v>1.925</v>
@@ -11439,25 +11439,25 @@
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6206205</v>
+        <v>6206204</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,37 +11477,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N124">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O124">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q124">
         <v>0.25</v>
@@ -11519,7 +11519,7 @@
         <v>2.05</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
         <v>1.925</v>
@@ -11528,25 +11528,25 @@
         <v>1.875</v>
       </c>
       <c r="W124">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z124">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11747,7 +11747,7 @@
         <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,76 +11833,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K128">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N128">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O128">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
+        <v>1.975</v>
+      </c>
+      <c r="S128">
         <v>1.825</v>
       </c>
-      <c r="S128">
-        <v>1.975</v>
-      </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
+        <v>1.85</v>
+      </c>
+      <c r="V128">
         <v>1.95</v>
       </c>
-      <c r="V128">
-        <v>1.85</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y128">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K129">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N129">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P129">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
         <v>1.975</v>
       </c>
-      <c r="S129">
-        <v>1.825</v>
-      </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
+        <v>1.95</v>
+      </c>
+      <c r="V129">
         <v>1.85</v>
       </c>
-      <c r="V129">
-        <v>1.95</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12100,7 +12100,7 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>37</v>
@@ -12189,7 +12189,7 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
         <v>29</v>
@@ -12367,10 +12367,10 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12548,7 +12548,7 @@
         <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12634,10 +12634,10 @@
         <v>45130.33333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12990,10 +12990,10 @@
         <v>45136.3125</v>
       </c>
       <c r="F141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13079,7 +13079,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13171,7 +13171,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13257,7 +13257,7 @@
         <v>45138.29166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>34</v>
@@ -13435,10 +13435,10 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13702,7 +13702,7 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>29</v>
@@ -13794,7 +13794,7 @@
         <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13883,7 +13883,7 @@
         <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -14058,7 +14058,7 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
         <v>29</v>
@@ -14147,7 +14147,7 @@
         <v>45152.3125</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14239,7 +14239,7 @@
         <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14328,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14503,7 +14503,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14592,7 +14592,7 @@
         <v>45158.27083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
         <v>40</v>
@@ -14681,7 +14681,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
         <v>41</v>
@@ -14770,10 +14770,10 @@
         <v>45159.29166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14862,7 +14862,7 @@
         <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6206240</v>
+        <v>6206241</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,55 +15037,55 @@
         <v>45164.3125</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
         <v>43</v>
       </c>
       <c r="K164">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M164">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N164">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O164">
+        <v>3.4</v>
+      </c>
+      <c r="P164">
         <v>3</v>
       </c>
-      <c r="P164">
-        <v>2.2</v>
-      </c>
       <c r="Q164">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S164">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15094,19 +15094,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB164">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6206241</v>
+        <v>6206240</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,56 +15126,56 @@
         <v>45164.3125</v>
       </c>
       <c r="F165" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J165" t="s">
         <v>43</v>
       </c>
       <c r="K165">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M165">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N165">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O165">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P165">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
+        <v>1.875</v>
+      </c>
+      <c r="S165">
+        <v>1.925</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>1.95</v>
+      </c>
+      <c r="V165">
         <v>1.85</v>
       </c>
-      <c r="S165">
-        <v>1.95</v>
-      </c>
-      <c r="T165">
-        <v>2.5</v>
-      </c>
-      <c r="U165">
-        <v>1.8</v>
-      </c>
-      <c r="V165">
-        <v>2</v>
-      </c>
       <c r="W165">
         <v>-1</v>
       </c>
@@ -15183,19 +15183,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
+        <v>0.925</v>
+      </c>
+      <c r="AB165">
         <v>0.95</v>
       </c>
-      <c r="AB165">
-        <v>-1</v>
-      </c>
       <c r="AC165">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15215,10 +15215,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15393,10 +15393,10 @@
         <v>45165.3125</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15574,7 +15574,7 @@
         <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15749,10 +15749,10 @@
         <v>45168.29166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15826,7 +15826,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15838,73 +15838,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L173">
+        <v>3.2</v>
+      </c>
+      <c r="M173">
+        <v>2.875</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173">
         <v>3.3</v>
       </c>
-      <c r="M173">
-        <v>2</v>
-      </c>
-      <c r="N173">
-        <v>3.5</v>
-      </c>
-      <c r="O173">
-        <v>3.2</v>
-      </c>
       <c r="P173">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB173">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,73 +15927,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
       <c r="I174">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L174">
+        <v>3.3</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>3.5</v>
+      </c>
+      <c r="O174">
         <v>3.2</v>
       </c>
-      <c r="M174">
-        <v>2.875</v>
-      </c>
-      <c r="N174">
-        <v>2</v>
-      </c>
-      <c r="O174">
-        <v>3.3</v>
-      </c>
       <c r="P174">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16016,7 +16016,7 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
         <v>34</v>
@@ -16108,7 +16108,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16194,7 +16194,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
         <v>37</v>
@@ -16286,7 +16286,7 @@
         <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16372,10 +16372,10 @@
         <v>45172.27083333334</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6206255</v>
+        <v>6206254</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,55 +16550,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>43</v>
       </c>
       <c r="K181">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L181">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O181">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P181">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T181">
         <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16607,19 +16607,19 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6206254</v>
+        <v>6206255</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,55 +16639,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J182" t="s">
         <v>43</v>
       </c>
       <c r="K182">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M182">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N182">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O182">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P182">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q182">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S182">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T182">
         <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
         <v>-1</v>
@@ -16696,19 +16696,19 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC182">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -16820,7 +16820,7 @@
         <v>29</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16995,7 +16995,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6206260</v>
+        <v>6206261</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,40 +17173,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K188">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L188">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M188">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -17215,34 +17215,34 @@
         <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6206261</v>
+        <v>6206260</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,40 +17262,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F189" t="s">
+        <v>35</v>
+      </c>
+      <c r="G189" t="s">
         <v>32</v>
       </c>
-      <c r="G189" t="s">
-        <v>41</v>
-      </c>
       <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
       <c r="J189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K189">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L189">
+        <v>3.2</v>
+      </c>
+      <c r="M189">
+        <v>2.75</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189">
+        <v>3.3</v>
+      </c>
+      <c r="P189">
         <v>3.4</v>
       </c>
-      <c r="M189">
-        <v>1.909</v>
-      </c>
-      <c r="N189">
-        <v>4</v>
-      </c>
-      <c r="O189">
-        <v>3.5</v>
-      </c>
-      <c r="P189">
-        <v>1.8</v>
-      </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
         <v>2</v>
@@ -17304,34 +17304,34 @@
         <v>1.8</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17440,10 +17440,10 @@
         <v>45189.3125</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17532,7 +17532,7 @@
         <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17618,10 +17618,10 @@
         <v>45192.0625</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17796,10 +17796,10 @@
         <v>45192.27083333334</v>
       </c>
       <c r="F195" t="s">
+        <v>30</v>
+      </c>
+      <c r="G195" t="s">
         <v>31</v>
-      </c>
-      <c r="G195" t="s">
-        <v>30</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17974,7 +17974,7 @@
         <v>45193.16666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
         <v>37</v>
@@ -18063,7 +18063,7 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
         <v>29</v>
@@ -18155,7 +18155,7 @@
         <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         <v>34</v>
       </c>
       <c r="G201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18419,10 +18419,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F202" t="s">
+        <v>35</v>
+      </c>
+      <c r="G202" t="s">
         <v>36</v>
-      </c>
-      <c r="G202" t="s">
-        <v>35</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18508,7 +18508,7 @@
         <v>45200.16666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18689,7 +18689,7 @@
         <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18778,7 +18778,7 @@
         <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H206">
         <v>3</v>
@@ -18852,7 +18852,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6352816</v>
+        <v>6414604</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18864,58 +18864,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G207" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>42</v>
       </c>
       <c r="K207">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L207">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M207">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N207">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O207">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P207">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S207">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T207">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U207">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V207">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W207">
-        <v>0.7270000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18924,16 +18924,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18941,7 +18941,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6414604</v>
+        <v>6352816</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18953,58 +18953,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
         <v>42</v>
       </c>
       <c r="K208">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N208">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O208">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P208">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U208">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V208">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W208">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19013,16 +19013,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC208">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19131,7 +19131,7 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
         <v>29</v>
@@ -19223,7 +19223,7 @@
         <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19309,10 +19309,10 @@
         <v>45220.0625</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -19398,7 +19398,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
         <v>39</v>
@@ -19579,7 +19579,7 @@
         <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19665,7 +19665,7 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
         <v>29</v>
@@ -19935,7 +19935,7 @@
         <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20024,7 +20024,7 @@
         <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20110,10 +20110,10 @@
         <v>45228.0625</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -20202,7 +20202,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20377,10 +20377,10 @@
         <v>45241.0625</v>
       </c>
       <c r="F224" t="s">
+        <v>32</v>
+      </c>
+      <c r="G224" t="s">
         <v>33</v>
-      </c>
-      <c r="G224" t="s">
-        <v>32</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20466,7 +20466,7 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G225" t="s">
         <v>34</v>
@@ -20733,7 +20733,7 @@
         <v>45242.16666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
         <v>38</v>
@@ -20822,7 +20822,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
         <v>40</v>
@@ -20899,7 +20899,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6537916</v>
+        <v>6531883</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20911,76 +20911,76 @@
         <v>45256.125</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K230">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="L230">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M230">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="N230">
-        <v>1.222</v>
+        <v>1.75</v>
       </c>
       <c r="O230">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P230">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="Q230">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
         <v>3.25</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W230">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20988,7 +20988,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6537915</v>
+        <v>6540655</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,49 +21000,49 @@
         <v>45256.125</v>
       </c>
       <c r="F231" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K231">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M231">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N231">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O231">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P231">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q231">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S231">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U231">
         <v>1.825</v>
@@ -21054,16 +21054,16 @@
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB231">
         <v>-1</v>
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6531883</v>
+        <v>6537915</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,76 +21089,76 @@
         <v>45256.125</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K232">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L232">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M232">
+        <v>5.25</v>
+      </c>
+      <c r="N232">
+        <v>1.444</v>
+      </c>
+      <c r="O232">
         <v>4.2</v>
       </c>
-      <c r="N232">
-        <v>1.75</v>
-      </c>
-      <c r="O232">
-        <v>4</v>
-      </c>
       <c r="P232">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q232">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y232">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21166,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6540655</v>
+        <v>6527572</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21178,76 +21178,76 @@
         <v>45256.125</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G233" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I233">
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K233">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L233">
         <v>3.3</v>
       </c>
       <c r="M233">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N233">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O233">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P233">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q233">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S233">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
+        <v>1.975</v>
+      </c>
+      <c r="V233">
         <v>1.825</v>
       </c>
-      <c r="V233">
-        <v>1.975</v>
-      </c>
       <c r="W233">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA233">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC233">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6531882</v>
+        <v>6537916</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21267,58 +21267,58 @@
         <v>45256.125</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G234" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>42</v>
       </c>
       <c r="K234">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M234">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N234">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="O234">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P234">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q234">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S234">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V234">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
-        <v>0.3999999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21327,16 +21327,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB234">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6527572</v>
+        <v>6531882</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,13 +21356,13 @@
         <v>45256.125</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G235" t="s">
         <v>31</v>
       </c>
       <c r="H235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I235">
         <v>1</v>
@@ -21371,34 +21371,34 @@
         <v>42</v>
       </c>
       <c r="K235">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L235">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M235">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N235">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O235">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P235">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R235">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S235">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
         <v>1.975</v>
@@ -21407,7 +21407,7 @@
         <v>1.825</v>
       </c>
       <c r="W235">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21416,16 +21416,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB235">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H236">
         <v>0</v>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -103,22 +103,22 @@
     <t>South Korea K League 2</t>
   </si>
   <si>
-    <t>Gyeongnam FC</t>
-  </si>
-  <si>
     <t>Jeonnam Dragons</t>
   </si>
   <si>
     <t>Cheonan City</t>
   </si>
   <si>
-    <t>Seoul ELand FC</t>
+    <t>Gyeongnam FC</t>
+  </si>
+  <si>
+    <t>Chungnam Asan FC</t>
   </si>
   <si>
     <t>Seongnam FC</t>
   </si>
   <si>
-    <t>Chungnam Asan FC</t>
+    <t>Seoul ELand FC</t>
   </si>
   <si>
     <t>Chungbuk Cheongju</t>
@@ -142,10 +142,10 @@
     <t>Gimcheon Sangmu FC</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6206100</v>
+        <v>6204304</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -622,73 +622,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L2">
         <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N2">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O2">
         <v>3.2</v>
       </c>
       <c r="P2">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
         <v>1.4</v>
       </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
       <c r="Z2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6204304</v>
+        <v>6206099</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,52 +711,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
         <v>3.2</v>
       </c>
       <c r="M3">
+        <v>2.55</v>
+      </c>
+      <c r="N3">
+        <v>3.1</v>
+      </c>
+      <c r="O3">
+        <v>3.1</v>
+      </c>
+      <c r="P3">
         <v>2.3</v>
       </c>
-      <c r="N3">
-        <v>2.625</v>
-      </c>
-      <c r="O3">
-        <v>3.2</v>
-      </c>
-      <c r="P3">
-        <v>2.4</v>
-      </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -765,19 +765,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6206099</v>
+        <v>6206100</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>43</v>
       </c>
       <c r="K4">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
         <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="N4">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6336857</v>
+        <v>6206101</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,52 +889,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
+        <v>2.6</v>
+      </c>
+      <c r="L5">
+        <v>3.2</v>
+      </c>
+      <c r="M5">
+        <v>2.55</v>
+      </c>
+      <c r="N5">
+        <v>3.6</v>
+      </c>
+      <c r="O5">
+        <v>3.1</v>
+      </c>
+      <c r="P5">
+        <v>2.05</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>1.75</v>
+      </c>
+      <c r="S5">
+        <v>2.05</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
         <v>1.8</v>
       </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>3.75</v>
-      </c>
-      <c r="N5">
-        <v>1.571</v>
-      </c>
-      <c r="O5">
-        <v>3.75</v>
-      </c>
-      <c r="P5">
-        <v>4.75</v>
-      </c>
-      <c r="Q5">
-        <v>-1</v>
-      </c>
-      <c r="R5">
-        <v>1.9</v>
-      </c>
-      <c r="S5">
-        <v>1.9</v>
-      </c>
-      <c r="T5">
-        <v>2.5</v>
-      </c>
-      <c r="U5">
-        <v>1.875</v>
-      </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -987,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1.7</v>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6206101</v>
+        <v>6336857</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,52 +1067,52 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N7">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1121,16 +1121,16 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>2.4</v>
@@ -1334,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>2.55</v>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>2.15</v>
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6204305</v>
+        <v>6206108</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,76 +1509,76 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L12">
         <v>3.1</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>3.1</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1586,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6206108</v>
+        <v>6204305</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,76 +1598,76 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L13">
         <v>3.1</v>
       </c>
       <c r="M13">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O13">
         <v>3.1</v>
       </c>
       <c r="P13">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1687,10 +1687,10 @@
         <v>44996.0625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>2.05</v>
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6206109</v>
+        <v>6206110</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,76 +1776,76 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N15">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O15">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6206110</v>
+        <v>6206109</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,76 +1865,76 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="L16">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N16">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P16">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>-0</v>
+      </c>
+      <c r="AB16">
+        <v>-0.5</v>
+      </c>
+      <c r="AC16">
         <v>0.4375</v>
-      </c>
-      <c r="AA16">
-        <v>-0.5</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
-      <c r="AC16">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6206112</v>
+        <v>6206111</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,40 +1954,40 @@
         <v>44997.0625</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -1996,34 +1996,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
+        <v>0.925</v>
+      </c>
+      <c r="AA17">
+        <v>-1</v>
+      </c>
+      <c r="AB17">
         <v>-0.5</v>
       </c>
-      <c r="AA17">
-        <v>0.4375</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
       <c r="AC17">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6206111</v>
+        <v>6206112</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,40 +2043,40 @@
         <v>44997.0625</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="L18">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2085,34 +2085,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>-0.5</v>
+      </c>
+      <c r="AA18">
+        <v>0.4375</v>
+      </c>
+      <c r="AB18">
+        <v>-1</v>
+      </c>
+      <c r="AC18">
         <v>0.925</v>
-      </c>
-      <c r="AA18">
-        <v>-1</v>
-      </c>
-      <c r="AB18">
-        <v>-0.5</v>
-      </c>
-      <c r="AC18">
-        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>44997.16666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2144,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
         <v>3.2</v>
@@ -2221,10 +2221,10 @@
         <v>45003.0625</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6206116</v>
+        <v>6206115</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,76 +2310,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N21">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q21">
         <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X21">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6206115</v>
+        <v>6206116</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N22">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q22">
         <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>3.2</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6204307</v>
+        <v>6206118</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>43</v>
       </c>
       <c r="K24">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N24">
+        <v>2.25</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>3.2</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
         <v>1.95</v>
       </c>
-      <c r="O24">
-        <v>3.25</v>
-      </c>
-      <c r="P24">
-        <v>3.5</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>2.05</v>
-      </c>
       <c r="S24">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6206118</v>
+        <v>6204307</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,76 +2666,76 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>42</v>
       </c>
       <c r="K25">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L25">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N25">
+        <v>1.95</v>
+      </c>
+      <c r="O25">
+        <v>3.25</v>
+      </c>
+      <c r="P25">
+        <v>3.5</v>
+      </c>
+      <c r="Q25">
+        <v>-0.5</v>
+      </c>
+      <c r="R25">
+        <v>2.05</v>
+      </c>
+      <c r="S25">
+        <v>1.75</v>
+      </c>
+      <c r="T25">
         <v>2.25</v>
       </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>3.2</v>
-      </c>
-      <c r="Q25">
-        <v>-0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.95</v>
-      </c>
-      <c r="S25">
-        <v>1.85</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>2.05</v>
@@ -2856,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>1.666</v>
@@ -3025,7 +3025,7 @@
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
         <v>2.1</v>
@@ -3114,7 +3114,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>2.4</v>
@@ -3200,10 +3200,10 @@
         <v>45018.27083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>3.1</v>
@@ -3289,7 +3289,7 @@
         <v>45024.0625</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3301,7 +3301,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32">
         <v>4.5</v>
@@ -3390,7 +3390,7 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>2.75</v>
@@ -3467,7 +3467,7 @@
         <v>45024.27083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -3645,7 +3645,7 @@
         <v>45025.16666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>1.75</v>
@@ -3734,7 +3734,7 @@
         <v>45025.27083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3823,7 +3823,7 @@
         <v>45031.0625</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>1.95</v>
@@ -3900,7 +3900,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6206130</v>
+        <v>6206129</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3912,49 +3912,49 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L39">
         <v>3.2</v>
       </c>
       <c r="M39">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N39">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
         <v>1.85</v>
@@ -3963,7 +3963,7 @@
         <v>1.95</v>
       </c>
       <c r="W39">
-        <v>0.833</v>
+        <v>1.7</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3972,16 +3972,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3989,7 +3989,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6206129</v>
+        <v>6206130</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4001,49 +4001,49 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K40">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L40">
         <v>3.2</v>
       </c>
       <c r="M40">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N40">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P40">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
         <v>1.85</v>
@@ -4052,7 +4052,7 @@
         <v>1.95</v>
       </c>
       <c r="W40">
-        <v>1.7</v>
+        <v>0.833</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4061,16 +4061,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA40">
         <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>1.333</v>
@@ -4280,7 +4280,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K43">
         <v>2.3</v>
@@ -4360,7 +4360,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K44">
         <v>2.2</v>
@@ -4449,7 +4449,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
         <v>2.3</v>
@@ -4535,7 +4535,7 @@
         <v>45034.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -4547,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>2.625</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>2.9</v>
@@ -4701,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6204309</v>
+        <v>6206138</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,76 +4713,76 @@
         <v>45035.3125</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K48">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N48">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O48">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R48">
+        <v>1.825</v>
+      </c>
+      <c r="S48">
         <v>1.975</v>
       </c>
-      <c r="S48">
-        <v>1.825</v>
-      </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6206138</v>
+        <v>6204309</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45035.3125</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K49">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L49">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N49">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P49">
+        <v>4</v>
+      </c>
+      <c r="Q49">
+        <v>-0.75</v>
+      </c>
+      <c r="R49">
+        <v>1.975</v>
+      </c>
+      <c r="S49">
+        <v>1.825</v>
+      </c>
+      <c r="T49">
+        <v>2.75</v>
+      </c>
+      <c r="U49">
+        <v>1.85</v>
+      </c>
+      <c r="V49">
         <v>1.95</v>
       </c>
-      <c r="Q49">
-        <v>0.5</v>
-      </c>
-      <c r="R49">
-        <v>1.825</v>
-      </c>
-      <c r="S49">
-        <v>1.975</v>
-      </c>
-      <c r="T49">
-        <v>2.5</v>
-      </c>
-      <c r="U49">
-        <v>2</v>
-      </c>
-      <c r="V49">
-        <v>1.8</v>
-      </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X49">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC49">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4903,7 +4903,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K50">
         <v>1.833</v>
@@ -4992,7 +4992,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
         <v>2.05</v>
@@ -5069,7 +5069,7 @@
         <v>45038.27083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -5158,10 +5158,10 @@
         <v>45039.0625</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5259,7 +5259,7 @@
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K54">
         <v>2.7</v>
@@ -5339,7 +5339,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -5425,10 +5425,10 @@
         <v>45045.0625</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>2.15</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6206144</v>
+        <v>6206145</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,76 +5514,76 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K57">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M57">
+        <v>6.5</v>
+      </c>
+      <c r="N57">
+        <v>1.4</v>
+      </c>
+      <c r="O57">
         <v>4.2</v>
       </c>
-      <c r="N57">
-        <v>1.8</v>
-      </c>
-      <c r="O57">
-        <v>3.5</v>
-      </c>
       <c r="P57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R57">
-        <v>2.05</v>
+        <v>1.675</v>
       </c>
       <c r="S57">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="V57">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X57">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC57">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6206145</v>
+        <v>6206144</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,76 +5603,76 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K58">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L58">
+        <v>3.4</v>
+      </c>
+      <c r="M58">
+        <v>4.2</v>
+      </c>
+      <c r="N58">
+        <v>1.8</v>
+      </c>
+      <c r="O58">
+        <v>3.5</v>
+      </c>
+      <c r="P58">
         <v>4</v>
       </c>
-      <c r="M58">
-        <v>6.5</v>
-      </c>
-      <c r="N58">
-        <v>1.4</v>
-      </c>
-      <c r="O58">
-        <v>4.2</v>
-      </c>
-      <c r="P58">
-        <v>7</v>
-      </c>
       <c r="Q58">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.675</v>
+        <v>2.05</v>
       </c>
       <c r="S58">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.7</v>
+        <v>1.775</v>
       </c>
       <c r="V58">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W58">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB58">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K59">
         <v>1.571</v>
@@ -5793,7 +5793,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
         <v>2.55</v>
@@ -5870,7 +5870,7 @@
         <v>45046.16666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -5882,7 +5882,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>2.45</v>
@@ -5959,7 +5959,7 @@
         <v>45048.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -6048,7 +6048,7 @@
         <v>45048.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>39</v>
@@ -6060,7 +6060,7 @@
         <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
         <v>4.5</v>
@@ -6140,7 +6140,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6226,10 +6226,10 @@
         <v>45049.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6238,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K65">
         <v>2.2</v>
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6206153</v>
+        <v>6206152</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,76 +6315,76 @@
         <v>45049.3125</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K66">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L66">
         <v>3.25</v>
       </c>
       <c r="M66">
+        <v>1.909</v>
+      </c>
+      <c r="N66">
+        <v>4.5</v>
+      </c>
+      <c r="O66">
+        <v>3.75</v>
+      </c>
+      <c r="P66">
+        <v>1.615</v>
+      </c>
+      <c r="Q66">
+        <v>0.75</v>
+      </c>
+      <c r="R66">
+        <v>1.975</v>
+      </c>
+      <c r="S66">
+        <v>1.825</v>
+      </c>
+      <c r="T66">
         <v>2.75</v>
       </c>
-      <c r="N66">
-        <v>1.95</v>
-      </c>
-      <c r="O66">
-        <v>3.3</v>
-      </c>
-      <c r="P66">
-        <v>3.3</v>
-      </c>
-      <c r="Q66">
+      <c r="U66">
+        <v>1.8</v>
+      </c>
+      <c r="V66">
+        <v>2</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>0.615</v>
+      </c>
+      <c r="Z66">
         <v>-0.5</v>
       </c>
-      <c r="R66">
-        <v>2</v>
-      </c>
-      <c r="S66">
-        <v>1.8</v>
-      </c>
-      <c r="T66">
-        <v>2.25</v>
-      </c>
-      <c r="U66">
-        <v>1.95</v>
-      </c>
-      <c r="V66">
-        <v>1.85</v>
-      </c>
-      <c r="W66">
-        <v>-1</v>
-      </c>
-      <c r="X66">
-        <v>2.3</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
-      <c r="Z66">
-        <v>-1</v>
-      </c>
       <c r="AA66">
+        <v>0.4125</v>
+      </c>
+      <c r="AB66">
         <v>0.8</v>
       </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
       <c r="AC66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6392,7 +6392,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6206152</v>
+        <v>6206153</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6404,76 +6404,76 @@
         <v>45049.3125</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L67">
         <v>3.25</v>
       </c>
       <c r="M67">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N67">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P67">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="Q67">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y67">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6206155</v>
+        <v>6206156</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,25 +6582,25 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L69">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M69">
         <v>3</v>
@@ -6609,22 +6609,22 @@
         <v>2.375</v>
       </c>
       <c r="O69">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S69">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U69">
         <v>1.875</v>
@@ -6633,25 +6633,25 @@
         <v>1.925</v>
       </c>
       <c r="W69">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6206156</v>
+        <v>6206155</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,25 +6671,25 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M70">
         <v>3</v>
@@ -6698,22 +6698,22 @@
         <v>2.375</v>
       </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S70">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
         <v>1.875</v>
@@ -6722,25 +6722,25 @@
         <v>1.925</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA70">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -6772,7 +6772,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>2.5</v>
@@ -6861,7 +6861,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>1.909</v>
@@ -7027,10 +7027,10 @@
         <v>45059.0625</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7039,7 +7039,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
         <v>1.7</v>
@@ -7217,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K76">
         <v>2.2</v>
@@ -7294,7 +7294,7 @@
         <v>45060.0625</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
         <v>33</v>
@@ -7383,7 +7383,7 @@
         <v>45060.16666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7395,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K78">
         <v>2.5</v>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.55</v>
@@ -7573,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K80">
         <v>2.9</v>
@@ -7650,10 +7650,10 @@
         <v>45066.16666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K81">
         <v>4</v>
@@ -7742,7 +7742,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K82">
         <v>1.85</v>
@@ -7828,7 +7828,7 @@
         <v>45066.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
         <v>36</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -7917,7 +7917,7 @@
         <v>45067.16666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
         <v>2.25</v>
@@ -8098,7 +8098,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K86">
         <v>3.75</v>
@@ -8184,11 +8184,11 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F87" t="s">
+        <v>29</v>
+      </c>
+      <c r="G87" t="s">
         <v>30</v>
       </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
       <c r="H87">
         <v>2</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>1.571</v>
@@ -8285,7 +8285,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8365,7 +8365,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>2.05</v>
@@ -8454,7 +8454,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8463,7 +8463,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K90">
         <v>2.8</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>2.4</v>
@@ -8629,10 +8629,10 @@
         <v>45080.16666666666</v>
       </c>
       <c r="F92" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s">
         <v>31</v>
-      </c>
-      <c r="G92" t="s">
-        <v>29</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8641,7 +8641,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>4.5</v>
@@ -8718,7 +8718,7 @@
         <v>45080.27083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>33</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K93">
         <v>2.45</v>
@@ -8908,7 +8908,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K95">
         <v>1.666</v>
@@ -8985,7 +8985,7 @@
         <v>45081.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -8997,7 +8997,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K96">
         <v>2.6</v>
@@ -9074,7 +9074,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K97">
         <v>3.6</v>
@@ -9175,7 +9175,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.444</v>
@@ -9252,10 +9252,10 @@
         <v>45087.27083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9264,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K99">
         <v>2.05</v>
@@ -9433,7 +9433,7 @@
         <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9522,7 +9522,7 @@
         <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9531,7 +9531,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>3.5</v>
@@ -9611,7 +9611,7 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9620,7 +9620,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
         <v>2.15</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K105">
         <v>2.55</v>
@@ -9878,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9887,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9964,7 +9964,7 @@
         <v>45102.16666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
         <v>37</v>
@@ -9976,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
         <v>1.8</v>
@@ -10056,7 +10056,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10065,7 +10065,7 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K108">
         <v>2.2</v>
@@ -10142,7 +10142,7 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>39</v>
@@ -10154,7 +10154,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K109">
         <v>3</v>
@@ -10243,7 +10243,7 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K110">
         <v>3.8</v>
@@ -10332,7 +10332,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K111">
         <v>2.8</v>
@@ -10412,7 +10412,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>4</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
         <v>1.909</v>
@@ -10501,7 +10501,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10575,7 +10575,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6206197</v>
+        <v>6204317</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,76 +10587,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
         <v>44</v>
       </c>
       <c r="K114">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L114">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
+        <v>2.625</v>
+      </c>
+      <c r="N114">
+        <v>2.15</v>
+      </c>
+      <c r="O114">
+        <v>3.4</v>
+      </c>
+      <c r="P114">
+        <v>3</v>
+      </c>
+      <c r="Q114">
+        <v>-0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.9</v>
+      </c>
+      <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
         <v>2.5</v>
       </c>
-      <c r="N114">
-        <v>2.7</v>
-      </c>
-      <c r="O114">
-        <v>3</v>
-      </c>
-      <c r="P114">
-        <v>2.55</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>1.925</v>
-      </c>
-      <c r="S114">
-        <v>1.875</v>
-      </c>
-      <c r="T114">
-        <v>2.25</v>
-      </c>
       <c r="U114">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6204317</v>
+        <v>6206197</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>44</v>
       </c>
       <c r="K115">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L115">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P115">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6206198</v>
+        <v>6206199</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,40 +10765,40 @@
         <v>45115.25</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K116">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N116">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
         <v>2</v>
@@ -10810,31 +10810,31 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W116">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6206199</v>
+        <v>6206198</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,40 +10854,40 @@
         <v>45115.25</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N117">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
         <v>2</v>
@@ -10899,31 +10899,31 @@
         <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC117">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11032,7 +11032,7 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
         <v>37</v>
@@ -11044,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>1.666</v>
@@ -11121,10 +11121,10 @@
         <v>45117.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11222,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>1.833</v>
@@ -11299,7 +11299,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
         <v>35</v>
@@ -11400,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>3.6</v>
@@ -11489,7 +11489,7 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K124">
         <v>3.1</v>
@@ -11566,7 +11566,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
         <v>39</v>
@@ -11578,7 +11578,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K125">
         <v>3.2</v>
@@ -11667,7 +11667,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K126">
         <v>1.909</v>
@@ -11744,11 +11744,11 @@
         <v>45123.33333333334</v>
       </c>
       <c r="F127" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" t="s">
         <v>29</v>
       </c>
-      <c r="G127" t="s">
-        <v>30</v>
-      </c>
       <c r="H127">
         <v>0</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K127">
         <v>2</v>
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,76 +11833,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K128">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N128">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P128">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.825</v>
-      </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
+        <v>1.95</v>
+      </c>
+      <c r="V128">
         <v>1.85</v>
       </c>
-      <c r="V128">
-        <v>1.95</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K129">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N129">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O129">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
         <v>1.825</v>
       </c>
-      <c r="S129">
-        <v>1.975</v>
-      </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
+        <v>1.85</v>
+      </c>
+      <c r="V129">
         <v>1.95</v>
       </c>
-      <c r="V129">
-        <v>1.85</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y129">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6204320</v>
+        <v>6206211</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,76 +12100,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K131">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M131">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N131">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P131">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6206211</v>
+        <v>6204320</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,76 +12189,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L132">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N132">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O132">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P132">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X132">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12290,7 +12290,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K133">
         <v>1.65</v>
@@ -12370,7 +12370,7 @@
         <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K134">
         <v>2.9</v>
@@ -12456,7 +12456,7 @@
         <v>45130.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
         <v>41</v>
@@ -12468,7 +12468,7 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K135">
         <v>3</v>
@@ -12545,7 +12545,7 @@
         <v>45130.3125</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
         <v>36</v>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K136">
         <v>2.25</v>
@@ -12634,7 +12634,7 @@
         <v>45130.33333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>33</v>
@@ -12646,7 +12646,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K137">
         <v>3.25</v>
@@ -12735,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K138">
         <v>1.727</v>
@@ -12824,7 +12824,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K139">
         <v>2.55</v>
@@ -12901,7 +12901,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
         <v>38</v>
@@ -12993,7 +12993,7 @@
         <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13002,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K141">
         <v>2.45</v>
@@ -13171,7 +13171,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K143">
         <v>2.05</v>
@@ -13257,10 +13257,10 @@
         <v>45138.29166666666</v>
       </c>
       <c r="F144" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" t="s">
         <v>32</v>
-      </c>
-      <c r="G144" t="s">
-        <v>34</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13358,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K145">
         <v>2.5</v>
@@ -13435,7 +13435,7 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
         <v>36</v>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K146">
         <v>2.15</v>
@@ -13527,7 +13527,7 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K147">
         <v>1.4</v>
@@ -13625,7 +13625,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>3.2</v>
@@ -13702,10 +13702,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13714,7 +13714,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K149">
         <v>2.55</v>
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>1.6</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K151">
         <v>3</v>
@@ -14061,7 +14061,7 @@
         <v>36</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K153">
         <v>2.45</v>
@@ -14147,7 +14147,7 @@
         <v>45152.3125</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14159,7 +14159,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K154">
         <v>3.8</v>
@@ -14239,7 +14239,7 @@
         <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14248,7 +14248,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14328,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14337,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>1.909</v>
@@ -14417,7 +14417,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K158">
         <v>2.9</v>
@@ -14592,7 +14592,7 @@
         <v>45158.27083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
         <v>40</v>
@@ -14604,7 +14604,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K159">
         <v>2.625</v>
@@ -14681,7 +14681,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
         <v>41</v>
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K160">
         <v>3.3</v>
@@ -14859,10 +14859,10 @@
         <v>45159.3125</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -14960,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K163">
         <v>1.6</v>
@@ -15037,7 +15037,7 @@
         <v>45164.3125</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
         <v>33</v>
@@ -15049,7 +15049,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K164">
         <v>2.3</v>
@@ -15138,7 +15138,7 @@
         <v>3</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K165">
         <v>3.1</v>
@@ -15218,7 +15218,7 @@
         <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15227,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K166">
         <v>2.25</v>
@@ -15307,7 +15307,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K167">
         <v>1.909</v>
@@ -15393,7 +15393,7 @@
         <v>45165.3125</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
         <v>35</v>
@@ -15482,10 +15482,10 @@
         <v>45167.29166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15494,7 +15494,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K169">
         <v>2.4</v>
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6206245</v>
+        <v>6206246</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,76 +15571,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
         <v>43</v>
       </c>
       <c r="K170">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L170">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M170">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N170">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O170">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P170">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q170">
         <v>0.25</v>
       </c>
       <c r="R170">
+        <v>1.85</v>
+      </c>
+      <c r="S170">
+        <v>1.95</v>
+      </c>
+      <c r="T170">
+        <v>2.5</v>
+      </c>
+      <c r="U170">
         <v>1.875</v>
       </c>
-      <c r="S170">
+      <c r="V170">
         <v>1.925</v>
       </c>
-      <c r="T170">
-        <v>2.25</v>
-      </c>
-      <c r="U170">
-        <v>1.975</v>
-      </c>
-      <c r="V170">
-        <v>1.825</v>
-      </c>
       <c r="W170">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA170">
+        <v>-1</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
         <v>0.925</v>
-      </c>
-      <c r="AB170">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC170">
-        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6206246</v>
+        <v>6206245</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,76 +15660,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>42</v>
       </c>
       <c r="K171">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L171">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M171">
+        <v>2.15</v>
+      </c>
+      <c r="N171">
+        <v>3.2</v>
+      </c>
+      <c r="O171">
+        <v>3.1</v>
+      </c>
+      <c r="P171">
         <v>2.2</v>
-      </c>
-      <c r="N171">
-        <v>2.9</v>
-      </c>
-      <c r="O171">
-        <v>3.4</v>
-      </c>
-      <c r="P171">
-        <v>2.25</v>
       </c>
       <c r="Q171">
         <v>0.25</v>
       </c>
       <c r="R171">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S171">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z171">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC171">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15749,10 +15749,10 @@
         <v>45168.29166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15761,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K172">
         <v>2.7</v>
@@ -15826,7 +15826,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15838,73 +15838,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
         <v>43</v>
       </c>
       <c r="K173">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L173">
+        <v>3.3</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>3.5</v>
+      </c>
+      <c r="O173">
         <v>3.2</v>
       </c>
-      <c r="M173">
-        <v>2.875</v>
-      </c>
-      <c r="N173">
-        <v>2</v>
-      </c>
-      <c r="O173">
-        <v>3.3</v>
-      </c>
       <c r="P173">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,73 +15927,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J174" t="s">
         <v>42</v>
       </c>
       <c r="K174">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L174">
+        <v>3.2</v>
+      </c>
+      <c r="M174">
+        <v>2.875</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174">
         <v>3.3</v>
       </c>
-      <c r="M174">
-        <v>2</v>
-      </c>
-      <c r="N174">
-        <v>3.5</v>
-      </c>
-      <c r="O174">
-        <v>3.2</v>
-      </c>
       <c r="P174">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U174">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB174">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16019,7 +16019,7 @@
         <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16028,7 +16028,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K175">
         <v>2.25</v>
@@ -16194,7 +16194,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>37</v>
@@ -16286,7 +16286,7 @@
         <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16295,7 +16295,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K178">
         <v>2</v>
@@ -16372,7 +16372,7 @@
         <v>45172.27083333334</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
         <v>33</v>
@@ -16473,7 +16473,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K180">
         <v>2.2</v>
@@ -16562,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K181">
         <v>3.1</v>
@@ -16639,10 +16639,10 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16651,7 +16651,7 @@
         <v>3</v>
       </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K182">
         <v>1.666</v>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K183">
         <v>1.666</v>
@@ -16817,10 +16817,10 @@
         <v>45186.0625</v>
       </c>
       <c r="F184" t="s">
+        <v>31</v>
+      </c>
+      <c r="G184" t="s">
         <v>29</v>
-      </c>
-      <c r="G184" t="s">
-        <v>30</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16829,7 +16829,7 @@
         <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K184">
         <v>1.909</v>
@@ -16906,7 +16906,7 @@
         <v>45186.16666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>39</v>
@@ -16918,7 +16918,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K185">
         <v>3.4</v>
@@ -17096,7 +17096,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K187">
         <v>1.5</v>
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6206261</v>
+        <v>6206260</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,40 +17173,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
         <v>1</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>42</v>
       </c>
       <c r="K188">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L188">
+        <v>3.2</v>
+      </c>
+      <c r="M188">
+        <v>2.75</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188">
+        <v>3.3</v>
+      </c>
+      <c r="P188">
         <v>3.4</v>
       </c>
-      <c r="M188">
-        <v>1.909</v>
-      </c>
-      <c r="N188">
-        <v>4</v>
-      </c>
-      <c r="O188">
-        <v>3.5</v>
-      </c>
-      <c r="P188">
-        <v>1.8</v>
-      </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -17215,34 +17215,34 @@
         <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6206260</v>
+        <v>6206261</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,40 +17262,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L189">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O189">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R189">
         <v>2</v>
@@ -17304,34 +17304,34 @@
         <v>1.8</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17428,7 +17428,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6206263</v>
+        <v>6204329</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17440,76 +17440,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
         <v>1</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>42</v>
       </c>
       <c r="K191">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L191">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M191">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N191">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O191">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S191">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T191">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V191">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z191">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17517,7 +17517,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6204329</v>
+        <v>6206263</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17529,76 +17529,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>43</v>
       </c>
       <c r="K192">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L192">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M192">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N192">
+        <v>3.6</v>
+      </c>
+      <c r="O192">
+        <v>3.25</v>
+      </c>
+      <c r="P192">
+        <v>2.1</v>
+      </c>
+      <c r="Q192">
+        <v>0.25</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
+        <v>1.8</v>
+      </c>
+      <c r="T192">
+        <v>2</v>
+      </c>
+      <c r="U192">
+        <v>1.775</v>
+      </c>
+      <c r="V192">
+        <v>2.025</v>
+      </c>
+      <c r="W192">
         <v>2.6</v>
       </c>
-      <c r="O192">
-        <v>3.4</v>
-      </c>
-      <c r="P192">
-        <v>2.625</v>
-      </c>
-      <c r="Q192">
-        <v>0</v>
-      </c>
-      <c r="R192">
-        <v>1.875</v>
-      </c>
-      <c r="S192">
-        <v>1.925</v>
-      </c>
-      <c r="T192">
-        <v>2.25</v>
-      </c>
-      <c r="U192">
-        <v>1.825</v>
-      </c>
-      <c r="V192">
-        <v>1.975</v>
-      </c>
-      <c r="W192">
-        <v>-1</v>
-      </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA192">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17630,7 +17630,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K193">
         <v>2.25</v>
@@ -17719,7 +17719,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K194">
         <v>1.909</v>
@@ -17796,10 +17796,10 @@
         <v>45192.27083333334</v>
       </c>
       <c r="F195" t="s">
+        <v>29</v>
+      </c>
+      <c r="G195" t="s">
         <v>30</v>
-      </c>
-      <c r="G195" t="s">
-        <v>31</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17808,7 +17808,7 @@
         <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K195">
         <v>1.7</v>
@@ -17888,7 +17888,7 @@
         <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17897,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K196">
         <v>2.2</v>
@@ -17974,7 +17974,7 @@
         <v>45193.16666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
         <v>37</v>
@@ -17986,7 +17986,7 @@
         <v>4</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K197">
         <v>1.75</v>
@@ -18066,7 +18066,7 @@
         <v>36</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18075,7 +18075,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K198">
         <v>2.625</v>
@@ -18330,10 +18330,10 @@
         <v>45199.27083333334</v>
       </c>
       <c r="F201" t="s">
+        <v>32</v>
+      </c>
+      <c r="G201" t="s">
         <v>34</v>
-      </c>
-      <c r="G201" t="s">
-        <v>32</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18342,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K201">
         <v>2.15</v>
@@ -18508,7 +18508,7 @@
         <v>45200.16666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18520,7 +18520,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K203">
         <v>5.25</v>
@@ -18597,7 +18597,7 @@
         <v>45200.27083333334</v>
       </c>
       <c r="F204" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -18609,7 +18609,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K204">
         <v>2.625</v>
@@ -18674,7 +18674,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6357144</v>
+        <v>6352815</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18686,76 +18686,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K205">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L205">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M205">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N205">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O205">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S205">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T205">
         <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X205">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA205">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC205">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18763,7 +18763,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6352815</v>
+        <v>6357144</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18775,76 +18775,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F206" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K206">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L206">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M206">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N206">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O206">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P206">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R206">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V206">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W206">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB206">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>33</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -18876,7 +18876,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K207">
         <v>2.4</v>
@@ -18953,7 +18953,7 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
         <v>37</v>
@@ -18965,7 +18965,7 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K208">
         <v>1.666</v>
@@ -19030,7 +19030,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6388120</v>
+        <v>6357145</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19042,73 +19042,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
         <v>3</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>42</v>
       </c>
       <c r="K209">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M209">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N209">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O209">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P209">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q209">
         <v>0.25</v>
       </c>
       <c r="R209">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S209">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T209">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z209">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB209">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19119,7 +19119,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6357145</v>
+        <v>6388120</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19131,73 +19131,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I210">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>43</v>
       </c>
       <c r="K210">
+        <v>2.8</v>
+      </c>
+      <c r="L210">
+        <v>3.2</v>
+      </c>
+      <c r="M210">
+        <v>2.5</v>
+      </c>
+      <c r="N210">
         <v>3</v>
       </c>
-      <c r="L210">
-        <v>3.25</v>
-      </c>
-      <c r="M210">
-        <v>2.375</v>
-      </c>
-      <c r="N210">
+      <c r="O210">
         <v>3.1</v>
       </c>
-      <c r="O210">
-        <v>3.25</v>
-      </c>
       <c r="P210">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q210">
         <v>0.25</v>
       </c>
       <c r="R210">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S210">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA210">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19220,7 +19220,7 @@
         <v>45213.16666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
         <v>35</v>
@@ -19232,7 +19232,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K211">
         <v>2.3</v>
@@ -19309,7 +19309,7 @@
         <v>45220.0625</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
         <v>33</v>
@@ -19321,7 +19321,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K212">
         <v>3.1</v>
@@ -19487,7 +19487,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
         <v>40</v>
@@ -19499,7 +19499,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K214">
         <v>3.3</v>
@@ -19579,7 +19579,7 @@
         <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19588,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K215">
         <v>2.1</v>
@@ -19668,7 +19668,7 @@
         <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19766,7 +19766,7 @@
         <v>7</v>
       </c>
       <c r="J217" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K217">
         <v>4.5</v>
@@ -19843,7 +19843,7 @@
         <v>45227.0625</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G218" t="s">
         <v>37</v>
@@ -19855,7 +19855,7 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K218">
         <v>1.55</v>
@@ -19932,10 +19932,10 @@
         <v>45227.16666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -19944,7 +19944,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K219">
         <v>1.8</v>
@@ -20024,7 +20024,7 @@
         <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20033,7 +20033,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K220">
         <v>1.666</v>
@@ -20110,7 +20110,7 @@
         <v>45228.0625</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
         <v>35</v>
@@ -20122,7 +20122,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K221">
         <v>2.1</v>
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K222">
         <v>1.85</v>
@@ -20300,7 +20300,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K223">
         <v>1.727</v>
@@ -20377,7 +20377,7 @@
         <v>45241.0625</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
         <v>33</v>
@@ -20389,7 +20389,7 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K224">
         <v>2.8</v>
@@ -20469,7 +20469,7 @@
         <v>35</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20478,7 +20478,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K225">
         <v>2.375</v>
@@ -20555,7 +20555,7 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F226" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
         <v>41</v>
@@ -20656,7 +20656,7 @@
         <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K227">
         <v>4</v>
@@ -20733,7 +20733,7 @@
         <v>45242.16666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
         <v>38</v>
@@ -20822,7 +20822,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
         <v>40</v>
@@ -20834,7 +20834,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K229">
         <v>3.1</v>
@@ -20899,7 +20899,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6531883</v>
+        <v>6540655</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20911,55 +20911,55 @@
         <v>45256.125</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K230">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L230">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M230">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N230">
+        <v>2.75</v>
+      </c>
+      <c r="O230">
+        <v>3.25</v>
+      </c>
+      <c r="P230">
+        <v>2.3</v>
+      </c>
+      <c r="Q230">
+        <v>0.25</v>
+      </c>
+      <c r="R230">
         <v>1.75</v>
       </c>
-      <c r="O230">
-        <v>4</v>
-      </c>
-      <c r="P230">
-        <v>3.75</v>
-      </c>
-      <c r="Q230">
-        <v>-0.75</v>
-      </c>
-      <c r="R230">
-        <v>2</v>
-      </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T230">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V230">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -20968,19 +20968,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20988,7 +20988,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6540655</v>
+        <v>6537916</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,76 +21000,76 @@
         <v>45256.125</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>43</v>
       </c>
       <c r="K231">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L231">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M231">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N231">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="O231">
+        <v>5.5</v>
+      </c>
+      <c r="P231">
+        <v>10</v>
+      </c>
+      <c r="Q231">
+        <v>-1.75</v>
+      </c>
+      <c r="R231">
+        <v>1.85</v>
+      </c>
+      <c r="S231">
+        <v>1.95</v>
+      </c>
+      <c r="T231">
         <v>3.25</v>
       </c>
-      <c r="P231">
-        <v>2.3</v>
-      </c>
-      <c r="Q231">
-        <v>0.25</v>
-      </c>
-      <c r="R231">
-        <v>1.75</v>
-      </c>
-      <c r="S231">
-        <v>2.05</v>
-      </c>
-      <c r="T231">
-        <v>2.25</v>
-      </c>
       <c r="U231">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB231">
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6537915</v>
+        <v>6527572</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,40 +21089,40 @@
         <v>45256.125</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I232">
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K232">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M232">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N232">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O232">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P232">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q232">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
         <v>1.975</v>
@@ -21134,31 +21134,31 @@
         <v>2.5</v>
       </c>
       <c r="U232">
+        <v>1.975</v>
+      </c>
+      <c r="V232">
         <v>1.825</v>
       </c>
-      <c r="V232">
-        <v>1.975</v>
-      </c>
       <c r="W232">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X232">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA232">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21166,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6527572</v>
+        <v>6531883</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21178,76 +21178,76 @@
         <v>45256.125</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G233" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H233">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
         <v>42</v>
       </c>
       <c r="K233">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L233">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M233">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N233">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="O233">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P233">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S233">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U233">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W233">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z233">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB233">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6537916</v>
+        <v>6537915</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21267,61 +21267,61 @@
         <v>45256.125</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K234">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="L234">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M234">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N234">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="O234">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P234">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q234">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R234">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S234">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T234">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W234">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y234">
         <v>-1</v>
@@ -21330,13 +21330,13 @@
         <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB234">
         <v>-1</v>
       </c>
       <c r="AC234">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21359,7 +21359,7 @@
         <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H235">
         <v>2</v>
@@ -21368,7 +21368,7 @@
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K235">
         <v>1.571</v>
@@ -21445,7 +21445,7 @@
         <v>45259.29166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
         <v>36</v>
@@ -21537,7 +21537,7 @@
         <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H237">
         <v>2</v>
@@ -21546,7 +21546,7 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K237">
         <v>2.625</v>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,16 @@
     <t>South Korea K League 2</t>
   </si>
   <si>
-    <t>Jeonnam Dragons</t>
-  </si>
-  <si>
     <t>Cheonan City</t>
   </si>
   <si>
     <t>Gyeongnam FC</t>
+  </si>
+  <si>
+    <t>Jeonnam Dragons</t>
+  </si>
+  <si>
+    <t>Seoul ELand FC</t>
   </si>
   <si>
     <t>Chungnam Asan FC</t>
@@ -118,13 +121,10 @@
     <t>Seongnam FC</t>
   </si>
   <si>
-    <t>Seoul ELand FC</t>
+    <t>Bucheon</t>
   </si>
   <si>
     <t>Chungbuk Cheongju</t>
-  </si>
-  <si>
-    <t>Bucheon</t>
   </si>
   <si>
     <t>Ansan Greeners FC</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC237"/>
+  <dimension ref="A1:AC239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6204304</v>
+        <v>6206099</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -622,52 +622,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L2">
         <v>3.2</v>
       </c>
       <c r="M2">
+        <v>2.55</v>
+      </c>
+      <c r="N2">
+        <v>3.1</v>
+      </c>
+      <c r="O2">
+        <v>3.1</v>
+      </c>
+      <c r="P2">
         <v>2.3</v>
       </c>
-      <c r="N2">
-        <v>2.625</v>
-      </c>
-      <c r="O2">
-        <v>3.2</v>
-      </c>
-      <c r="P2">
-        <v>2.4</v>
-      </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -676,19 +676,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6206099</v>
+        <v>6206100</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,73 +711,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
         <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="N3">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6206100</v>
+        <v>6204304</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L4">
         <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O4">
         <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
         <v>1.4</v>
       </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6206101</v>
+        <v>6336857</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,52 +889,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
       <c r="K5">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N5">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O5">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6206102</v>
+        <v>6206101</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,70 +978,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L6">
+        <v>3.2</v>
+      </c>
+      <c r="M6">
+        <v>2.55</v>
+      </c>
+      <c r="N6">
         <v>3.6</v>
       </c>
-      <c r="M6">
-        <v>4.2</v>
-      </c>
-      <c r="N6">
-        <v>1.909</v>
-      </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6336857</v>
+        <v>6206102</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,70 +1067,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N7">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
         <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6206105</v>
+        <v>6206104</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,73 +1156,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="L8">
         <v>3.2</v>
       </c>
       <c r="M8">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O8">
         <v>3.2</v>
       </c>
       <c r="P8">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6206104</v>
+        <v>6206105</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,73 +1245,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L9">
         <v>3.2</v>
       </c>
       <c r="M9">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N9">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <v>3.2</v>
       </c>
       <c r="P9">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z9">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6206108</v>
+        <v>6204305</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,76 +1509,76 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L12">
         <v>3.1</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O12">
         <v>3.1</v>
       </c>
       <c r="P12">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1586,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6204305</v>
+        <v>6206108</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,76 +1598,76 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L13">
         <v>3.1</v>
       </c>
       <c r="M13">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N13">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>3.1</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB13">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1687,10 +1687,10 @@
         <v>44996.0625</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>40</v>
@@ -2043,10 +2043,10 @@
         <v>44997.0625</v>
       </c>
       <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
         <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>44997.16666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>45003.0625</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6206115</v>
+        <v>6206116</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,76 +2310,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
         <v>36</v>
       </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N21">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P21">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
         <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6206116</v>
+        <v>6206115</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q22">
         <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X22">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2666,7 +2666,7 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
         <v>38</v>
@@ -2758,7 +2758,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2844,10 +2844,10 @@
         <v>45017.16666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2936,7 +2936,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3200,10 +3200,10 @@
         <v>45018.27083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>45024.0625</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3378,7 +3378,7 @@
         <v>45024.16666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3467,10 +3467,10 @@
         <v>45024.27083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3556,7 +3556,7 @@
         <v>45025.0625</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3645,7 +3645,7 @@
         <v>45025.16666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3734,7 +3734,7 @@
         <v>45025.27083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3823,10 +3823,10 @@
         <v>45031.0625</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3912,10 +3912,10 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s">
         <v>32</v>
-      </c>
-      <c r="G39" t="s">
-        <v>34</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4004,7 +4004,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -4093,7 +4093,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>45032.0625</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4357,10 +4357,10 @@
         <v>45034.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4446,10 +4446,10 @@
         <v>45034.29166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>45034.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -4713,7 +4713,7 @@
         <v>45035.3125</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
@@ -4805,7 +4805,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4980,7 +4980,7 @@
         <v>45038.16666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5069,7 +5069,7 @@
         <v>45038.27083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5158,10 +5158,10 @@
         <v>45039.0625</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5247,10 +5247,10 @@
         <v>45039.16666666666</v>
       </c>
       <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
         <v>35</v>
-      </c>
-      <c r="G54" t="s">
-        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5425,10 +5425,10 @@
         <v>45045.0625</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5514,10 +5514,10 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5695,7 +5695,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5870,10 +5870,10 @@
         <v>45046.16666666666</v>
       </c>
       <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
         <v>34</v>
-      </c>
-      <c r="G61" t="s">
-        <v>33</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         <v>45048.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -6048,7 +6048,7 @@
         <v>45048.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
         <v>39</v>
@@ -6137,10 +6137,10 @@
         <v>45048.3125</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6226,10 +6226,10 @@
         <v>45049.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6206152</v>
+        <v>6206153</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,76 +6315,76 @@
         <v>45049.3125</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L66">
         <v>3.25</v>
       </c>
       <c r="M66">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N66">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="O66">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P66">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y66">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB66">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6392,7 +6392,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6206153</v>
+        <v>6206152</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6404,76 +6404,76 @@
         <v>45049.3125</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L67">
         <v>3.25</v>
       </c>
       <c r="M67">
+        <v>1.909</v>
+      </c>
+      <c r="N67">
+        <v>4.5</v>
+      </c>
+      <c r="O67">
+        <v>3.75</v>
+      </c>
+      <c r="P67">
+        <v>1.615</v>
+      </c>
+      <c r="Q67">
+        <v>0.75</v>
+      </c>
+      <c r="R67">
+        <v>1.975</v>
+      </c>
+      <c r="S67">
+        <v>1.825</v>
+      </c>
+      <c r="T67">
         <v>2.75</v>
       </c>
-      <c r="N67">
-        <v>1.95</v>
-      </c>
-      <c r="O67">
-        <v>3.3</v>
-      </c>
-      <c r="P67">
-        <v>3.3</v>
-      </c>
-      <c r="Q67">
+      <c r="U67">
+        <v>1.8</v>
+      </c>
+      <c r="V67">
+        <v>2</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
+        <v>0.615</v>
+      </c>
+      <c r="Z67">
         <v>-0.5</v>
       </c>
-      <c r="R67">
-        <v>2</v>
-      </c>
-      <c r="S67">
-        <v>1.8</v>
-      </c>
-      <c r="T67">
-        <v>2.25</v>
-      </c>
-      <c r="U67">
-        <v>1.95</v>
-      </c>
-      <c r="V67">
-        <v>1.85</v>
-      </c>
-      <c r="W67">
-        <v>-1</v>
-      </c>
-      <c r="X67">
-        <v>2.3</v>
-      </c>
-      <c r="Y67">
-        <v>-1</v>
-      </c>
-      <c r="Z67">
-        <v>-1</v>
-      </c>
       <c r="AA67">
+        <v>0.4125</v>
+      </c>
+      <c r="AB67">
         <v>0.8</v>
       </c>
-      <c r="AB67">
-        <v>-1</v>
-      </c>
       <c r="AC67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6585,7 +6585,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6671,10 +6671,10 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6760,10 +6760,10 @@
         <v>45053.0625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -6938,7 +6938,7 @@
         <v>45053.27083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
         <v>41</v>
@@ -7027,10 +7027,10 @@
         <v>45059.0625</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7208,7 +7208,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,10 +7294,10 @@
         <v>45060.0625</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7383,7 +7383,7 @@
         <v>45060.16666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7472,7 +7472,7 @@
         <v>45060.27083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7564,7 +7564,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7650,10 +7650,10 @@
         <v>45066.16666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6204314</v>
+        <v>6206167</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,10 +7739,10 @@
         <v>45066.27083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7754,61 +7754,61 @@
         <v>43</v>
       </c>
       <c r="K82">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N82">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O82">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P82">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>1.825</v>
+      </c>
+      <c r="S82">
+        <v>1.975</v>
+      </c>
+      <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
+        <v>1.875</v>
+      </c>
+      <c r="V82">
+        <v>1.925</v>
+      </c>
+      <c r="W82">
+        <v>1.5</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
+        <v>0.825</v>
+      </c>
+      <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>-0.5</v>
       </c>
-      <c r="R82">
-        <v>2</v>
-      </c>
-      <c r="S82">
-        <v>1.8</v>
-      </c>
-      <c r="T82">
-        <v>2.5</v>
-      </c>
-      <c r="U82">
-        <v>1.975</v>
-      </c>
-      <c r="V82">
-        <v>1.825</v>
-      </c>
-      <c r="W82">
-        <v>0.95</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>-1</v>
-      </c>
-      <c r="Z82">
-        <v>1</v>
-      </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
-      <c r="AB82">
-        <v>-1</v>
-      </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6206167</v>
+        <v>6204314</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,10 +7828,10 @@
         <v>45066.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,43 +7843,43 @@
         <v>43</v>
       </c>
       <c r="K83">
+        <v>1.85</v>
+      </c>
+      <c r="L83">
+        <v>3.3</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>1.95</v>
+      </c>
+      <c r="O83">
+        <v>3.3</v>
+      </c>
+      <c r="P83">
+        <v>3.5</v>
+      </c>
+      <c r="Q83">
+        <v>-0.5</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1.8</v>
+      </c>
+      <c r="T83">
         <v>2.5</v>
       </c>
-      <c r="L83">
-        <v>3.2</v>
-      </c>
-      <c r="M83">
-        <v>2.6</v>
-      </c>
-      <c r="N83">
-        <v>2.5</v>
-      </c>
-      <c r="O83">
-        <v>3.2</v>
-      </c>
-      <c r="P83">
-        <v>2.6</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
+      <c r="U83">
+        <v>1.975</v>
+      </c>
+      <c r="V83">
         <v>1.825</v>
       </c>
-      <c r="S83">
-        <v>1.975</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>1.875</v>
-      </c>
-      <c r="V83">
-        <v>1.925</v>
-      </c>
       <c r="W83">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7888,16 +7888,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
+        <v>1</v>
+      </c>
+      <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
+        <v>-1</v>
+      </c>
+      <c r="AC83">
         <v>0.825</v>
-      </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>-0.5</v>
-      </c>
-      <c r="AC83">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>45067.16666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -8009,7 +8009,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8095,10 +8095,10 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8184,10 +8184,10 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
         <v>29</v>
-      </c>
-      <c r="G87" t="s">
-        <v>30</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8273,7 +8273,7 @@
         <v>45073.27083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8365,7 +8365,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8454,7 +8454,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>45075.16666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8629,10 +8629,10 @@
         <v>45080.16666666666</v>
       </c>
       <c r="F92" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" t="s">
         <v>30</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8718,10 +8718,10 @@
         <v>45080.27083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8810,7 +8810,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8899,7 +8899,7 @@
         <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>45081.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -9074,7 +9074,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9252,10 +9252,10 @@
         <v>45087.27083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9430,10 +9430,10 @@
         <v>45088.16666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9519,10 +9519,10 @@
         <v>45088.16666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9608,10 +9608,10 @@
         <v>45088.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9700,7 +9700,7 @@
         <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9786,10 +9786,10 @@
         <v>45101.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9964,7 +9964,7 @@
         <v>45102.16666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
         <v>37</v>
@@ -10056,7 +10056,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10142,7 +10142,7 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>39</v>
@@ -10320,7 +10320,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10412,7 +10412,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10501,7 +10501,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10587,10 +10587,10 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10676,10 +10676,10 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6206199</v>
+        <v>6206198</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,40 +10765,40 @@
         <v>45115.25</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N116">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O116">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
         <v>2</v>
@@ -10810,31 +10810,31 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X116">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC116">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6206198</v>
+        <v>6206199</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,40 +10854,40 @@
         <v>45115.25</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L117">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N117">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P117">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
         <v>2</v>
@@ -10899,31 +10899,31 @@
         <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W117">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
         <v>38</v>
@@ -11032,7 +11032,7 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
         <v>37</v>
@@ -11121,10 +11121,10 @@
         <v>45117.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11299,10 +11299,10 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11480,7 +11480,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
         <v>39</v>
@@ -11658,7 +11658,7 @@
         <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11744,10 +11744,10 @@
         <v>45123.33333333334</v>
       </c>
       <c r="F127" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" t="s">
         <v>31</v>
-      </c>
-      <c r="G127" t="s">
-        <v>29</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,76 +11833,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K128">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N128">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O128">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
+        <v>1.975</v>
+      </c>
+      <c r="S128">
         <v>1.825</v>
       </c>
-      <c r="S128">
-        <v>1.975</v>
-      </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
+        <v>1.85</v>
+      </c>
+      <c r="V128">
         <v>1.95</v>
       </c>
-      <c r="V128">
-        <v>1.85</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y128">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N129">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P129">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
         <v>1.975</v>
       </c>
-      <c r="S129">
-        <v>1.825</v>
-      </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
+        <v>1.95</v>
+      </c>
+      <c r="V129">
         <v>1.85</v>
       </c>
-      <c r="V129">
-        <v>1.95</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12100,10 +12100,10 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12189,7 +12189,7 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>37</v>
@@ -12281,7 +12281,7 @@
         <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12367,10 +12367,10 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6206215</v>
+        <v>6206214</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,49 +12456,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K135">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N135">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P135">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U135">
         <v>2</v>
@@ -12507,19 +12507,19 @@
         <v>1.8</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
         <v>-1</v>
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6206214</v>
+        <v>6206215</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,49 +12545,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K136">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N136">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O136">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R136">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U136">
         <v>2</v>
@@ -12596,19 +12596,19 @@
         <v>1.8</v>
       </c>
       <c r="W136">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -12634,10 +12634,10 @@
         <v>45130.33333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12901,7 +12901,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>38</v>
@@ -12990,10 +12990,10 @@
         <v>45136.3125</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13079,7 +13079,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13171,7 +13171,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13257,10 +13257,10 @@
         <v>45138.29166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13435,10 +13435,10 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13702,10 +13702,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13794,7 +13794,7 @@
         <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13883,7 +13883,7 @@
         <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -14058,10 +14058,10 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14147,7 +14147,7 @@
         <v>45152.3125</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14239,7 +14239,7 @@
         <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14328,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14417,7 +14417,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14503,7 +14503,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14592,7 +14592,7 @@
         <v>45158.27083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
         <v>40</v>
@@ -14681,7 +14681,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
         <v>41</v>
@@ -14770,10 +14770,10 @@
         <v>45159.29166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14859,10 +14859,10 @@
         <v>45159.3125</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15037,10 +15037,10 @@
         <v>45164.3125</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15215,10 +15215,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15393,10 +15393,10 @@
         <v>45165.3125</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15482,10 +15482,10 @@
         <v>45167.29166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15663,7 +15663,7 @@
         <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15749,10 +15749,10 @@
         <v>45168.29166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15838,7 +15838,7 @@
         <v>45168.3125</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
         <v>39</v>
@@ -15927,7 +15927,7 @@
         <v>45168.3125</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
         <v>38</v>
@@ -16016,10 +16016,10 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16108,7 +16108,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16194,7 +16194,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
         <v>37</v>
@@ -16286,7 +16286,7 @@
         <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16372,10 +16372,10 @@
         <v>45172.27083333334</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6206254</v>
+        <v>6206255</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,55 +16550,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
         <v>42</v>
       </c>
       <c r="K181">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M181">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N181">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O181">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P181">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S181">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T181">
         <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V181">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16607,19 +16607,19 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6206255</v>
+        <v>6206254</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,55 +16639,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
         <v>42</v>
       </c>
       <c r="K182">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L182">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N182">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O182">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P182">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T182">
         <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V182">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>-1</v>
@@ -16696,19 +16696,19 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -16817,10 +16817,10 @@
         <v>45186.0625</v>
       </c>
       <c r="F184" t="s">
+        <v>30</v>
+      </c>
+      <c r="G184" t="s">
         <v>31</v>
-      </c>
-      <c r="G184" t="s">
-        <v>29</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16906,7 +16906,7 @@
         <v>45186.16666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
         <v>39</v>
@@ -16995,7 +16995,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6206260</v>
+        <v>6206261</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,40 +17173,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G188" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K188">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L188">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M188">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -17215,34 +17215,34 @@
         <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6206261</v>
+        <v>6206260</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,40 +17262,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
         <v>1</v>
       </c>
-      <c r="I189">
-        <v>0</v>
-      </c>
       <c r="J189" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K189">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L189">
+        <v>3.2</v>
+      </c>
+      <c r="M189">
+        <v>2.75</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189">
+        <v>3.3</v>
+      </c>
+      <c r="P189">
         <v>3.4</v>
       </c>
-      <c r="M189">
-        <v>1.909</v>
-      </c>
-      <c r="N189">
-        <v>4</v>
-      </c>
-      <c r="O189">
-        <v>3.5</v>
-      </c>
-      <c r="P189">
-        <v>1.8</v>
-      </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
         <v>2</v>
@@ -17304,34 +17304,34 @@
         <v>1.8</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17440,10 +17440,10 @@
         <v>45189.3125</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -17529,10 +17529,10 @@
         <v>45189.3125</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17618,10 +17618,10 @@
         <v>45192.0625</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17796,10 +17796,10 @@
         <v>45192.27083333334</v>
       </c>
       <c r="F195" t="s">
+        <v>31</v>
+      </c>
+      <c r="G195" t="s">
         <v>29</v>
-      </c>
-      <c r="G195" t="s">
-        <v>30</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17888,7 +17888,7 @@
         <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17974,7 +17974,7 @@
         <v>45193.16666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
         <v>37</v>
@@ -18063,10 +18063,10 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18155,7 +18155,7 @@
         <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18330,10 +18330,10 @@
         <v>45199.27083333334</v>
       </c>
       <c r="F201" t="s">
+        <v>33</v>
+      </c>
+      <c r="G201" t="s">
         <v>32</v>
-      </c>
-      <c r="G201" t="s">
-        <v>34</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18419,10 +18419,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F202" t="s">
+        <v>36</v>
+      </c>
+      <c r="G202" t="s">
         <v>35</v>
-      </c>
-      <c r="G202" t="s">
-        <v>36</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18508,7 +18508,7 @@
         <v>45200.16666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18597,7 +18597,7 @@
         <v>45200.27083333334</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -18689,7 +18689,7 @@
         <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H205">
         <v>3</v>
@@ -18778,7 +18778,7 @@
         <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -18864,10 +18864,10 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F207" t="s">
+        <v>34</v>
+      </c>
+      <c r="G207" t="s">
         <v>33</v>
-      </c>
-      <c r="G207" t="s">
-        <v>32</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -18953,7 +18953,7 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
         <v>37</v>
@@ -19030,7 +19030,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6357145</v>
+        <v>6388120</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19042,73 +19042,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>43</v>
+      </c>
+      <c r="K209">
+        <v>2.8</v>
+      </c>
+      <c r="L209">
+        <v>3.2</v>
+      </c>
+      <c r="M209">
+        <v>2.5</v>
+      </c>
+      <c r="N209">
         <v>3</v>
       </c>
-      <c r="J209" t="s">
-        <v>42</v>
-      </c>
-      <c r="K209">
-        <v>3</v>
-      </c>
-      <c r="L209">
-        <v>3.25</v>
-      </c>
-      <c r="M209">
-        <v>2.375</v>
-      </c>
-      <c r="N209">
+      <c r="O209">
         <v>3.1</v>
       </c>
-      <c r="O209">
-        <v>3.25</v>
-      </c>
       <c r="P209">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q209">
         <v>0.25</v>
       </c>
       <c r="R209">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S209">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA209">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19119,7 +19119,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6388120</v>
+        <v>6357145</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19131,73 +19131,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
         <v>3</v>
       </c>
-      <c r="I210">
-        <v>0</v>
-      </c>
       <c r="J210" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K210">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N210">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O210">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P210">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q210">
         <v>0.25</v>
       </c>
       <c r="R210">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S210">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z210">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB210">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19220,10 +19220,10 @@
         <v>45213.16666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19309,10 +19309,10 @@
         <v>45220.0625</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -19398,7 +19398,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G213" t="s">
         <v>39</v>
@@ -19487,7 +19487,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
         <v>40</v>
@@ -19579,7 +19579,7 @@
         <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19665,10 +19665,10 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19843,7 +19843,7 @@
         <v>45227.0625</v>
       </c>
       <c r="F218" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G218" t="s">
         <v>37</v>
@@ -19932,10 +19932,10 @@
         <v>45227.16666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20024,7 +20024,7 @@
         <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20110,10 +20110,10 @@
         <v>45228.0625</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -20202,7 +20202,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20377,10 +20377,10 @@
         <v>45241.0625</v>
       </c>
       <c r="F224" t="s">
+        <v>32</v>
+      </c>
+      <c r="G224" t="s">
         <v>34</v>
-      </c>
-      <c r="G224" t="s">
-        <v>33</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20466,10 +20466,10 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20555,7 +20555,7 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G226" t="s">
         <v>41</v>
@@ -20733,7 +20733,7 @@
         <v>45242.16666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G228" t="s">
         <v>38</v>
@@ -20822,7 +20822,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
         <v>40</v>
@@ -20899,7 +20899,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6540655</v>
+        <v>6531883</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20911,76 +20911,76 @@
         <v>45256.125</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
         <v>42</v>
       </c>
       <c r="K230">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L230">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M230">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N230">
+        <v>1.75</v>
+      </c>
+      <c r="O230">
+        <v>4</v>
+      </c>
+      <c r="P230">
+        <v>3.75</v>
+      </c>
+      <c r="Q230">
+        <v>-0.75</v>
+      </c>
+      <c r="R230">
+        <v>2</v>
+      </c>
+      <c r="S230">
+        <v>1.8</v>
+      </c>
+      <c r="T230">
+        <v>3.25</v>
+      </c>
+      <c r="U230">
+        <v>2</v>
+      </c>
+      <c r="V230">
+        <v>1.8</v>
+      </c>
+      <c r="W230">
+        <v>-1</v>
+      </c>
+      <c r="X230">
+        <v>-1</v>
+      </c>
+      <c r="Y230">
         <v>2.75</v>
       </c>
-      <c r="O230">
-        <v>3.25</v>
-      </c>
-      <c r="P230">
-        <v>2.3</v>
-      </c>
-      <c r="Q230">
-        <v>0.25</v>
-      </c>
-      <c r="R230">
-        <v>1.75</v>
-      </c>
-      <c r="S230">
-        <v>2.05</v>
-      </c>
-      <c r="T230">
-        <v>2.25</v>
-      </c>
-      <c r="U230">
-        <v>1.825</v>
-      </c>
-      <c r="V230">
-        <v>1.975</v>
-      </c>
-      <c r="W230">
-        <v>-1</v>
-      </c>
-      <c r="X230">
-        <v>-1</v>
-      </c>
-      <c r="Y230">
-        <v>1.3</v>
-      </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20988,7 +20988,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6537916</v>
+        <v>6540655</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,76 +21000,76 @@
         <v>45256.125</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
         <v>1</v>
       </c>
-      <c r="I231">
-        <v>0</v>
-      </c>
       <c r="J231" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K231">
+        <v>2.4</v>
+      </c>
+      <c r="L231">
+        <v>3.3</v>
+      </c>
+      <c r="M231">
+        <v>2.7</v>
+      </c>
+      <c r="N231">
+        <v>2.75</v>
+      </c>
+      <c r="O231">
+        <v>3.25</v>
+      </c>
+      <c r="P231">
+        <v>2.3</v>
+      </c>
+      <c r="Q231">
+        <v>0.25</v>
+      </c>
+      <c r="R231">
+        <v>1.75</v>
+      </c>
+      <c r="S231">
+        <v>2.05</v>
+      </c>
+      <c r="T231">
+        <v>2.25</v>
+      </c>
+      <c r="U231">
+        <v>1.825</v>
+      </c>
+      <c r="V231">
+        <v>1.975</v>
+      </c>
+      <c r="W231">
+        <v>-1</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
         <v>1.3</v>
       </c>
-      <c r="L231">
-        <v>5</v>
-      </c>
-      <c r="M231">
-        <v>7.5</v>
-      </c>
-      <c r="N231">
-        <v>1.222</v>
-      </c>
-      <c r="O231">
-        <v>5.5</v>
-      </c>
-      <c r="P231">
-        <v>10</v>
-      </c>
-      <c r="Q231">
-        <v>-1.75</v>
-      </c>
-      <c r="R231">
-        <v>1.85</v>
-      </c>
-      <c r="S231">
-        <v>1.95</v>
-      </c>
-      <c r="T231">
-        <v>3.25</v>
-      </c>
-      <c r="U231">
-        <v>1.9</v>
-      </c>
-      <c r="V231">
-        <v>1.9</v>
-      </c>
-      <c r="W231">
-        <v>0.222</v>
-      </c>
-      <c r="X231">
-        <v>-1</v>
-      </c>
-      <c r="Y231">
-        <v>-1</v>
-      </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB231">
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6527572</v>
+        <v>6531882</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,13 +21089,13 @@
         <v>45256.125</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G232" t="s">
         <v>29</v>
       </c>
       <c r="H232">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -21104,34 +21104,34 @@
         <v>43</v>
       </c>
       <c r="K232">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L232">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M232">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N232">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O232">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P232">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T232">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
         <v>1.975</v>
@@ -21140,7 +21140,7 @@
         <v>1.825</v>
       </c>
       <c r="W232">
-        <v>1.25</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21149,16 +21149,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB232">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21166,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6531883</v>
+        <v>6537916</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21178,76 +21178,76 @@
         <v>45256.125</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G233" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K233">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L233">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M233">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N233">
-        <v>1.75</v>
+        <v>1.222</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P233">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="Q233">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
         <v>3.25</v>
       </c>
       <c r="U233">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
         <v>-1</v>
       </c>
       <c r="AA233">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6537915</v>
+        <v>6527572</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21267,40 +21267,40 @@
         <v>45256.125</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I234">
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K234">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M234">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N234">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O234">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P234">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q234">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
         <v>1.975</v>
@@ -21312,31 +21312,31 @@
         <v>2.5</v>
       </c>
       <c r="U234">
+        <v>1.975</v>
+      </c>
+      <c r="V234">
         <v>1.825</v>
       </c>
-      <c r="V234">
-        <v>1.975</v>
-      </c>
       <c r="W234">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X234">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA234">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC234">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6531882</v>
+        <v>6537915</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,34 +21356,34 @@
         <v>45256.125</v>
       </c>
       <c r="F235" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K235">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L235">
         <v>4</v>
       </c>
       <c r="M235">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N235">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="O235">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P235">
         <v>6</v>
@@ -21392,40 +21392,40 @@
         <v>-1.25</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S235">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T235">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U235">
+        <v>1.825</v>
+      </c>
+      <c r="V235">
         <v>1.975</v>
       </c>
-      <c r="V235">
-        <v>1.825</v>
-      </c>
       <c r="W235">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB235">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21445,10 +21445,10 @@
         <v>45259.29166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21537,7 +21537,7 @@
         <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H237">
         <v>2</v>
@@ -21604,6 +21604,154 @@
       </c>
       <c r="AC237">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>7737361</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45352.08333333334</v>
+      </c>
+      <c r="F238" t="s">
+        <v>39</v>
+      </c>
+      <c r="G238" t="s">
+        <v>34</v>
+      </c>
+      <c r="K238">
+        <v>1.833</v>
+      </c>
+      <c r="L238">
+        <v>3.5</v>
+      </c>
+      <c r="M238">
+        <v>4.333</v>
+      </c>
+      <c r="N238">
+        <v>1.95</v>
+      </c>
+      <c r="O238">
+        <v>3.4</v>
+      </c>
+      <c r="P238">
+        <v>3.8</v>
+      </c>
+      <c r="Q238">
+        <v>-0.5</v>
+      </c>
+      <c r="R238">
+        <v>1.975</v>
+      </c>
+      <c r="S238">
+        <v>1.825</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
+        <v>2.025</v>
+      </c>
+      <c r="V238">
+        <v>1.775</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>7738678</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45352.08333333334</v>
+      </c>
+      <c r="F239" t="s">
+        <v>37</v>
+      </c>
+      <c r="G239" t="s">
+        <v>30</v>
+      </c>
+      <c r="K239">
+        <v>4</v>
+      </c>
+      <c r="L239">
+        <v>3.6</v>
+      </c>
+      <c r="M239">
+        <v>1.85</v>
+      </c>
+      <c r="N239">
+        <v>4</v>
+      </c>
+      <c r="O239">
+        <v>3.6</v>
+      </c>
+      <c r="P239">
+        <v>1.85</v>
+      </c>
+      <c r="Q239">
+        <v>0.5</v>
+      </c>
+      <c r="R239">
+        <v>1.925</v>
+      </c>
+      <c r="S239">
+        <v>1.875</v>
+      </c>
+      <c r="T239">
+        <v>2.75</v>
+      </c>
+      <c r="U239">
+        <v>1.875</v>
+      </c>
+      <c r="V239">
+        <v>1.925</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -103,28 +103,28 @@
     <t>South Korea K League 2</t>
   </si>
   <si>
-    <t>Cheonan City</t>
+    <t>Jeonnam Dragons</t>
   </si>
   <si>
     <t>Gyeongnam FC</t>
   </si>
   <si>
-    <t>Jeonnam Dragons</t>
+    <t>Cheonan City</t>
+  </si>
+  <si>
+    <t>Chungnam Asan FC</t>
   </si>
   <si>
     <t>Seoul ELand FC</t>
   </si>
   <si>
-    <t>Chungnam Asan FC</t>
-  </si>
-  <si>
     <t>Seongnam FC</t>
   </si>
   <si>
-    <t>Bucheon</t>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Bucheon</t>
   </si>
   <si>
     <t>Ansan Greeners FC</t>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6206099</v>
+        <v>6204304</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -622,52 +622,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L2">
         <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N2">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P2">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
         <v>1.8</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -676,19 +676,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6204304</v>
+        <v>6206099</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,52 +800,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
       </c>
       <c r="K4">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L4">
         <v>3.2</v>
       </c>
       <c r="M4">
+        <v>2.55</v>
+      </c>
+      <c r="N4">
+        <v>3.1</v>
+      </c>
+      <c r="O4">
+        <v>3.1</v>
+      </c>
+      <c r="P4">
         <v>2.3</v>
       </c>
-      <c r="N4">
-        <v>2.625</v>
-      </c>
-      <c r="O4">
-        <v>3.2</v>
-      </c>
-      <c r="P4">
-        <v>2.4</v>
-      </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -854,19 +854,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6336857</v>
+        <v>6206101</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,52 +889,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
       <c r="K5">
+        <v>2.6</v>
+      </c>
+      <c r="L5">
+        <v>3.2</v>
+      </c>
+      <c r="M5">
+        <v>2.55</v>
+      </c>
+      <c r="N5">
+        <v>3.6</v>
+      </c>
+      <c r="O5">
+        <v>3.1</v>
+      </c>
+      <c r="P5">
+        <v>2.05</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>1.75</v>
+      </c>
+      <c r="S5">
+        <v>2.05</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
         <v>1.8</v>
       </c>
-      <c r="L5">
-        <v>3.4</v>
-      </c>
-      <c r="M5">
-        <v>3.75</v>
-      </c>
-      <c r="N5">
-        <v>1.571</v>
-      </c>
-      <c r="O5">
-        <v>3.75</v>
-      </c>
-      <c r="P5">
-        <v>4.75</v>
-      </c>
-      <c r="Q5">
-        <v>-1</v>
-      </c>
-      <c r="R5">
-        <v>1.9</v>
-      </c>
-      <c r="S5">
-        <v>1.9</v>
-      </c>
-      <c r="T5">
-        <v>2.5</v>
-      </c>
-      <c r="U5">
-        <v>1.875</v>
-      </c>
       <c r="V5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6206101</v>
+        <v>6336857</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,52 +978,52 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>42</v>
       </c>
       <c r="K6">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N6">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O6">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1032,16 +1032,16 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6206104</v>
+        <v>6206105</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,73 +1156,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>3.2</v>
       </c>
       <c r="M8">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N8">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O8">
         <v>3.2</v>
       </c>
       <c r="P8">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z8">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6206105</v>
+        <v>6206104</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,73 +1245,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="L9">
         <v>3.2</v>
       </c>
       <c r="M9">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O9">
         <v>3.2</v>
       </c>
       <c r="P9">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1509,7 +1509,7 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>30</v>
@@ -1601,7 +1601,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1687,10 +1687,10 @@
         <v>44996.0625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
         <v>40</v>
@@ -2046,7 +2046,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>44997.16666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>45003.0625</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6206116</v>
+        <v>6206115</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,76 +2310,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N21">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q21">
         <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X21">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6206115</v>
+        <v>6206116</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
         <v>35</v>
       </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L22">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N22">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O22">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P22">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q22">
         <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6206118</v>
+        <v>6204307</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N24">
+        <v>1.95</v>
+      </c>
+      <c r="O24">
+        <v>3.25</v>
+      </c>
+      <c r="P24">
+        <v>3.5</v>
+      </c>
+      <c r="Q24">
+        <v>-0.5</v>
+      </c>
+      <c r="R24">
+        <v>2.05</v>
+      </c>
+      <c r="S24">
+        <v>1.75</v>
+      </c>
+      <c r="T24">
         <v>2.25</v>
       </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>3.2</v>
-      </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.95</v>
-      </c>
-      <c r="S24">
-        <v>1.85</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W24">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6204307</v>
+        <v>6206118</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,76 +2666,76 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L25">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N25">
+        <v>2.25</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>3.2</v>
+      </c>
+      <c r="Q25">
+        <v>-0.25</v>
+      </c>
+      <c r="R25">
         <v>1.95</v>
       </c>
-      <c r="O25">
-        <v>3.25</v>
-      </c>
-      <c r="P25">
-        <v>3.5</v>
-      </c>
-      <c r="Q25">
-        <v>-0.5</v>
-      </c>
-      <c r="R25">
-        <v>2.05</v>
-      </c>
       <c r="S25">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA25">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC25">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2847,7 +2847,7 @@
         <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2936,7 +2936,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3114,7 +3114,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3200,10 +3200,10 @@
         <v>45018.27083333334</v>
       </c>
       <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
         <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>45024.0625</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3378,7 +3378,7 @@
         <v>45024.16666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3467,7 +3467,7 @@
         <v>45024.27083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3556,7 +3556,7 @@
         <v>45025.0625</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3645,7 +3645,7 @@
         <v>45025.16666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3734,7 +3734,7 @@
         <v>45025.27083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3823,10 +3823,10 @@
         <v>45031.0625</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3912,10 +3912,10 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
         <v>33</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4004,7 +4004,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -4182,7 +4182,7 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4345,7 +4345,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6206135</v>
+        <v>6206134</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,47 +4366,47 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>42</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M44">
         <v>3</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O44">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P44">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S44">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
+        <v>1.95</v>
+      </c>
+      <c r="V44">
         <v>1.85</v>
       </c>
-      <c r="V44">
-        <v>1.95</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4414,19 +4414,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB44">
+        <v>-1</v>
+      </c>
+      <c r="AC44">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC44">
-        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206134</v>
+        <v>6206135</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,47 +4455,47 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
         <v>42</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
         <v>3</v>
       </c>
       <c r="N45">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O45">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U45">
+        <v>1.85</v>
+      </c>
+      <c r="V45">
         <v>1.95</v>
       </c>
-      <c r="V45">
-        <v>1.85</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
@@ -4503,19 +4503,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4713,7 +4713,7 @@
         <v>45035.3125</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
@@ -4805,7 +4805,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5069,7 +5069,7 @@
         <v>45038.27083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5158,7 +5158,7 @@
         <v>45039.0625</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
         <v>30</v>
@@ -5247,10 +5247,10 @@
         <v>45039.16666666666</v>
       </c>
       <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" t="s">
         <v>36</v>
-      </c>
-      <c r="G54" t="s">
-        <v>35</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5425,10 +5425,10 @@
         <v>45045.0625</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5517,7 +5517,7 @@
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5695,7 +5695,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>45046.16666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>34</v>
@@ -5959,7 +5959,7 @@
         <v>45048.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -6048,7 +6048,7 @@
         <v>45048.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>39</v>
@@ -6137,10 +6137,10 @@
         <v>45048.3125</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6206156</v>
+        <v>6206155</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,25 +6582,25 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
         <v>3</v>
@@ -6609,22 +6609,22 @@
         <v>2.375</v>
       </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P69">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
         <v>1.875</v>
@@ -6633,25 +6633,25 @@
         <v>1.925</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6659,7 +6659,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6206155</v>
+        <v>6206156</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,25 +6671,25 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L70">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M70">
         <v>3</v>
@@ -6698,22 +6698,22 @@
         <v>2.375</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P70">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S70">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
         <v>1.875</v>
@@ -6722,25 +6722,25 @@
         <v>1.925</v>
       </c>
       <c r="W70">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,10 +6760,10 @@
         <v>45053.0625</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -7027,10 +7027,10 @@
         <v>45059.0625</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7208,7 +7208,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7383,7 +7383,7 @@
         <v>45060.16666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7472,7 +7472,7 @@
         <v>45060.27083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7650,10 +7650,10 @@
         <v>45066.16666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6206167</v>
+        <v>6204314</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,10 +7739,10 @@
         <v>45066.27083333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7754,43 +7754,43 @@
         <v>43</v>
       </c>
       <c r="K82">
+        <v>1.85</v>
+      </c>
+      <c r="L82">
+        <v>3.3</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>1.95</v>
+      </c>
+      <c r="O82">
+        <v>3.3</v>
+      </c>
+      <c r="P82">
+        <v>3.5</v>
+      </c>
+      <c r="Q82">
+        <v>-0.5</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>1.8</v>
+      </c>
+      <c r="T82">
         <v>2.5</v>
       </c>
-      <c r="L82">
-        <v>3.2</v>
-      </c>
-      <c r="M82">
-        <v>2.6</v>
-      </c>
-      <c r="N82">
-        <v>2.5</v>
-      </c>
-      <c r="O82">
-        <v>3.2</v>
-      </c>
-      <c r="P82">
-        <v>2.6</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
+      <c r="U82">
+        <v>1.975</v>
+      </c>
+      <c r="V82">
         <v>1.825</v>
       </c>
-      <c r="S82">
-        <v>1.975</v>
-      </c>
-      <c r="T82">
-        <v>2.25</v>
-      </c>
-      <c r="U82">
-        <v>1.875</v>
-      </c>
-      <c r="V82">
-        <v>1.925</v>
-      </c>
       <c r="W82">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7799,16 +7799,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>0.825</v>
-      </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
-      <c r="AB82">
-        <v>-0.5</v>
-      </c>
-      <c r="AC82">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6204314</v>
+        <v>6206167</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,10 +7828,10 @@
         <v>45066.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,61 +7843,61 @@
         <v>43</v>
       </c>
       <c r="K83">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N83">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P83">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>1.825</v>
+      </c>
+      <c r="S83">
+        <v>1.975</v>
+      </c>
+      <c r="T83">
+        <v>2.25</v>
+      </c>
+      <c r="U83">
+        <v>1.875</v>
+      </c>
+      <c r="V83">
+        <v>1.925</v>
+      </c>
+      <c r="W83">
+        <v>1.5</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0.825</v>
+      </c>
+      <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>-0.5</v>
       </c>
-      <c r="R83">
-        <v>2</v>
-      </c>
-      <c r="S83">
-        <v>1.8</v>
-      </c>
-      <c r="T83">
-        <v>2.5</v>
-      </c>
-      <c r="U83">
-        <v>1.975</v>
-      </c>
-      <c r="V83">
-        <v>1.825</v>
-      </c>
-      <c r="W83">
-        <v>0.95</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
-      <c r="Z83">
-        <v>1</v>
-      </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
       <c r="AC83">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6206170</v>
+        <v>6204720</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,76 +8095,76 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M86">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N86">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="O86">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q86">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S86">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T86">
         <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA86">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6204720</v>
+        <v>6206170</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N87">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P87">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="Q87">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R87">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W87">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z87">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8454,7 +8454,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>45075.16666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8629,7 +8629,7 @@
         <v>45080.16666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>30</v>
@@ -8718,7 +8718,7 @@
         <v>45080.27083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
@@ -8810,7 +8810,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8899,7 +8899,7 @@
         <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>45081.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -9074,7 +9074,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9255,7 +9255,7 @@
         <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9430,10 +9430,10 @@
         <v>45088.16666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9519,10 +9519,10 @@
         <v>45088.16666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9611,7 +9611,7 @@
         <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9700,7 +9700,7 @@
         <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9789,7 +9789,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9964,7 +9964,7 @@
         <v>45102.16666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
         <v>37</v>
@@ -10056,7 +10056,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10142,7 +10142,7 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>39</v>
@@ -10320,7 +10320,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10501,7 +10501,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10587,10 +10587,10 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10676,7 +10676,7 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
         <v>34</v>
@@ -10765,7 +10765,7 @@
         <v>45115.25</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -10854,10 +10854,10 @@
         <v>45115.25</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6206201</v>
+        <v>6206200</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,76 +10943,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K118">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L118">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N118">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="O118">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X118">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6206200</v>
+        <v>6206201</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,76 +11032,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M119">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N119">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="O119">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P119">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W119">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11121,10 +11121,10 @@
         <v>45117.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11299,10 +11299,10 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11480,7 +11480,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
         <v>39</v>
@@ -11747,7 +11747,7 @@
         <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,76 +11833,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K128">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N128">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P128">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.825</v>
-      </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
+        <v>1.95</v>
+      </c>
+      <c r="V128">
         <v>1.85</v>
       </c>
-      <c r="V128">
-        <v>1.95</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K129">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N129">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O129">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
         <v>1.825</v>
       </c>
-      <c r="S129">
-        <v>1.975</v>
-      </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
+        <v>1.85</v>
+      </c>
+      <c r="V129">
         <v>1.95</v>
       </c>
-      <c r="V129">
-        <v>1.85</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y129">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6206211</v>
+        <v>6204320</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,76 +12100,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L131">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N131">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O131">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X131">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6204320</v>
+        <v>6206211</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,76 +12189,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K132">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M132">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N132">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P132">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12367,10 +12367,10 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12456,10 +12456,10 @@
         <v>45130.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12634,7 +12634,7 @@
         <v>45130.33333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>34</v>
@@ -12993,7 +12993,7 @@
         <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13079,7 +13079,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13171,7 +13171,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13257,10 +13257,10 @@
         <v>45138.29166666666</v>
       </c>
       <c r="F144" t="s">
+        <v>33</v>
+      </c>
+      <c r="G144" t="s">
         <v>32</v>
-      </c>
-      <c r="G144" t="s">
-        <v>33</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13435,10 +13435,10 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13702,7 +13702,7 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -13883,7 +13883,7 @@
         <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -14058,7 +14058,7 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153" t="s">
         <v>30</v>
@@ -14147,7 +14147,7 @@
         <v>45152.3125</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14239,7 +14239,7 @@
         <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14328,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14417,7 +14417,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14503,7 +14503,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14592,7 +14592,7 @@
         <v>45158.27083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
         <v>40</v>
@@ -14681,7 +14681,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
         <v>41</v>
@@ -14773,7 +14773,7 @@
         <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14862,7 +14862,7 @@
         <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15215,10 +15215,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15393,10 +15393,10 @@
         <v>45165.3125</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15482,7 +15482,7 @@
         <v>45167.29166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G169" t="s">
         <v>30</v>
@@ -15559,7 +15559,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6206246</v>
+        <v>6206245</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15571,76 +15571,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K170">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L170">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M170">
+        <v>2.15</v>
+      </c>
+      <c r="N170">
+        <v>3.2</v>
+      </c>
+      <c r="O170">
+        <v>3.1</v>
+      </c>
+      <c r="P170">
         <v>2.2</v>
-      </c>
-      <c r="N170">
-        <v>2.9</v>
-      </c>
-      <c r="O170">
-        <v>3.4</v>
-      </c>
-      <c r="P170">
-        <v>2.25</v>
       </c>
       <c r="Q170">
         <v>0.25</v>
       </c>
       <c r="R170">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T170">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V170">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W170">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z170">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC170">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6206245</v>
+        <v>6206246</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,76 +15660,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K171">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L171">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M171">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N171">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O171">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P171">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q171">
         <v>0.25</v>
       </c>
       <c r="R171">
+        <v>1.85</v>
+      </c>
+      <c r="S171">
+        <v>1.95</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
         <v>1.875</v>
       </c>
-      <c r="S171">
+      <c r="V171">
         <v>1.925</v>
       </c>
-      <c r="T171">
-        <v>2.25</v>
-      </c>
-      <c r="U171">
-        <v>1.975</v>
-      </c>
-      <c r="V171">
-        <v>1.825</v>
-      </c>
       <c r="W171">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA171">
+        <v>-1</v>
+      </c>
+      <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
         <v>0.925</v>
-      </c>
-      <c r="AB171">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC171">
-        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15749,10 +15749,10 @@
         <v>45168.29166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15826,7 +15826,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15838,73 +15838,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K173">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L173">
+        <v>3.2</v>
+      </c>
+      <c r="M173">
+        <v>2.875</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173">
         <v>3.3</v>
       </c>
-      <c r="M173">
-        <v>2</v>
-      </c>
-      <c r="N173">
-        <v>3.5</v>
-      </c>
-      <c r="O173">
-        <v>3.2</v>
-      </c>
       <c r="P173">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q173">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S173">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T173">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U173">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V173">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z173">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB173">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,73 +15927,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
       <c r="I174">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L174">
+        <v>3.3</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>3.5</v>
+      </c>
+      <c r="O174">
         <v>3.2</v>
       </c>
-      <c r="M174">
-        <v>2.875</v>
-      </c>
-      <c r="N174">
-        <v>2</v>
-      </c>
-      <c r="O174">
-        <v>3.3</v>
-      </c>
       <c r="P174">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R174">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16016,10 +16016,10 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16108,7 +16108,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16194,7 +16194,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G177" t="s">
         <v>37</v>
@@ -16286,7 +16286,7 @@
         <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16372,7 +16372,7 @@
         <v>45172.27083333334</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
         <v>34</v>
@@ -16550,10 +16550,10 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16642,7 +16642,7 @@
         <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16820,7 +16820,7 @@
         <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16906,7 +16906,7 @@
         <v>45186.16666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
         <v>39</v>
@@ -16995,7 +16995,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6206261</v>
+        <v>6206260</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,40 +17173,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
         <v>1</v>
       </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
       <c r="J188" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K188">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L188">
+        <v>3.2</v>
+      </c>
+      <c r="M188">
+        <v>2.75</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188">
+        <v>3.3</v>
+      </c>
+      <c r="P188">
         <v>3.4</v>
       </c>
-      <c r="M188">
-        <v>1.909</v>
-      </c>
-      <c r="N188">
-        <v>4</v>
-      </c>
-      <c r="O188">
-        <v>3.5</v>
-      </c>
-      <c r="P188">
-        <v>1.8</v>
-      </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R188">
         <v>2</v>
@@ -17215,34 +17215,34 @@
         <v>1.8</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6206260</v>
+        <v>6206261</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,40 +17262,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K189">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L189">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O189">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R189">
         <v>2</v>
@@ -17304,34 +17304,34 @@
         <v>1.8</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17440,10 +17440,10 @@
         <v>45189.3125</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -17529,10 +17529,10 @@
         <v>45189.3125</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17621,7 +17621,7 @@
         <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17796,10 +17796,10 @@
         <v>45192.27083333334</v>
       </c>
       <c r="F195" t="s">
+        <v>29</v>
+      </c>
+      <c r="G195" t="s">
         <v>31</v>
-      </c>
-      <c r="G195" t="s">
-        <v>29</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17888,7 +17888,7 @@
         <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17974,7 +17974,7 @@
         <v>45193.16666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G197" t="s">
         <v>37</v>
@@ -18063,7 +18063,7 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
         <v>30</v>
@@ -18330,10 +18330,10 @@
         <v>45199.27083333334</v>
       </c>
       <c r="F201" t="s">
+        <v>32</v>
+      </c>
+      <c r="G201" t="s">
         <v>33</v>
-      </c>
-      <c r="G201" t="s">
-        <v>32</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18419,10 +18419,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F202" t="s">
+        <v>35</v>
+      </c>
+      <c r="G202" t="s">
         <v>36</v>
-      </c>
-      <c r="G202" t="s">
-        <v>35</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18508,7 +18508,7 @@
         <v>45200.16666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18674,7 +18674,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6352815</v>
+        <v>6357144</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18686,76 +18686,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K205">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L205">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M205">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N205">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P205">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R205">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S205">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T205">
         <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB205">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18763,7 +18763,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6357144</v>
+        <v>6352815</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18775,76 +18775,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K206">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L206">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M206">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N206">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O206">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P206">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q206">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X206">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA206">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC206">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H207">
         <v>2</v>
@@ -18953,7 +18953,7 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
         <v>37</v>
@@ -19131,7 +19131,7 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
         <v>30</v>
@@ -19220,10 +19220,10 @@
         <v>45213.16666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19309,7 +19309,7 @@
         <v>45220.0625</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G212" t="s">
         <v>34</v>
@@ -19398,7 +19398,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
         <v>39</v>
@@ -19487,7 +19487,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
         <v>40</v>
@@ -19579,7 +19579,7 @@
         <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19665,7 +19665,7 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -19932,10 +19932,10 @@
         <v>45227.16666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G219" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20024,7 +20024,7 @@
         <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20110,10 +20110,10 @@
         <v>45228.0625</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -20202,7 +20202,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20377,7 +20377,7 @@
         <v>45241.0625</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
         <v>34</v>
@@ -20466,10 +20466,10 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G225" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20733,7 +20733,7 @@
         <v>45242.16666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
         <v>38</v>
@@ -20822,7 +20822,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F229" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
         <v>40</v>
@@ -20899,7 +20899,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6531883</v>
+        <v>6540655</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20911,55 +20911,55 @@
         <v>45256.125</v>
       </c>
       <c r="F230" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
         <v>42</v>
       </c>
       <c r="K230">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L230">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M230">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N230">
+        <v>2.75</v>
+      </c>
+      <c r="O230">
+        <v>3.25</v>
+      </c>
+      <c r="P230">
+        <v>2.3</v>
+      </c>
+      <c r="Q230">
+        <v>0.25</v>
+      </c>
+      <c r="R230">
         <v>1.75</v>
       </c>
-      <c r="O230">
-        <v>4</v>
-      </c>
-      <c r="P230">
-        <v>3.75</v>
-      </c>
-      <c r="Q230">
-        <v>-0.75</v>
-      </c>
-      <c r="R230">
-        <v>2</v>
-      </c>
       <c r="S230">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T230">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V230">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W230">
         <v>-1</v>
@@ -20968,19 +20968,19 @@
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20988,7 +20988,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6540655</v>
+        <v>6537916</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,76 +21000,76 @@
         <v>45256.125</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K231">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L231">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M231">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N231">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="O231">
+        <v>5.5</v>
+      </c>
+      <c r="P231">
+        <v>10</v>
+      </c>
+      <c r="Q231">
+        <v>-1.75</v>
+      </c>
+      <c r="R231">
+        <v>1.85</v>
+      </c>
+      <c r="S231">
+        <v>1.95</v>
+      </c>
+      <c r="T231">
         <v>3.25</v>
       </c>
-      <c r="P231">
-        <v>2.3</v>
-      </c>
-      <c r="Q231">
-        <v>0.25</v>
-      </c>
-      <c r="R231">
-        <v>1.75</v>
-      </c>
-      <c r="S231">
-        <v>2.05</v>
-      </c>
-      <c r="T231">
-        <v>2.25</v>
-      </c>
       <c r="U231">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB231">
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6531882</v>
+        <v>6537915</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,34 +21089,34 @@
         <v>45256.125</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232">
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K232">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L232">
         <v>4</v>
       </c>
       <c r="M232">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N232">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="O232">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P232">
         <v>6</v>
@@ -21125,40 +21125,40 @@
         <v>-1.25</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
+        <v>1.825</v>
+      </c>
+      <c r="V232">
         <v>1.975</v>
       </c>
-      <c r="V232">
-        <v>1.825</v>
-      </c>
       <c r="W232">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y232">
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB232">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21166,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6537916</v>
+        <v>6531882</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21178,58 +21178,58 @@
         <v>45256.125</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H233">
+        <v>2</v>
+      </c>
+      <c r="I233">
         <v>1</v>
-      </c>
-      <c r="I233">
-        <v>0</v>
       </c>
       <c r="J233" t="s">
         <v>43</v>
       </c>
       <c r="K233">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M233">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N233">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="O233">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P233">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q233">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R233">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T233">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V233">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W233">
-        <v>0.222</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21238,16 +21238,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA233">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC233">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21267,10 +21267,10 @@
         <v>45256.125</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H234">
         <v>4</v>
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6537915</v>
+        <v>6531883</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,76 +21356,76 @@
         <v>45256.125</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G235" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K235">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L235">
+        <v>3.8</v>
+      </c>
+      <c r="M235">
+        <v>4.2</v>
+      </c>
+      <c r="N235">
+        <v>1.75</v>
+      </c>
+      <c r="O235">
         <v>4</v>
       </c>
-      <c r="M235">
-        <v>5.25</v>
-      </c>
-      <c r="N235">
-        <v>1.444</v>
-      </c>
-      <c r="O235">
-        <v>4.2</v>
-      </c>
       <c r="P235">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q235">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S235">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U235">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V235">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W235">
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>30</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21641,10 +21641,10 @@
         <v>1.95</v>
       </c>
       <c r="O238">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P238">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q238">
         <v>-0.5</v>
@@ -21656,13 +21656,13 @@
         <v>1.825</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V238">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W238">
         <v>0</v>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -103,16 +103,13 @@
     <t>South Korea K League 2</t>
   </si>
   <si>
+    <t>Cheonan City</t>
+  </si>
+  <si>
     <t>Jeonnam Dragons</t>
   </si>
   <si>
     <t>Gyeongnam FC</t>
-  </si>
-  <si>
-    <t>Cheonan City</t>
-  </si>
-  <si>
-    <t>Chungnam Asan FC</t>
   </si>
   <si>
     <t>Seoul ELand FC</t>
@@ -121,10 +118,13 @@
     <t>Seongnam FC</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Chungnam Asan FC</t>
   </si>
   <si>
     <t>Bucheon</t>
+  </si>
+  <si>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
     <t>Ansan Greeners FC</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC239"/>
+  <dimension ref="A1:AC240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6204304</v>
+        <v>6206099</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -622,52 +622,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L2">
         <v>3.2</v>
       </c>
       <c r="M2">
+        <v>2.55</v>
+      </c>
+      <c r="N2">
+        <v>3.1</v>
+      </c>
+      <c r="O2">
+        <v>3.1</v>
+      </c>
+      <c r="P2">
         <v>2.3</v>
       </c>
-      <c r="N2">
-        <v>2.625</v>
-      </c>
-      <c r="O2">
-        <v>3.2</v>
-      </c>
-      <c r="P2">
-        <v>2.4</v>
-      </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -676,19 +676,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6206100</v>
+        <v>6204304</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,73 +711,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L3">
         <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N3">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O3">
         <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
         <v>1.4</v>
       </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6206099</v>
+        <v>6206100</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
         <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="N4">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6206101</v>
+        <v>6336857</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,52 +889,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
       </c>
       <c r="K5">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N5">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O5">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6336857</v>
+        <v>6206102</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,70 +978,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N6">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T6">
         <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6206102</v>
+        <v>6206101</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,70 +1067,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L7">
+        <v>3.2</v>
+      </c>
+      <c r="M7">
+        <v>2.55</v>
+      </c>
+      <c r="N7">
         <v>3.6</v>
       </c>
-      <c r="M7">
-        <v>4.2</v>
-      </c>
-      <c r="N7">
-        <v>1.909</v>
-      </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P7">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6206105</v>
+        <v>6206104</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,73 +1156,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="L8">
         <v>3.2</v>
       </c>
       <c r="M8">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O8">
         <v>3.2</v>
       </c>
       <c r="P8">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
         <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6206104</v>
+        <v>6206105</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,73 +1245,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L9">
         <v>3.2</v>
       </c>
       <c r="M9">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N9">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <v>3.2</v>
       </c>
       <c r="P9">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
         <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z9">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1509,10 +1509,10 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1687,10 +1687,10 @@
         <v>44996.0625</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>40</v>
@@ -2043,10 +2043,10 @@
         <v>44997.0625</v>
       </c>
       <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>44997.16666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2221,10 +2221,10 @@
         <v>45003.0625</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>37</v>
@@ -2399,10 +2399,10 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2577,7 +2577,7 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2669,7 +2669,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2758,7 +2758,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2844,10 +2844,10 @@
         <v>45017.16666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2936,7 +2936,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3200,10 +3200,10 @@
         <v>45018.27083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>45024.0625</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3378,7 +3378,7 @@
         <v>45024.16666666666</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3467,10 +3467,10 @@
         <v>45024.27083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3556,7 +3556,7 @@
         <v>45025.0625</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
         <v>38</v>
@@ -3645,7 +3645,7 @@
         <v>45025.16666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>37</v>
@@ -3734,7 +3734,7 @@
         <v>45025.27083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3823,10 +3823,10 @@
         <v>45031.0625</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3912,10 +3912,10 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" t="s">
         <v>32</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -4004,7 +4004,7 @@
         <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -4093,7 +4093,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>45032.0625</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4357,10 +4357,10 @@
         <v>45034.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4446,10 +4446,10 @@
         <v>45034.29166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>45034.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -4713,7 +4713,7 @@
         <v>45035.3125</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
@@ -4805,7 +4805,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -4980,7 +4980,7 @@
         <v>45038.16666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -5069,7 +5069,7 @@
         <v>45038.27083333334</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>41</v>
@@ -5158,10 +5158,10 @@
         <v>45039.0625</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5247,10 +5247,10 @@
         <v>45039.16666666666</v>
       </c>
       <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
         <v>35</v>
-      </c>
-      <c r="G54" t="s">
-        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5425,10 +5425,10 @@
         <v>45045.0625</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5514,10 +5514,10 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5695,7 +5695,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5870,10 +5870,10 @@
         <v>45046.16666666666</v>
       </c>
       <c r="F61" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
         <v>33</v>
-      </c>
-      <c r="G61" t="s">
-        <v>34</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         <v>45048.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -6048,7 +6048,7 @@
         <v>45048.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
         <v>39</v>
@@ -6137,10 +6137,10 @@
         <v>45048.3125</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6226,10 +6226,10 @@
         <v>45049.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6206153</v>
+        <v>6206152</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,76 +6315,76 @@
         <v>45049.3125</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K66">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L66">
         <v>3.25</v>
       </c>
       <c r="M66">
+        <v>1.909</v>
+      </c>
+      <c r="N66">
+        <v>4.5</v>
+      </c>
+      <c r="O66">
+        <v>3.75</v>
+      </c>
+      <c r="P66">
+        <v>1.615</v>
+      </c>
+      <c r="Q66">
+        <v>0.75</v>
+      </c>
+      <c r="R66">
+        <v>1.975</v>
+      </c>
+      <c r="S66">
+        <v>1.825</v>
+      </c>
+      <c r="T66">
         <v>2.75</v>
       </c>
-      <c r="N66">
-        <v>1.95</v>
-      </c>
-      <c r="O66">
-        <v>3.3</v>
-      </c>
-      <c r="P66">
-        <v>3.3</v>
-      </c>
-      <c r="Q66">
+      <c r="U66">
+        <v>1.8</v>
+      </c>
+      <c r="V66">
+        <v>2</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>0.615</v>
+      </c>
+      <c r="Z66">
         <v>-0.5</v>
       </c>
-      <c r="R66">
-        <v>2</v>
-      </c>
-      <c r="S66">
-        <v>1.8</v>
-      </c>
-      <c r="T66">
-        <v>2.25</v>
-      </c>
-      <c r="U66">
-        <v>1.95</v>
-      </c>
-      <c r="V66">
-        <v>1.85</v>
-      </c>
-      <c r="W66">
-        <v>-1</v>
-      </c>
-      <c r="X66">
-        <v>2.3</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
-      <c r="Z66">
-        <v>-1</v>
-      </c>
       <c r="AA66">
+        <v>0.4125</v>
+      </c>
+      <c r="AB66">
         <v>0.8</v>
       </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
       <c r="AC66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6392,7 +6392,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6206152</v>
+        <v>6206153</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6404,76 +6404,76 @@
         <v>45049.3125</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L67">
         <v>3.25</v>
       </c>
       <c r="M67">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="N67">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="O67">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P67">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="Q67">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y67">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6582,10 +6582,10 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6674,7 +6674,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6760,10 +6760,10 @@
         <v>45053.0625</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -6938,7 +6938,7 @@
         <v>45053.27083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
         <v>41</v>
@@ -7027,10 +7027,10 @@
         <v>45059.0625</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7208,7 +7208,7 @@
         <v>40</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,10 +7294,10 @@
         <v>45060.0625</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7383,7 +7383,7 @@
         <v>45060.16666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7472,7 +7472,7 @@
         <v>45060.27083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>37</v>
@@ -7564,7 +7564,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7650,10 +7650,10 @@
         <v>45066.16666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7828,10 +7828,10 @@
         <v>45066.27083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7917,7 +7917,7 @@
         <v>45067.16666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -8009,7 +8009,7 @@
         <v>41</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8095,10 +8095,10 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F86" t="s">
+        <v>30</v>
+      </c>
+      <c r="G86" t="s">
         <v>29</v>
-      </c>
-      <c r="G86" t="s">
-        <v>31</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8184,10 +8184,10 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>45073.27083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8365,7 +8365,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8454,7 +8454,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>45075.16666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
         <v>38</v>
@@ -8629,10 +8629,10 @@
         <v>45080.16666666666</v>
       </c>
       <c r="F92" t="s">
+        <v>29</v>
+      </c>
+      <c r="G92" t="s">
         <v>31</v>
-      </c>
-      <c r="G92" t="s">
-        <v>30</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8718,10 +8718,10 @@
         <v>45080.27083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8810,7 +8810,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8899,7 +8899,7 @@
         <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>45081.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -9074,7 +9074,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9252,10 +9252,10 @@
         <v>45087.27083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9430,10 +9430,10 @@
         <v>45088.16666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9519,10 +9519,10 @@
         <v>45088.16666666666</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9608,10 +9608,10 @@
         <v>45088.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9700,7 +9700,7 @@
         <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9786,10 +9786,10 @@
         <v>45101.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9964,7 +9964,7 @@
         <v>45102.16666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
         <v>37</v>
@@ -10056,7 +10056,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10142,7 +10142,7 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>39</v>
@@ -10320,7 +10320,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10412,7 +10412,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10501,7 +10501,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10587,10 +10587,10 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10676,10 +10676,10 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10765,7 +10765,7 @@
         <v>45115.25</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -10854,10 +10854,10 @@
         <v>45115.25</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10943,7 +10943,7 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>37</v>
@@ -11032,7 +11032,7 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>38</v>
@@ -11121,10 +11121,10 @@
         <v>45117.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11299,10 +11299,10 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11480,7 +11480,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
         <v>39</v>
@@ -11658,7 +11658,7 @@
         <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11744,10 +11744,10 @@
         <v>45123.33333333334</v>
       </c>
       <c r="F127" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" t="s">
         <v>30</v>
-      </c>
-      <c r="G127" t="s">
-        <v>29</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,76 +11833,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K128">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N128">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O128">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P128">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q128">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
+        <v>1.975</v>
+      </c>
+      <c r="S128">
         <v>1.825</v>
       </c>
-      <c r="S128">
-        <v>1.975</v>
-      </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
+        <v>1.85</v>
+      </c>
+      <c r="V128">
         <v>1.95</v>
       </c>
-      <c r="V128">
-        <v>1.85</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y128">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N129">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P129">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
         <v>1.975</v>
       </c>
-      <c r="S129">
-        <v>1.825</v>
-      </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
+        <v>1.95</v>
+      </c>
+      <c r="V129">
         <v>1.85</v>
       </c>
-      <c r="V129">
-        <v>1.95</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12100,7 +12100,7 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>37</v>
@@ -12189,10 +12189,10 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12281,7 +12281,7 @@
         <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12367,10 +12367,10 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -12456,10 +12456,10 @@
         <v>45130.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12545,7 +12545,7 @@
         <v>45130.3125</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
         <v>41</v>
@@ -12634,10 +12634,10 @@
         <v>45130.33333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12901,7 +12901,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
         <v>38</v>
@@ -12990,10 +12990,10 @@
         <v>45136.3125</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13079,7 +13079,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13171,7 +13171,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13257,10 +13257,10 @@
         <v>45138.29166666666</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13435,10 +13435,10 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13702,10 +13702,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13794,7 +13794,7 @@
         <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13883,7 +13883,7 @@
         <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -14058,10 +14058,10 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14147,7 +14147,7 @@
         <v>45152.3125</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14239,7 +14239,7 @@
         <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14328,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14417,7 +14417,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14503,7 +14503,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>38</v>
@@ -14592,7 +14592,7 @@
         <v>45158.27083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
         <v>40</v>
@@ -14681,7 +14681,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
         <v>41</v>
@@ -14770,10 +14770,10 @@
         <v>45159.29166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14859,10 +14859,10 @@
         <v>45159.3125</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15037,10 +15037,10 @@
         <v>45164.3125</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -15215,10 +15215,10 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15393,10 +15393,10 @@
         <v>45165.3125</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15482,10 +15482,10 @@
         <v>45167.29166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15574,7 +15574,7 @@
         <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15749,10 +15749,10 @@
         <v>45168.29166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15826,7 +15826,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15838,73 +15838,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H173">
         <v>2</v>
       </c>
       <c r="I173">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K173">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L173">
+        <v>3.3</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>3.5</v>
+      </c>
+      <c r="O173">
         <v>3.2</v>
       </c>
-      <c r="M173">
-        <v>2.875</v>
-      </c>
-      <c r="N173">
-        <v>2</v>
-      </c>
-      <c r="O173">
-        <v>3.3</v>
-      </c>
       <c r="P173">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R173">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S173">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T173">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U173">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W173">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA173">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC173">
         <v>-1</v>
@@ -15915,7 +15915,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15927,73 +15927,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H174">
         <v>2</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K174">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L174">
+        <v>3.2</v>
+      </c>
+      <c r="M174">
+        <v>2.875</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174">
         <v>3.3</v>
       </c>
-      <c r="M174">
-        <v>2</v>
-      </c>
-      <c r="N174">
-        <v>3.5</v>
-      </c>
-      <c r="O174">
-        <v>3.2</v>
-      </c>
       <c r="P174">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q174">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U174">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB174">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16016,10 +16016,10 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16108,7 +16108,7 @@
         <v>41</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16194,7 +16194,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
         <v>37</v>
@@ -16286,7 +16286,7 @@
         <v>38</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16372,10 +16372,10 @@
         <v>45172.27083333334</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16550,10 +16550,10 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16642,7 +16642,7 @@
         <v>37</v>
       </c>
       <c r="G182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16731,7 +16731,7 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -16817,10 +16817,10 @@
         <v>45186.0625</v>
       </c>
       <c r="F184" t="s">
+        <v>31</v>
+      </c>
+      <c r="G184" t="s">
         <v>30</v>
-      </c>
-      <c r="G184" t="s">
-        <v>29</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16906,7 +16906,7 @@
         <v>45186.16666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
         <v>39</v>
@@ -16995,7 +16995,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
         <v>38</v>
@@ -17173,10 +17173,10 @@
         <v>45188.3125</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -17262,7 +17262,7 @@
         <v>45188.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
         <v>41</v>
@@ -17354,7 +17354,7 @@
         <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17440,10 +17440,10 @@
         <v>45189.3125</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -17529,10 +17529,10 @@
         <v>45189.3125</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17618,10 +17618,10 @@
         <v>45192.0625</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17796,10 +17796,10 @@
         <v>45192.27083333334</v>
       </c>
       <c r="F195" t="s">
+        <v>30</v>
+      </c>
+      <c r="G195" t="s">
         <v>29</v>
-      </c>
-      <c r="G195" t="s">
-        <v>31</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17888,7 +17888,7 @@
         <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17974,7 +17974,7 @@
         <v>45193.16666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G197" t="s">
         <v>37</v>
@@ -18063,10 +18063,10 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18155,7 +18155,7 @@
         <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18330,10 +18330,10 @@
         <v>45199.27083333334</v>
       </c>
       <c r="F201" t="s">
+        <v>34</v>
+      </c>
+      <c r="G201" t="s">
         <v>32</v>
-      </c>
-      <c r="G201" t="s">
-        <v>33</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18419,10 +18419,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F202" t="s">
+        <v>36</v>
+      </c>
+      <c r="G202" t="s">
         <v>35</v>
-      </c>
-      <c r="G202" t="s">
-        <v>36</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -18508,7 +18508,7 @@
         <v>45200.16666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18597,7 +18597,7 @@
         <v>45200.27083333334</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -18689,7 +18689,7 @@
         <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18778,7 +18778,7 @@
         <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H206">
         <v>3</v>
@@ -18852,7 +18852,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6414604</v>
+        <v>6352816</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18864,58 +18864,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
         <v>43</v>
       </c>
       <c r="K207">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L207">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M207">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N207">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O207">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P207">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S207">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T207">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U207">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V207">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W207">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18924,16 +18924,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC207">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18941,7 +18941,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6352816</v>
+        <v>6414604</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18953,58 +18953,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>43</v>
       </c>
       <c r="K208">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L208">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M208">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N208">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O208">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P208">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q208">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S208">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V208">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W208">
-        <v>0.7270000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19013,16 +19013,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19131,10 +19131,10 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G210" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19220,10 +19220,10 @@
         <v>45213.16666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19309,10 +19309,10 @@
         <v>45220.0625</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -19398,7 +19398,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G213" t="s">
         <v>39</v>
@@ -19487,7 +19487,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G214" t="s">
         <v>40</v>
@@ -19579,7 +19579,7 @@
         <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19665,10 +19665,10 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19843,7 +19843,7 @@
         <v>45227.0625</v>
       </c>
       <c r="F218" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G218" t="s">
         <v>37</v>
@@ -19932,10 +19932,10 @@
         <v>45227.16666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G219" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -20024,7 +20024,7 @@
         <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -20110,10 +20110,10 @@
         <v>45228.0625</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -20202,7 +20202,7 @@
         <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20377,10 +20377,10 @@
         <v>45241.0625</v>
       </c>
       <c r="F224" t="s">
+        <v>32</v>
+      </c>
+      <c r="G224" t="s">
         <v>33</v>
-      </c>
-      <c r="G224" t="s">
-        <v>34</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20466,10 +20466,10 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20555,7 +20555,7 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F226" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
         <v>41</v>
@@ -20733,7 +20733,7 @@
         <v>45242.16666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G228" t="s">
         <v>38</v>
@@ -20822,7 +20822,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
         <v>40</v>
@@ -20899,7 +20899,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6540655</v>
+        <v>6537916</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20911,76 +20911,76 @@
         <v>45256.125</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K230">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L230">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M230">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N230">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="O230">
+        <v>5.5</v>
+      </c>
+      <c r="P230">
+        <v>10</v>
+      </c>
+      <c r="Q230">
+        <v>-1.75</v>
+      </c>
+      <c r="R230">
+        <v>1.85</v>
+      </c>
+      <c r="S230">
+        <v>1.95</v>
+      </c>
+      <c r="T230">
         <v>3.25</v>
       </c>
-      <c r="P230">
-        <v>2.3</v>
-      </c>
-      <c r="Q230">
-        <v>0.25</v>
-      </c>
-      <c r="R230">
-        <v>1.75</v>
-      </c>
-      <c r="S230">
-        <v>2.05</v>
-      </c>
-      <c r="T230">
-        <v>2.25</v>
-      </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20988,7 +20988,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6537916</v>
+        <v>6540655</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,76 +21000,76 @@
         <v>45256.125</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
         <v>1</v>
       </c>
-      <c r="I231">
-        <v>0</v>
-      </c>
       <c r="J231" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K231">
+        <v>2.4</v>
+      </c>
+      <c r="L231">
+        <v>3.3</v>
+      </c>
+      <c r="M231">
+        <v>2.7</v>
+      </c>
+      <c r="N231">
+        <v>2.75</v>
+      </c>
+      <c r="O231">
+        <v>3.25</v>
+      </c>
+      <c r="P231">
+        <v>2.3</v>
+      </c>
+      <c r="Q231">
+        <v>0.25</v>
+      </c>
+      <c r="R231">
+        <v>1.75</v>
+      </c>
+      <c r="S231">
+        <v>2.05</v>
+      </c>
+      <c r="T231">
+        <v>2.25</v>
+      </c>
+      <c r="U231">
+        <v>1.825</v>
+      </c>
+      <c r="V231">
+        <v>1.975</v>
+      </c>
+      <c r="W231">
+        <v>-1</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
         <v>1.3</v>
       </c>
-      <c r="L231">
-        <v>5</v>
-      </c>
-      <c r="M231">
-        <v>7.5</v>
-      </c>
-      <c r="N231">
-        <v>1.222</v>
-      </c>
-      <c r="O231">
-        <v>5.5</v>
-      </c>
-      <c r="P231">
-        <v>10</v>
-      </c>
-      <c r="Q231">
-        <v>-1.75</v>
-      </c>
-      <c r="R231">
-        <v>1.85</v>
-      </c>
-      <c r="S231">
-        <v>1.95</v>
-      </c>
-      <c r="T231">
-        <v>3.25</v>
-      </c>
-      <c r="U231">
-        <v>1.9</v>
-      </c>
-      <c r="V231">
-        <v>1.9</v>
-      </c>
-      <c r="W231">
-        <v>0.222</v>
-      </c>
-      <c r="X231">
-        <v>-1</v>
-      </c>
-      <c r="Y231">
-        <v>-1</v>
-      </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AB231">
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21092,7 +21092,7 @@
         <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21181,7 +21181,7 @@
         <v>39</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H233">
         <v>2</v>
@@ -21267,10 +21267,10 @@
         <v>45256.125</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H234">
         <v>4</v>
@@ -21356,7 +21356,7 @@
         <v>45256.125</v>
       </c>
       <c r="F235" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G235" t="s">
         <v>37</v>
@@ -21445,10 +21445,10 @@
         <v>45259.29166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21537,7 +21537,7 @@
         <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H237">
         <v>2</v>
@@ -21626,7 +21626,7 @@
         <v>39</v>
       </c>
       <c r="G238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K238">
         <v>1.833</v>
@@ -21700,7 +21700,7 @@
         <v>37</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K239">
         <v>4</v>
@@ -21751,6 +21751,80 @@
         <v>0</v>
       </c>
       <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>7738655</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45353.08333333334</v>
+      </c>
+      <c r="F240" t="s">
+        <v>35</v>
+      </c>
+      <c r="G240" t="s">
+        <v>29</v>
+      </c>
+      <c r="K240">
+        <v>1.727</v>
+      </c>
+      <c r="L240">
+        <v>3.5</v>
+      </c>
+      <c r="M240">
+        <v>5</v>
+      </c>
+      <c r="N240">
+        <v>1.8</v>
+      </c>
+      <c r="O240">
+        <v>3.4</v>
+      </c>
+      <c r="P240">
+        <v>4.75</v>
+      </c>
+      <c r="Q240">
+        <v>-0.5</v>
+      </c>
+      <c r="R240">
+        <v>1.825</v>
+      </c>
+      <c r="S240">
+        <v>1.975</v>
+      </c>
+      <c r="T240">
+        <v>2.25</v>
+      </c>
+      <c r="U240">
+        <v>2</v>
+      </c>
+      <c r="V240">
+        <v>1.8</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
         <v>0</v>
       </c>
     </row>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -103,22 +103,22 @@
     <t>South Korea K League 2</t>
   </si>
   <si>
+    <t>Gyeongnam FC</t>
+  </si>
+  <si>
     <t>Cheonan City</t>
   </si>
   <si>
     <t>Jeonnam Dragons</t>
   </si>
   <si>
-    <t>Gyeongnam FC</t>
-  </si>
-  <si>
     <t>Seoul ELand FC</t>
   </si>
   <si>
-    <t>Seongnam FC</t>
+    <t>Chungnam Asan FC</t>
   </si>
   <si>
-    <t>Chungnam Asan FC</t>
+    <t>Seongnam FC</t>
   </si>
   <si>
     <t>Bucheon</t>
@@ -142,10 +142,10 @@
     <t>Gimcheon Sangmu FC</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6206099</v>
+        <v>6206100</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -622,73 +622,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
       </c>
       <c r="K2">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
         <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="N2">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P2">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6204304</v>
+        <v>6206099</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,52 +711,52 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="L3">
         <v>3.2</v>
       </c>
       <c r="M3">
+        <v>2.55</v>
+      </c>
+      <c r="N3">
+        <v>3.1</v>
+      </c>
+      <c r="O3">
+        <v>3.1</v>
+      </c>
+      <c r="P3">
         <v>2.3</v>
       </c>
-      <c r="N3">
-        <v>2.625</v>
-      </c>
-      <c r="O3">
-        <v>3.2</v>
-      </c>
-      <c r="P3">
-        <v>2.4</v>
-      </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -765,19 +765,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -785,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6206100</v>
+        <v>6204304</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -800,73 +800,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>43</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L4">
         <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N4">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O4">
         <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
         <v>1.4</v>
       </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>1.8</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6206102</v>
+        <v>6206101</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,70 +978,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L6">
+        <v>3.2</v>
+      </c>
+      <c r="M6">
+        <v>2.55</v>
+      </c>
+      <c r="N6">
         <v>3.6</v>
       </c>
-      <c r="M6">
-        <v>4.2</v>
-      </c>
-      <c r="N6">
-        <v>1.909</v>
-      </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S6">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6206101</v>
+        <v>6206102</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,70 +1067,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>1</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
       </c>
       <c r="K7">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N7">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1156,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>2.4</v>
@@ -1254,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -1334,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>2.55</v>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>2.15</v>
@@ -1497,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6204305</v>
+        <v>6206108</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,76 +1509,76 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L12">
         <v>3.1</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>3.1</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1586,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6206108</v>
+        <v>6204305</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1598,76 +1598,76 @@
         <v>44990.16666666666</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="L13">
         <v>3.1</v>
       </c>
       <c r="M13">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O13">
         <v>3.1</v>
       </c>
       <c r="P13">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC13">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.05</v>
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6206110</v>
+        <v>6206109</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,76 +1776,76 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M15">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N15">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P15">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>-0</v>
+      </c>
+      <c r="AB15">
+        <v>-0.5</v>
+      </c>
+      <c r="AC15">
         <v>0.4375</v>
-      </c>
-      <c r="AA15">
-        <v>-0.5</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6206109</v>
+        <v>6206110</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,76 +1865,76 @@
         <v>44996.16666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M16">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N16">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O16">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6206111</v>
+        <v>6206112</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,40 +1954,40 @@
         <v>44997.0625</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>44</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="L17">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="O17">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q17">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -1996,34 +1996,34 @@
         <v>1.875</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
+        <v>-0.5</v>
+      </c>
+      <c r="AA17">
+        <v>0.4375</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.925</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>-0.5</v>
-      </c>
-      <c r="AC17">
-        <v>0.475</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6206112</v>
+        <v>6206111</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,40 +2043,40 @@
         <v>44997.0625</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P18">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2085,34 +2085,34 @@
         <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
+        <v>0.925</v>
+      </c>
+      <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
         <v>-0.5</v>
       </c>
-      <c r="AA18">
-        <v>0.4375</v>
-      </c>
-      <c r="AB18">
-        <v>-1</v>
-      </c>
       <c r="AC18">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>44997.16666666666</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2144,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>3.2</v>
@@ -2221,10 +2221,10 @@
         <v>45003.0625</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -2298,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6206115</v>
+        <v>6206116</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2310,76 +2310,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N21">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P21">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
         <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2387,7 +2387,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6206116</v>
+        <v>6206115</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2399,76 +2399,76 @@
         <v>45003.16666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N22">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O22">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P22">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q22">
         <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V22">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X22">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>3.2</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6204307</v>
+        <v>6206118</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>42</v>
       </c>
       <c r="K24">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N24">
+        <v>2.25</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>3.2</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
         <v>1.95</v>
       </c>
-      <c r="O24">
-        <v>3.25</v>
-      </c>
-      <c r="P24">
-        <v>3.5</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>2.05</v>
-      </c>
       <c r="S24">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC24">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6206118</v>
+        <v>6204307</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,76 +2666,76 @@
         <v>45004.16666666666</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>43</v>
       </c>
       <c r="K25">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L25">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N25">
+        <v>1.95</v>
+      </c>
+      <c r="O25">
+        <v>3.25</v>
+      </c>
+      <c r="P25">
+        <v>3.5</v>
+      </c>
+      <c r="Q25">
+        <v>-0.5</v>
+      </c>
+      <c r="R25">
+        <v>2.05</v>
+      </c>
+      <c r="S25">
+        <v>1.75</v>
+      </c>
+      <c r="T25">
         <v>2.25</v>
       </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>3.2</v>
-      </c>
-      <c r="Q25">
-        <v>-0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.95</v>
-      </c>
-      <c r="S25">
-        <v>1.85</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W25">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB25">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
         <v>2.05</v>
@@ -2844,7 +2844,7 @@
         <v>45017.16666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -2856,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>1.666</v>
@@ -3025,7 +3025,7 @@
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>2.1</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>2.4</v>
@@ -3200,10 +3200,10 @@
         <v>45018.27083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3212,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>3.1</v>
@@ -3289,7 +3289,7 @@
         <v>45024.0625</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -3301,7 +3301,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>4.5</v>
@@ -3390,7 +3390,7 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>2.75</v>
@@ -3467,10 +3467,10 @@
         <v>45024.27083333334</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36">
         <v>1.75</v>
@@ -3734,7 +3734,7 @@
         <v>45025.27083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -3823,7 +3823,7 @@
         <v>45031.0625</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K38">
         <v>1.95</v>
@@ -3912,7 +3912,7 @@
         <v>45031.16666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39">
         <v>2.3</v>
@@ -4013,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K40">
         <v>1.95</v>
@@ -4093,7 +4093,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>45032.0625</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42">
         <v>1.333</v>
@@ -4280,7 +4280,7 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>2.3</v>
@@ -4345,7 +4345,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6206134</v>
+        <v>6206135</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4357,56 +4357,56 @@
         <v>45034.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K44">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M44">
         <v>3</v>
       </c>
       <c r="N44">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U44">
+        <v>1.85</v>
+      </c>
+      <c r="V44">
         <v>1.95</v>
       </c>
-      <c r="V44">
-        <v>1.85</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4414,19 +4414,19 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206135</v>
+        <v>6206134</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,56 +4446,56 @@
         <v>45034.29166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M45">
         <v>3</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O45">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P45">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
+        <v>1.95</v>
+      </c>
+      <c r="V45">
         <v>1.85</v>
       </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
@@ -4503,19 +4503,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>45034.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
         <v>39</v>
@@ -4547,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>2.625</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47">
         <v>2.9</v>
@@ -4701,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6206138</v>
+        <v>6204309</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4713,76 +4713,76 @@
         <v>45035.3125</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K48">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N48">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P48">
+        <v>4</v>
+      </c>
+      <c r="Q48">
+        <v>-0.75</v>
+      </c>
+      <c r="R48">
+        <v>1.975</v>
+      </c>
+      <c r="S48">
+        <v>1.825</v>
+      </c>
+      <c r="T48">
+        <v>2.75</v>
+      </c>
+      <c r="U48">
+        <v>1.85</v>
+      </c>
+      <c r="V48">
         <v>1.95</v>
       </c>
-      <c r="Q48">
-        <v>0.5</v>
-      </c>
-      <c r="R48">
-        <v>1.825</v>
-      </c>
-      <c r="S48">
-        <v>1.975</v>
-      </c>
-      <c r="T48">
-        <v>2.5</v>
-      </c>
-      <c r="U48">
-        <v>2</v>
-      </c>
-      <c r="V48">
-        <v>1.8</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X48">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC48">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6204309</v>
+        <v>6206138</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,76 +4802,76 @@
         <v>45035.3125</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K49">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M49">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="N49">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="O49">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="Q49">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R49">
+        <v>1.825</v>
+      </c>
+      <c r="S49">
         <v>1.975</v>
       </c>
-      <c r="S49">
-        <v>1.825</v>
-      </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W49">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4903,7 +4903,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>1.833</v>
@@ -4980,7 +4980,7 @@
         <v>45038.16666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -4992,7 +4992,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>2.05</v>
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -5158,10 +5158,10 @@
         <v>45039.0625</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5259,7 +5259,7 @@
         <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54">
         <v>2.7</v>
@@ -5339,7 +5339,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -5425,10 +5425,10 @@
         <v>45045.0625</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K56">
         <v>2.15</v>
@@ -5502,7 +5502,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6206145</v>
+        <v>6206144</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,76 +5514,76 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K57">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L57">
+        <v>3.4</v>
+      </c>
+      <c r="M57">
+        <v>4.2</v>
+      </c>
+      <c r="N57">
+        <v>1.8</v>
+      </c>
+      <c r="O57">
+        <v>3.5</v>
+      </c>
+      <c r="P57">
         <v>4</v>
       </c>
-      <c r="M57">
-        <v>6.5</v>
-      </c>
-      <c r="N57">
-        <v>1.4</v>
-      </c>
-      <c r="O57">
-        <v>4.2</v>
-      </c>
-      <c r="P57">
-        <v>7</v>
-      </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.675</v>
+        <v>2.05</v>
       </c>
       <c r="S57">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.7</v>
+        <v>1.775</v>
       </c>
       <c r="V57">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W57">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB57">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6206144</v>
+        <v>6206145</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,76 +5603,76 @@
         <v>45045.16666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K58">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M58">
+        <v>6.5</v>
+      </c>
+      <c r="N58">
+        <v>1.4</v>
+      </c>
+      <c r="O58">
         <v>4.2</v>
       </c>
-      <c r="N58">
-        <v>1.8</v>
-      </c>
-      <c r="O58">
-        <v>3.5</v>
-      </c>
       <c r="P58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R58">
-        <v>2.05</v>
+        <v>1.675</v>
       </c>
       <c r="S58">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="V58">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X58">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AC58">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K59">
         <v>1.571</v>
@@ -5793,7 +5793,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>2.55</v>
@@ -5873,7 +5873,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5882,7 +5882,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>2.45</v>
@@ -5959,7 +5959,7 @@
         <v>45048.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -6048,7 +6048,7 @@
         <v>45048.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>39</v>
@@ -6060,7 +6060,7 @@
         <v>4</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>4.5</v>
@@ -6140,7 +6140,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6149,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6226,7 +6226,7 @@
         <v>45049.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6238,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>2.2</v>
@@ -6327,7 +6327,7 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K66">
         <v>3.5</v>
@@ -6407,7 +6407,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6496,7 +6496,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6585,7 +6585,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K69">
         <v>2.2</v>
@@ -6763,7 +6763,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -6772,7 +6772,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K71">
         <v>2.5</v>
@@ -6861,7 +6861,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>1.909</v>
@@ -6938,7 +6938,7 @@
         <v>45053.27083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
         <v>41</v>
@@ -7030,7 +7030,7 @@
         <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7039,7 +7039,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
         <v>1.7</v>
@@ -7217,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K76">
         <v>2.2</v>
@@ -7294,10 +7294,10 @@
         <v>45060.0625</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7383,7 +7383,7 @@
         <v>45060.16666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7395,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>2.5</v>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
         <v>2.55</v>
@@ -7564,7 +7564,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>2.9</v>
@@ -7650,10 +7650,10 @@
         <v>45066.16666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>4</v>
@@ -7742,7 +7742,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>1.85</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -7917,7 +7917,7 @@
         <v>45067.16666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -7929,7 +7929,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>2.25</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6204720</v>
+        <v>6206170</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,76 +8095,76 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>29</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>43</v>
       </c>
       <c r="K86">
-        <v>1.571</v>
+        <v>3.75</v>
       </c>
       <c r="L86">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M86">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="N86">
-        <v>1.55</v>
+        <v>3.75</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R86">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
         <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z86">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6206170</v>
+        <v>6204720</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,76 +8184,76 @@
         <v>45073.16666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>42</v>
       </c>
       <c r="K87">
-        <v>3.75</v>
+        <v>1.571</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M87">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="N87">
-        <v>3.75</v>
+        <v>1.55</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q87">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="T87">
         <v>2.5</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8273,7 +8273,7 @@
         <v>45073.27083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8285,7 +8285,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>2.75</v>
@@ -8365,7 +8365,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K89">
         <v>2.05</v>
@@ -8463,7 +8463,7 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>2.8</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K91">
         <v>2.4</v>
@@ -8629,10 +8629,10 @@
         <v>45080.16666666666</v>
       </c>
       <c r="F92" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s">
         <v>29</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8641,7 +8641,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>4.5</v>
@@ -8718,11 +8718,11 @@
         <v>45080.27083333334</v>
       </c>
       <c r="F93" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s">
         <v>34</v>
       </c>
-      <c r="G93" t="s">
-        <v>33</v>
-      </c>
       <c r="H93">
         <v>2</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K93">
         <v>2.45</v>
@@ -8908,7 +8908,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K95">
         <v>1.666</v>
@@ -8997,7 +8997,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>2.6</v>
@@ -9074,7 +9074,7 @@
         <v>45081.33333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
         <v>41</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K97">
         <v>3.6</v>
@@ -9175,7 +9175,7 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K98">
         <v>1.444</v>
@@ -9252,10 +9252,10 @@
         <v>45087.27083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9264,7 +9264,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
         <v>2.05</v>
@@ -9433,7 +9433,7 @@
         <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9522,7 +9522,7 @@
         <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9531,7 +9531,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K102">
         <v>3.5</v>
@@ -9608,7 +9608,7 @@
         <v>45088.33333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>32</v>
@@ -9620,7 +9620,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>2.15</v>
@@ -9786,7 +9786,7 @@
         <v>45101.27083333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
         <v>35</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>2.55</v>
@@ -9878,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>4</v>
@@ -9887,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K106">
         <v>1.25</v>
@@ -9964,7 +9964,7 @@
         <v>45102.16666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
         <v>37</v>
@@ -9976,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
         <v>1.8</v>
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6204316</v>
+        <v>6206192</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,10 +10053,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10065,28 +10065,28 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L108">
         <v>3.25</v>
       </c>
       <c r="M108">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N108">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O108">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R108">
         <v>1.925</v>
@@ -10098,10 +10098,10 @@
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10110,7 +10110,7 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z108">
         <v>-1</v>
@@ -10119,7 +10119,7 @@
         <v>0.875</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10130,7 +10130,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6206192</v>
+        <v>6204316</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,10 +10142,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10154,28 +10154,28 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K109">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L109">
         <v>3.25</v>
       </c>
       <c r="M109">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N109">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P109">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q109">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
         <v>1.925</v>
@@ -10187,10 +10187,10 @@
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10199,7 +10199,7 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.8500000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z109">
         <v>-1</v>
@@ -10208,7 +10208,7 @@
         <v>0.875</v>
       </c>
       <c r="AB109">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10243,7 +10243,7 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>3.8</v>
@@ -10332,7 +10332,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>2.8</v>
@@ -10412,7 +10412,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>4</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.909</v>
@@ -10501,7 +10501,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10587,7 +10587,7 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>32</v>
@@ -10679,7 +10679,7 @@
         <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6206198</v>
+        <v>6206199</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,40 +10765,40 @@
         <v>45115.25</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N116">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P116">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
         <v>2</v>
@@ -10810,31 +10810,31 @@
         <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W116">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10842,7 +10842,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6206199</v>
+        <v>6206198</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10854,40 +10854,40 @@
         <v>45115.25</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K117">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N117">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
         <v>2</v>
@@ -10899,31 +10899,31 @@
         <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC117">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>37</v>
@@ -10955,7 +10955,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K118">
         <v>1.666</v>
@@ -11032,7 +11032,7 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
         <v>38</v>
@@ -11121,10 +11121,10 @@
         <v>45117.29166666666</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11222,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K121">
         <v>1.833</v>
@@ -11299,7 +11299,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
         <v>36</v>
@@ -11400,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K123">
         <v>3.6</v>
@@ -11489,7 +11489,7 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>3.1</v>
@@ -11566,7 +11566,7 @@
         <v>45122.33333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
         <v>39</v>
@@ -11578,7 +11578,7 @@
         <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K125">
         <v>3.2</v>
@@ -11658,7 +11658,7 @@
         <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11667,7 +11667,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>1.909</v>
@@ -11744,11 +11744,11 @@
         <v>45123.33333333334</v>
       </c>
       <c r="F127" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" t="s">
         <v>31</v>
       </c>
-      <c r="G127" t="s">
-        <v>30</v>
-      </c>
       <c r="H127">
         <v>0</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>2</v>
@@ -11821,7 +11821,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11833,76 +11833,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N128">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P128">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q128">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.825</v>
-      </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
+        <v>1.95</v>
+      </c>
+      <c r="V128">
         <v>1.85</v>
       </c>
-      <c r="V128">
-        <v>1.95</v>
-      </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K129">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N129">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O129">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q129">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
         <v>1.825</v>
       </c>
-      <c r="S129">
-        <v>1.975</v>
-      </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
+        <v>1.85</v>
+      </c>
+      <c r="V129">
         <v>1.95</v>
       </c>
-      <c r="V129">
-        <v>1.85</v>
-      </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y129">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6204320</v>
+        <v>6206211</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,76 +12100,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K131">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M131">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N131">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P131">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6206211</v>
+        <v>6204320</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,76 +12189,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L132">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M132">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N132">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O132">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P132">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X132">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>3</v>
@@ -12290,7 +12290,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K133">
         <v>1.65</v>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K134">
         <v>2.9</v>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6206214</v>
+        <v>6206215</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,49 +12456,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>43</v>
       </c>
       <c r="K135">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L135">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N135">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O135">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U135">
         <v>2</v>
@@ -12507,19 +12507,19 @@
         <v>1.8</v>
       </c>
       <c r="W135">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB135">
         <v>-1</v>
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6206215</v>
+        <v>6206214</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,49 +12545,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>42</v>
       </c>
       <c r="K136">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N136">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O136">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P136">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q136">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U136">
         <v>2</v>
@@ -12596,19 +12596,19 @@
         <v>1.8</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -12634,10 +12634,10 @@
         <v>45130.33333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12646,7 +12646,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K137">
         <v>3.25</v>
@@ -12735,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K138">
         <v>1.727</v>
@@ -12824,7 +12824,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K139">
         <v>2.55</v>
@@ -12901,7 +12901,7 @@
         <v>45136.29166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
         <v>38</v>
@@ -12990,10 +12990,10 @@
         <v>45136.3125</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13002,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141">
         <v>2.45</v>
@@ -13171,7 +13171,7 @@
         <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13180,7 +13180,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K143">
         <v>2.05</v>
@@ -13260,7 +13260,7 @@
         <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13358,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K145">
         <v>2.5</v>
@@ -13435,7 +13435,7 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K146">
         <v>2.15</v>
@@ -13527,7 +13527,7 @@
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K147">
         <v>1.4</v>
@@ -13625,7 +13625,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K148">
         <v>3.2</v>
@@ -13705,7 +13705,7 @@
         <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13714,7 +13714,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K149">
         <v>2.55</v>
@@ -13794,7 +13794,7 @@
         <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K150">
         <v>1.6</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K151">
         <v>3</v>
@@ -14061,7 +14061,7 @@
         <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K153">
         <v>2.45</v>
@@ -14147,7 +14147,7 @@
         <v>45152.3125</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
         <v>38</v>
@@ -14159,7 +14159,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>3.8</v>
@@ -14248,7 +14248,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14328,7 +14328,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14337,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K156">
         <v>1.909</v>
@@ -14417,7 +14417,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14426,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K158">
         <v>2.9</v>
@@ -14604,7 +14604,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K159">
         <v>2.625</v>
@@ -14681,7 +14681,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
         <v>41</v>
@@ -14693,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K160">
         <v>3.3</v>
@@ -14770,7 +14770,7 @@
         <v>45159.29166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
         <v>35</v>
@@ -14859,10 +14859,10 @@
         <v>45159.3125</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>41</v>
       </c>
       <c r="G163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -14960,7 +14960,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K163">
         <v>1.6</v>
@@ -15025,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6206241</v>
+        <v>6206240</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15037,56 +15037,56 @@
         <v>45164.3125</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K164">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L164">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M164">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N164">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O164">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P164">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
+        <v>1.875</v>
+      </c>
+      <c r="S164">
+        <v>1.925</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>1.95</v>
+      </c>
+      <c r="V164">
         <v>1.85</v>
       </c>
-      <c r="S164">
-        <v>1.95</v>
-      </c>
-      <c r="T164">
-        <v>2.5</v>
-      </c>
-      <c r="U164">
-        <v>1.8</v>
-      </c>
-      <c r="V164">
-        <v>2</v>
-      </c>
       <c r="W164">
         <v>-1</v>
       </c>
@@ -15094,19 +15094,19 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
+        <v>0.925</v>
+      </c>
+      <c r="AB164">
         <v>0.95</v>
       </c>
-      <c r="AB164">
-        <v>-1</v>
-      </c>
       <c r="AC164">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6206240</v>
+        <v>6206241</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,55 +15126,55 @@
         <v>45164.3125</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165" t="s">
+        <v>43</v>
+      </c>
+      <c r="K165">
+        <v>2.3</v>
+      </c>
+      <c r="L165">
+        <v>3.4</v>
+      </c>
+      <c r="M165">
+        <v>2.75</v>
+      </c>
+      <c r="N165">
+        <v>2.15</v>
+      </c>
+      <c r="O165">
+        <v>3.4</v>
+      </c>
+      <c r="P165">
         <v>3</v>
       </c>
-      <c r="J165" t="s">
-        <v>42</v>
-      </c>
-      <c r="K165">
-        <v>3.1</v>
-      </c>
-      <c r="L165">
-        <v>3.1</v>
-      </c>
-      <c r="M165">
-        <v>2.2</v>
-      </c>
-      <c r="N165">
-        <v>3.2</v>
-      </c>
-      <c r="O165">
-        <v>3</v>
-      </c>
-      <c r="P165">
-        <v>2.2</v>
-      </c>
       <c r="Q165">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S165">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W165">
         <v>-1</v>
@@ -15183,19 +15183,19 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15227,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K166">
         <v>2.25</v>
@@ -15307,7 +15307,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K167">
         <v>1.909</v>
@@ -15393,7 +15393,7 @@
         <v>45165.3125</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
         <v>36</v>
@@ -15482,10 +15482,10 @@
         <v>45167.29166666666</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -15494,7 +15494,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K169">
         <v>2.4</v>
@@ -15583,7 +15583,7 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K170">
         <v>3.1</v>
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K171">
         <v>2.9</v>
@@ -15752,7 +15752,7 @@
         <v>32</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15761,7 +15761,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K172">
         <v>2.7</v>
@@ -15850,7 +15850,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K173">
         <v>3.5</v>
@@ -15927,7 +15927,7 @@
         <v>45168.3125</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
         <v>38</v>
@@ -15939,7 +15939,7 @@
         <v>4</v>
       </c>
       <c r="J174" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K174">
         <v>2.375</v>
@@ -16019,7 +16019,7 @@
         <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16028,7 +16028,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K175">
         <v>2.25</v>
@@ -16194,7 +16194,7 @@
         <v>45171.33333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>37</v>
@@ -16295,7 +16295,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K178">
         <v>2</v>
@@ -16372,10 +16372,10 @@
         <v>45172.27083333334</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16473,7 +16473,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K180">
         <v>2.2</v>
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6206255</v>
+        <v>6206254</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,55 +16550,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K181">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L181">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N181">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O181">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P181">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T181">
         <v>2.25</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W181">
         <v>-1</v>
@@ -16607,19 +16607,19 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16627,7 +16627,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6206254</v>
+        <v>6206255</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16639,55 +16639,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J182" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K182">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M182">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N182">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O182">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P182">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q182">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S182">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T182">
         <v>2.25</v>
       </c>
       <c r="U182">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V182">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W182">
         <v>-1</v>
@@ -16696,19 +16696,19 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC182">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H183">
         <v>3</v>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K183">
         <v>1.666</v>
@@ -16817,10 +16817,10 @@
         <v>45186.0625</v>
       </c>
       <c r="F184" t="s">
+        <v>29</v>
+      </c>
+      <c r="G184" t="s">
         <v>31</v>
-      </c>
-      <c r="G184" t="s">
-        <v>30</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16829,7 +16829,7 @@
         <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K184">
         <v>1.909</v>
@@ -16906,7 +16906,7 @@
         <v>45186.16666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
         <v>39</v>
@@ -16918,7 +16918,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K185">
         <v>3.4</v>
@@ -17096,7 +17096,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K187">
         <v>1.5</v>
@@ -17185,7 +17185,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K188">
         <v>2.375</v>
@@ -17262,7 +17262,7 @@
         <v>45188.3125</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G189" t="s">
         <v>41</v>
@@ -17274,7 +17274,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K189">
         <v>3.6</v>
@@ -17354,7 +17354,7 @@
         <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17428,7 +17428,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6204329</v>
+        <v>6206263</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17440,76 +17440,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>42</v>
       </c>
       <c r="K191">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L191">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M191">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N191">
+        <v>3.6</v>
+      </c>
+      <c r="O191">
+        <v>3.25</v>
+      </c>
+      <c r="P191">
+        <v>2.1</v>
+      </c>
+      <c r="Q191">
+        <v>0.25</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>1.8</v>
+      </c>
+      <c r="T191">
+        <v>2</v>
+      </c>
+      <c r="U191">
+        <v>1.775</v>
+      </c>
+      <c r="V191">
+        <v>2.025</v>
+      </c>
+      <c r="W191">
         <v>2.6</v>
       </c>
-      <c r="O191">
-        <v>3.4</v>
-      </c>
-      <c r="P191">
-        <v>2.625</v>
-      </c>
-      <c r="Q191">
-        <v>0</v>
-      </c>
-      <c r="R191">
-        <v>1.875</v>
-      </c>
-      <c r="S191">
-        <v>1.925</v>
-      </c>
-      <c r="T191">
-        <v>2.25</v>
-      </c>
-      <c r="U191">
-        <v>1.825</v>
-      </c>
-      <c r="V191">
-        <v>1.975</v>
-      </c>
-      <c r="W191">
-        <v>-1</v>
-      </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17517,7 +17517,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6206263</v>
+        <v>6204329</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17529,76 +17529,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
         <v>1</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>43</v>
       </c>
       <c r="K192">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L192">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M192">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N192">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O192">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P192">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V192">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W192">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z192">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17618,7 +17618,7 @@
         <v>45192.0625</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
         <v>36</v>
@@ -17630,7 +17630,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K193">
         <v>2.25</v>
@@ -17719,7 +17719,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K194">
         <v>1.909</v>
@@ -17796,10 +17796,10 @@
         <v>45192.27083333334</v>
       </c>
       <c r="F195" t="s">
+        <v>31</v>
+      </c>
+      <c r="G195" t="s">
         <v>30</v>
-      </c>
-      <c r="G195" t="s">
-        <v>29</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17808,7 +17808,7 @@
         <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K195">
         <v>1.7</v>
@@ -17888,7 +17888,7 @@
         <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17897,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K196">
         <v>2.2</v>
@@ -17986,7 +17986,7 @@
         <v>4</v>
       </c>
       <c r="J197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>1.75</v>
@@ -18066,7 +18066,7 @@
         <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18075,7 +18075,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K198">
         <v>2.625</v>
@@ -18155,7 +18155,7 @@
         <v>39</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18330,7 +18330,7 @@
         <v>45199.27083333334</v>
       </c>
       <c r="F201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
         <v>32</v>
@@ -18342,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K201">
         <v>2.15</v>
@@ -18508,7 +18508,7 @@
         <v>45200.16666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
         <v>41</v>
@@ -18520,7 +18520,7 @@
         <v>3</v>
       </c>
       <c r="J203" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K203">
         <v>5.25</v>
@@ -18597,7 +18597,7 @@
         <v>45200.27083333334</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G204" t="s">
         <v>40</v>
@@ -18609,7 +18609,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K204">
         <v>2.625</v>
@@ -18689,7 +18689,7 @@
         <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18787,7 +18787,7 @@
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K206">
         <v>1.65</v>
@@ -18864,7 +18864,7 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
         <v>37</v>
@@ -18876,7 +18876,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K207">
         <v>1.666</v>
@@ -18953,11 +18953,11 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F208" t="s">
+        <v>34</v>
+      </c>
+      <c r="G208" t="s">
         <v>33</v>
       </c>
-      <c r="G208" t="s">
-        <v>34</v>
-      </c>
       <c r="H208">
         <v>2</v>
       </c>
@@ -18965,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K208">
         <v>2.4</v>
@@ -19054,7 +19054,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K209">
         <v>2.8</v>
@@ -19134,7 +19134,7 @@
         <v>32</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19143,7 +19143,7 @@
         <v>3</v>
       </c>
       <c r="J210" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K210">
         <v>3</v>
@@ -19220,7 +19220,7 @@
         <v>45213.16666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
         <v>36</v>
@@ -19232,7 +19232,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K211">
         <v>2.3</v>
@@ -19309,10 +19309,10 @@
         <v>45220.0625</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H212">
         <v>3</v>
@@ -19321,7 +19321,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K212">
         <v>3.1</v>
@@ -19487,7 +19487,7 @@
         <v>45220.27083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
         <v>40</v>
@@ -19499,7 +19499,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K214">
         <v>3.3</v>
@@ -19579,7 +19579,7 @@
         <v>38</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H215">
         <v>2</v>
@@ -19588,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K215">
         <v>2.1</v>
@@ -19668,7 +19668,7 @@
         <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -19766,7 +19766,7 @@
         <v>7</v>
       </c>
       <c r="J217" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K217">
         <v>4.5</v>
@@ -19843,7 +19843,7 @@
         <v>45227.0625</v>
       </c>
       <c r="F218" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G218" t="s">
         <v>37</v>
@@ -19855,7 +19855,7 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K218">
         <v>1.55</v>
@@ -19932,10 +19932,10 @@
         <v>45227.16666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G219" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H219">
         <v>2</v>
@@ -19944,7 +19944,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K219">
         <v>1.8</v>
@@ -20033,7 +20033,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K220">
         <v>1.666</v>
@@ -20110,7 +20110,7 @@
         <v>45228.0625</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
         <v>36</v>
@@ -20122,7 +20122,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K221">
         <v>2.1</v>
@@ -20211,7 +20211,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K222">
         <v>1.85</v>
@@ -20300,7 +20300,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K223">
         <v>1.727</v>
@@ -20380,7 +20380,7 @@
         <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20389,7 +20389,7 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K224">
         <v>2.8</v>
@@ -20469,7 +20469,7 @@
         <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H225">
         <v>1</v>
@@ -20478,7 +20478,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K225">
         <v>2.375</v>
@@ -20555,7 +20555,7 @@
         <v>45241.27083333334</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G226" t="s">
         <v>41</v>
@@ -20656,7 +20656,7 @@
         <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K227">
         <v>4</v>
@@ -20733,7 +20733,7 @@
         <v>45242.16666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
         <v>38</v>
@@ -20822,7 +20822,7 @@
         <v>45242.27083333334</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G229" t="s">
         <v>40</v>
@@ -20834,7 +20834,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K229">
         <v>3.1</v>
@@ -20899,7 +20899,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6537916</v>
+        <v>6537915</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20911,61 +20911,61 @@
         <v>45256.125</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H230">
         <v>1</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K230">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="L230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M230">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N230">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="O230">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P230">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q230">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R230">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S230">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T230">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W230">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y230">
         <v>-1</v>
@@ -20974,13 +20974,13 @@
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20988,7 +20988,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6540655</v>
+        <v>6537916</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,76 +21000,76 @@
         <v>45256.125</v>
       </c>
       <c r="F231" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>42</v>
       </c>
       <c r="K231">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L231">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M231">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N231">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="O231">
+        <v>5.5</v>
+      </c>
+      <c r="P231">
+        <v>10</v>
+      </c>
+      <c r="Q231">
+        <v>-1.75</v>
+      </c>
+      <c r="R231">
+        <v>1.85</v>
+      </c>
+      <c r="S231">
+        <v>1.95</v>
+      </c>
+      <c r="T231">
         <v>3.25</v>
       </c>
-      <c r="P231">
-        <v>2.3</v>
-      </c>
-      <c r="Q231">
-        <v>0.25</v>
-      </c>
-      <c r="R231">
-        <v>1.75</v>
-      </c>
-      <c r="S231">
-        <v>2.05</v>
-      </c>
-      <c r="T231">
-        <v>2.25</v>
-      </c>
       <c r="U231">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB231">
         <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6537915</v>
+        <v>6531883</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,76 +21089,76 @@
         <v>45256.125</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G232" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K232">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L232">
+        <v>3.8</v>
+      </c>
+      <c r="M232">
+        <v>4.2</v>
+      </c>
+      <c r="N232">
+        <v>1.75</v>
+      </c>
+      <c r="O232">
         <v>4</v>
       </c>
-      <c r="M232">
-        <v>5.25</v>
-      </c>
-      <c r="N232">
-        <v>1.444</v>
-      </c>
-      <c r="O232">
-        <v>4.2</v>
-      </c>
       <c r="P232">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q232">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T232">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U232">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V232">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB232">
         <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21166,7 +21166,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6531882</v>
+        <v>6527572</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21178,49 +21178,49 @@
         <v>45256.125</v>
       </c>
       <c r="F233" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I233">
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K233">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M233">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N233">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O233">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P233">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q233">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S233">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
         <v>1.975</v>
@@ -21229,7 +21229,7 @@
         <v>1.825</v>
       </c>
       <c r="W233">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X233">
         <v>-1</v>
@@ -21238,16 +21238,16 @@
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA233">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21255,7 +21255,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6527572</v>
+        <v>6540655</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21267,13 +21267,13 @@
         <v>45256.125</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H234">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -21282,61 +21282,61 @@
         <v>43</v>
       </c>
       <c r="K234">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L234">
         <v>3.3</v>
       </c>
       <c r="M234">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N234">
+        <v>2.75</v>
+      </c>
+      <c r="O234">
+        <v>3.25</v>
+      </c>
+      <c r="P234">
+        <v>2.3</v>
+      </c>
+      <c r="Q234">
+        <v>0.25</v>
+      </c>
+      <c r="R234">
+        <v>1.75</v>
+      </c>
+      <c r="S234">
+        <v>2.05</v>
+      </c>
+      <c r="T234">
         <v>2.25</v>
       </c>
-      <c r="O234">
-        <v>3.3</v>
-      </c>
-      <c r="P234">
-        <v>2.9</v>
-      </c>
-      <c r="Q234">
-        <v>-0.25</v>
-      </c>
-      <c r="R234">
+      <c r="U234">
+        <v>1.825</v>
+      </c>
+      <c r="V234">
         <v>1.975</v>
       </c>
-      <c r="S234">
-        <v>1.825</v>
-      </c>
-      <c r="T234">
-        <v>2.5</v>
-      </c>
-      <c r="U234">
-        <v>1.975</v>
-      </c>
-      <c r="V234">
-        <v>1.825</v>
-      </c>
       <c r="W234">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z234">
+        <v>-1</v>
+      </c>
+      <c r="AA234">
+        <v>1.05</v>
+      </c>
+      <c r="AB234">
+        <v>-1</v>
+      </c>
+      <c r="AC234">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA234">
-        <v>-1</v>
-      </c>
-      <c r="AB234">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC234">
-        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6531883</v>
+        <v>6531882</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,40 +21356,40 @@
         <v>45256.125</v>
       </c>
       <c r="F235" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G235" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
         <v>42</v>
       </c>
       <c r="K235">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="L235">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M235">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N235">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="O235">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P235">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R235">
         <v>2</v>
@@ -21398,34 +21398,34 @@
         <v>1.8</v>
       </c>
       <c r="T235">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA235">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC235">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21445,7 +21445,7 @@
         <v>45259.29166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
         <v>35</v>
@@ -21537,7 +21537,7 @@
         <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H237">
         <v>2</v>
@@ -21546,7 +21546,7 @@
         <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K237">
         <v>2.625</v>
@@ -21626,7 +21626,7 @@
         <v>39</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K238">
         <v>1.833</v>
@@ -21700,7 +21700,7 @@
         <v>37</v>
       </c>
       <c r="G239" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K239">
         <v>4</v>
@@ -21774,7 +21774,7 @@
         <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K240">
         <v>1.727</v>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -130,10 +130,10 @@
     <t>Busan I Park</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Bucheon</t>
   </si>
   <si>
-    <t>Bucheon</t>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
     <t>Seongnam FC</t>
@@ -803,7 +803,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6204719</v>
+        <v>6206186</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N11">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6206186</v>
+        <v>6204719</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6204316</v>
+        <v>6206192</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,10 +2046,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2061,25 +2061,25 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>3.25</v>
       </c>
       <c r="M18">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N18">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O18">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2091,10 +2091,10 @@
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2103,7 +2103,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2112,7 +2112,7 @@
         <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6206192</v>
+        <v>6204316</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,10 +2135,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2150,25 +2150,25 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N19">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
         <v>1.925</v>
@@ -2180,10 +2180,10 @@
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2192,7 +2192,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2201,7 +2201,7 @@
         <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2313,7 +2313,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6204317</v>
+        <v>6206197</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,76 +2580,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>45</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6206197</v>
+        <v>6204317</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
+        <v>2.625</v>
+      </c>
+      <c r="N25">
+        <v>2.15</v>
+      </c>
+      <c r="O25">
+        <v>3.4</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>-0.25</v>
+      </c>
+      <c r="R25">
+        <v>1.9</v>
+      </c>
+      <c r="S25">
+        <v>1.9</v>
+      </c>
+      <c r="T25">
         <v>2.5</v>
       </c>
-      <c r="N25">
-        <v>2.7</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>2.55</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
-      </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6206199</v>
+        <v>6206198</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,40 +2758,40 @@
         <v>45115.25</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N26">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P26">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -2803,31 +2803,31 @@
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC26">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6206198</v>
+        <v>6206199</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,40 +2847,40 @@
         <v>45115.25</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N27">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -2892,31 +2892,31 @@
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6206201</v>
+        <v>6206200</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N28">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="O28">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X28">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6206200</v>
+        <v>6206201</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,76 +3025,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M29">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N29">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P29">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3384,7 +3384,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N38">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P38">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R38">
+        <v>1.825</v>
+      </c>
+      <c r="S38">
         <v>1.975</v>
       </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O39">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
+        <v>1.975</v>
+      </c>
+      <c r="S39">
         <v>1.825</v>
       </c>
-      <c r="S39">
-        <v>1.975</v>
-      </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
         <v>1.95</v>
       </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206215</v>
+        <v>6206214</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,49 +4449,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N45">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P45">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U45">
         <v>2</v>
@@ -4500,19 +4500,19 @@
         <v>1.8</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6206214</v>
+        <v>6206215</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,49 +4538,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O46">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>2</v>
@@ -4589,19 +4589,19 @@
         <v>1.8</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -5072,7 +5072,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5431,7 +5431,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6496,7 +6496,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6766,7 +6766,7 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6206240</v>
+        <v>6206241</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,55 +7030,55 @@
         <v>45164.3125</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N74">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O74">
+        <v>3.4</v>
+      </c>
+      <c r="P74">
         <v>3</v>
       </c>
-      <c r="P74">
-        <v>2.2</v>
-      </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7087,19 +7087,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6206241</v>
+        <v>6206240</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,56 +7119,56 @@
         <v>45164.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
+        <v>1.875</v>
+      </c>
+      <c r="S75">
+        <v>1.925</v>
+      </c>
+      <c r="T75">
+        <v>2</v>
+      </c>
+      <c r="U75">
+        <v>1.95</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
       <c r="W75">
         <v>-1</v>
       </c>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
+        <v>0.925</v>
+      </c>
+      <c r="AB75">
         <v>0.95</v>
       </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
       <c r="AC75">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -7389,7 +7389,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6206245</v>
+        <v>6206246</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,76 +7564,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K80">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L80">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N80">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q80">
         <v>0.25</v>
       </c>
       <c r="R80">
+        <v>1.85</v>
+      </c>
+      <c r="S80">
+        <v>1.95</v>
+      </c>
+      <c r="T80">
+        <v>2.5</v>
+      </c>
+      <c r="U80">
         <v>1.875</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.925</v>
       </c>
-      <c r="T80">
-        <v>2.25</v>
-      </c>
-      <c r="U80">
-        <v>1.975</v>
-      </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.925</v>
-      </c>
-      <c r="AB80">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6206246</v>
+        <v>6206245</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,76 +7653,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
+        <v>2.15</v>
+      </c>
+      <c r="N81">
+        <v>3.2</v>
+      </c>
+      <c r="O81">
+        <v>3.1</v>
+      </c>
+      <c r="P81">
         <v>2.2</v>
-      </c>
-      <c r="N81">
-        <v>2.9</v>
-      </c>
-      <c r="O81">
-        <v>3.4</v>
-      </c>
-      <c r="P81">
-        <v>2.25</v>
       </c>
       <c r="Q81">
         <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,73 +7831,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K83">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L83">
+        <v>3.3</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3.5</v>
+      </c>
+      <c r="O83">
         <v>3.2</v>
       </c>
-      <c r="M83">
-        <v>2.875</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>3.3</v>
-      </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L84">
+        <v>3.2</v>
+      </c>
+      <c r="M84">
+        <v>2.875</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
         <v>3.3</v>
       </c>
-      <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84">
-        <v>3.5</v>
-      </c>
-      <c r="O84">
-        <v>3.2</v>
-      </c>
       <c r="P84">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U84">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB84">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8009,7 +8009,7 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8101,7 +8101,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6206254</v>
+        <v>6206255</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,55 +8543,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>43</v>
       </c>
       <c r="K91">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N91">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8600,19 +8600,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6206255</v>
+        <v>6206254</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,55 +8632,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>43</v>
       </c>
       <c r="K92">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N92">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P92">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8689,19 +8689,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6206260</v>
+        <v>6206261</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,40 +9166,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9208,34 +9208,34 @@
         <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6206261</v>
+        <v>6206260</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,40 +9255,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L99">
+        <v>3.2</v>
+      </c>
+      <c r="M99">
+        <v>2.75</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>3.3</v>
+      </c>
+      <c r="P99">
         <v>3.4</v>
       </c>
-      <c r="M99">
-        <v>1.909</v>
-      </c>
-      <c r="N99">
-        <v>4</v>
-      </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
-      <c r="P99">
-        <v>1.8</v>
-      </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
         <v>2</v>
@@ -9297,34 +9297,34 @@
         <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9421,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6206263</v>
+        <v>6204329</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,76 +9433,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>1</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L101">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N101">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9510,7 +9510,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6204329</v>
+        <v>6206263</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9522,76 +9522,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>44</v>
+      </c>
+      <c r="K102">
+        <v>3.75</v>
+      </c>
+      <c r="L102">
+        <v>3.25</v>
+      </c>
+      <c r="M102">
+        <v>2.05</v>
+      </c>
+      <c r="N102">
+        <v>3.6</v>
+      </c>
+      <c r="O102">
+        <v>3.25</v>
+      </c>
+      <c r="P102">
+        <v>2.1</v>
+      </c>
+      <c r="Q102">
+        <v>0.25</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>1.8</v>
+      </c>
+      <c r="T102">
+        <v>2</v>
+      </c>
+      <c r="U102">
+        <v>1.775</v>
+      </c>
+      <c r="V102">
+        <v>2.025</v>
+      </c>
+      <c r="W102">
+        <v>2.6</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
         <v>1</v>
       </c>
-      <c r="J102" t="s">
-        <v>43</v>
-      </c>
-      <c r="K102">
-        <v>2.375</v>
-      </c>
-      <c r="L102">
-        <v>3.4</v>
-      </c>
-      <c r="M102">
-        <v>2.9</v>
-      </c>
-      <c r="N102">
-        <v>2.6</v>
-      </c>
-      <c r="O102">
-        <v>3.4</v>
-      </c>
-      <c r="P102">
-        <v>2.625</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.875</v>
-      </c>
-      <c r="S102">
-        <v>1.925</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>1.825</v>
-      </c>
-      <c r="V102">
-        <v>1.975</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102">
-        <v>1.625</v>
-      </c>
-      <c r="Z102">
-        <v>-1</v>
-      </c>
       <c r="AA102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9614,7 +9614,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
         <v>36</v>
@@ -10412,10 +10412,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F112" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" t="s">
         <v>38</v>
-      </c>
-      <c r="G112" t="s">
-        <v>39</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6352815</v>
+        <v>6357144</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,76 +10679,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L115">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N115">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P115">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6357144</v>
+        <v>6352815</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,76 +10768,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K116">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L116">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M116">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O116">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X116">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA116">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6414604</v>
+        <v>6352816</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,58 +10857,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
       </c>
       <c r="K117">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N117">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O117">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P117">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10917,16 +10917,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6352816</v>
+        <v>6414604</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,58 +10946,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N118">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>0.7270000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11006,16 +11006,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11391,7 +11391,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
         <v>31</v>
@@ -11658,7 +11658,7 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -12106,7 +12106,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12195,7 +12195,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6537915</v>
+        <v>6540655</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,49 +12904,49 @@
         <v>45256.125</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N140">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P140">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
         <v>1.825</v>
@@ -12958,16 +12958,16 @@
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6531882</v>
+        <v>6527572</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,13 +12993,13 @@
         <v>45256.125</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -13008,34 +13008,34 @@
         <v>44</v>
       </c>
       <c r="K141">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N141">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
         <v>1.975</v>
@@ -13044,7 +13044,7 @@
         <v>1.825</v>
       </c>
       <c r="W141">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13053,16 +13053,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6527572</v>
+        <v>6531883</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,76 +13082,76 @@
         <v>45256.125</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142" t="s">
+        <v>43</v>
+      </c>
+      <c r="K142">
+        <v>1.7</v>
+      </c>
+      <c r="L142">
+        <v>3.8</v>
+      </c>
+      <c r="M142">
+        <v>4.2</v>
+      </c>
+      <c r="N142">
+        <v>1.75</v>
+      </c>
+      <c r="O142">
         <v>4</v>
       </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="J142" t="s">
-        <v>44</v>
-      </c>
-      <c r="K142">
-        <v>2.3</v>
-      </c>
-      <c r="L142">
-        <v>3.3</v>
-      </c>
-      <c r="M142">
-        <v>2.8</v>
-      </c>
-      <c r="N142">
-        <v>2.25</v>
-      </c>
-      <c r="O142">
-        <v>3.3</v>
-      </c>
       <c r="P142">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6540655</v>
+        <v>6531882</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45256.125</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N144">
+        <v>1.4</v>
+      </c>
+      <c r="O144">
+        <v>4.333</v>
+      </c>
+      <c r="P144">
+        <v>6</v>
+      </c>
+      <c r="Q144">
+        <v>-1.25</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>1.8</v>
+      </c>
+      <c r="T144">
         <v>2.75</v>
       </c>
-      <c r="O144">
-        <v>3.25</v>
-      </c>
-      <c r="P144">
-        <v>2.3</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.75</v>
-      </c>
-      <c r="S144">
-        <v>2.05</v>
-      </c>
-      <c r="T144">
-        <v>2.25</v>
-      </c>
       <c r="U144">
+        <v>1.975</v>
+      </c>
+      <c r="V144">
         <v>1.825</v>
       </c>
-      <c r="V144">
-        <v>1.975</v>
-      </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6531883</v>
+        <v>6537915</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45256.125</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K145">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M145">
+        <v>5.25</v>
+      </c>
+      <c r="N145">
+        <v>1.444</v>
+      </c>
+      <c r="O145">
         <v>4.2</v>
       </c>
-      <c r="N145">
-        <v>1.75</v>
-      </c>
-      <c r="O145">
-        <v>4</v>
-      </c>
       <c r="P145">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y145">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13764,7 +13764,7 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -13838,7 +13838,7 @@
         <v>45353.1875</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
         <v>34</v>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6206192</v>
+        <v>6204316</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,10 +2046,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2061,25 +2061,25 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L18">
         <v>3.25</v>
       </c>
       <c r="M18">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N18">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2091,10 +2091,10 @@
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2103,7 +2103,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.8500000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2112,7 +2112,7 @@
         <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6204316</v>
+        <v>6206192</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,10 +2135,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2150,25 +2150,25 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
         <v>1.925</v>
@@ -2180,10 +2180,10 @@
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2192,7 +2192,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2201,7 +2201,7 @@
         <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6206197</v>
+        <v>6204317</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,76 +2580,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>45</v>
       </c>
       <c r="K24">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
+        <v>2.625</v>
+      </c>
+      <c r="N24">
+        <v>2.15</v>
+      </c>
+      <c r="O24">
+        <v>3.4</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
+        <v>1.9</v>
+      </c>
+      <c r="S24">
+        <v>1.9</v>
+      </c>
+      <c r="T24">
         <v>2.5</v>
       </c>
-      <c r="N24">
-        <v>2.7</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>2.55</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6204317</v>
+        <v>6206197</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L25">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N25">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6206200</v>
+        <v>6206201</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M28">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P28">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6206201</v>
+        <v>6206200</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,76 +3025,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L29">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N29">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="O29">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X29">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6206204</v>
+        <v>6206205</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,37 +3381,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N33">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q33">
         <v>0.25</v>
@@ -3423,7 +3423,7 @@
         <v>2.05</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
         <v>1.925</v>
@@ -3432,25 +3432,25 @@
         <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA33">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6206205</v>
+        <v>6206204</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,37 +3470,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N34">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O34">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q34">
         <v>0.25</v>
@@ -3512,7 +3512,7 @@
         <v>2.05</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
         <v>1.925</v>
@@ -3521,25 +3521,25 @@
         <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O38">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>1.975</v>
+      </c>
+      <c r="S38">
         <v>1.825</v>
       </c>
-      <c r="S38">
-        <v>1.975</v>
-      </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
         <v>1.95</v>
       </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N39">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P39">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R39">
+        <v>1.825</v>
+      </c>
+      <c r="S39">
         <v>1.975</v>
       </c>
-      <c r="S39">
-        <v>1.825</v>
-      </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206214</v>
+        <v>6206215</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,49 +4449,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O45">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U45">
         <v>2</v>
@@ -4500,19 +4500,19 @@
         <v>1.8</v>
       </c>
       <c r="W45">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6206215</v>
+        <v>6206214</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,49 +4538,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P46">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U46">
         <v>2</v>
@@ -4589,19 +4589,19 @@
         <v>1.8</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6206241</v>
+        <v>6206240</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,56 +7030,56 @@
         <v>45164.3125</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
+        <v>1.875</v>
+      </c>
+      <c r="S74">
+        <v>1.925</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
+        <v>1.95</v>
+      </c>
+      <c r="V74">
         <v>1.85</v>
       </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7087,19 +7087,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.925</v>
+      </c>
+      <c r="AB74">
         <v>0.95</v>
       </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6206240</v>
+        <v>6206241</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,55 +7119,55 @@
         <v>45164.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N75">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O75">
+        <v>3.4</v>
+      </c>
+      <c r="P75">
         <v>3</v>
       </c>
-      <c r="P75">
-        <v>2.2</v>
-      </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,73 +7831,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L83">
+        <v>3.2</v>
+      </c>
+      <c r="M83">
+        <v>2.875</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
         <v>3.3</v>
       </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>3.5</v>
-      </c>
-      <c r="O83">
-        <v>3.2</v>
-      </c>
       <c r="P83">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U83">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB83">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L84">
+        <v>3.3</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>3.5</v>
+      </c>
+      <c r="O84">
         <v>3.2</v>
       </c>
-      <c r="M84">
-        <v>2.875</v>
-      </c>
-      <c r="N84">
-        <v>2</v>
-      </c>
-      <c r="O84">
-        <v>3.3</v>
-      </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6206255</v>
+        <v>6206254</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,55 +8543,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>43</v>
       </c>
       <c r="K91">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N91">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P91">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8600,19 +8600,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6206254</v>
+        <v>6206255</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,55 +8632,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>43</v>
       </c>
       <c r="K92">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M92">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O92">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8689,19 +8689,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6206261</v>
+        <v>6206260</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,40 +9166,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L98">
+        <v>3.2</v>
+      </c>
+      <c r="M98">
+        <v>2.75</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98">
+        <v>3.3</v>
+      </c>
+      <c r="P98">
         <v>3.4</v>
       </c>
-      <c r="M98">
-        <v>1.909</v>
-      </c>
-      <c r="N98">
-        <v>4</v>
-      </c>
-      <c r="O98">
-        <v>3.5</v>
-      </c>
-      <c r="P98">
-        <v>1.8</v>
-      </c>
       <c r="Q98">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9208,34 +9208,34 @@
         <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6206260</v>
+        <v>6206261</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,40 +9255,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
         <v>2</v>
@@ -9297,34 +9297,34 @@
         <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6357144</v>
+        <v>6352815</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,76 +10679,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K115">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L115">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N115">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O115">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X115">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6352815</v>
+        <v>6357144</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,76 +10768,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L116">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N116">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P116">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6357145</v>
+        <v>6388120</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,73 +11035,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>44</v>
+      </c>
+      <c r="K119">
+        <v>2.8</v>
+      </c>
+      <c r="L119">
+        <v>3.2</v>
+      </c>
+      <c r="M119">
+        <v>2.5</v>
+      </c>
+      <c r="N119">
         <v>3</v>
       </c>
-      <c r="J119" t="s">
-        <v>43</v>
-      </c>
-      <c r="K119">
-        <v>3</v>
-      </c>
-      <c r="L119">
-        <v>3.25</v>
-      </c>
-      <c r="M119">
-        <v>2.375</v>
-      </c>
-      <c r="N119">
+      <c r="O119">
         <v>3.1</v>
       </c>
-      <c r="O119">
-        <v>3.25</v>
-      </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11112,7 +11112,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6388120</v>
+        <v>6357145</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11124,73 +11124,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O120">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6540655</v>
+        <v>6527572</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45256.125</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L140">
         <v>3.3</v>
       </c>
       <c r="M140">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N140">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O140">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
         <v>1.825</v>
       </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6527572</v>
+        <v>6537915</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,40 +12993,40 @@
         <v>45256.125</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="N141">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
         <v>1.975</v>
@@ -13038,31 +13038,31 @@
         <v>2.5</v>
       </c>
       <c r="U141">
+        <v>1.825</v>
+      </c>
+      <c r="V141">
         <v>1.975</v>
       </c>
-      <c r="V141">
-        <v>1.825</v>
-      </c>
       <c r="W141">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.825</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
-      <c r="AB141">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC141">
-        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6531883</v>
+        <v>6537916</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,76 +13082,76 @@
         <v>45256.125</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K142">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L142">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N142">
-        <v>1.75</v>
+        <v>1.222</v>
       </c>
       <c r="O142">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P142">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
         <v>3.25</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6537916</v>
+        <v>6531882</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,58 +13171,58 @@
         <v>45256.125</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
         <v>1</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>44</v>
       </c>
       <c r="K143">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N143">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="O143">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P143">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R143">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>0.222</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13231,16 +13231,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6531882</v>
+        <v>6540655</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45256.125</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N144">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
+        <v>1.825</v>
+      </c>
+      <c r="V144">
         <v>1.975</v>
       </c>
-      <c r="V144">
-        <v>1.825</v>
-      </c>
       <c r="W144">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB144">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6537915</v>
+        <v>6531883</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45256.125</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L145">
+        <v>3.8</v>
+      </c>
+      <c r="M145">
+        <v>4.2</v>
+      </c>
+      <c r="N145">
+        <v>1.75</v>
+      </c>
+      <c r="O145">
         <v>4</v>
       </c>
-      <c r="M145">
-        <v>5.25</v>
-      </c>
-      <c r="N145">
-        <v>1.444</v>
-      </c>
-      <c r="O145">
-        <v>4.2</v>
-      </c>
       <c r="P145">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q145">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R145">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U145">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13634,10 +13634,10 @@
         <v>1.95</v>
       </c>
       <c r="O148">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q148">
         <v>-0.5</v>
@@ -13649,13 +13649,13 @@
         <v>1.825</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
         <v>0</v>
@@ -13708,28 +13708,28 @@
         <v>4</v>
       </c>
       <c r="O149">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P149">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="Q149">
         <v>0.5</v>
       </c>
       <c r="R149">
+        <v>1.9</v>
+      </c>
+      <c r="S149">
+        <v>1.9</v>
+      </c>
+      <c r="T149">
+        <v>2.5</v>
+      </c>
+      <c r="U149">
         <v>1.925</v>
       </c>
-      <c r="S149">
+      <c r="V149">
         <v>1.875</v>
-      </c>
-      <c r="T149">
-        <v>2.75</v>
-      </c>
-      <c r="U149">
-        <v>1.875</v>
-      </c>
-      <c r="V149">
-        <v>1.925</v>
       </c>
       <c r="W149">
         <v>0</v>
@@ -13782,28 +13782,28 @@
         <v>1.8</v>
       </c>
       <c r="O150">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
         <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
         <v>2.25</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -13865,19 +13865,19 @@
         <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S151">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T151">
         <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
         <v>0</v>
@@ -13939,10 +13939,10 @@
         <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T152">
         <v>2.5</v>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC153"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6204316</v>
+        <v>6206192</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,10 +2046,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2061,25 +2061,25 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>3.25</v>
       </c>
       <c r="M18">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N18">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O18">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2091,10 +2091,10 @@
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2103,7 +2103,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2112,7 +2112,7 @@
         <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6206192</v>
+        <v>6204316</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,10 +2135,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2150,25 +2150,25 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N19">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
         <v>1.925</v>
@@ -2180,10 +2180,10 @@
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2192,7 +2192,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2201,7 +2201,7 @@
         <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6204317</v>
+        <v>6206197</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,76 +2580,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>45</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6206197</v>
+        <v>6204317</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
+        <v>2.625</v>
+      </c>
+      <c r="N25">
+        <v>2.15</v>
+      </c>
+      <c r="O25">
+        <v>3.4</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>-0.25</v>
+      </c>
+      <c r="R25">
+        <v>1.9</v>
+      </c>
+      <c r="S25">
+        <v>1.9</v>
+      </c>
+      <c r="T25">
         <v>2.5</v>
       </c>
-      <c r="N25">
-        <v>2.7</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>2.55</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
-      </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6206198</v>
+        <v>6206199</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,40 +2758,40 @@
         <v>45115.25</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N26">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O26">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -2803,31 +2803,31 @@
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6206199</v>
+        <v>6206198</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,40 +2847,40 @@
         <v>45115.25</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N27">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -2892,31 +2892,31 @@
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X27">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC27">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6206201</v>
+        <v>6206200</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N28">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="O28">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X28">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6206200</v>
+        <v>6206201</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,76 +3025,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M29">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N29">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P29">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N38">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P38">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R38">
+        <v>1.825</v>
+      </c>
+      <c r="S38">
         <v>1.975</v>
       </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O39">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
+        <v>1.975</v>
+      </c>
+      <c r="S39">
         <v>1.825</v>
       </c>
-      <c r="S39">
-        <v>1.975</v>
-      </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
         <v>1.95</v>
       </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6204320</v>
+        <v>6206211</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,76 +4093,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M41">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N41">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6206211</v>
+        <v>6204320</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,76 +4182,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L42">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N42">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O42">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X42">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6206240</v>
+        <v>6206241</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,55 +7030,55 @@
         <v>45164.3125</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N74">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O74">
+        <v>3.4</v>
+      </c>
+      <c r="P74">
         <v>3</v>
       </c>
-      <c r="P74">
-        <v>2.2</v>
-      </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7087,19 +7087,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6206241</v>
+        <v>6206240</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,56 +7119,56 @@
         <v>45164.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
+        <v>1.875</v>
+      </c>
+      <c r="S75">
+        <v>1.925</v>
+      </c>
+      <c r="T75">
+        <v>2</v>
+      </c>
+      <c r="U75">
+        <v>1.95</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
       <c r="W75">
         <v>-1</v>
       </c>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
+        <v>0.925</v>
+      </c>
+      <c r="AB75">
         <v>0.95</v>
       </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
       <c r="AC75">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,73 +7831,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K83">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L83">
+        <v>3.3</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3.5</v>
+      </c>
+      <c r="O83">
         <v>3.2</v>
       </c>
-      <c r="M83">
-        <v>2.875</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>3.3</v>
-      </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L84">
+        <v>3.2</v>
+      </c>
+      <c r="M84">
+        <v>2.875</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
         <v>3.3</v>
       </c>
-      <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84">
-        <v>3.5</v>
-      </c>
-      <c r="O84">
-        <v>3.2</v>
-      </c>
       <c r="P84">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U84">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB84">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6352815</v>
+        <v>6357144</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,76 +10679,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L115">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N115">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P115">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6357144</v>
+        <v>6352815</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,76 +10768,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K116">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L116">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M116">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O116">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X116">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA116">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6352816</v>
+        <v>6414604</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,58 +10857,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
       </c>
       <c r="K117">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L117">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O117">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
-        <v>0.7270000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10917,16 +10917,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6414604</v>
+        <v>6352816</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,58 +10946,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N118">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11006,16 +11006,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6388120</v>
+        <v>6357145</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,73 +11035,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O119">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z119">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB119">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11112,7 +11112,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6357145</v>
+        <v>6388120</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11124,73 +11124,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>44</v>
+      </c>
+      <c r="K120">
+        <v>2.8</v>
+      </c>
+      <c r="L120">
+        <v>3.2</v>
+      </c>
+      <c r="M120">
+        <v>2.5</v>
+      </c>
+      <c r="N120">
         <v>3</v>
       </c>
-      <c r="J120" t="s">
-        <v>43</v>
-      </c>
-      <c r="K120">
-        <v>3</v>
-      </c>
-      <c r="L120">
-        <v>3.25</v>
-      </c>
-      <c r="M120">
-        <v>2.375</v>
-      </c>
-      <c r="N120">
+      <c r="O120">
         <v>3.1</v>
       </c>
-      <c r="O120">
-        <v>3.25</v>
-      </c>
       <c r="P120">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6527572</v>
+        <v>6540655</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45256.125</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
         <v>3.3</v>
       </c>
       <c r="M140">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N140">
+        <v>2.75</v>
+      </c>
+      <c r="O140">
+        <v>3.25</v>
+      </c>
+      <c r="P140">
+        <v>2.3</v>
+      </c>
+      <c r="Q140">
+        <v>0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.75</v>
+      </c>
+      <c r="S140">
+        <v>2.05</v>
+      </c>
+      <c r="T140">
         <v>2.25</v>
       </c>
-      <c r="O140">
-        <v>3.3</v>
-      </c>
-      <c r="P140">
-        <v>2.9</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
+      <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
         <v>1.975</v>
       </c>
-      <c r="S140">
-        <v>1.825</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
-      <c r="U140">
-        <v>1.975</v>
-      </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
       <c r="W140">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>1.05</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
-      <c r="AB140">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6537915</v>
+        <v>6527572</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,40 +12993,40 @@
         <v>45256.125</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K141">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N141">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
         <v>1.975</v>
@@ -13038,31 +13038,31 @@
         <v>2.5</v>
       </c>
       <c r="U141">
+        <v>1.975</v>
+      </c>
+      <c r="V141">
         <v>1.825</v>
       </c>
-      <c r="V141">
-        <v>1.975</v>
-      </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X141">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6537916</v>
+        <v>6537915</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,61 +13082,61 @@
         <v>45256.125</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N142">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="O142">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P142">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q142">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y142">
         <v>-1</v>
@@ -13145,13 +13145,13 @@
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6540655</v>
+        <v>6537916</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45256.125</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M144">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N144">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="O144">
+        <v>5.5</v>
+      </c>
+      <c r="P144">
+        <v>10</v>
+      </c>
+      <c r="Q144">
+        <v>-1.75</v>
+      </c>
+      <c r="R144">
+        <v>1.85</v>
+      </c>
+      <c r="S144">
+        <v>1.95</v>
+      </c>
+      <c r="T144">
         <v>3.25</v>
       </c>
-      <c r="P144">
-        <v>2.3</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.75</v>
-      </c>
-      <c r="S144">
-        <v>2.05</v>
-      </c>
-      <c r="T144">
-        <v>2.25</v>
-      </c>
       <c r="U144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB144">
         <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7737361</v>
+        <v>7738678</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,37 +13616,46 @@
         <v>45352.08333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148" t="s">
+        <v>43</v>
       </c>
       <c r="K148">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L148">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
+        <v>1.85</v>
+      </c>
+      <c r="N148">
         <v>4.333</v>
-      </c>
-      <c r="N148">
-        <v>1.95</v>
       </c>
       <c r="O148">
         <v>3.5</v>
       </c>
       <c r="P148">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T148">
         <v>2.5</v>
@@ -13658,19 +13667,25 @@
         <v>1.9</v>
       </c>
       <c r="W148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB148">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC148">
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13678,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7738678</v>
+        <v>7737361</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13690,37 +13705,46 @@
         <v>45352.08333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149" t="s">
+        <v>44</v>
       </c>
       <c r="K149">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
-        <v>1.85</v>
+        <v>4.333</v>
       </c>
       <c r="N149">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O149">
         <v>3.4</v>
       </c>
       <c r="P149">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q149">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
         <v>2.5</v>
@@ -13732,19 +13756,25 @@
         <v>1.875</v>
       </c>
       <c r="W149">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13752,7 +13782,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7738655</v>
+        <v>7739343</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13761,49 +13791,49 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45353.08333333334</v>
+        <v>45354.08333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K150">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L150">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N150">
         <v>1.8</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
+        <v>2.025</v>
+      </c>
+      <c r="S150">
         <v>1.775</v>
       </c>
-      <c r="S150">
-        <v>2.025</v>
-      </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
+        <v>1.975</v>
+      </c>
+      <c r="V150">
         <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
       </c>
       <c r="W150">
         <v>0</v>
@@ -13826,7 +13856,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7738679</v>
+        <v>7737344</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13835,49 +13865,49 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45353.1875</v>
+        <v>45354.1875</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K151">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M151">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N151">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O151">
         <v>3.4</v>
       </c>
       <c r="P151">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W151">
         <v>0</v>
@@ -13892,154 +13922,6 @@
         <v>0</v>
       </c>
       <c r="AA151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:29">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>7739343</v>
-      </c>
-      <c r="C152" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" t="s">
-        <v>28</v>
-      </c>
-      <c r="E152" s="2">
-        <v>45354.08333333334</v>
-      </c>
-      <c r="F152" t="s">
-        <v>42</v>
-      </c>
-      <c r="G152" t="s">
-        <v>30</v>
-      </c>
-      <c r="K152">
-        <v>1.833</v>
-      </c>
-      <c r="L152">
-        <v>3.6</v>
-      </c>
-      <c r="M152">
-        <v>4.2</v>
-      </c>
-      <c r="N152">
-        <v>1.833</v>
-      </c>
-      <c r="O152">
-        <v>3.6</v>
-      </c>
-      <c r="P152">
-        <v>4.2</v>
-      </c>
-      <c r="Q152">
-        <v>-0.5</v>
-      </c>
-      <c r="R152">
-        <v>1.8</v>
-      </c>
-      <c r="S152">
-        <v>2</v>
-      </c>
-      <c r="T152">
-        <v>2.5</v>
-      </c>
-      <c r="U152">
-        <v>1.975</v>
-      </c>
-      <c r="V152">
-        <v>1.825</v>
-      </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-      <c r="X152">
-        <v>0</v>
-      </c>
-      <c r="Y152">
-        <v>0</v>
-      </c>
-      <c r="Z152">
-        <v>0</v>
-      </c>
-      <c r="AA152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:29">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>7737344</v>
-      </c>
-      <c r="C153" t="s">
-        <v>28</v>
-      </c>
-      <c r="D153" t="s">
-        <v>28</v>
-      </c>
-      <c r="E153" s="2">
-        <v>45354.1875</v>
-      </c>
-      <c r="F153" t="s">
-        <v>37</v>
-      </c>
-      <c r="G153" t="s">
-        <v>33</v>
-      </c>
-      <c r="K153">
-        <v>2</v>
-      </c>
-      <c r="L153">
-        <v>3.3</v>
-      </c>
-      <c r="M153">
-        <v>3.75</v>
-      </c>
-      <c r="N153">
-        <v>2</v>
-      </c>
-      <c r="O153">
-        <v>3.3</v>
-      </c>
-      <c r="P153">
-        <v>3.75</v>
-      </c>
-      <c r="Q153">
-        <v>-0.5</v>
-      </c>
-      <c r="R153">
-        <v>2</v>
-      </c>
-      <c r="S153">
-        <v>1.8</v>
-      </c>
-      <c r="T153">
-        <v>2.25</v>
-      </c>
-      <c r="U153">
-        <v>1.925</v>
-      </c>
-      <c r="V153">
-        <v>1.875</v>
-      </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-      <c r="X153">
-        <v>0</v>
-      </c>
-      <c r="Y153">
-        <v>0</v>
-      </c>
-      <c r="Z153">
-        <v>0</v>
-      </c>
-      <c r="AA153">
         <v>0</v>
       </c>
     </row>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Busan I Park</t>
   </si>
   <si>
-    <t>Bucheon</t>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Bucheon</t>
   </si>
   <si>
     <t>Seongnam FC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,7 +803,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6206186</v>
+        <v>6204719</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6204719</v>
+        <v>6206186</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N12">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2580,7 +2580,7 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -2847,7 +2847,7 @@
         <v>45115.25</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3295,7 +3295,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6206205</v>
+        <v>6206204</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,37 +3381,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M33">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N33">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q33">
         <v>0.25</v>
@@ -3423,7 +3423,7 @@
         <v>2.05</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
         <v>1.925</v>
@@ -3432,25 +3432,25 @@
         <v>1.875</v>
       </c>
       <c r="W33">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z33">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6206204</v>
+        <v>6206205</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,37 +3470,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N34">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O34">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q34">
         <v>0.25</v>
@@ -3512,7 +3512,7 @@
         <v>2.05</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
         <v>1.925</v>
@@ -3521,25 +3521,25 @@
         <v>1.875</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA34">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O38">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>1.975</v>
+      </c>
+      <c r="S38">
         <v>1.825</v>
       </c>
-      <c r="S38">
-        <v>1.975</v>
-      </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
         <v>1.95</v>
       </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N39">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P39">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R39">
+        <v>1.825</v>
+      </c>
+      <c r="S39">
         <v>1.975</v>
       </c>
-      <c r="S39">
-        <v>1.825</v>
-      </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206215</v>
+        <v>6206214</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,49 +4449,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N45">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P45">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U45">
         <v>2</v>
@@ -4500,19 +4500,19 @@
         <v>1.8</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6206214</v>
+        <v>6206215</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,49 +4538,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O46">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>2</v>
@@ -4589,19 +4589,19 @@
         <v>1.8</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -5072,7 +5072,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5431,7 +5431,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6496,7 +6496,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6766,7 +6766,7 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6206241</v>
+        <v>6206240</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,56 +7030,56 @@
         <v>45164.3125</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
+        <v>1.875</v>
+      </c>
+      <c r="S74">
+        <v>1.925</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
+        <v>1.95</v>
+      </c>
+      <c r="V74">
         <v>1.85</v>
       </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7087,19 +7087,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.925</v>
+      </c>
+      <c r="AB74">
         <v>0.95</v>
       </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6206240</v>
+        <v>6206241</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,55 +7119,55 @@
         <v>45164.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N75">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O75">
+        <v>3.4</v>
+      </c>
+      <c r="P75">
         <v>3</v>
       </c>
-      <c r="P75">
-        <v>2.2</v>
-      </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -7389,7 +7389,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6206246</v>
+        <v>6206245</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,76 +7564,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
+        <v>2.15</v>
+      </c>
+      <c r="N80">
+        <v>3.2</v>
+      </c>
+      <c r="O80">
+        <v>3.1</v>
+      </c>
+      <c r="P80">
         <v>2.2</v>
-      </c>
-      <c r="N80">
-        <v>2.9</v>
-      </c>
-      <c r="O80">
-        <v>3.4</v>
-      </c>
-      <c r="P80">
-        <v>2.25</v>
       </c>
       <c r="Q80">
         <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6206245</v>
+        <v>6206246</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,76 +7653,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q81">
         <v>0.25</v>
       </c>
       <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
+        <v>1.95</v>
+      </c>
+      <c r="T81">
+        <v>2.5</v>
+      </c>
+      <c r="U81">
         <v>1.875</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.925</v>
       </c>
-      <c r="T81">
-        <v>2.25</v>
-      </c>
-      <c r="U81">
-        <v>1.975</v>
-      </c>
-      <c r="V81">
-        <v>1.825</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.925</v>
-      </c>
-      <c r="AB81">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>45168.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -8009,7 +8009,7 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8101,7 +8101,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6206254</v>
+        <v>6206255</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,55 +8543,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>43</v>
       </c>
       <c r="K91">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N91">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8600,19 +8600,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6206255</v>
+        <v>6206254</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,55 +8632,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>43</v>
       </c>
       <c r="K92">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N92">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P92">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8689,19 +8689,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6206260</v>
+        <v>6206261</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,40 +9166,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9208,34 +9208,34 @@
         <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6206261</v>
+        <v>6206260</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,40 +9255,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L99">
+        <v>3.2</v>
+      </c>
+      <c r="M99">
+        <v>2.75</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>3.3</v>
+      </c>
+      <c r="P99">
         <v>3.4</v>
       </c>
-      <c r="M99">
-        <v>1.909</v>
-      </c>
-      <c r="N99">
-        <v>4</v>
-      </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
-      <c r="P99">
-        <v>1.8</v>
-      </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
         <v>2</v>
@@ -9297,34 +9297,34 @@
         <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9614,7 +9614,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
         <v>36</v>
@@ -10412,10 +10412,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F112" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" t="s">
         <v>39</v>
-      </c>
-      <c r="G112" t="s">
-        <v>38</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6357144</v>
+        <v>6352815</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,76 +10679,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K115">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L115">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N115">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O115">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X115">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6352815</v>
+        <v>6357144</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,76 +10768,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L116">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N116">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P116">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6414604</v>
+        <v>6352816</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,58 +10857,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
       </c>
       <c r="K117">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N117">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O117">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P117">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10917,16 +10917,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6352816</v>
+        <v>6414604</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,58 +10946,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N118">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>0.7270000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11006,16 +11006,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11216,7 +11216,7 @@
         <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11391,7 +11391,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>31</v>
@@ -11658,7 +11658,7 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -12106,7 +12106,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12195,7 +12195,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6540655</v>
+        <v>6531883</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45256.125</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>43</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M140">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N140">
+        <v>1.75</v>
+      </c>
+      <c r="O140">
+        <v>4</v>
+      </c>
+      <c r="P140">
+        <v>3.75</v>
+      </c>
+      <c r="Q140">
+        <v>-0.75</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>1.8</v>
+      </c>
+      <c r="T140">
+        <v>3.25</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
+        <v>1.8</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
         <v>2.75</v>
       </c>
-      <c r="O140">
-        <v>3.25</v>
-      </c>
-      <c r="P140">
-        <v>2.3</v>
-      </c>
-      <c r="Q140">
-        <v>0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.75</v>
-      </c>
-      <c r="S140">
-        <v>2.05</v>
-      </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
-      <c r="U140">
-        <v>1.825</v>
-      </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
-      <c r="W140">
-        <v>-1</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>1.3</v>
-      </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6527572</v>
+        <v>6537915</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,40 +12993,40 @@
         <v>45256.125</v>
       </c>
       <c r="F141" t="s">
+        <v>37</v>
+      </c>
+      <c r="G141" t="s">
         <v>38</v>
       </c>
-      <c r="G141" t="s">
-        <v>34</v>
-      </c>
       <c r="H141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="N141">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
         <v>1.975</v>
@@ -13038,31 +13038,31 @@
         <v>2.5</v>
       </c>
       <c r="U141">
+        <v>1.825</v>
+      </c>
+      <c r="V141">
         <v>1.975</v>
       </c>
-      <c r="V141">
-        <v>1.825</v>
-      </c>
       <c r="W141">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
+        <v>0.825</v>
+      </c>
+      <c r="AB141">
+        <v>-1</v>
+      </c>
+      <c r="AC141">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
-      <c r="AB141">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC141">
-        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6537915</v>
+        <v>6537916</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,61 +13082,61 @@
         <v>45256.125</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K142">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="N142">
-        <v>1.444</v>
+        <v>1.222</v>
       </c>
       <c r="O142">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P142">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X142">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
@@ -13145,13 +13145,13 @@
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6537916</v>
+        <v>6527572</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,58 +13260,58 @@
         <v>45256.125</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144">
         <v>1</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>44</v>
       </c>
       <c r="K144">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L144">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O144">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T144">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>0.222</v>
+        <v>1.25</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13320,16 +13320,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6531883</v>
+        <v>6540655</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,55 +13349,55 @@
         <v>45256.125</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>43</v>
       </c>
       <c r="K145">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L145">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N145">
+        <v>2.75</v>
+      </c>
+      <c r="O145">
+        <v>3.25</v>
+      </c>
+      <c r="P145">
+        <v>2.3</v>
+      </c>
+      <c r="Q145">
+        <v>0.25</v>
+      </c>
+      <c r="R145">
         <v>1.75</v>
       </c>
-      <c r="O145">
-        <v>4</v>
-      </c>
-      <c r="P145">
-        <v>3.75</v>
-      </c>
-      <c r="Q145">
-        <v>-0.75</v>
-      </c>
-      <c r="R145">
-        <v>2</v>
-      </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13406,19 +13406,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13782,7 +13782,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7739343</v>
+        <v>7738655</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,64 +13791,79 @@
         <v>28</v>
       </c>
       <c r="E150" s="2">
-        <v>45354.08333333334</v>
+        <v>45353.08333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>3</v>
+      </c>
+      <c r="J150" t="s">
+        <v>43</v>
       </c>
       <c r="K150">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N150">
         <v>1.8</v>
       </c>
       <c r="O150">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
+        <v>1.775</v>
+      </c>
+      <c r="S150">
         <v>2.025</v>
       </c>
-      <c r="S150">
-        <v>1.775</v>
-      </c>
       <c r="T150">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
+        <v>1.825</v>
+      </c>
+      <c r="V150">
         <v>1.975</v>
       </c>
-      <c r="V150">
-        <v>1.825</v>
-      </c>
       <c r="W150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB150">
+        <v>0.825</v>
+      </c>
+      <c r="AC150">
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13856,7 +13871,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7737344</v>
+        <v>7738679</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13865,63 +13880,226 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45354.1875</v>
+        <v>45353.1875</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" t="s">
+        <v>44</v>
       </c>
       <c r="K151">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L151">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N151">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O151">
         <v>3.4</v>
       </c>
       <c r="P151">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>1.8</v>
+      </c>
+      <c r="S151">
+        <v>2</v>
+      </c>
+      <c r="T151">
+        <v>2.5</v>
+      </c>
+      <c r="U151">
+        <v>1.95</v>
+      </c>
+      <c r="V151">
+        <v>1.85</v>
+      </c>
+      <c r="W151">
+        <v>1.45</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>-1</v>
+      </c>
+      <c r="Z151">
+        <v>0.8</v>
+      </c>
+      <c r="AA151">
+        <v>-1</v>
+      </c>
+      <c r="AB151">
+        <v>-1</v>
+      </c>
+      <c r="AC151">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7739343</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45354.08333333334</v>
+      </c>
+      <c r="F152" t="s">
+        <v>42</v>
+      </c>
+      <c r="G152" t="s">
+        <v>30</v>
+      </c>
+      <c r="K152">
+        <v>1.833</v>
+      </c>
+      <c r="L152">
+        <v>3.6</v>
+      </c>
+      <c r="M152">
+        <v>4.2</v>
+      </c>
+      <c r="N152">
+        <v>1.8</v>
+      </c>
+      <c r="O152">
+        <v>3.6</v>
+      </c>
+      <c r="P152">
+        <v>4.333</v>
+      </c>
+      <c r="Q152">
+        <v>-0.75</v>
+      </c>
+      <c r="R152">
+        <v>2</v>
+      </c>
+      <c r="S152">
+        <v>1.8</v>
+      </c>
+      <c r="T152">
+        <v>2.5</v>
+      </c>
+      <c r="U152">
+        <v>1.975</v>
+      </c>
+      <c r="V152">
+        <v>1.825</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>7737344</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45354.1875</v>
+      </c>
+      <c r="F153" t="s">
+        <v>37</v>
+      </c>
+      <c r="G153" t="s">
+        <v>33</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>3.3</v>
+      </c>
+      <c r="M153">
+        <v>3.75</v>
+      </c>
+      <c r="N153">
+        <v>1.909</v>
+      </c>
+      <c r="O153">
+        <v>3.4</v>
+      </c>
+      <c r="P153">
+        <v>4.2</v>
+      </c>
+      <c r="Q153">
         <v>-0.5</v>
       </c>
-      <c r="R151">
-        <v>1.9</v>
-      </c>
-      <c r="S151">
-        <v>1.9</v>
-      </c>
-      <c r="T151">
+      <c r="R153">
+        <v>1.825</v>
+      </c>
+      <c r="S153">
+        <v>1.975</v>
+      </c>
+      <c r="T153">
         <v>2.25</v>
       </c>
-      <c r="U151">
-        <v>1.925</v>
-      </c>
-      <c r="V151">
-        <v>1.875</v>
-      </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-      <c r="X151">
-        <v>0</v>
-      </c>
-      <c r="Y151">
-        <v>0</v>
-      </c>
-      <c r="Z151">
-        <v>0</v>
-      </c>
-      <c r="AA151">
+      <c r="U153">
+        <v>1.95</v>
+      </c>
+      <c r="V153">
+        <v>1.85</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
         <v>0</v>
       </c>
     </row>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC153"/>
+  <dimension ref="A1:AC159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6206192</v>
+        <v>6204316</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,10 +2046,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2061,25 +2061,25 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L18">
         <v>3.25</v>
       </c>
       <c r="M18">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N18">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2091,10 +2091,10 @@
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2103,7 +2103,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.8500000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2112,7 +2112,7 @@
         <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6204316</v>
+        <v>6206192</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,10 +2135,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2150,25 +2150,25 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
         <v>1.925</v>
@@ -2180,10 +2180,10 @@
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2192,7 +2192,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2201,7 +2201,7 @@
         <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6206197</v>
+        <v>6204317</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,76 +2580,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>45</v>
       </c>
       <c r="K24">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
+        <v>2.625</v>
+      </c>
+      <c r="N24">
+        <v>2.15</v>
+      </c>
+      <c r="O24">
+        <v>3.4</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
+        <v>1.9</v>
+      </c>
+      <c r="S24">
+        <v>1.9</v>
+      </c>
+      <c r="T24">
         <v>2.5</v>
       </c>
-      <c r="N24">
-        <v>2.7</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>2.55</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6204317</v>
+        <v>6206197</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L25">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N25">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6206200</v>
+        <v>6206201</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M28">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P28">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6206201</v>
+        <v>6206200</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,76 +3025,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L29">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N29">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="O29">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X29">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N38">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P38">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R38">
+        <v>1.825</v>
+      </c>
+      <c r="S38">
         <v>1.975</v>
       </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O39">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
+        <v>1.975</v>
+      </c>
+      <c r="S39">
         <v>1.825</v>
       </c>
-      <c r="S39">
-        <v>1.975</v>
-      </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
         <v>1.95</v>
       </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6206211</v>
+        <v>6204320</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,76 +4093,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L41">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N41">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X41">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6204320</v>
+        <v>6206211</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,76 +4182,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M42">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N42">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P42">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206214</v>
+        <v>6206215</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,49 +4449,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O45">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U45">
         <v>2</v>
@@ -4500,19 +4500,19 @@
         <v>1.8</v>
       </c>
       <c r="W45">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6206215</v>
+        <v>6206214</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,49 +4538,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P46">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U46">
         <v>2</v>
@@ -4589,19 +4589,19 @@
         <v>1.8</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6206240</v>
+        <v>6206241</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,55 +7030,55 @@
         <v>45164.3125</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N74">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O74">
+        <v>3.4</v>
+      </c>
+      <c r="P74">
         <v>3</v>
       </c>
-      <c r="P74">
-        <v>2.2</v>
-      </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7087,19 +7087,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6206241</v>
+        <v>6206240</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,56 +7119,56 @@
         <v>45164.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
+        <v>1.875</v>
+      </c>
+      <c r="S75">
+        <v>1.925</v>
+      </c>
+      <c r="T75">
+        <v>2</v>
+      </c>
+      <c r="U75">
+        <v>1.95</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
       <c r="W75">
         <v>-1</v>
       </c>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
+        <v>0.925</v>
+      </c>
+      <c r="AB75">
         <v>0.95</v>
       </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
       <c r="AC75">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6206261</v>
+        <v>6206260</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,40 +9166,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L98">
+        <v>3.2</v>
+      </c>
+      <c r="M98">
+        <v>2.75</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98">
+        <v>3.3</v>
+      </c>
+      <c r="P98">
         <v>3.4</v>
       </c>
-      <c r="M98">
-        <v>1.909</v>
-      </c>
-      <c r="N98">
-        <v>4</v>
-      </c>
-      <c r="O98">
-        <v>3.5</v>
-      </c>
-      <c r="P98">
-        <v>1.8</v>
-      </c>
       <c r="Q98">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9208,34 +9208,34 @@
         <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6206260</v>
+        <v>6206261</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,40 +9255,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
         <v>2</v>
@@ -9297,34 +9297,34 @@
         <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9421,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6204329</v>
+        <v>6206263</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,76 +9433,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>44</v>
+      </c>
+      <c r="K101">
+        <v>3.75</v>
+      </c>
+      <c r="L101">
+        <v>3.25</v>
+      </c>
+      <c r="M101">
+        <v>2.05</v>
+      </c>
+      <c r="N101">
+        <v>3.6</v>
+      </c>
+      <c r="O101">
+        <v>3.25</v>
+      </c>
+      <c r="P101">
+        <v>2.1</v>
+      </c>
+      <c r="Q101">
+        <v>0.25</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>1.8</v>
+      </c>
+      <c r="T101">
+        <v>2</v>
+      </c>
+      <c r="U101">
+        <v>1.775</v>
+      </c>
+      <c r="V101">
+        <v>2.025</v>
+      </c>
+      <c r="W101">
+        <v>2.6</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
+        <v>-1</v>
+      </c>
+      <c r="Z101">
         <v>1</v>
       </c>
-      <c r="J101" t="s">
-        <v>43</v>
-      </c>
-      <c r="K101">
-        <v>2.375</v>
-      </c>
-      <c r="L101">
-        <v>3.4</v>
-      </c>
-      <c r="M101">
-        <v>2.9</v>
-      </c>
-      <c r="N101">
-        <v>2.6</v>
-      </c>
-      <c r="O101">
-        <v>3.4</v>
-      </c>
-      <c r="P101">
-        <v>2.625</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
-      <c r="S101">
-        <v>1.925</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>1.825</v>
-      </c>
-      <c r="V101">
-        <v>1.975</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
-      <c r="Y101">
-        <v>1.625</v>
-      </c>
-      <c r="Z101">
-        <v>-1</v>
-      </c>
       <c r="AA101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9510,7 +9510,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6206263</v>
+        <v>6204329</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9522,76 +9522,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>1</v>
       </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K102">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L102">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O102">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P102">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6352815</v>
+        <v>6357144</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,76 +10679,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L115">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N115">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P115">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6357144</v>
+        <v>6352815</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,76 +10768,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K116">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L116">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M116">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O116">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X116">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA116">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6352816</v>
+        <v>6414604</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,58 +10857,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
       </c>
       <c r="K117">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L117">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O117">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
-        <v>0.7270000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10917,16 +10917,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6414604</v>
+        <v>6352816</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,58 +10946,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N118">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11006,16 +11006,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6357145</v>
+        <v>6388120</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,73 +11035,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>44</v>
+      </c>
+      <c r="K119">
+        <v>2.8</v>
+      </c>
+      <c r="L119">
+        <v>3.2</v>
+      </c>
+      <c r="M119">
+        <v>2.5</v>
+      </c>
+      <c r="N119">
         <v>3</v>
       </c>
-      <c r="J119" t="s">
-        <v>43</v>
-      </c>
-      <c r="K119">
-        <v>3</v>
-      </c>
-      <c r="L119">
-        <v>3.25</v>
-      </c>
-      <c r="M119">
-        <v>2.375</v>
-      </c>
-      <c r="N119">
+      <c r="O119">
         <v>3.1</v>
       </c>
-      <c r="O119">
-        <v>3.25</v>
-      </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11112,7 +11112,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6388120</v>
+        <v>6357145</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11124,73 +11124,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O120">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6531883</v>
+        <v>6527572</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45256.125</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K140">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L140">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N140">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6537915</v>
+        <v>6537916</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,61 +12993,61 @@
         <v>45256.125</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K141">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="N141">
-        <v>1.444</v>
+        <v>1.222</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P141">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X141">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
@@ -13056,13 +13056,13 @@
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6537916</v>
+        <v>6531882</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,58 +13082,58 @@
         <v>45256.125</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>1</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
       </c>
       <c r="J142" t="s">
         <v>44</v>
       </c>
       <c r="K142">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N142">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="O142">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P142">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q142">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>0.222</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13142,16 +13142,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6531882</v>
+        <v>6540655</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45256.125</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N143">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q143">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
+        <v>1.825</v>
+      </c>
+      <c r="V143">
         <v>1.975</v>
       </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
       <c r="AB143">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6527572</v>
+        <v>6537915</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,40 +13260,40 @@
         <v>45256.125</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K144">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="N144">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O144">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P144">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R144">
         <v>1.975</v>
@@ -13305,31 +13305,31 @@
         <v>2.5</v>
       </c>
       <c r="U144">
+        <v>1.825</v>
+      </c>
+      <c r="V144">
         <v>1.975</v>
       </c>
-      <c r="V144">
-        <v>1.825</v>
-      </c>
       <c r="W144">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
+        <v>0.825</v>
+      </c>
+      <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
-      <c r="AB144">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6540655</v>
+        <v>6531883</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45256.125</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>43</v>
       </c>
       <c r="K145">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M145">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N145">
+        <v>1.75</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>3.75</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
+        <v>3.25</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>1.8</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
         <v>2.75</v>
       </c>
-      <c r="O145">
-        <v>3.25</v>
-      </c>
-      <c r="P145">
-        <v>2.3</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.75</v>
-      </c>
-      <c r="S145">
-        <v>2.05</v>
-      </c>
-      <c r="T145">
-        <v>2.25</v>
-      </c>
-      <c r="U145">
-        <v>1.825</v>
-      </c>
-      <c r="V145">
-        <v>1.975</v>
-      </c>
-      <c r="W145">
-        <v>-1</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>1.3</v>
-      </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13977,6 +13977,15 @@
       <c r="G152" t="s">
         <v>30</v>
       </c>
+      <c r="H152">
+        <v>2</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>44</v>
+      </c>
       <c r="K152">
         <v>1.833</v>
       </c>
@@ -13987,46 +13996,52 @@
         <v>4.2</v>
       </c>
       <c r="N152">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O152">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P152">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q152">
         <v>-0.75</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S152">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
         <v>2.5</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W152">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB152">
+        <v>1</v>
+      </c>
+      <c r="AC152">
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14051,6 +14066,15 @@
       <c r="G153" t="s">
         <v>33</v>
       </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>3</v>
+      </c>
+      <c r="J153" t="s">
+        <v>43</v>
+      </c>
       <c r="K153">
         <v>2</v>
       </c>
@@ -14061,45 +14085,495 @@
         <v>3.75</v>
       </c>
       <c r="N153">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q153">
         <v>-0.5</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T153">
         <v>2.25</v>
       </c>
       <c r="U153">
+        <v>1.925</v>
+      </c>
+      <c r="V153">
+        <v>1.875</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>3.5</v>
+      </c>
+      <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
+        <v>1</v>
+      </c>
+      <c r="AB153">
+        <v>0.925</v>
+      </c>
+      <c r="AC153">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>7737345</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45360.08333333334</v>
+      </c>
+      <c r="F154" t="s">
+        <v>36</v>
+      </c>
+      <c r="G154" t="s">
+        <v>37</v>
+      </c>
+      <c r="K154">
+        <v>2.05</v>
+      </c>
+      <c r="L154">
+        <v>3.2</v>
+      </c>
+      <c r="M154">
+        <v>3.4</v>
+      </c>
+      <c r="N154">
+        <v>2.2</v>
+      </c>
+      <c r="O154">
+        <v>3.2</v>
+      </c>
+      <c r="P154">
+        <v>3.1</v>
+      </c>
+      <c r="Q154">
+        <v>-0.25</v>
+      </c>
+      <c r="R154">
         <v>1.95</v>
       </c>
-      <c r="V153">
+      <c r="S154">
         <v>1.85</v>
       </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-      <c r="X153">
-        <v>0</v>
-      </c>
-      <c r="Y153">
-        <v>0</v>
-      </c>
-      <c r="Z153">
-        <v>0</v>
-      </c>
-      <c r="AA153">
+      <c r="T154">
+        <v>2.25</v>
+      </c>
+      <c r="U154">
+        <v>1.8</v>
+      </c>
+      <c r="V154">
+        <v>2</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7738680</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45360.1875</v>
+      </c>
+      <c r="F155" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" t="s">
+        <v>32</v>
+      </c>
+      <c r="K155">
+        <v>2.2</v>
+      </c>
+      <c r="L155">
+        <v>3.2</v>
+      </c>
+      <c r="M155">
+        <v>3.1</v>
+      </c>
+      <c r="N155">
+        <v>2.2</v>
+      </c>
+      <c r="O155">
+        <v>3.2</v>
+      </c>
+      <c r="P155">
+        <v>3.1</v>
+      </c>
+      <c r="Q155">
+        <v>-0.25</v>
+      </c>
+      <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>1.85</v>
+      </c>
+      <c r="T155">
+        <v>2.25</v>
+      </c>
+      <c r="U155">
+        <v>1.95</v>
+      </c>
+      <c r="V155">
+        <v>1.85</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AA155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>7738681</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45360.1875</v>
+      </c>
+      <c r="F156" t="s">
+        <v>30</v>
+      </c>
+      <c r="G156" t="s">
+        <v>39</v>
+      </c>
+      <c r="K156">
+        <v>2.4</v>
+      </c>
+      <c r="L156">
+        <v>3</v>
+      </c>
+      <c r="M156">
+        <v>2.9</v>
+      </c>
+      <c r="N156">
+        <v>2.375</v>
+      </c>
+      <c r="O156">
+        <v>3</v>
+      </c>
+      <c r="P156">
+        <v>3</v>
+      </c>
+      <c r="Q156">
+        <v>-0.25</v>
+      </c>
+      <c r="R156">
+        <v>2.05</v>
+      </c>
+      <c r="S156">
+        <v>1.75</v>
+      </c>
+      <c r="T156">
+        <v>2</v>
+      </c>
+      <c r="U156">
+        <v>1.775</v>
+      </c>
+      <c r="V156">
+        <v>2.025</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>7739342</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45361.08333333334</v>
+      </c>
+      <c r="F157" t="s">
+        <v>33</v>
+      </c>
+      <c r="G157" t="s">
+        <v>42</v>
+      </c>
+      <c r="K157">
+        <v>2.625</v>
+      </c>
+      <c r="L157">
+        <v>3.2</v>
+      </c>
+      <c r="M157">
+        <v>2.55</v>
+      </c>
+      <c r="N157">
+        <v>2.625</v>
+      </c>
+      <c r="O157">
+        <v>3.2</v>
+      </c>
+      <c r="P157">
+        <v>2.55</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>1.85</v>
+      </c>
+      <c r="T157">
+        <v>2.25</v>
+      </c>
+      <c r="U157">
+        <v>1.825</v>
+      </c>
+      <c r="V157">
+        <v>1.975</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>7738656</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45361.08333333334</v>
+      </c>
+      <c r="F158" t="s">
+        <v>29</v>
+      </c>
+      <c r="G158" t="s">
+        <v>38</v>
+      </c>
+      <c r="K158">
+        <v>2.5</v>
+      </c>
+      <c r="L158">
+        <v>3.1</v>
+      </c>
+      <c r="M158">
+        <v>2.7</v>
+      </c>
+      <c r="N158">
+        <v>2.5</v>
+      </c>
+      <c r="O158">
+        <v>3</v>
+      </c>
+      <c r="P158">
+        <v>2.75</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>1.8</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.75</v>
+      </c>
+      <c r="V158">
+        <v>2.05</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7737362</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45361.1875</v>
+      </c>
+      <c r="F159" t="s">
+        <v>40</v>
+      </c>
+      <c r="G159" t="s">
+        <v>41</v>
+      </c>
+      <c r="K159">
+        <v>1.7</v>
+      </c>
+      <c r="L159">
+        <v>3.75</v>
+      </c>
+      <c r="M159">
+        <v>4.2</v>
+      </c>
+      <c r="N159">
+        <v>1.615</v>
+      </c>
+      <c r="O159">
+        <v>3.8</v>
+      </c>
+      <c r="P159">
+        <v>4.5</v>
+      </c>
+      <c r="Q159">
+        <v>-0.75</v>
+      </c>
+      <c r="R159">
+        <v>1.8</v>
+      </c>
+      <c r="S159">
+        <v>2</v>
+      </c>
+      <c r="T159">
+        <v>2.5</v>
+      </c>
+      <c r="U159">
+        <v>1.8</v>
+      </c>
+      <c r="V159">
+        <v>2</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
         <v>0</v>
       </c>
     </row>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6204316</v>
+        <v>6206192</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,10 +2046,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2061,25 +2061,25 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>3.25</v>
       </c>
       <c r="M18">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N18">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O18">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2091,10 +2091,10 @@
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2103,7 +2103,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2112,7 +2112,7 @@
         <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6206192</v>
+        <v>6204316</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,10 +2135,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2150,25 +2150,25 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N19">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
         <v>1.925</v>
@@ -2180,10 +2180,10 @@
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2192,7 +2192,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2201,7 +2201,7 @@
         <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6204317</v>
+        <v>6206197</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,76 +2580,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>45</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6206197</v>
+        <v>6204317</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
+        <v>2.625</v>
+      </c>
+      <c r="N25">
+        <v>2.15</v>
+      </c>
+      <c r="O25">
+        <v>3.4</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>-0.25</v>
+      </c>
+      <c r="R25">
+        <v>1.9</v>
+      </c>
+      <c r="S25">
+        <v>1.9</v>
+      </c>
+      <c r="T25">
         <v>2.5</v>
       </c>
-      <c r="N25">
-        <v>2.7</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>2.55</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
-      </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6206199</v>
+        <v>6206198</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,40 +2758,40 @@
         <v>45115.25</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N26">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P26">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -2803,31 +2803,31 @@
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC26">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6206198</v>
+        <v>6206199</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,40 +2847,40 @@
         <v>45115.25</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N27">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -2892,31 +2892,31 @@
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6206204</v>
+        <v>6206205</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,37 +3381,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N33">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q33">
         <v>0.25</v>
@@ -3423,7 +3423,7 @@
         <v>2.05</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
         <v>1.925</v>
@@ -3432,25 +3432,25 @@
         <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA33">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6206205</v>
+        <v>6206204</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,37 +3470,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N34">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O34">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q34">
         <v>0.25</v>
@@ -3512,7 +3512,7 @@
         <v>2.05</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
         <v>1.925</v>
@@ -3521,25 +3521,25 @@
         <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6204320</v>
+        <v>6206211</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,76 +4093,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M41">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N41">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6206211</v>
+        <v>6204320</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,76 +4182,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L42">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N42">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O42">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X42">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206215</v>
+        <v>6206214</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,49 +4449,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N45">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P45">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U45">
         <v>2</v>
@@ -4500,19 +4500,19 @@
         <v>1.8</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6206214</v>
+        <v>6206215</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,49 +4538,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O46">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>2</v>
@@ -4589,19 +4589,19 @@
         <v>1.8</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6206245</v>
+        <v>6206246</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,76 +7564,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K80">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L80">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N80">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q80">
         <v>0.25</v>
       </c>
       <c r="R80">
+        <v>1.85</v>
+      </c>
+      <c r="S80">
+        <v>1.95</v>
+      </c>
+      <c r="T80">
+        <v>2.5</v>
+      </c>
+      <c r="U80">
         <v>1.875</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.925</v>
       </c>
-      <c r="T80">
-        <v>2.25</v>
-      </c>
-      <c r="U80">
-        <v>1.975</v>
-      </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.925</v>
-      </c>
-      <c r="AB80">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6206246</v>
+        <v>6206245</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,76 +7653,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
+        <v>2.15</v>
+      </c>
+      <c r="N81">
+        <v>3.2</v>
+      </c>
+      <c r="O81">
+        <v>3.1</v>
+      </c>
+      <c r="P81">
         <v>2.2</v>
-      </c>
-      <c r="N81">
-        <v>2.9</v>
-      </c>
-      <c r="O81">
-        <v>3.4</v>
-      </c>
-      <c r="P81">
-        <v>2.25</v>
       </c>
       <c r="Q81">
         <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,73 +7831,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L83">
+        <v>3.2</v>
+      </c>
+      <c r="M83">
+        <v>2.875</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
         <v>3.3</v>
       </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>3.5</v>
-      </c>
-      <c r="O83">
-        <v>3.2</v>
-      </c>
       <c r="P83">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U83">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB83">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L84">
+        <v>3.3</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>3.5</v>
+      </c>
+      <c r="O84">
         <v>3.2</v>
       </c>
-      <c r="M84">
-        <v>2.875</v>
-      </c>
-      <c r="N84">
-        <v>2</v>
-      </c>
-      <c r="O84">
-        <v>3.3</v>
-      </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6206255</v>
+        <v>6206254</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,55 +8543,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>43</v>
       </c>
       <c r="K91">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N91">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P91">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8600,19 +8600,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6206254</v>
+        <v>6206255</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,55 +8632,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>43</v>
       </c>
       <c r="K92">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M92">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O92">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8689,19 +8689,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6206260</v>
+        <v>6206261</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,40 +9166,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O98">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9208,34 +9208,34 @@
         <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6206261</v>
+        <v>6206260</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,40 +9255,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L99">
+        <v>3.2</v>
+      </c>
+      <c r="M99">
+        <v>2.75</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>3.3</v>
+      </c>
+      <c r="P99">
         <v>3.4</v>
       </c>
-      <c r="M99">
-        <v>1.909</v>
-      </c>
-      <c r="N99">
-        <v>4</v>
-      </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
-      <c r="P99">
-        <v>1.8</v>
-      </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
         <v>2</v>
@@ -9297,34 +9297,34 @@
         <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W99">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z99">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6414604</v>
+        <v>6352816</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,58 +10857,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
       </c>
       <c r="K117">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N117">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O117">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P117">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10917,16 +10917,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6352816</v>
+        <v>6414604</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,58 +10946,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N118">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>0.7270000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11006,16 +11006,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6527572</v>
+        <v>6540655</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45256.125</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
         <v>3.3</v>
       </c>
       <c r="M140">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N140">
+        <v>2.75</v>
+      </c>
+      <c r="O140">
+        <v>3.25</v>
+      </c>
+      <c r="P140">
+        <v>2.3</v>
+      </c>
+      <c r="Q140">
+        <v>0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.75</v>
+      </c>
+      <c r="S140">
+        <v>2.05</v>
+      </c>
+      <c r="T140">
         <v>2.25</v>
       </c>
-      <c r="O140">
-        <v>3.3</v>
-      </c>
-      <c r="P140">
-        <v>2.9</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
+      <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
         <v>1.975</v>
       </c>
-      <c r="S140">
-        <v>1.825</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
-      <c r="U140">
-        <v>1.975</v>
-      </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
       <c r="W140">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>1.05</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
-      <c r="AB140">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6537916</v>
+        <v>6527572</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,58 +12993,58 @@
         <v>45256.125</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H141">
+        <v>4</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>44</v>
       </c>
       <c r="K141">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N141">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="Q141">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>0.222</v>
+        <v>1.25</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13053,16 +13053,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6540655</v>
+        <v>6531883</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45256.125</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>43</v>
       </c>
       <c r="K143">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M143">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N143">
+        <v>1.75</v>
+      </c>
+      <c r="O143">
+        <v>4</v>
+      </c>
+      <c r="P143">
+        <v>3.75</v>
+      </c>
+      <c r="Q143">
+        <v>-0.75</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
+        <v>3.25</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>1.8</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
         <v>2.75</v>
       </c>
-      <c r="O143">
-        <v>3.25</v>
-      </c>
-      <c r="P143">
-        <v>2.3</v>
-      </c>
-      <c r="Q143">
-        <v>0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.75</v>
-      </c>
-      <c r="S143">
-        <v>2.05</v>
-      </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
-      <c r="U143">
-        <v>1.825</v>
-      </c>
-      <c r="V143">
-        <v>1.975</v>
-      </c>
-      <c r="W143">
-        <v>-1</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
-      <c r="Y143">
-        <v>1.3</v>
-      </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6531883</v>
+        <v>6537916</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45256.125</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K145">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L145">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N145">
-        <v>1.75</v>
+        <v>1.222</v>
       </c>
       <c r="O145">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P145">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="Q145">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
         <v>3.25</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7738678</v>
+        <v>7737361</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,76 +13616,76 @@
         <v>45352.08333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K148">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
+        <v>4.333</v>
+      </c>
+      <c r="N148">
+        <v>2.15</v>
+      </c>
+      <c r="O148">
+        <v>3.4</v>
+      </c>
+      <c r="P148">
+        <v>3.3</v>
+      </c>
+      <c r="Q148">
+        <v>-0.25</v>
+      </c>
+      <c r="R148">
         <v>1.85</v>
       </c>
-      <c r="N148">
-        <v>4.333</v>
-      </c>
-      <c r="O148">
-        <v>3.5</v>
-      </c>
-      <c r="P148">
-        <v>1.833</v>
-      </c>
-      <c r="Q148">
-        <v>0.5</v>
-      </c>
-      <c r="R148">
+      <c r="S148">
         <v>1.95</v>
-      </c>
-      <c r="S148">
-        <v>1.85</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7737361</v>
+        <v>7738678</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,76 +13705,76 @@
         <v>45352.08333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K149">
+        <v>4</v>
+      </c>
+      <c r="L149">
+        <v>3.6</v>
+      </c>
+      <c r="M149">
+        <v>1.85</v>
+      </c>
+      <c r="N149">
+        <v>4.333</v>
+      </c>
+      <c r="O149">
+        <v>3.5</v>
+      </c>
+      <c r="P149">
         <v>1.833</v>
       </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>4.333</v>
-      </c>
-      <c r="N149">
-        <v>2.15</v>
-      </c>
-      <c r="O149">
-        <v>3.4</v>
-      </c>
-      <c r="P149">
-        <v>3.3</v>
-      </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
         <v>1.85</v>
-      </c>
-      <c r="S149">
-        <v>1.95</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14155,6 +14155,15 @@
       <c r="G154" t="s">
         <v>37</v>
       </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>4</v>
+      </c>
+      <c r="J154" t="s">
+        <v>43</v>
+      </c>
       <c r="K154">
         <v>2.05</v>
       </c>
@@ -14165,46 +14174,52 @@
         <v>3.4</v>
       </c>
       <c r="N154">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O154">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P154">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q154">
         <v>-0.25</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T154">
         <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB154">
+        <v>0.825</v>
+      </c>
+      <c r="AC154">
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14212,7 +14227,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7738680</v>
+        <v>7738681</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14224,61 +14239,76 @@
         <v>45360.1875</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>45</v>
       </c>
       <c r="K155">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L155">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M155">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N155">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O155">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P155">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U155">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
         <v>0</v>
       </c>
       <c r="AA155">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB155">
+        <v>0</v>
+      </c>
+      <c r="AC155">
+        <v>-0</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14286,7 +14316,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7738681</v>
+        <v>7738680</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14298,61 +14328,76 @@
         <v>45360.1875</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="H156">
+        <v>4</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>44</v>
       </c>
       <c r="K156">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L156">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M156">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N156">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O156">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P156">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB156">
+        <v>1</v>
+      </c>
+      <c r="AC156">
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14360,7 +14405,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7739342</v>
+        <v>7738656</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14372,46 +14417,46 @@
         <v>45361.08333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K157">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L157">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M157">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N157">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O157">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P157">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q157">
         <v>0</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U157">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W157">
         <v>0</v>
@@ -14434,7 +14479,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7738656</v>
+        <v>7739342</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14446,46 +14491,46 @@
         <v>45361.08333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K158">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
         <v>0</v>
@@ -14535,31 +14580,31 @@
         <v>4.2</v>
       </c>
       <c r="N159">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="O159">
         <v>3.8</v>
       </c>
       <c r="P159">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q159">
         <v>-0.75</v>
       </c>
       <c r="R159">
+        <v>1.775</v>
+      </c>
+      <c r="S159">
+        <v>2.025</v>
+      </c>
+      <c r="T159">
+        <v>2.75</v>
+      </c>
+      <c r="U159">
+        <v>2</v>
+      </c>
+      <c r="V159">
         <v>1.8</v>
-      </c>
-      <c r="S159">
-        <v>2</v>
-      </c>
-      <c r="T159">
-        <v>2.5</v>
-      </c>
-      <c r="U159">
-        <v>1.8</v>
-      </c>
-      <c r="V159">
-        <v>2</v>
       </c>
       <c r="W159">
         <v>0</v>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Busan I Park</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Bucheon</t>
   </si>
   <si>
-    <t>Bucheon</t>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
     <t>Seongnam FC</t>
@@ -803,7 +803,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6204719</v>
+        <v>6206186</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N11">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6206186</v>
+        <v>6204719</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6206197</v>
+        <v>6204317</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,76 +2580,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>45</v>
       </c>
       <c r="K24">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
+        <v>2.625</v>
+      </c>
+      <c r="N24">
+        <v>2.15</v>
+      </c>
+      <c r="O24">
+        <v>3.4</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
+        <v>1.9</v>
+      </c>
+      <c r="S24">
+        <v>1.9</v>
+      </c>
+      <c r="T24">
         <v>2.5</v>
       </c>
-      <c r="N24">
-        <v>2.7</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>2.55</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6204317</v>
+        <v>6206197</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L25">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N25">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>45115.25</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6206201</v>
+        <v>6206200</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N28">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="O28">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X28">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6206200</v>
+        <v>6206201</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,76 +3025,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M29">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N29">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="O29">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P29">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3473,7 +3473,7 @@
         <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O38">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>1.975</v>
+      </c>
+      <c r="S38">
         <v>1.825</v>
       </c>
-      <c r="S38">
-        <v>1.975</v>
-      </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
         <v>1.95</v>
       </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N39">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P39">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R39">
+        <v>1.825</v>
+      </c>
+      <c r="S39">
         <v>1.975</v>
       </c>
-      <c r="S39">
-        <v>1.825</v>
-      </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6206211</v>
+        <v>6204320</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,76 +4093,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L41">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N41">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X41">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6204320</v>
+        <v>6206211</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,76 +4182,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M42">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N42">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P42">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206214</v>
+        <v>6206215</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,49 +4449,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O45">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U45">
         <v>2</v>
@@ -4500,19 +4500,19 @@
         <v>1.8</v>
       </c>
       <c r="W45">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6206215</v>
+        <v>6206214</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,49 +4538,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P46">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U46">
         <v>2</v>
@@ -4589,19 +4589,19 @@
         <v>1.8</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -5072,7 +5072,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5431,7 +5431,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6496,7 +6496,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6766,7 +6766,7 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6206241</v>
+        <v>6206240</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,56 +7030,56 @@
         <v>45164.3125</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
+        <v>1.875</v>
+      </c>
+      <c r="S74">
+        <v>1.925</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
+        <v>1.95</v>
+      </c>
+      <c r="V74">
         <v>1.85</v>
       </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7087,19 +7087,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.925</v>
+      </c>
+      <c r="AB74">
         <v>0.95</v>
       </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6206240</v>
+        <v>6206241</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,55 +7119,55 @@
         <v>45164.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N75">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O75">
+        <v>3.4</v>
+      </c>
+      <c r="P75">
         <v>3</v>
       </c>
-      <c r="P75">
-        <v>2.2</v>
-      </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -7389,7 +7389,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6206246</v>
+        <v>6206245</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,76 +7564,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
+        <v>2.15</v>
+      </c>
+      <c r="N80">
+        <v>3.2</v>
+      </c>
+      <c r="O80">
+        <v>3.1</v>
+      </c>
+      <c r="P80">
         <v>2.2</v>
-      </c>
-      <c r="N80">
-        <v>2.9</v>
-      </c>
-      <c r="O80">
-        <v>3.4</v>
-      </c>
-      <c r="P80">
-        <v>2.25</v>
       </c>
       <c r="Q80">
         <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6206245</v>
+        <v>6206246</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,76 +7653,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q81">
         <v>0.25</v>
       </c>
       <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
+        <v>1.95</v>
+      </c>
+      <c r="T81">
+        <v>2.5</v>
+      </c>
+      <c r="U81">
         <v>1.875</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.925</v>
       </c>
-      <c r="T81">
-        <v>2.25</v>
-      </c>
-      <c r="U81">
-        <v>1.975</v>
-      </c>
-      <c r="V81">
-        <v>1.825</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.925</v>
-      </c>
-      <c r="AB81">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,73 +7831,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K83">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L83">
+        <v>3.3</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3.5</v>
+      </c>
+      <c r="O83">
         <v>3.2</v>
       </c>
-      <c r="M83">
-        <v>2.875</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>3.3</v>
-      </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L84">
+        <v>3.2</v>
+      </c>
+      <c r="M84">
+        <v>2.875</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
         <v>3.3</v>
       </c>
-      <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84">
-        <v>3.5</v>
-      </c>
-      <c r="O84">
-        <v>3.2</v>
-      </c>
       <c r="P84">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U84">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB84">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8009,7 +8009,7 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8101,7 +8101,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6206254</v>
+        <v>6206255</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,55 +8543,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>43</v>
       </c>
       <c r="K91">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N91">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8600,19 +8600,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6206255</v>
+        <v>6206254</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,55 +8632,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>43</v>
       </c>
       <c r="K92">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N92">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P92">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8689,19 +8689,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9255,7 +9255,7 @@
         <v>45188.3125</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9436,7 +9436,7 @@
         <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9614,7 +9614,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
         <v>36</v>
@@ -10412,10 +10412,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F112" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" t="s">
         <v>38</v>
-      </c>
-      <c r="G112" t="s">
-        <v>39</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6357144</v>
+        <v>6352815</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,76 +10679,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K115">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L115">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N115">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O115">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X115">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6352815</v>
+        <v>6357144</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,76 +10768,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L116">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N116">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P116">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6388120</v>
+        <v>6357145</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,73 +11035,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O119">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z119">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB119">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11112,7 +11112,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6357145</v>
+        <v>6388120</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11124,73 +11124,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>44</v>
+      </c>
+      <c r="K120">
+        <v>2.8</v>
+      </c>
+      <c r="L120">
+        <v>3.2</v>
+      </c>
+      <c r="M120">
+        <v>2.5</v>
+      </c>
+      <c r="N120">
         <v>3</v>
       </c>
-      <c r="J120" t="s">
-        <v>43</v>
-      </c>
-      <c r="K120">
-        <v>3</v>
-      </c>
-      <c r="L120">
-        <v>3.25</v>
-      </c>
-      <c r="M120">
-        <v>2.375</v>
-      </c>
-      <c r="N120">
+      <c r="O120">
         <v>3.1</v>
       </c>
-      <c r="O120">
-        <v>3.25</v>
-      </c>
       <c r="P120">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11391,7 +11391,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
         <v>31</v>
@@ -11658,7 +11658,7 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -12106,7 +12106,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12195,7 +12195,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6527572</v>
+        <v>6531883</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45256.125</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>43</v>
+      </c>
+      <c r="K141">
+        <v>1.7</v>
+      </c>
+      <c r="L141">
+        <v>3.8</v>
+      </c>
+      <c r="M141">
+        <v>4.2</v>
+      </c>
+      <c r="N141">
+        <v>1.75</v>
+      </c>
+      <c r="O141">
         <v>4</v>
       </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-      <c r="J141" t="s">
-        <v>44</v>
-      </c>
-      <c r="K141">
-        <v>2.3</v>
-      </c>
-      <c r="L141">
-        <v>3.3</v>
-      </c>
-      <c r="M141">
-        <v>2.8</v>
-      </c>
-      <c r="N141">
-        <v>2.25</v>
-      </c>
-      <c r="O141">
-        <v>3.3</v>
-      </c>
       <c r="P141">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W141">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6531883</v>
+        <v>6537916</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45256.125</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L143">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M143">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="N143">
-        <v>1.75</v>
+        <v>1.222</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P143">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="Q143">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T143">
         <v>3.25</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6537915</v>
+        <v>6527572</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,40 +13260,40 @@
         <v>45256.125</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
         <v>1.975</v>
@@ -13305,31 +13305,31 @@
         <v>2.5</v>
       </c>
       <c r="U144">
+        <v>1.975</v>
+      </c>
+      <c r="V144">
         <v>1.825</v>
       </c>
-      <c r="V144">
-        <v>1.975</v>
-      </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X144">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6537916</v>
+        <v>6537915</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,61 +13349,61 @@
         <v>45256.125</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K145">
-        <v>1.3</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N145">
-        <v>1.222</v>
+        <v>1.444</v>
       </c>
       <c r="O145">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P145">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q145">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R145">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13412,13 +13412,13 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7737361</v>
+        <v>7738678</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,76 +13616,76 @@
         <v>45352.08333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
+        <v>3.6</v>
+      </c>
+      <c r="M148">
+        <v>1.85</v>
+      </c>
+      <c r="N148">
+        <v>4.333</v>
+      </c>
+      <c r="O148">
+        <v>3.5</v>
+      </c>
+      <c r="P148">
         <v>1.833</v>
       </c>
-      <c r="L148">
-        <v>3.5</v>
-      </c>
-      <c r="M148">
-        <v>4.333</v>
-      </c>
-      <c r="N148">
-        <v>2.15</v>
-      </c>
-      <c r="O148">
-        <v>3.4</v>
-      </c>
-      <c r="P148">
-        <v>3.3</v>
-      </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
+        <v>1.95</v>
+      </c>
+      <c r="S148">
         <v>1.85</v>
-      </c>
-      <c r="S148">
-        <v>1.95</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7738678</v>
+        <v>7737361</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,76 +13705,76 @@
         <v>45352.08333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K149">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
+        <v>4.333</v>
+      </c>
+      <c r="N149">
+        <v>2.15</v>
+      </c>
+      <c r="O149">
+        <v>3.4</v>
+      </c>
+      <c r="P149">
+        <v>3.3</v>
+      </c>
+      <c r="Q149">
+        <v>-0.25</v>
+      </c>
+      <c r="R149">
         <v>1.85</v>
       </c>
-      <c r="N149">
-        <v>4.333</v>
-      </c>
-      <c r="O149">
-        <v>3.5</v>
-      </c>
-      <c r="P149">
-        <v>1.833</v>
-      </c>
-      <c r="Q149">
-        <v>0.5</v>
-      </c>
-      <c r="R149">
+      <c r="S149">
         <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>1.85</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -13883,7 +13883,7 @@
         <v>45353.1875</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
         <v>34</v>
@@ -14242,7 +14242,7 @@
         <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14405,7 +14405,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7738656</v>
+        <v>7739342</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14417,61 +14417,76 @@
         <v>45361.08333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>44</v>
       </c>
       <c r="K157">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M157">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N157">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O157">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P157">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q157">
         <v>0</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V157">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="X157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB157">
+        <v>0.825</v>
+      </c>
+      <c r="AC157">
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14479,7 +14494,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7739342</v>
+        <v>7738656</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14491,61 +14506,76 @@
         <v>45361.08333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158" t="s">
+        <v>43</v>
       </c>
       <c r="K158">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="L158">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M158">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N158">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O158">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P158">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S158">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V158">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB158">
+        <v>0.8</v>
+      </c>
+      <c r="AC158">
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14570,6 +14600,15 @@
       <c r="G159" t="s">
         <v>41</v>
       </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>3</v>
+      </c>
+      <c r="J159" t="s">
+        <v>43</v>
+      </c>
       <c r="K159">
         <v>1.7</v>
       </c>
@@ -14580,46 +14619,52 @@
         <v>4.2</v>
       </c>
       <c r="N159">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O159">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P159">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q159">
         <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S159">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T159">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB159">
+        <v>0.8</v>
+      </c>
+      <c r="AC159">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Busan I Park</t>
   </si>
   <si>
-    <t>Bucheon</t>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Bucheon</t>
   </si>
   <si>
     <t>Seongnam FC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC159"/>
+  <dimension ref="A1:AC162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,7 +803,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6206186</v>
+        <v>6204719</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6204719</v>
+        <v>6206186</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N12">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6206192</v>
+        <v>6204316</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,10 +2046,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2061,25 +2061,25 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L18">
         <v>3.25</v>
       </c>
       <c r="M18">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N18">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2091,10 +2091,10 @@
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2103,7 +2103,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.8500000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2112,7 +2112,7 @@
         <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6204316</v>
+        <v>6206192</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,10 +2135,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2150,25 +2150,25 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
         <v>1.925</v>
@@ -2180,10 +2180,10 @@
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2192,7 +2192,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2201,7 +2201,7 @@
         <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2313,7 +2313,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2669,7 +2669,7 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2758,7 +2758,7 @@
         <v>45115.25</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -3295,7 +3295,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6206205</v>
+        <v>6206204</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,37 +3381,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M33">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N33">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q33">
         <v>0.25</v>
@@ -3423,7 +3423,7 @@
         <v>2.05</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
         <v>1.925</v>
@@ -3432,25 +3432,25 @@
         <v>1.875</v>
       </c>
       <c r="W33">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z33">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6206204</v>
+        <v>6206205</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,37 +3470,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N34">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O34">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q34">
         <v>0.25</v>
@@ -3512,7 +3512,7 @@
         <v>2.05</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
         <v>1.925</v>
@@ -3521,25 +3521,25 @@
         <v>1.875</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA34">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3826,10 +3826,10 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s">
         <v>38</v>
-      </c>
-      <c r="G38" t="s">
-        <v>39</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4360,7 +4360,7 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4541,7 +4541,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5431,7 +5431,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6496,7 +6496,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6766,7 +6766,7 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6206240</v>
+        <v>6206241</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,55 +7030,55 @@
         <v>45164.3125</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N74">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O74">
+        <v>3.4</v>
+      </c>
+      <c r="P74">
         <v>3</v>
       </c>
-      <c r="P74">
-        <v>2.2</v>
-      </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7087,19 +7087,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6206241</v>
+        <v>6206240</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,56 +7119,56 @@
         <v>45164.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
+        <v>1.875</v>
+      </c>
+      <c r="S75">
+        <v>1.925</v>
+      </c>
+      <c r="T75">
+        <v>2</v>
+      </c>
+      <c r="U75">
+        <v>1.95</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
       <c r="W75">
         <v>-1</v>
       </c>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
+        <v>0.925</v>
+      </c>
+      <c r="AB75">
         <v>0.95</v>
       </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
       <c r="AC75">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -7389,7 +7389,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6206245</v>
+        <v>6206246</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,76 +7564,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K80">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L80">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N80">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q80">
         <v>0.25</v>
       </c>
       <c r="R80">
+        <v>1.85</v>
+      </c>
+      <c r="S80">
+        <v>1.95</v>
+      </c>
+      <c r="T80">
+        <v>2.5</v>
+      </c>
+      <c r="U80">
         <v>1.875</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.925</v>
       </c>
-      <c r="T80">
-        <v>2.25</v>
-      </c>
-      <c r="U80">
-        <v>1.975</v>
-      </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.925</v>
-      </c>
-      <c r="AB80">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6206246</v>
+        <v>6206245</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,76 +7653,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
+        <v>2.15</v>
+      </c>
+      <c r="N81">
+        <v>3.2</v>
+      </c>
+      <c r="O81">
+        <v>3.1</v>
+      </c>
+      <c r="P81">
         <v>2.2</v>
-      </c>
-      <c r="N81">
-        <v>2.9</v>
-      </c>
-      <c r="O81">
-        <v>3.4</v>
-      </c>
-      <c r="P81">
-        <v>2.25</v>
       </c>
       <c r="Q81">
         <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>45168.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -8009,7 +8009,7 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8101,7 +8101,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9255,7 +9255,7 @@
         <v>45188.3125</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9421,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6206263</v>
+        <v>6204329</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,76 +9433,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>1</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L101">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N101">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9510,7 +9510,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6204329</v>
+        <v>6206263</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9522,76 +9522,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>44</v>
+      </c>
+      <c r="K102">
+        <v>3.75</v>
+      </c>
+      <c r="L102">
+        <v>3.25</v>
+      </c>
+      <c r="M102">
+        <v>2.05</v>
+      </c>
+      <c r="N102">
+        <v>3.6</v>
+      </c>
+      <c r="O102">
+        <v>3.25</v>
+      </c>
+      <c r="P102">
+        <v>2.1</v>
+      </c>
+      <c r="Q102">
+        <v>0.25</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>1.8</v>
+      </c>
+      <c r="T102">
+        <v>2</v>
+      </c>
+      <c r="U102">
+        <v>1.775</v>
+      </c>
+      <c r="V102">
+        <v>2.025</v>
+      </c>
+      <c r="W102">
+        <v>2.6</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
         <v>1</v>
       </c>
-      <c r="J102" t="s">
-        <v>43</v>
-      </c>
-      <c r="K102">
-        <v>2.375</v>
-      </c>
-      <c r="L102">
-        <v>3.4</v>
-      </c>
-      <c r="M102">
-        <v>2.9</v>
-      </c>
-      <c r="N102">
-        <v>2.6</v>
-      </c>
-      <c r="O102">
-        <v>3.4</v>
-      </c>
-      <c r="P102">
-        <v>2.625</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.875</v>
-      </c>
-      <c r="S102">
-        <v>1.925</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>1.825</v>
-      </c>
-      <c r="V102">
-        <v>1.975</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102">
-        <v>1.625</v>
-      </c>
-      <c r="Z102">
-        <v>-1</v>
-      </c>
       <c r="AA102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9614,7 +9614,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
         <v>36</v>
@@ -10412,10 +10412,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F112" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" t="s">
         <v>39</v>
-      </c>
-      <c r="G112" t="s">
-        <v>38</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6352815</v>
+        <v>6357144</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,76 +10679,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K115">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L115">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N115">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O115">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P115">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W115">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB115">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6357144</v>
+        <v>6352815</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,76 +10768,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K116">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L116">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M116">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O116">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X116">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA116">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6352816</v>
+        <v>6414604</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,58 +10857,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
       </c>
       <c r="K117">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L117">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O117">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
-        <v>0.7270000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10917,16 +10917,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6414604</v>
+        <v>6352816</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,58 +10946,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N118">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11006,16 +11006,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6357145</v>
+        <v>6388120</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,73 +11035,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>44</v>
+      </c>
+      <c r="K119">
+        <v>2.8</v>
+      </c>
+      <c r="L119">
+        <v>3.2</v>
+      </c>
+      <c r="M119">
+        <v>2.5</v>
+      </c>
+      <c r="N119">
         <v>3</v>
       </c>
-      <c r="J119" t="s">
-        <v>43</v>
-      </c>
-      <c r="K119">
-        <v>3</v>
-      </c>
-      <c r="L119">
-        <v>3.25</v>
-      </c>
-      <c r="M119">
-        <v>2.375</v>
-      </c>
-      <c r="N119">
+      <c r="O119">
         <v>3.1</v>
       </c>
-      <c r="O119">
-        <v>3.25</v>
-      </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11112,7 +11112,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6388120</v>
+        <v>6357145</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11124,73 +11124,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O120">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11391,7 +11391,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>31</v>
@@ -11658,7 +11658,7 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -12106,7 +12106,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12195,7 +12195,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6540655</v>
+        <v>6531882</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45256.125</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N140">
+        <v>1.4</v>
+      </c>
+      <c r="O140">
+        <v>4.333</v>
+      </c>
+      <c r="P140">
+        <v>6</v>
+      </c>
+      <c r="Q140">
+        <v>-1.25</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>1.8</v>
+      </c>
+      <c r="T140">
         <v>2.75</v>
       </c>
-      <c r="O140">
-        <v>3.25</v>
-      </c>
-      <c r="P140">
-        <v>2.3</v>
-      </c>
-      <c r="Q140">
-        <v>0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.75</v>
-      </c>
-      <c r="S140">
-        <v>2.05</v>
-      </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
       <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
         <v>1.825</v>
       </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA140">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6531882</v>
+        <v>6537915</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,34 +13082,34 @@
         <v>45256.125</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>1.571</v>
+        <v>1.533</v>
       </c>
       <c r="L142">
         <v>4</v>
       </c>
       <c r="M142">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N142">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="O142">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P142">
         <v>6</v>
@@ -13118,40 +13118,40 @@
         <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
+        <v>1.825</v>
+      </c>
+      <c r="V142">
         <v>1.975</v>
       </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AB142">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6527572</v>
+        <v>6540655</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45256.125</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L144">
         <v>3.3</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N144">
+        <v>2.75</v>
+      </c>
+      <c r="O144">
+        <v>3.25</v>
+      </c>
+      <c r="P144">
+        <v>2.3</v>
+      </c>
+      <c r="Q144">
+        <v>0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.75</v>
+      </c>
+      <c r="S144">
+        <v>2.05</v>
+      </c>
+      <c r="T144">
         <v>2.25</v>
       </c>
-      <c r="O144">
-        <v>3.3</v>
-      </c>
-      <c r="P144">
-        <v>2.9</v>
-      </c>
-      <c r="Q144">
-        <v>-0.25</v>
-      </c>
-      <c r="R144">
+      <c r="U144">
+        <v>1.825</v>
+      </c>
+      <c r="V144">
         <v>1.975</v>
       </c>
-      <c r="S144">
-        <v>1.825</v>
-      </c>
-      <c r="T144">
-        <v>2.5</v>
-      </c>
-      <c r="U144">
-        <v>1.975</v>
-      </c>
-      <c r="V144">
-        <v>1.825</v>
-      </c>
       <c r="W144">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
+        <v>1.05</v>
+      </c>
+      <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
-      <c r="AB144">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6537915</v>
+        <v>6527572</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,40 +13349,40 @@
         <v>45256.125</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="N145">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O145">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P145">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q145">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
         <v>1.975</v>
@@ -13394,31 +13394,31 @@
         <v>2.5</v>
       </c>
       <c r="U145">
+        <v>1.975</v>
+      </c>
+      <c r="V145">
         <v>1.825</v>
       </c>
-      <c r="V145">
-        <v>1.975</v>
-      </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X145">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13794,7 +13794,7 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -13883,7 +13883,7 @@
         <v>45353.1875</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
         <v>34</v>
@@ -14242,7 +14242,7 @@
         <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14405,7 +14405,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7739342</v>
+        <v>7738656</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14417,73 +14417,73 @@
         <v>45361.08333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157" t="s">
+        <v>43</v>
+      </c>
+      <c r="K157">
+        <v>2.5</v>
+      </c>
+      <c r="L157">
+        <v>3.1</v>
+      </c>
+      <c r="M157">
+        <v>2.7</v>
+      </c>
+      <c r="N157">
+        <v>2.5</v>
+      </c>
+      <c r="O157">
+        <v>3</v>
+      </c>
+      <c r="P157">
+        <v>2.75</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>1.8</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.8</v>
+      </c>
+      <c r="V157">
+        <v>2</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>1.75</v>
+      </c>
+      <c r="Z157">
+        <v>-1</v>
+      </c>
+      <c r="AA157">
         <v>1</v>
       </c>
-      <c r="J157" t="s">
-        <v>44</v>
-      </c>
-      <c r="K157">
-        <v>2.625</v>
-      </c>
-      <c r="L157">
-        <v>3.2</v>
-      </c>
-      <c r="M157">
-        <v>2.55</v>
-      </c>
-      <c r="N157">
-        <v>2.625</v>
-      </c>
-      <c r="O157">
-        <v>3.2</v>
-      </c>
-      <c r="P157">
-        <v>2.55</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
-      </c>
-      <c r="R157">
-        <v>1.95</v>
-      </c>
-      <c r="S157">
-        <v>1.85</v>
-      </c>
-      <c r="T157">
-        <v>2.25</v>
-      </c>
-      <c r="U157">
-        <v>1.825</v>
-      </c>
-      <c r="V157">
-        <v>1.975</v>
-      </c>
-      <c r="W157">
-        <v>1.625</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>0.95</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
       <c r="AB157">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14494,7 +14494,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7738656</v>
+        <v>7739342</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14506,73 +14506,73 @@
         <v>45361.08333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
         <v>1</v>
       </c>
-      <c r="I158">
-        <v>2</v>
-      </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K158">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14664,6 +14664,273 @@
         <v>0.8</v>
       </c>
       <c r="AC159">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>7737363</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45367.08333333334</v>
+      </c>
+      <c r="F160" t="s">
+        <v>29</v>
+      </c>
+      <c r="G160" t="s">
+        <v>40</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160" t="s">
+        <v>45</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>3.25</v>
+      </c>
+      <c r="M160">
+        <v>2.1</v>
+      </c>
+      <c r="N160">
+        <v>2.8</v>
+      </c>
+      <c r="O160">
+        <v>3.2</v>
+      </c>
+      <c r="P160">
+        <v>2.25</v>
+      </c>
+      <c r="Q160">
+        <v>0.25</v>
+      </c>
+      <c r="R160">
+        <v>1.775</v>
+      </c>
+      <c r="S160">
+        <v>2.025</v>
+      </c>
+      <c r="T160">
+        <v>2.25</v>
+      </c>
+      <c r="U160">
+        <v>1.85</v>
+      </c>
+      <c r="V160">
+        <v>1.95</v>
+      </c>
+      <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
+        <v>2.2</v>
+      </c>
+      <c r="Y160">
+        <v>-1</v>
+      </c>
+      <c r="Z160">
+        <v>0.3875</v>
+      </c>
+      <c r="AA160">
+        <v>-0.5</v>
+      </c>
+      <c r="AB160">
+        <v>-1</v>
+      </c>
+      <c r="AC160">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>7738657</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45367.1875</v>
+      </c>
+      <c r="F161" t="s">
+        <v>39</v>
+      </c>
+      <c r="G161" t="s">
+        <v>33</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161" t="s">
+        <v>44</v>
+      </c>
+      <c r="K161">
+        <v>2.5</v>
+      </c>
+      <c r="L161">
+        <v>3.2</v>
+      </c>
+      <c r="M161">
+        <v>2.5</v>
+      </c>
+      <c r="N161">
+        <v>2.45</v>
+      </c>
+      <c r="O161">
+        <v>3.2</v>
+      </c>
+      <c r="P161">
+        <v>2.55</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>1.875</v>
+      </c>
+      <c r="S161">
+        <v>1.925</v>
+      </c>
+      <c r="T161">
+        <v>2.25</v>
+      </c>
+      <c r="U161">
+        <v>1.825</v>
+      </c>
+      <c r="V161">
+        <v>1.975</v>
+      </c>
+      <c r="W161">
+        <v>1.45</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
+        <v>-1</v>
+      </c>
+      <c r="Z161">
+        <v>0.875</v>
+      </c>
+      <c r="AA161">
+        <v>-1</v>
+      </c>
+      <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>7738682</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45367.1875</v>
+      </c>
+      <c r="F162" t="s">
+        <v>36</v>
+      </c>
+      <c r="G162" t="s">
+        <v>30</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162" t="s">
+        <v>43</v>
+      </c>
+      <c r="K162">
+        <v>2.25</v>
+      </c>
+      <c r="L162">
+        <v>3.25</v>
+      </c>
+      <c r="M162">
+        <v>2.75</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162">
+        <v>3.3</v>
+      </c>
+      <c r="P162">
+        <v>3.2</v>
+      </c>
+      <c r="Q162">
+        <v>-0.25</v>
+      </c>
+      <c r="R162">
+        <v>1.8</v>
+      </c>
+      <c r="S162">
+        <v>2</v>
+      </c>
+      <c r="T162">
+        <v>2.25</v>
+      </c>
+      <c r="U162">
+        <v>1.875</v>
+      </c>
+      <c r="V162">
+        <v>1.925</v>
+      </c>
+      <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
+        <v>2.2</v>
+      </c>
+      <c r="Z162">
+        <v>-1</v>
+      </c>
+      <c r="AA162">
+        <v>1</v>
+      </c>
+      <c r="AB162">
+        <v>0.875</v>
+      </c>
+      <c r="AC162">
         <v>-1</v>
       </c>
     </row>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Busan I Park</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Bucheon</t>
   </si>
   <si>
-    <t>Bucheon</t>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
     <t>Seongnam FC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC162"/>
+  <dimension ref="A1:AC165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,7 +803,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6204719</v>
+        <v>6206186</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N11">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6206186</v>
+        <v>6204719</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6204316</v>
+        <v>6206192</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,10 +2046,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2061,25 +2061,25 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>3.25</v>
       </c>
       <c r="M18">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N18">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O18">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2091,10 +2091,10 @@
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2103,7 +2103,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>2.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2112,7 +2112,7 @@
         <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6206192</v>
+        <v>6204316</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,10 +2135,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2150,25 +2150,25 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N19">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
         <v>1.925</v>
@@ -2180,10 +2180,10 @@
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2192,7 +2192,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2201,7 +2201,7 @@
         <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2313,7 +2313,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2669,7 +2669,7 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
         <v>40</v>
@@ -2758,7 +2758,7 @@
         <v>45115.25</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -3295,7 +3295,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3384,7 +3384,7 @@
         <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3826,10 +3826,10 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
         <v>39</v>
-      </c>
-      <c r="G38" t="s">
-        <v>38</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4360,7 +4360,7 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4541,7 +4541,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5431,7 +5431,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6496,7 +6496,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6766,7 +6766,7 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6206241</v>
+        <v>6206240</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,56 +7030,56 @@
         <v>45164.3125</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
+        <v>1.875</v>
+      </c>
+      <c r="S74">
+        <v>1.925</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
+        <v>1.95</v>
+      </c>
+      <c r="V74">
         <v>1.85</v>
       </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7087,19 +7087,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.925</v>
+      </c>
+      <c r="AB74">
         <v>0.95</v>
       </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6206240</v>
+        <v>6206241</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,55 +7119,55 @@
         <v>45164.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N75">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O75">
+        <v>3.4</v>
+      </c>
+      <c r="P75">
         <v>3</v>
       </c>
-      <c r="P75">
-        <v>2.2</v>
-      </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -7389,7 +7389,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7656,7 +7656,7 @@
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7831,7 +7831,7 @@
         <v>45168.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -8009,7 +8009,7 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8101,7 +8101,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6206255</v>
+        <v>6206254</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,55 +8543,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>43</v>
       </c>
       <c r="K91">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N91">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P91">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8600,19 +8600,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6206254</v>
+        <v>6206255</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,55 +8632,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
         <v>43</v>
       </c>
       <c r="K92">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M92">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O92">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8689,19 +8689,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6206261</v>
+        <v>6206260</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,40 +9166,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L98">
+        <v>3.2</v>
+      </c>
+      <c r="M98">
+        <v>2.75</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98">
+        <v>3.3</v>
+      </c>
+      <c r="P98">
         <v>3.4</v>
       </c>
-      <c r="M98">
-        <v>1.909</v>
-      </c>
-      <c r="N98">
-        <v>4</v>
-      </c>
-      <c r="O98">
-        <v>3.5</v>
-      </c>
-      <c r="P98">
-        <v>1.8</v>
-      </c>
       <c r="Q98">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
         <v>2</v>
@@ -9208,34 +9208,34 @@
         <v>1.8</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W98">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,7 +9243,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6206260</v>
+        <v>6206261</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9255,40 +9255,40 @@
         <v>45188.3125</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R99">
         <v>2</v>
@@ -9297,34 +9297,34 @@
         <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9421,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6204329</v>
+        <v>6206263</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,76 +9433,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>44</v>
+      </c>
+      <c r="K101">
+        <v>3.75</v>
+      </c>
+      <c r="L101">
+        <v>3.25</v>
+      </c>
+      <c r="M101">
+        <v>2.05</v>
+      </c>
+      <c r="N101">
+        <v>3.6</v>
+      </c>
+      <c r="O101">
+        <v>3.25</v>
+      </c>
+      <c r="P101">
+        <v>2.1</v>
+      </c>
+      <c r="Q101">
+        <v>0.25</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>1.8</v>
+      </c>
+      <c r="T101">
+        <v>2</v>
+      </c>
+      <c r="U101">
+        <v>1.775</v>
+      </c>
+      <c r="V101">
+        <v>2.025</v>
+      </c>
+      <c r="W101">
+        <v>2.6</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
+        <v>-1</v>
+      </c>
+      <c r="Z101">
         <v>1</v>
       </c>
-      <c r="J101" t="s">
-        <v>43</v>
-      </c>
-      <c r="K101">
-        <v>2.375</v>
-      </c>
-      <c r="L101">
-        <v>3.4</v>
-      </c>
-      <c r="M101">
-        <v>2.9</v>
-      </c>
-      <c r="N101">
-        <v>2.6</v>
-      </c>
-      <c r="O101">
-        <v>3.4</v>
-      </c>
-      <c r="P101">
-        <v>2.625</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
-      <c r="S101">
-        <v>1.925</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>1.825</v>
-      </c>
-      <c r="V101">
-        <v>1.975</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
-      <c r="Y101">
-        <v>1.625</v>
-      </c>
-      <c r="Z101">
-        <v>-1</v>
-      </c>
       <c r="AA101">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9510,7 +9510,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6206263</v>
+        <v>6204329</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9522,76 +9522,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>1</v>
       </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K102">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L102">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O102">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P102">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9614,7 +9614,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
         <v>36</v>
@@ -10412,10 +10412,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F112" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" t="s">
         <v>38</v>
-      </c>
-      <c r="G112" t="s">
-        <v>39</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10771,7 +10771,7 @@
         <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6414604</v>
+        <v>6352816</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,58 +10857,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
       </c>
       <c r="K117">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N117">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O117">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P117">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10917,16 +10917,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6352816</v>
+        <v>6414604</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,58 +10946,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N118">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>0.7270000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11006,16 +11006,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6388120</v>
+        <v>6357145</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,73 +11035,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O119">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z119">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB119">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11112,7 +11112,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6357145</v>
+        <v>6388120</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11124,73 +11124,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>44</v>
+      </c>
+      <c r="K120">
+        <v>2.8</v>
+      </c>
+      <c r="L120">
+        <v>3.2</v>
+      </c>
+      <c r="M120">
+        <v>2.5</v>
+      </c>
+      <c r="N120">
         <v>3</v>
       </c>
-      <c r="J120" t="s">
-        <v>43</v>
-      </c>
-      <c r="K120">
-        <v>3</v>
-      </c>
-      <c r="L120">
-        <v>3.25</v>
-      </c>
-      <c r="M120">
-        <v>2.375</v>
-      </c>
-      <c r="N120">
+      <c r="O120">
         <v>3.1</v>
       </c>
-      <c r="O120">
-        <v>3.25</v>
-      </c>
       <c r="P120">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11391,7 +11391,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
         <v>31</v>
@@ -11658,7 +11658,7 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -12106,7 +12106,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12195,7 +12195,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6531882</v>
+        <v>6527572</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,13 +12904,13 @@
         <v>45256.125</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -12919,34 +12919,34 @@
         <v>44</v>
       </c>
       <c r="K140">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O140">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
         <v>1.975</v>
@@ -12955,7 +12955,7 @@
         <v>1.825</v>
       </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12964,16 +12964,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6537915</v>
+        <v>6537916</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,61 +13082,61 @@
         <v>45256.125</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K142">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M142">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="N142">
-        <v>1.444</v>
+        <v>1.222</v>
       </c>
       <c r="O142">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P142">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X142">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
@@ -13145,13 +13145,13 @@
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6537916</v>
+        <v>6531882</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,58 +13171,58 @@
         <v>45256.125</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
         <v>1</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
       </c>
       <c r="J143" t="s">
         <v>44</v>
       </c>
       <c r="K143">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N143">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="O143">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P143">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q143">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R143">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>0.222</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13231,16 +13231,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC143">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6540655</v>
+        <v>6537915</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,49 +13260,49 @@
         <v>45256.125</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K144">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N144">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P144">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R144">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
         <v>1.825</v>
@@ -13314,16 +13314,16 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y144">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB144">
         <v>-1</v>
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6527572</v>
+        <v>6540655</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45256.125</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K145">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L145">
         <v>3.3</v>
       </c>
       <c r="M145">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N145">
+        <v>2.75</v>
+      </c>
+      <c r="O145">
+        <v>3.25</v>
+      </c>
+      <c r="P145">
+        <v>2.3</v>
+      </c>
+      <c r="Q145">
+        <v>0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.75</v>
+      </c>
+      <c r="S145">
+        <v>2.05</v>
+      </c>
+      <c r="T145">
         <v>2.25</v>
       </c>
-      <c r="O145">
-        <v>3.3</v>
-      </c>
-      <c r="P145">
-        <v>2.9</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
-      <c r="R145">
+      <c r="U145">
+        <v>1.825</v>
+      </c>
+      <c r="V145">
         <v>1.975</v>
       </c>
-      <c r="S145">
-        <v>1.825</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
-      <c r="U145">
-        <v>1.975</v>
-      </c>
-      <c r="V145">
-        <v>1.825</v>
-      </c>
       <c r="W145">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
+        <v>1.05</v>
+      </c>
+      <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
-      <c r="AB145">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7738678</v>
+        <v>7737361</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,76 +13616,76 @@
         <v>45352.08333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K148">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
+        <v>4.333</v>
+      </c>
+      <c r="N148">
+        <v>2.15</v>
+      </c>
+      <c r="O148">
+        <v>3.4</v>
+      </c>
+      <c r="P148">
+        <v>3.3</v>
+      </c>
+      <c r="Q148">
+        <v>-0.25</v>
+      </c>
+      <c r="R148">
         <v>1.85</v>
       </c>
-      <c r="N148">
-        <v>4.333</v>
-      </c>
-      <c r="O148">
-        <v>3.5</v>
-      </c>
-      <c r="P148">
-        <v>1.833</v>
-      </c>
-      <c r="Q148">
-        <v>0.5</v>
-      </c>
-      <c r="R148">
+      <c r="S148">
         <v>1.95</v>
-      </c>
-      <c r="S148">
-        <v>1.85</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7737361</v>
+        <v>7738678</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,76 +13705,76 @@
         <v>45352.08333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K149">
+        <v>4</v>
+      </c>
+      <c r="L149">
+        <v>3.6</v>
+      </c>
+      <c r="M149">
+        <v>1.85</v>
+      </c>
+      <c r="N149">
+        <v>4.333</v>
+      </c>
+      <c r="O149">
+        <v>3.5</v>
+      </c>
+      <c r="P149">
         <v>1.833</v>
       </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>4.333</v>
-      </c>
-      <c r="N149">
-        <v>2.15</v>
-      </c>
-      <c r="O149">
-        <v>3.4</v>
-      </c>
-      <c r="P149">
-        <v>3.3</v>
-      </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
         <v>1.85</v>
-      </c>
-      <c r="S149">
-        <v>1.95</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -13883,7 +13883,7 @@
         <v>45353.1875</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
         <v>34</v>
@@ -14242,7 +14242,7 @@
         <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14405,7 +14405,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7738656</v>
+        <v>7739342</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14417,73 +14417,73 @@
         <v>45361.08333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
         <v>1</v>
       </c>
-      <c r="I157">
-        <v>2</v>
-      </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K157">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M157">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N157">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O157">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P157">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q157">
         <v>0</v>
       </c>
       <c r="R157">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA157">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14494,7 +14494,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7739342</v>
+        <v>7738656</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14506,73 +14506,73 @@
         <v>45361.08333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158" t="s">
+        <v>43</v>
+      </c>
+      <c r="K158">
+        <v>2.5</v>
+      </c>
+      <c r="L158">
+        <v>3.1</v>
+      </c>
+      <c r="M158">
+        <v>2.7</v>
+      </c>
+      <c r="N158">
+        <v>2.5</v>
+      </c>
+      <c r="O158">
+        <v>3</v>
+      </c>
+      <c r="P158">
+        <v>2.75</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>1.8</v>
+      </c>
+      <c r="S158">
+        <v>2</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>1.8</v>
+      </c>
+      <c r="V158">
+        <v>2</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>1.75</v>
+      </c>
+      <c r="Z158">
+        <v>-1</v>
+      </c>
+      <c r="AA158">
         <v>1</v>
       </c>
-      <c r="J158" t="s">
-        <v>44</v>
-      </c>
-      <c r="K158">
-        <v>2.625</v>
-      </c>
-      <c r="L158">
-        <v>3.2</v>
-      </c>
-      <c r="M158">
-        <v>2.55</v>
-      </c>
-      <c r="N158">
-        <v>2.625</v>
-      </c>
-      <c r="O158">
-        <v>3.2</v>
-      </c>
-      <c r="P158">
-        <v>2.55</v>
-      </c>
-      <c r="Q158">
-        <v>0</v>
-      </c>
-      <c r="R158">
-        <v>1.95</v>
-      </c>
-      <c r="S158">
-        <v>1.85</v>
-      </c>
-      <c r="T158">
-        <v>2.25</v>
-      </c>
-      <c r="U158">
-        <v>1.825</v>
-      </c>
-      <c r="V158">
-        <v>1.975</v>
-      </c>
-      <c r="W158">
-        <v>1.625</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>0.95</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14773,7 +14773,7 @@
         <v>45367.1875</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -14932,6 +14932,273 @@
       </c>
       <c r="AC162">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>7738683</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45368.08333333334</v>
+      </c>
+      <c r="F163" t="s">
+        <v>39</v>
+      </c>
+      <c r="G163" t="s">
+        <v>31</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>45</v>
+      </c>
+      <c r="K163">
+        <v>2.3</v>
+      </c>
+      <c r="L163">
+        <v>3.2</v>
+      </c>
+      <c r="M163">
+        <v>2.7</v>
+      </c>
+      <c r="N163">
+        <v>2.75</v>
+      </c>
+      <c r="O163">
+        <v>3.2</v>
+      </c>
+      <c r="P163">
+        <v>2.3</v>
+      </c>
+      <c r="Q163">
+        <v>0.25</v>
+      </c>
+      <c r="R163">
+        <v>1.75</v>
+      </c>
+      <c r="S163">
+        <v>2.05</v>
+      </c>
+      <c r="T163">
+        <v>2.25</v>
+      </c>
+      <c r="U163">
+        <v>1.925</v>
+      </c>
+      <c r="V163">
+        <v>1.875</v>
+      </c>
+      <c r="W163">
+        <v>-1</v>
+      </c>
+      <c r="X163">
+        <v>2.2</v>
+      </c>
+      <c r="Y163">
+        <v>-1</v>
+      </c>
+      <c r="Z163">
+        <v>0.375</v>
+      </c>
+      <c r="AA163">
+        <v>-0.5</v>
+      </c>
+      <c r="AB163">
+        <v>-0.5</v>
+      </c>
+      <c r="AC163">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>7737346</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45368.08333333334</v>
+      </c>
+      <c r="F164" t="s">
+        <v>37</v>
+      </c>
+      <c r="G164" t="s">
+        <v>32</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" t="s">
+        <v>43</v>
+      </c>
+      <c r="K164">
+        <v>1.8</v>
+      </c>
+      <c r="L164">
+        <v>3.25</v>
+      </c>
+      <c r="M164">
+        <v>4</v>
+      </c>
+      <c r="N164">
+        <v>1.7</v>
+      </c>
+      <c r="O164">
+        <v>3.3</v>
+      </c>
+      <c r="P164">
+        <v>4.5</v>
+      </c>
+      <c r="Q164">
+        <v>-0.75</v>
+      </c>
+      <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>1.8</v>
+      </c>
+      <c r="T164">
+        <v>2.25</v>
+      </c>
+      <c r="U164">
+        <v>1.9</v>
+      </c>
+      <c r="V164">
+        <v>1.9</v>
+      </c>
+      <c r="W164">
+        <v>-1</v>
+      </c>
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
+        <v>3.5</v>
+      </c>
+      <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.8</v>
+      </c>
+      <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>7739341</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45368.1875</v>
+      </c>
+      <c r="F165" t="s">
+        <v>41</v>
+      </c>
+      <c r="G165" t="s">
+        <v>42</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165" t="s">
+        <v>43</v>
+      </c>
+      <c r="K165">
+        <v>3.5</v>
+      </c>
+      <c r="L165">
+        <v>3.25</v>
+      </c>
+      <c r="M165">
+        <v>1.909</v>
+      </c>
+      <c r="N165">
+        <v>4.2</v>
+      </c>
+      <c r="O165">
+        <v>3.6</v>
+      </c>
+      <c r="P165">
+        <v>1.7</v>
+      </c>
+      <c r="Q165">
+        <v>0.75</v>
+      </c>
+      <c r="R165">
+        <v>1.85</v>
+      </c>
+      <c r="S165">
+        <v>1.95</v>
+      </c>
+      <c r="T165">
+        <v>2.75</v>
+      </c>
+      <c r="U165">
+        <v>1.95</v>
+      </c>
+      <c r="V165">
+        <v>1.85</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>-1</v>
+      </c>
+      <c r="Y165">
+        <v>0.7</v>
+      </c>
+      <c r="Z165">
+        <v>-0.5</v>
+      </c>
+      <c r="AA165">
+        <v>0.475</v>
+      </c>
+      <c r="AB165">
+        <v>-1</v>
+      </c>
+      <c r="AC165">
+        <v>0.8500000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC165"/>
+  <dimension ref="A1:AC171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6204317</v>
+        <v>6206197</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,76 +2580,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>45</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6206197</v>
+        <v>6204317</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
+        <v>2.625</v>
+      </c>
+      <c r="N25">
+        <v>2.15</v>
+      </c>
+      <c r="O25">
+        <v>3.4</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>-0.25</v>
+      </c>
+      <c r="R25">
+        <v>1.9</v>
+      </c>
+      <c r="S25">
+        <v>1.9</v>
+      </c>
+      <c r="T25">
         <v>2.5</v>
       </c>
-      <c r="N25">
-        <v>2.7</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>2.55</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
-      </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6206198</v>
+        <v>6206199</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,40 +2758,40 @@
         <v>45115.25</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N26">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O26">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -2803,31 +2803,31 @@
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6206199</v>
+        <v>6206198</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,40 +2847,40 @@
         <v>45115.25</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N27">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -2892,31 +2892,31 @@
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X27">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC27">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6206200</v>
+        <v>6206201</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2936,76 +2936,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M28">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P28">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3013,7 +3013,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6206201</v>
+        <v>6206200</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3025,76 +3025,76 @@
         <v>45116.27083333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L29">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N29">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="O29">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P29">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X29">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6206204</v>
+        <v>6206205</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,37 +3381,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N33">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q33">
         <v>0.25</v>
@@ -3423,7 +3423,7 @@
         <v>2.05</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
         <v>1.925</v>
@@ -3432,25 +3432,25 @@
         <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA33">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6206205</v>
+        <v>6206204</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,37 +3470,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N34">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O34">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q34">
         <v>0.25</v>
@@ -3512,7 +3512,7 @@
         <v>2.05</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
         <v>1.925</v>
@@ -3521,25 +3521,25 @@
         <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6206240</v>
+        <v>6206241</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,55 +7030,55 @@
         <v>45164.3125</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N74">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O74">
+        <v>3.4</v>
+      </c>
+      <c r="P74">
         <v>3</v>
       </c>
-      <c r="P74">
-        <v>2.2</v>
-      </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -7087,19 +7087,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6206241</v>
+        <v>6206240</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,56 +7119,56 @@
         <v>45164.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
+        <v>1.875</v>
+      </c>
+      <c r="S75">
+        <v>1.925</v>
+      </c>
+      <c r="T75">
+        <v>2</v>
+      </c>
+      <c r="U75">
+        <v>1.95</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="S75">
-        <v>1.95</v>
-      </c>
-      <c r="T75">
-        <v>2.5</v>
-      </c>
-      <c r="U75">
-        <v>1.8</v>
-      </c>
-      <c r="V75">
-        <v>2</v>
-      </c>
       <c r="W75">
         <v>-1</v>
       </c>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
+        <v>0.925</v>
+      </c>
+      <c r="AB75">
         <v>0.95</v>
       </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
       <c r="AC75">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6206246</v>
+        <v>6206245</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,76 +7564,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
+        <v>2.15</v>
+      </c>
+      <c r="N80">
+        <v>3.2</v>
+      </c>
+      <c r="O80">
+        <v>3.1</v>
+      </c>
+      <c r="P80">
         <v>2.2</v>
-      </c>
-      <c r="N80">
-        <v>2.9</v>
-      </c>
-      <c r="O80">
-        <v>3.4</v>
-      </c>
-      <c r="P80">
-        <v>2.25</v>
       </c>
       <c r="Q80">
         <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6206245</v>
+        <v>6206246</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,76 +7653,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q81">
         <v>0.25</v>
       </c>
       <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
+        <v>1.95</v>
+      </c>
+      <c r="T81">
+        <v>2.5</v>
+      </c>
+      <c r="U81">
         <v>1.875</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.925</v>
       </c>
-      <c r="T81">
-        <v>2.25</v>
-      </c>
-      <c r="U81">
-        <v>1.975</v>
-      </c>
-      <c r="V81">
-        <v>1.825</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.925</v>
-      </c>
-      <c r="AB81">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -9421,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6206263</v>
+        <v>6204329</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,76 +9433,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
         <v>1</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L101">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="N101">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9510,7 +9510,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6204329</v>
+        <v>6206263</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9522,76 +9522,76 @@
         <v>45189.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>44</v>
+      </c>
+      <c r="K102">
+        <v>3.75</v>
+      </c>
+      <c r="L102">
+        <v>3.25</v>
+      </c>
+      <c r="M102">
+        <v>2.05</v>
+      </c>
+      <c r="N102">
+        <v>3.6</v>
+      </c>
+      <c r="O102">
+        <v>3.25</v>
+      </c>
+      <c r="P102">
+        <v>2.1</v>
+      </c>
+      <c r="Q102">
+        <v>0.25</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>1.8</v>
+      </c>
+      <c r="T102">
+        <v>2</v>
+      </c>
+      <c r="U102">
+        <v>1.775</v>
+      </c>
+      <c r="V102">
+        <v>2.025</v>
+      </c>
+      <c r="W102">
+        <v>2.6</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
         <v>1</v>
       </c>
-      <c r="J102" t="s">
-        <v>43</v>
-      </c>
-      <c r="K102">
-        <v>2.375</v>
-      </c>
-      <c r="L102">
-        <v>3.4</v>
-      </c>
-      <c r="M102">
-        <v>2.9</v>
-      </c>
-      <c r="N102">
-        <v>2.6</v>
-      </c>
-      <c r="O102">
-        <v>3.4</v>
-      </c>
-      <c r="P102">
-        <v>2.625</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.875</v>
-      </c>
-      <c r="S102">
-        <v>1.925</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>1.825</v>
-      </c>
-      <c r="V102">
-        <v>1.975</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102">
-        <v>1.625</v>
-      </c>
-      <c r="Z102">
-        <v>-1</v>
-      </c>
       <c r="AA102">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6352816</v>
+        <v>6414604</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,58 +10857,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
       </c>
       <c r="K117">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L117">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O117">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
-        <v>0.7270000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10917,16 +10917,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6414604</v>
+        <v>6352816</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,58 +10946,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N118">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11006,16 +11006,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6357145</v>
+        <v>6388120</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,73 +11035,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>44</v>
+      </c>
+      <c r="K119">
+        <v>2.8</v>
+      </c>
+      <c r="L119">
+        <v>3.2</v>
+      </c>
+      <c r="M119">
+        <v>2.5</v>
+      </c>
+      <c r="N119">
         <v>3</v>
       </c>
-      <c r="J119" t="s">
-        <v>43</v>
-      </c>
-      <c r="K119">
-        <v>3</v>
-      </c>
-      <c r="L119">
-        <v>3.25</v>
-      </c>
-      <c r="M119">
-        <v>2.375</v>
-      </c>
-      <c r="N119">
+      <c r="O119">
         <v>3.1</v>
       </c>
-      <c r="O119">
-        <v>3.25</v>
-      </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11112,7 +11112,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6388120</v>
+        <v>6357145</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11124,73 +11124,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O120">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6527572</v>
+        <v>6540655</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45256.125</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
         <v>3.3</v>
       </c>
       <c r="M140">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N140">
+        <v>2.75</v>
+      </c>
+      <c r="O140">
+        <v>3.25</v>
+      </c>
+      <c r="P140">
+        <v>2.3</v>
+      </c>
+      <c r="Q140">
+        <v>0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.75</v>
+      </c>
+      <c r="S140">
+        <v>2.05</v>
+      </c>
+      <c r="T140">
         <v>2.25</v>
       </c>
-      <c r="O140">
-        <v>3.3</v>
-      </c>
-      <c r="P140">
-        <v>2.9</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
+      <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
         <v>1.975</v>
       </c>
-      <c r="S140">
-        <v>1.825</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
-      <c r="U140">
-        <v>1.975</v>
-      </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
       <c r="W140">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>1.05</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
-      <c r="AB140">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6531883</v>
+        <v>6537915</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45256.125</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L141">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M141">
+        <v>5.25</v>
+      </c>
+      <c r="N141">
+        <v>1.444</v>
+      </c>
+      <c r="O141">
         <v>4.2</v>
       </c>
-      <c r="N141">
-        <v>1.75</v>
-      </c>
-      <c r="O141">
-        <v>4</v>
-      </c>
       <c r="P141">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V141">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y141">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6531882</v>
+        <v>6527572</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,13 +13171,13 @@
         <v>45256.125</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -13186,34 +13186,34 @@
         <v>44</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P143">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q143">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
         <v>1.975</v>
@@ -13222,7 +13222,7 @@
         <v>1.825</v>
       </c>
       <c r="W143">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13231,16 +13231,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA143">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6537915</v>
+        <v>6531882</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,34 +13260,34 @@
         <v>45256.125</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
         <v>4</v>
       </c>
       <c r="M144">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N144">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
         <v>6</v>
@@ -13296,40 +13296,40 @@
         <v>-1.25</v>
       </c>
       <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>1.8</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
         <v>1.975</v>
       </c>
-      <c r="S144">
+      <c r="V144">
         <v>1.825</v>
       </c>
-      <c r="T144">
-        <v>2.5</v>
-      </c>
-      <c r="U144">
-        <v>1.825</v>
-      </c>
-      <c r="V144">
-        <v>1.975</v>
-      </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X144">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC144">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6540655</v>
+        <v>6531883</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45256.125</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>43</v>
       </c>
       <c r="K145">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M145">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N145">
+        <v>1.75</v>
+      </c>
+      <c r="O145">
+        <v>4</v>
+      </c>
+      <c r="P145">
+        <v>3.75</v>
+      </c>
+      <c r="Q145">
+        <v>-0.75</v>
+      </c>
+      <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
+        <v>3.25</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>1.8</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
         <v>2.75</v>
       </c>
-      <c r="O145">
-        <v>3.25</v>
-      </c>
-      <c r="P145">
-        <v>2.3</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.75</v>
-      </c>
-      <c r="S145">
-        <v>2.05</v>
-      </c>
-      <c r="T145">
-        <v>2.25</v>
-      </c>
-      <c r="U145">
-        <v>1.825</v>
-      </c>
-      <c r="V145">
-        <v>1.975</v>
-      </c>
-      <c r="W145">
-        <v>-1</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>1.3</v>
-      </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7737361</v>
+        <v>7738678</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,76 +13616,76 @@
         <v>45352.08333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
+        <v>3.6</v>
+      </c>
+      <c r="M148">
+        <v>1.85</v>
+      </c>
+      <c r="N148">
+        <v>4.333</v>
+      </c>
+      <c r="O148">
+        <v>3.5</v>
+      </c>
+      <c r="P148">
         <v>1.833</v>
       </c>
-      <c r="L148">
-        <v>3.5</v>
-      </c>
-      <c r="M148">
-        <v>4.333</v>
-      </c>
-      <c r="N148">
-        <v>2.15</v>
-      </c>
-      <c r="O148">
-        <v>3.4</v>
-      </c>
-      <c r="P148">
-        <v>3.3</v>
-      </c>
       <c r="Q148">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R148">
+        <v>1.95</v>
+      </c>
+      <c r="S148">
         <v>1.85</v>
-      </c>
-      <c r="S148">
-        <v>1.95</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7738678</v>
+        <v>7737361</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,76 +13705,76 @@
         <v>45352.08333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K149">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L149">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
+        <v>4.333</v>
+      </c>
+      <c r="N149">
+        <v>2.15</v>
+      </c>
+      <c r="O149">
+        <v>3.4</v>
+      </c>
+      <c r="P149">
+        <v>3.3</v>
+      </c>
+      <c r="Q149">
+        <v>-0.25</v>
+      </c>
+      <c r="R149">
         <v>1.85</v>
       </c>
-      <c r="N149">
-        <v>4.333</v>
-      </c>
-      <c r="O149">
-        <v>3.5</v>
-      </c>
-      <c r="P149">
-        <v>1.833</v>
-      </c>
-      <c r="Q149">
-        <v>0.5</v>
-      </c>
-      <c r="R149">
+      <c r="S149">
         <v>1.95</v>
-      </c>
-      <c r="S149">
-        <v>1.85</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14227,7 +14227,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7738681</v>
+        <v>7738680</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14239,76 +14239,76 @@
         <v>45360.1875</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H155">
+        <v>4</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155" t="s">
+        <v>44</v>
+      </c>
+      <c r="K155">
+        <v>2.2</v>
+      </c>
+      <c r="L155">
+        <v>3.2</v>
+      </c>
+      <c r="M155">
+        <v>3.1</v>
+      </c>
+      <c r="N155">
+        <v>2.5</v>
+      </c>
+      <c r="O155">
+        <v>3.1</v>
+      </c>
+      <c r="P155">
+        <v>2.7</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>1.85</v>
+      </c>
+      <c r="S155">
+        <v>1.95</v>
+      </c>
+      <c r="T155">
+        <v>2.25</v>
+      </c>
+      <c r="U155">
+        <v>2</v>
+      </c>
+      <c r="V155">
+        <v>1.8</v>
+      </c>
+      <c r="W155">
+        <v>1.5</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA155">
+        <v>-1</v>
+      </c>
+      <c r="AB155">
         <v>1</v>
       </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-      <c r="J155" t="s">
-        <v>45</v>
-      </c>
-      <c r="K155">
-        <v>2.4</v>
-      </c>
-      <c r="L155">
-        <v>3</v>
-      </c>
-      <c r="M155">
-        <v>2.9</v>
-      </c>
-      <c r="N155">
-        <v>2.55</v>
-      </c>
-      <c r="O155">
-        <v>3</v>
-      </c>
-      <c r="P155">
-        <v>2.75</v>
-      </c>
-      <c r="Q155">
-        <v>0</v>
-      </c>
-      <c r="R155">
-        <v>1.825</v>
-      </c>
-      <c r="S155">
-        <v>1.975</v>
-      </c>
-      <c r="T155">
-        <v>2</v>
-      </c>
-      <c r="U155">
-        <v>1.8</v>
-      </c>
-      <c r="V155">
-        <v>2</v>
-      </c>
-      <c r="W155">
-        <v>-1</v>
-      </c>
-      <c r="X155">
-        <v>2</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
-      <c r="Z155">
-        <v>0</v>
-      </c>
-      <c r="AA155">
-        <v>-0</v>
-      </c>
-      <c r="AB155">
-        <v>0</v>
-      </c>
       <c r="AC155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14316,7 +14316,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7738680</v>
+        <v>7738681</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14328,76 +14328,76 @@
         <v>45360.1875</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K156">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L156">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M156">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N156">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O156">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P156">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q156">
         <v>0</v>
       </c>
       <c r="R156">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V156">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14405,7 +14405,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7739342</v>
+        <v>7738656</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14417,73 +14417,73 @@
         <v>45361.08333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157" t="s">
+        <v>43</v>
+      </c>
+      <c r="K157">
+        <v>2.5</v>
+      </c>
+      <c r="L157">
+        <v>3.1</v>
+      </c>
+      <c r="M157">
+        <v>2.7</v>
+      </c>
+      <c r="N157">
+        <v>2.5</v>
+      </c>
+      <c r="O157">
+        <v>3</v>
+      </c>
+      <c r="P157">
+        <v>2.75</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>1.8</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.8</v>
+      </c>
+      <c r="V157">
+        <v>2</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>-1</v>
+      </c>
+      <c r="Y157">
+        <v>1.75</v>
+      </c>
+      <c r="Z157">
+        <v>-1</v>
+      </c>
+      <c r="AA157">
         <v>1</v>
       </c>
-      <c r="J157" t="s">
-        <v>44</v>
-      </c>
-      <c r="K157">
-        <v>2.625</v>
-      </c>
-      <c r="L157">
-        <v>3.2</v>
-      </c>
-      <c r="M157">
-        <v>2.55</v>
-      </c>
-      <c r="N157">
-        <v>2.625</v>
-      </c>
-      <c r="O157">
-        <v>3.2</v>
-      </c>
-      <c r="P157">
-        <v>2.55</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
-      </c>
-      <c r="R157">
-        <v>1.95</v>
-      </c>
-      <c r="S157">
-        <v>1.85</v>
-      </c>
-      <c r="T157">
-        <v>2.25</v>
-      </c>
-      <c r="U157">
-        <v>1.825</v>
-      </c>
-      <c r="V157">
-        <v>1.975</v>
-      </c>
-      <c r="W157">
-        <v>1.625</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>0.95</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
       <c r="AB157">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14494,7 +14494,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7738656</v>
+        <v>7739342</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14506,73 +14506,73 @@
         <v>45361.08333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
         <v>1</v>
       </c>
-      <c r="I158">
-        <v>2</v>
-      </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K158">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14761,7 +14761,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7738657</v>
+        <v>7738682</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14773,76 +14773,76 @@
         <v>45367.1875</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K161">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L161">
+        <v>3.25</v>
+      </c>
+      <c r="M161">
+        <v>2.75</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161">
+        <v>3.3</v>
+      </c>
+      <c r="P161">
         <v>3.2</v>
       </c>
-      <c r="M161">
-        <v>2.5</v>
-      </c>
-      <c r="N161">
-        <v>2.45</v>
-      </c>
-      <c r="O161">
-        <v>3.2</v>
-      </c>
-      <c r="P161">
-        <v>2.55</v>
-      </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S161">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T161">
         <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V161">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W161">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z161">
+        <v>-1</v>
+      </c>
+      <c r="AA161">
+        <v>1</v>
+      </c>
+      <c r="AB161">
         <v>0.875</v>
       </c>
-      <c r="AA161">
-        <v>-1</v>
-      </c>
-      <c r="AB161">
-        <v>-1</v>
-      </c>
       <c r="AC161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14850,7 +14850,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7738682</v>
+        <v>7738657</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14862,76 +14862,76 @@
         <v>45367.1875</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H162">
         <v>1</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L162">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M162">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N162">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O162">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P162">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R162">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S162">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T162">
         <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15199,6 +15199,450 @@
       </c>
       <c r="AC165">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>7738684</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45381.08333333334</v>
+      </c>
+      <c r="F166" t="s">
+        <v>30</v>
+      </c>
+      <c r="G166" t="s">
+        <v>39</v>
+      </c>
+      <c r="K166">
+        <v>2.375</v>
+      </c>
+      <c r="L166">
+        <v>3.2</v>
+      </c>
+      <c r="M166">
+        <v>2.625</v>
+      </c>
+      <c r="N166">
+        <v>2.2</v>
+      </c>
+      <c r="O166">
+        <v>3.4</v>
+      </c>
+      <c r="P166">
+        <v>2.9</v>
+      </c>
+      <c r="Q166">
+        <v>-0.25</v>
+      </c>
+      <c r="R166">
+        <v>1.925</v>
+      </c>
+      <c r="S166">
+        <v>1.875</v>
+      </c>
+      <c r="T166">
+        <v>2.25</v>
+      </c>
+      <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
+        <v>1.825</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>7738658</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45381.1875</v>
+      </c>
+      <c r="F167" t="s">
+        <v>33</v>
+      </c>
+      <c r="G167" t="s">
+        <v>31</v>
+      </c>
+      <c r="K167">
+        <v>2.55</v>
+      </c>
+      <c r="L167">
+        <v>3.1</v>
+      </c>
+      <c r="M167">
+        <v>2.5</v>
+      </c>
+      <c r="N167">
+        <v>2.55</v>
+      </c>
+      <c r="O167">
+        <v>3.1</v>
+      </c>
+      <c r="P167">
+        <v>2.625</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>1.8</v>
+      </c>
+      <c r="S167">
+        <v>2</v>
+      </c>
+      <c r="T167">
+        <v>2.25</v>
+      </c>
+      <c r="U167">
+        <v>1.8</v>
+      </c>
+      <c r="V167">
+        <v>2</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>7737364</v>
+      </c>
+      <c r="C168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45381.1875</v>
+      </c>
+      <c r="F168" t="s">
+        <v>40</v>
+      </c>
+      <c r="G168" t="s">
+        <v>32</v>
+      </c>
+      <c r="K168">
+        <v>2.3</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="M168">
+        <v>2.9</v>
+      </c>
+      <c r="N168">
+        <v>2.3</v>
+      </c>
+      <c r="O168">
+        <v>3</v>
+      </c>
+      <c r="P168">
+        <v>3.1</v>
+      </c>
+      <c r="Q168">
+        <v>-0.25</v>
+      </c>
+      <c r="R168">
+        <v>2.025</v>
+      </c>
+      <c r="S168">
+        <v>1.775</v>
+      </c>
+      <c r="T168">
+        <v>2</v>
+      </c>
+      <c r="U168">
+        <v>1.8</v>
+      </c>
+      <c r="V168">
+        <v>2</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AA168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>7738685</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45382.08333333334</v>
+      </c>
+      <c r="F169" t="s">
+        <v>38</v>
+      </c>
+      <c r="G169" t="s">
+        <v>36</v>
+      </c>
+      <c r="K169">
+        <v>2.5</v>
+      </c>
+      <c r="L169">
+        <v>3.1</v>
+      </c>
+      <c r="M169">
+        <v>2.55</v>
+      </c>
+      <c r="N169">
+        <v>2.55</v>
+      </c>
+      <c r="O169">
+        <v>3.2</v>
+      </c>
+      <c r="P169">
+        <v>2.6</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>1.875</v>
+      </c>
+      <c r="S169">
+        <v>1.925</v>
+      </c>
+      <c r="T169">
+        <v>2.25</v>
+      </c>
+      <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
+        <v>1.9</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>7738659</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45382.08333333334</v>
+      </c>
+      <c r="F170" t="s">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
+        <v>29</v>
+      </c>
+      <c r="K170">
+        <v>1.85</v>
+      </c>
+      <c r="L170">
+        <v>3.5</v>
+      </c>
+      <c r="M170">
+        <v>3.5</v>
+      </c>
+      <c r="N170">
+        <v>1.8</v>
+      </c>
+      <c r="O170">
+        <v>3.6</v>
+      </c>
+      <c r="P170">
+        <v>3.5</v>
+      </c>
+      <c r="Q170">
+        <v>-0.5</v>
+      </c>
+      <c r="R170">
+        <v>1.825</v>
+      </c>
+      <c r="S170">
+        <v>1.975</v>
+      </c>
+      <c r="T170">
+        <v>2.5</v>
+      </c>
+      <c r="U170">
+        <v>1.9</v>
+      </c>
+      <c r="V170">
+        <v>1.9</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>7739340</v>
+      </c>
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45382.1875</v>
+      </c>
+      <c r="F171" t="s">
+        <v>42</v>
+      </c>
+      <c r="G171" t="s">
+        <v>37</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>3.2</v>
+      </c>
+      <c r="M171">
+        <v>3.3</v>
+      </c>
+      <c r="N171">
+        <v>1.95</v>
+      </c>
+      <c r="O171">
+        <v>3.25</v>
+      </c>
+      <c r="P171">
+        <v>3.5</v>
+      </c>
+      <c r="Q171">
+        <v>-0.5</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
+        <v>1.8</v>
+      </c>
+      <c r="T171">
+        <v>2.5</v>
+      </c>
+      <c r="U171">
+        <v>1.95</v>
+      </c>
+      <c r="V171">
+        <v>1.85</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -130,10 +130,10 @@
     <t>Busan I Park</t>
   </si>
   <si>
-    <t>Bucheon</t>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Bucheon</t>
   </si>
   <si>
     <t>Seongnam FC</t>
@@ -803,7 +803,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6206186</v>
+        <v>6204719</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6204719</v>
+        <v>6206186</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N12">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2580,7 +2580,7 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -2847,7 +2847,7 @@
         <v>45115.25</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -3295,7 +3295,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3473,7 +3473,7 @@
         <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3826,10 +3826,10 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s">
         <v>38</v>
-      </c>
-      <c r="G38" t="s">
-        <v>39</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6204320</v>
+        <v>6206211</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,76 +4093,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L41">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M41">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N41">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O41">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P41">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T41">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6206211</v>
+        <v>6204320</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,76 +4182,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L42">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M42">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N42">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O42">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X42">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4541,7 +4541,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5431,7 +5431,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6496,7 +6496,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6766,7 +6766,7 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7208,7 +7208,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -7389,7 +7389,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7567,7 +7567,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7831,7 +7831,7 @@
         <v>45168.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -8009,7 +8009,7 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8101,7 +8101,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9166,7 +9166,7 @@
         <v>45188.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
         <v>33</v>
@@ -9525,7 +9525,7 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9614,7 +9614,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
         <v>36</v>
@@ -10412,10 +10412,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F112" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" t="s">
         <v>39</v>
-      </c>
-      <c r="G112" t="s">
-        <v>38</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10771,7 +10771,7 @@
         <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -11216,7 +11216,7 @@
         <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11391,7 +11391,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>31</v>
@@ -11658,7 +11658,7 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -12106,7 +12106,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12195,7 +12195,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6540655</v>
+        <v>6527572</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45256.125</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L140">
         <v>3.3</v>
       </c>
       <c r="M140">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N140">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O140">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.975</v>
+      </c>
+      <c r="V140">
         <v>1.825</v>
       </c>
-      <c r="V140">
-        <v>1.975</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6537915</v>
+        <v>6531882</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,34 +12993,34 @@
         <v>45256.125</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K141">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="L141">
         <v>4</v>
       </c>
       <c r="M141">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N141">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
         <v>6</v>
@@ -13029,40 +13029,40 @@
         <v>-1.25</v>
       </c>
       <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>1.8</v>
+      </c>
+      <c r="T141">
+        <v>2.75</v>
+      </c>
+      <c r="U141">
         <v>1.975</v>
       </c>
-      <c r="S141">
+      <c r="V141">
         <v>1.825</v>
       </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
-      <c r="U141">
-        <v>1.825</v>
-      </c>
-      <c r="V141">
-        <v>1.975</v>
-      </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X141">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC141">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6537916</v>
+        <v>6531883</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,76 +13082,76 @@
         <v>45256.125</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K142">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M142">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="N142">
-        <v>1.222</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="Q142">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
         <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6527572</v>
+        <v>6537915</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,40 +13171,40 @@
         <v>45256.125</v>
       </c>
       <c r="F143" t="s">
+        <v>37</v>
+      </c>
+      <c r="G143" t="s">
         <v>38</v>
       </c>
-      <c r="G143" t="s">
-        <v>34</v>
-      </c>
       <c r="H143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="N143">
-        <v>2.25</v>
+        <v>1.444</v>
       </c>
       <c r="O143">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P143">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R143">
         <v>1.975</v>
@@ -13216,31 +13216,31 @@
         <v>2.5</v>
       </c>
       <c r="U143">
+        <v>1.825</v>
+      </c>
+      <c r="V143">
         <v>1.975</v>
       </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.825</v>
+      </c>
+      <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
-      <c r="AB143">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC143">
-        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6531882</v>
+        <v>6537916</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,58 +13260,58 @@
         <v>45256.125</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>44</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M144">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N144">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P144">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>0.3999999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13320,16 +13320,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB144">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6531883</v>
+        <v>6540655</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,55 +13349,55 @@
         <v>45256.125</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>43</v>
       </c>
       <c r="K145">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="L145">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N145">
+        <v>2.75</v>
+      </c>
+      <c r="O145">
+        <v>3.25</v>
+      </c>
+      <c r="P145">
+        <v>2.3</v>
+      </c>
+      <c r="Q145">
+        <v>0.25</v>
+      </c>
+      <c r="R145">
         <v>1.75</v>
       </c>
-      <c r="O145">
-        <v>4</v>
-      </c>
-      <c r="P145">
-        <v>3.75</v>
-      </c>
-      <c r="Q145">
-        <v>-0.75</v>
-      </c>
-      <c r="R145">
-        <v>2</v>
-      </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T145">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13406,19 +13406,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB145">
         <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13794,7 +13794,7 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -13883,7 +13883,7 @@
         <v>45353.1875</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
         <v>34</v>
@@ -14331,7 +14331,7 @@
         <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14420,7 +14420,7 @@
         <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14862,7 +14862,7 @@
         <v>45367.1875</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
         <v>33</v>
@@ -14939,7 +14939,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7738683</v>
+        <v>7737346</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14951,76 +14951,76 @@
         <v>45368.08333333334</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K163">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L163">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M163">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N163">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="O163">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P163">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q163">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R163">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S163">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T163">
         <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z163">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15028,7 +15028,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7737346</v>
+        <v>7738683</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15040,76 +15040,76 @@
         <v>45368.08333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164">
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K164">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="N164">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="O164">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P164">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S164">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T164">
         <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W164">
         <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y164">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA164">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15221,7 +15221,7 @@
         <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K166">
         <v>2.375</v>
@@ -15233,22 +15233,22 @@
         <v>2.625</v>
       </c>
       <c r="N166">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O166">
         <v>3.4</v>
       </c>
       <c r="P166">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q166">
         <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
         <v>2.25</v>
@@ -15319,10 +15319,10 @@
         <v>0</v>
       </c>
       <c r="R167">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S167">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
         <v>2.25</v>
@@ -15393,10 +15393,10 @@
         <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S168">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T168">
         <v>2</v>
@@ -15440,7 +15440,7 @@
         <v>45382.08333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G169" t="s">
         <v>36</v>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Busan I Park</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Bucheon</t>
   </si>
   <si>
-    <t>Bucheon</t>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
     <t>Seongnam FC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC171"/>
+  <dimension ref="A1:AC168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,7 +803,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6204719</v>
+        <v>6206186</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N11">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6206186</v>
+        <v>6204719</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2580,7 +2580,7 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6206199</v>
+        <v>6206198</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,40 +2758,40 @@
         <v>45115.25</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N26">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P26">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q26">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -2803,31 +2803,31 @@
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC26">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6206198</v>
+        <v>6206199</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,40 +2847,40 @@
         <v>45115.25</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M27">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N27">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -2892,31 +2892,31 @@
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3473,7 +3473,7 @@
         <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N38">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P38">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R38">
+        <v>1.825</v>
+      </c>
+      <c r="S38">
         <v>1.975</v>
       </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O39">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
+        <v>1.975</v>
+      </c>
+      <c r="S39">
         <v>1.825</v>
       </c>
-      <c r="S39">
-        <v>1.975</v>
-      </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
         <v>1.95</v>
       </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4541,7 +4541,7 @@
         <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5431,7 +5431,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6496,7 +6496,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6766,7 +6766,7 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7208,7 +7208,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -7389,7 +7389,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6206245</v>
+        <v>6206246</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,76 +7564,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K80">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L80">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N80">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q80">
         <v>0.25</v>
       </c>
       <c r="R80">
+        <v>1.85</v>
+      </c>
+      <c r="S80">
+        <v>1.95</v>
+      </c>
+      <c r="T80">
+        <v>2.5</v>
+      </c>
+      <c r="U80">
         <v>1.875</v>
       </c>
-      <c r="S80">
+      <c r="V80">
         <v>1.925</v>
       </c>
-      <c r="T80">
-        <v>2.25</v>
-      </c>
-      <c r="U80">
-        <v>1.975</v>
-      </c>
-      <c r="V80">
-        <v>1.825</v>
-      </c>
       <c r="W80">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.925</v>
-      </c>
-      <c r="AB80">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6206246</v>
+        <v>6206245</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,76 +7653,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
+        <v>2.15</v>
+      </c>
+      <c r="N81">
+        <v>3.2</v>
+      </c>
+      <c r="O81">
+        <v>3.1</v>
+      </c>
+      <c r="P81">
         <v>2.2</v>
-      </c>
-      <c r="N81">
-        <v>2.9</v>
-      </c>
-      <c r="O81">
-        <v>3.4</v>
-      </c>
-      <c r="P81">
-        <v>2.25</v>
       </c>
       <c r="Q81">
         <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,73 +7831,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L83">
+        <v>3.2</v>
+      </c>
+      <c r="M83">
+        <v>2.875</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
         <v>3.3</v>
       </c>
-      <c r="M83">
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>3.5</v>
-      </c>
-      <c r="O83">
-        <v>3.2</v>
-      </c>
       <c r="P83">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U83">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB83">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L84">
+        <v>3.3</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>3.5</v>
+      </c>
+      <c r="O84">
         <v>3.2</v>
       </c>
-      <c r="M84">
-        <v>2.875</v>
-      </c>
-      <c r="N84">
-        <v>2</v>
-      </c>
-      <c r="O84">
-        <v>3.3</v>
-      </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA84">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8009,7 +8009,7 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8101,7 +8101,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9166,7 +9166,7 @@
         <v>45188.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
         <v>33</v>
@@ -9525,7 +9525,7 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9614,7 +9614,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
         <v>36</v>
@@ -10412,10 +10412,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F112" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" t="s">
         <v>38</v>
-      </c>
-      <c r="G112" t="s">
-        <v>39</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10771,7 +10771,7 @@
         <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -11216,7 +11216,7 @@
         <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11391,7 +11391,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
         <v>31</v>
@@ -11658,7 +11658,7 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -12106,7 +12106,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12195,7 +12195,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6527572</v>
+        <v>6540655</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45256.125</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H140">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
         <v>3.3</v>
       </c>
       <c r="M140">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N140">
+        <v>2.75</v>
+      </c>
+      <c r="O140">
+        <v>3.25</v>
+      </c>
+      <c r="P140">
+        <v>2.3</v>
+      </c>
+      <c r="Q140">
+        <v>0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.75</v>
+      </c>
+      <c r="S140">
+        <v>2.05</v>
+      </c>
+      <c r="T140">
         <v>2.25</v>
       </c>
-      <c r="O140">
-        <v>3.3</v>
-      </c>
-      <c r="P140">
-        <v>2.9</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
+      <c r="U140">
+        <v>1.825</v>
+      </c>
+      <c r="V140">
         <v>1.975</v>
       </c>
-      <c r="S140">
-        <v>1.825</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
-      <c r="U140">
-        <v>1.975</v>
-      </c>
-      <c r="V140">
-        <v>1.825</v>
-      </c>
       <c r="W140">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>1.05</v>
+      </c>
+      <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
-      <c r="AB140">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6531882</v>
+        <v>6537916</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,58 +12993,58 @@
         <v>45256.125</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>44</v>
       </c>
       <c r="K141">
-        <v>1.571</v>
+        <v>1.3</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="N141">
-        <v>1.4</v>
+        <v>1.222</v>
       </c>
       <c r="O141">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="P141">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q141">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T141">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
-        <v>0.3999999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13053,16 +13053,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AB141">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6531883</v>
+        <v>6537915</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,76 +13082,76 @@
         <v>45256.125</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L142">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M142">
+        <v>5.25</v>
+      </c>
+      <c r="N142">
+        <v>1.444</v>
+      </c>
+      <c r="O142">
         <v>4.2</v>
       </c>
-      <c r="N142">
-        <v>1.75</v>
-      </c>
-      <c r="O142">
-        <v>4</v>
-      </c>
       <c r="P142">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q142">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T142">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y142">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6537915</v>
+        <v>6531883</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45256.125</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K143">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L143">
+        <v>3.8</v>
+      </c>
+      <c r="M143">
+        <v>4.2</v>
+      </c>
+      <c r="N143">
+        <v>1.75</v>
+      </c>
+      <c r="O143">
         <v>4</v>
       </c>
-      <c r="M143">
-        <v>5.25</v>
-      </c>
-      <c r="N143">
-        <v>1.444</v>
-      </c>
-      <c r="O143">
-        <v>4.2</v>
-      </c>
       <c r="P143">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q143">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6537916</v>
+        <v>6531882</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,58 +13260,58 @@
         <v>45256.125</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
         <v>1</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>44</v>
       </c>
       <c r="K144">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N144">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="O144">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q144">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T144">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>0.222</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13320,16 +13320,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6540655</v>
+        <v>6527572</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45256.125</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K145">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L145">
         <v>3.3</v>
       </c>
       <c r="M145">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N145">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O145">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P145">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="Q145">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
+        <v>1.975</v>
+      </c>
+      <c r="V145">
         <v>1.825</v>
       </c>
-      <c r="V145">
-        <v>1.975</v>
-      </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA145">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13794,7 +13794,7 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -13883,7 +13883,7 @@
         <v>45353.1875</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
         <v>34</v>
@@ -14227,7 +14227,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7738680</v>
+        <v>7738681</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14239,76 +14239,76 @@
         <v>45360.1875</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K155">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L155">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M155">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N155">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O155">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P155">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q155">
         <v>0</v>
       </c>
       <c r="R155">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V155">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W155">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14316,7 +14316,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7738681</v>
+        <v>7738680</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14328,76 +14328,76 @@
         <v>45360.1875</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H156">
+        <v>4</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>44</v>
+      </c>
+      <c r="K156">
+        <v>2.2</v>
+      </c>
+      <c r="L156">
+        <v>3.2</v>
+      </c>
+      <c r="M156">
+        <v>3.1</v>
+      </c>
+      <c r="N156">
+        <v>2.5</v>
+      </c>
+      <c r="O156">
+        <v>3.1</v>
+      </c>
+      <c r="P156">
+        <v>2.7</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>1.85</v>
+      </c>
+      <c r="S156">
+        <v>1.95</v>
+      </c>
+      <c r="T156">
+        <v>2.25</v>
+      </c>
+      <c r="U156">
+        <v>2</v>
+      </c>
+      <c r="V156">
+        <v>1.8</v>
+      </c>
+      <c r="W156">
+        <v>1.5</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>-1</v>
+      </c>
+      <c r="Z156">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA156">
+        <v>-1</v>
+      </c>
+      <c r="AB156">
         <v>1</v>
       </c>
-      <c r="I156">
-        <v>1</v>
-      </c>
-      <c r="J156" t="s">
-        <v>45</v>
-      </c>
-      <c r="K156">
-        <v>2.4</v>
-      </c>
-      <c r="L156">
-        <v>3</v>
-      </c>
-      <c r="M156">
-        <v>2.9</v>
-      </c>
-      <c r="N156">
-        <v>2.55</v>
-      </c>
-      <c r="O156">
-        <v>3</v>
-      </c>
-      <c r="P156">
-        <v>2.75</v>
-      </c>
-      <c r="Q156">
-        <v>0</v>
-      </c>
-      <c r="R156">
-        <v>1.825</v>
-      </c>
-      <c r="S156">
-        <v>1.975</v>
-      </c>
-      <c r="T156">
-        <v>2</v>
-      </c>
-      <c r="U156">
-        <v>1.8</v>
-      </c>
-      <c r="V156">
-        <v>2</v>
-      </c>
-      <c r="W156">
-        <v>-1</v>
-      </c>
-      <c r="X156">
-        <v>2</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>0</v>
-      </c>
-      <c r="AA156">
-        <v>-0</v>
-      </c>
-      <c r="AB156">
-        <v>0</v>
-      </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14420,7 +14420,7 @@
         <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14862,7 +14862,7 @@
         <v>45367.1875</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
         <v>33</v>
@@ -15040,7 +15040,7 @@
         <v>45368.08333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G164" t="s">
         <v>31</v>
@@ -15206,7 +15206,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7738684</v>
+        <v>7738685</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15215,34 +15215,34 @@
         <v>28</v>
       </c>
       <c r="E166" s="2">
-        <v>45381.08333333334</v>
+        <v>45382.08333333334</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K166">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L166">
+        <v>3.1</v>
+      </c>
+      <c r="M166">
+        <v>2.55</v>
+      </c>
+      <c r="N166">
+        <v>2.55</v>
+      </c>
+      <c r="O166">
         <v>3.2</v>
       </c>
-      <c r="M166">
-        <v>2.625</v>
-      </c>
-      <c r="N166">
-        <v>2.1</v>
-      </c>
-      <c r="O166">
-        <v>3.4</v>
-      </c>
       <c r="P166">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R166">
         <v>1.9</v>
@@ -15254,10 +15254,10 @@
         <v>2.25</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W166">
         <v>0</v>
@@ -15280,7 +15280,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7738658</v>
+        <v>7738659</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15289,49 +15289,49 @@
         <v>28</v>
       </c>
       <c r="E167" s="2">
-        <v>45381.1875</v>
+        <v>45382.08333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K167">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="L167">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M167">
+        <v>3.5</v>
+      </c>
+      <c r="N167">
+        <v>1.8</v>
+      </c>
+      <c r="O167">
+        <v>3.6</v>
+      </c>
+      <c r="P167">
+        <v>3.5</v>
+      </c>
+      <c r="Q167">
+        <v>-0.5</v>
+      </c>
+      <c r="R167">
+        <v>1.85</v>
+      </c>
+      <c r="S167">
+        <v>1.95</v>
+      </c>
+      <c r="T167">
         <v>2.5</v>
       </c>
-      <c r="N167">
-        <v>2.55</v>
-      </c>
-      <c r="O167">
-        <v>3.1</v>
-      </c>
-      <c r="P167">
-        <v>2.625</v>
-      </c>
-      <c r="Q167">
-        <v>0</v>
-      </c>
-      <c r="R167">
-        <v>1.825</v>
-      </c>
-      <c r="S167">
-        <v>1.975</v>
-      </c>
-      <c r="T167">
-        <v>2.25</v>
-      </c>
       <c r="U167">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
         <v>0</v>
@@ -15354,7 +15354,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7737364</v>
+        <v>7739340</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15363,49 +15363,49 @@
         <v>28</v>
       </c>
       <c r="E168" s="2">
-        <v>45381.1875</v>
+        <v>45382.1875</v>
       </c>
       <c r="F168" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K168">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M168">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N168">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O168">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P168">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q168">
         <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W168">
         <v>0</v>
@@ -15420,228 +15420,6 @@
         <v>0</v>
       </c>
       <c r="AA168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:29">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>7738685</v>
-      </c>
-      <c r="C169" t="s">
-        <v>28</v>
-      </c>
-      <c r="D169" t="s">
-        <v>28</v>
-      </c>
-      <c r="E169" s="2">
-        <v>45382.08333333334</v>
-      </c>
-      <c r="F169" t="s">
-        <v>39</v>
-      </c>
-      <c r="G169" t="s">
-        <v>36</v>
-      </c>
-      <c r="K169">
-        <v>2.5</v>
-      </c>
-      <c r="L169">
-        <v>3.1</v>
-      </c>
-      <c r="M169">
-        <v>2.55</v>
-      </c>
-      <c r="N169">
-        <v>2.55</v>
-      </c>
-      <c r="O169">
-        <v>3.2</v>
-      </c>
-      <c r="P169">
-        <v>2.6</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
-        <v>1.875</v>
-      </c>
-      <c r="S169">
-        <v>1.925</v>
-      </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
-      <c r="U169">
-        <v>1.9</v>
-      </c>
-      <c r="V169">
-        <v>1.9</v>
-      </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <v>0</v>
-      </c>
-      <c r="Y169">
-        <v>0</v>
-      </c>
-      <c r="Z169">
-        <v>0</v>
-      </c>
-      <c r="AA169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:29">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>7738659</v>
-      </c>
-      <c r="C170" t="s">
-        <v>28</v>
-      </c>
-      <c r="D170" t="s">
-        <v>28</v>
-      </c>
-      <c r="E170" s="2">
-        <v>45382.08333333334</v>
-      </c>
-      <c r="F170" t="s">
-        <v>34</v>
-      </c>
-      <c r="G170" t="s">
-        <v>29</v>
-      </c>
-      <c r="K170">
-        <v>1.85</v>
-      </c>
-      <c r="L170">
-        <v>3.5</v>
-      </c>
-      <c r="M170">
-        <v>3.5</v>
-      </c>
-      <c r="N170">
-        <v>1.8</v>
-      </c>
-      <c r="O170">
-        <v>3.6</v>
-      </c>
-      <c r="P170">
-        <v>3.5</v>
-      </c>
-      <c r="Q170">
-        <v>-0.5</v>
-      </c>
-      <c r="R170">
-        <v>1.825</v>
-      </c>
-      <c r="S170">
-        <v>1.975</v>
-      </c>
-      <c r="T170">
-        <v>2.5</v>
-      </c>
-      <c r="U170">
-        <v>1.9</v>
-      </c>
-      <c r="V170">
-        <v>1.9</v>
-      </c>
-      <c r="W170">
-        <v>0</v>
-      </c>
-      <c r="X170">
-        <v>0</v>
-      </c>
-      <c r="Y170">
-        <v>0</v>
-      </c>
-      <c r="Z170">
-        <v>0</v>
-      </c>
-      <c r="AA170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:29">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>7739340</v>
-      </c>
-      <c r="C171" t="s">
-        <v>28</v>
-      </c>
-      <c r="D171" t="s">
-        <v>28</v>
-      </c>
-      <c r="E171" s="2">
-        <v>45382.1875</v>
-      </c>
-      <c r="F171" t="s">
-        <v>42</v>
-      </c>
-      <c r="G171" t="s">
-        <v>37</v>
-      </c>
-      <c r="K171">
-        <v>2</v>
-      </c>
-      <c r="L171">
-        <v>3.2</v>
-      </c>
-      <c r="M171">
-        <v>3.3</v>
-      </c>
-      <c r="N171">
-        <v>1.95</v>
-      </c>
-      <c r="O171">
-        <v>3.25</v>
-      </c>
-      <c r="P171">
-        <v>3.5</v>
-      </c>
-      <c r="Q171">
-        <v>-0.5</v>
-      </c>
-      <c r="R171">
-        <v>2</v>
-      </c>
-      <c r="S171">
-        <v>1.8</v>
-      </c>
-      <c r="T171">
-        <v>2.5</v>
-      </c>
-      <c r="U171">
-        <v>1.95</v>
-      </c>
-      <c r="V171">
-        <v>1.85</v>
-      </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-      <c r="X171">
-        <v>0</v>
-      </c>
-      <c r="Y171">
-        <v>0</v>
-      </c>
-      <c r="Z171">
-        <v>0</v>
-      </c>
-      <c r="AA171">
         <v>0</v>
       </c>
     </row>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Busan I Park</t>
   </si>
   <si>
-    <t>Bucheon</t>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Bucheon</t>
   </si>
   <si>
     <t>Seongnam FC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC168"/>
+  <dimension ref="A1:AC169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,7 +803,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6206186</v>
+        <v>6204719</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N11">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6204719</v>
+        <v>6206186</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N12">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6206192</v>
+        <v>6204316</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,10 +2046,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2061,25 +2061,25 @@
         <v>43</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L18">
         <v>3.25</v>
       </c>
       <c r="M18">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="N18">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P18">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="Q18">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2091,10 +2091,10 @@
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2103,7 +2103,7 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>0.8500000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z18">
         <v>-1</v>
@@ -2112,7 +2112,7 @@
         <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6204316</v>
+        <v>6206192</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,10 +2135,10 @@
         <v>45102.27083333334</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2150,25 +2150,25 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>3.25</v>
       </c>
       <c r="M19">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N19">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O19">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
         <v>1.925</v>
@@ -2180,10 +2180,10 @@
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2192,7 +2192,7 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.25</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z19">
         <v>-1</v>
@@ -2201,7 +2201,7 @@
         <v>0.875</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2313,7 +2313,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6206197</v>
+        <v>6204317</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,76 +2580,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>45</v>
       </c>
       <c r="K24">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
+        <v>2.625</v>
+      </c>
+      <c r="N24">
+        <v>2.15</v>
+      </c>
+      <c r="O24">
+        <v>3.4</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
+        <v>1.9</v>
+      </c>
+      <c r="S24">
+        <v>1.9</v>
+      </c>
+      <c r="T24">
         <v>2.5</v>
       </c>
-      <c r="N24">
-        <v>2.7</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>2.55</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>1.925</v>
-      </c>
-      <c r="S24">
-        <v>1.875</v>
-      </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6204317</v>
+        <v>6206197</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L25">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N25">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>45115.25</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -3295,7 +3295,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6206205</v>
+        <v>6206204</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,37 +3381,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M33">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N33">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q33">
         <v>0.25</v>
@@ -3423,7 +3423,7 @@
         <v>2.05</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
         <v>1.925</v>
@@ -3432,25 +3432,25 @@
         <v>1.875</v>
       </c>
       <c r="W33">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z33">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6206204</v>
+        <v>6206205</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,37 +3470,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N34">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O34">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q34">
         <v>0.25</v>
@@ -3512,7 +3512,7 @@
         <v>2.05</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
         <v>1.925</v>
@@ -3521,25 +3521,25 @@
         <v>1.875</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA34">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M38">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O38">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>1.975</v>
+      </c>
+      <c r="S38">
         <v>1.825</v>
       </c>
-      <c r="S38">
-        <v>1.975</v>
-      </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
         <v>1.95</v>
       </c>
-      <c r="V38">
-        <v>1.85</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y38">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L39">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M39">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N39">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P39">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R39">
+        <v>1.825</v>
+      </c>
+      <c r="S39">
         <v>1.975</v>
       </c>
-      <c r="S39">
-        <v>1.825</v>
-      </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6206211</v>
+        <v>6204320</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4093,76 +4093,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L41">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M41">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N41">
-        <v>2.7</v>
+        <v>1.571</v>
       </c>
       <c r="O41">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P41">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R41">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S41">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X41">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4170,7 +4170,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6204320</v>
+        <v>6206211</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4182,76 +4182,76 @@
         <v>45126.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="L42">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M42">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="N42">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P42">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206215</v>
+        <v>6206214</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,49 +4449,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N45">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P45">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U45">
         <v>2</v>
@@ -4500,19 +4500,19 @@
         <v>1.8</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6206214</v>
+        <v>6206215</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,49 +4538,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O46">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U46">
         <v>2</v>
@@ -4589,19 +4589,19 @@
         <v>1.8</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -5072,7 +5072,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5431,7 +5431,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6496,7 +6496,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6766,7 +6766,7 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7208,7 +7208,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -7389,7 +7389,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6206246</v>
+        <v>6206245</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7564,76 +7564,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
+        <v>2.15</v>
+      </c>
+      <c r="N80">
+        <v>3.2</v>
+      </c>
+      <c r="O80">
+        <v>3.1</v>
+      </c>
+      <c r="P80">
         <v>2.2</v>
-      </c>
-      <c r="N80">
-        <v>2.9</v>
-      </c>
-      <c r="O80">
-        <v>3.4</v>
-      </c>
-      <c r="P80">
-        <v>2.25</v>
       </c>
       <c r="Q80">
         <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W80">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7641,7 +7641,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6206245</v>
+        <v>6206246</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7653,76 +7653,76 @@
         <v>45167.3125</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M81">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N81">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q81">
         <v>0.25</v>
       </c>
       <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
+        <v>1.95</v>
+      </c>
+      <c r="T81">
+        <v>2.5</v>
+      </c>
+      <c r="U81">
         <v>1.875</v>
       </c>
-      <c r="S81">
+      <c r="V81">
         <v>1.925</v>
       </c>
-      <c r="T81">
-        <v>2.25</v>
-      </c>
-      <c r="U81">
-        <v>1.975</v>
-      </c>
-      <c r="V81">
-        <v>1.825</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>0.925</v>
-      </c>
-      <c r="AB81">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7819,7 +7819,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6206248</v>
+        <v>6206247</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,73 +7831,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K83">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="L83">
+        <v>3.3</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3.5</v>
+      </c>
+      <c r="O83">
         <v>3.2</v>
       </c>
-      <c r="M83">
-        <v>2.875</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>3.3</v>
-      </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA83">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7908,7 +7908,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6206247</v>
+        <v>6206248</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,73 +7920,73 @@
         <v>45168.3125</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L84">
+        <v>3.2</v>
+      </c>
+      <c r="M84">
+        <v>2.875</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
         <v>3.3</v>
       </c>
-      <c r="M84">
-        <v>2</v>
-      </c>
-      <c r="N84">
-        <v>3.5</v>
-      </c>
-      <c r="O84">
-        <v>3.2</v>
-      </c>
       <c r="P84">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U84">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z84">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB84">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC84">
         <v>-1</v>
@@ -8009,7 +8009,7 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8101,7 +8101,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6206254</v>
+        <v>6206255</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,55 +8543,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>43</v>
       </c>
       <c r="K91">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N91">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8600,19 +8600,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>1.15</v>
+        <v>2.8</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC91">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6206255</v>
+        <v>6206254</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,55 +8632,55 @@
         <v>45185.16666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>43</v>
       </c>
       <c r="K92">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N92">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P92">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8689,19 +8689,19 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2.8</v>
+        <v>1.15</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9166,7 +9166,7 @@
         <v>45188.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
         <v>33</v>
@@ -9525,7 +9525,7 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9614,7 +9614,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
         <v>36</v>
@@ -10412,10 +10412,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F112" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" t="s">
         <v>39</v>
-      </c>
-      <c r="G112" t="s">
-        <v>38</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6357144</v>
+        <v>6352815</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,76 +10679,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K115">
-        <v>1.444</v>
+        <v>1.65</v>
       </c>
       <c r="L115">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M115">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N115">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="O115">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P115">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X115">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6352815</v>
+        <v>6357144</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,76 +10768,76 @@
         <v>45206.0625</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>1.65</v>
+        <v>1.444</v>
       </c>
       <c r="L116">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M116">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N116">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P116">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W116">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6414604</v>
+        <v>6352816</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,58 +10857,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
       </c>
       <c r="K117">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N117">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O117">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P117">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W117">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10917,16 +10917,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6352816</v>
+        <v>6414604</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,58 +10946,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N118">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O118">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S118">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>0.7270000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11006,16 +11006,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6388120</v>
+        <v>6357145</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,73 +11035,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O119">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z119">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB119">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11112,7 +11112,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6357145</v>
+        <v>6388120</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11124,73 +11124,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>44</v>
+      </c>
+      <c r="K120">
+        <v>2.8</v>
+      </c>
+      <c r="L120">
+        <v>3.2</v>
+      </c>
+      <c r="M120">
+        <v>2.5</v>
+      </c>
+      <c r="N120">
         <v>3</v>
       </c>
-      <c r="J120" t="s">
-        <v>43</v>
-      </c>
-      <c r="K120">
-        <v>3</v>
-      </c>
-      <c r="L120">
-        <v>3.25</v>
-      </c>
-      <c r="M120">
-        <v>2.375</v>
-      </c>
-      <c r="N120">
+      <c r="O120">
         <v>3.1</v>
       </c>
-      <c r="O120">
-        <v>3.25</v>
-      </c>
       <c r="P120">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11391,7 +11391,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
         <v>31</v>
@@ -11658,7 +11658,7 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -12106,7 +12106,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12195,7 +12195,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6540655</v>
+        <v>6537916</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45256.125</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N140">
-        <v>2.75</v>
+        <v>1.222</v>
       </c>
       <c r="O140">
+        <v>5.5</v>
+      </c>
+      <c r="P140">
+        <v>10</v>
+      </c>
+      <c r="Q140">
+        <v>-1.75</v>
+      </c>
+      <c r="R140">
+        <v>1.85</v>
+      </c>
+      <c r="S140">
+        <v>1.95</v>
+      </c>
+      <c r="T140">
         <v>3.25</v>
       </c>
-      <c r="P140">
-        <v>2.3</v>
-      </c>
-      <c r="Q140">
-        <v>0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.75</v>
-      </c>
-      <c r="S140">
-        <v>2.05</v>
-      </c>
-      <c r="T140">
-        <v>2.25</v>
-      </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6537916</v>
+        <v>6531882</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,58 +12993,58 @@
         <v>45256.125</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>44</v>
       </c>
       <c r="K141">
-        <v>1.3</v>
+        <v>1.571</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M141">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="N141">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="O141">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P141">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q141">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>0.222</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13053,16 +13053,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC141">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13085,7 +13085,7 @@
         <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6531882</v>
+        <v>6527572</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,13 +13260,13 @@
         <v>45256.125</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -13275,34 +13275,34 @@
         <v>44</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q144">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
         <v>1.975</v>
@@ -13311,7 +13311,7 @@
         <v>1.825</v>
       </c>
       <c r="W144">
-        <v>0.3999999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X144">
         <v>-1</v>
@@ -13320,16 +13320,16 @@
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA144">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6527572</v>
+        <v>6540655</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45256.125</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K145">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L145">
         <v>3.3</v>
       </c>
       <c r="M145">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N145">
+        <v>2.75</v>
+      </c>
+      <c r="O145">
+        <v>3.25</v>
+      </c>
+      <c r="P145">
+        <v>2.3</v>
+      </c>
+      <c r="Q145">
+        <v>0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.75</v>
+      </c>
+      <c r="S145">
+        <v>2.05</v>
+      </c>
+      <c r="T145">
         <v>2.25</v>
       </c>
-      <c r="O145">
-        <v>3.3</v>
-      </c>
-      <c r="P145">
-        <v>2.9</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
-      <c r="R145">
+      <c r="U145">
+        <v>1.825</v>
+      </c>
+      <c r="V145">
         <v>1.975</v>
       </c>
-      <c r="S145">
-        <v>1.825</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
-      <c r="U145">
-        <v>1.975</v>
-      </c>
-      <c r="V145">
-        <v>1.825</v>
-      </c>
       <c r="W145">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
+        <v>1.05</v>
+      </c>
+      <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
-      <c r="AB145">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13441,7 +13441,7 @@
         <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7738678</v>
+        <v>7737361</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,76 +13616,76 @@
         <v>45352.08333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K148">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L148">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
+        <v>4.333</v>
+      </c>
+      <c r="N148">
+        <v>2.15</v>
+      </c>
+      <c r="O148">
+        <v>3.4</v>
+      </c>
+      <c r="P148">
+        <v>3.3</v>
+      </c>
+      <c r="Q148">
+        <v>-0.25</v>
+      </c>
+      <c r="R148">
         <v>1.85</v>
       </c>
-      <c r="N148">
-        <v>4.333</v>
-      </c>
-      <c r="O148">
-        <v>3.5</v>
-      </c>
-      <c r="P148">
-        <v>1.833</v>
-      </c>
-      <c r="Q148">
-        <v>0.5</v>
-      </c>
-      <c r="R148">
+      <c r="S148">
         <v>1.95</v>
-      </c>
-      <c r="S148">
-        <v>1.85</v>
       </c>
       <c r="T148">
         <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA148">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13693,7 +13693,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7737361</v>
+        <v>7738678</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13705,76 +13705,76 @@
         <v>45352.08333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K149">
+        <v>4</v>
+      </c>
+      <c r="L149">
+        <v>3.6</v>
+      </c>
+      <c r="M149">
+        <v>1.85</v>
+      </c>
+      <c r="N149">
+        <v>4.333</v>
+      </c>
+      <c r="O149">
+        <v>3.5</v>
+      </c>
+      <c r="P149">
         <v>1.833</v>
       </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>4.333</v>
-      </c>
-      <c r="N149">
-        <v>2.15</v>
-      </c>
-      <c r="O149">
-        <v>3.4</v>
-      </c>
-      <c r="P149">
-        <v>3.3</v>
-      </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
         <v>1.85</v>
-      </c>
-      <c r="S149">
-        <v>1.95</v>
       </c>
       <c r="T149">
         <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA149">
-        <v>-1</v>
-      </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13794,7 +13794,7 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -13883,7 +13883,7 @@
         <v>45353.1875</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
         <v>34</v>
@@ -14242,7 +14242,7 @@
         <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14420,7 +14420,7 @@
         <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14862,7 +14862,7 @@
         <v>45367.1875</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
         <v>33</v>
@@ -15040,7 +15040,7 @@
         <v>45368.08333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
         <v>31</v>
@@ -15206,7 +15206,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7738685</v>
+        <v>7738684</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15215,64 +15215,79 @@
         <v>28</v>
       </c>
       <c r="E166" s="2">
-        <v>45382.08333333334</v>
+        <v>45381.08333333334</v>
       </c>
       <c r="F166" t="s">
+        <v>30</v>
+      </c>
+      <c r="G166" t="s">
         <v>38</v>
       </c>
-      <c r="G166" t="s">
-        <v>36</v>
+      <c r="H166">
+        <v>4</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="s">
+        <v>44</v>
       </c>
       <c r="K166">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L166">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="N166">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="O166">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q166">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S166">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U166">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V166">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W166">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA166">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB166">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC166">
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15280,7 +15295,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7738659</v>
+        <v>7737364</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15289,64 +15304,79 @@
         <v>28</v>
       </c>
       <c r="E167" s="2">
-        <v>45382.08333333334</v>
+        <v>45381.1875</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" t="s">
+        <v>44</v>
       </c>
       <c r="K167">
+        <v>2.3</v>
+      </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
+      <c r="M167">
+        <v>2.9</v>
+      </c>
+      <c r="N167">
+        <v>2.25</v>
+      </c>
+      <c r="O167">
+        <v>3</v>
+      </c>
+      <c r="P167">
+        <v>3.25</v>
+      </c>
+      <c r="Q167">
+        <v>-0.25</v>
+      </c>
+      <c r="R167">
+        <v>1.95</v>
+      </c>
+      <c r="S167">
         <v>1.85</v>
       </c>
-      <c r="L167">
-        <v>3.5</v>
-      </c>
-      <c r="M167">
-        <v>3.5</v>
-      </c>
-      <c r="N167">
-        <v>1.8</v>
-      </c>
-      <c r="O167">
-        <v>3.6</v>
-      </c>
-      <c r="P167">
-        <v>3.5</v>
-      </c>
-      <c r="Q167">
-        <v>-0.5</v>
-      </c>
-      <c r="R167">
-        <v>1.85</v>
-      </c>
-      <c r="S167">
-        <v>1.95</v>
-      </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U167">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W167">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA167">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB167">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC167">
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15354,7 +15384,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7739340</v>
+        <v>7738658</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15363,63 +15393,152 @@
         <v>28</v>
       </c>
       <c r="E168" s="2">
-        <v>45382.1875</v>
+        <v>45381.1875</v>
       </c>
       <c r="F168" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168" t="s">
+        <v>43</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L168">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M168">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N168">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="O168">
         <v>3.1</v>
       </c>
       <c r="P168">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R168">
+        <v>1.925</v>
+      </c>
+      <c r="S168">
+        <v>1.875</v>
+      </c>
+      <c r="T168">
+        <v>2.25</v>
+      </c>
+      <c r="U168">
+        <v>1.9</v>
+      </c>
+      <c r="V168">
+        <v>1.9</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
+        <v>-1</v>
+      </c>
+      <c r="Y168">
+        <v>1.6</v>
+      </c>
+      <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
+        <v>0.875</v>
+      </c>
+      <c r="AB168">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC168">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>7738686</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45388.08333333334</v>
+      </c>
+      <c r="F169" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169" t="s">
+        <v>41</v>
+      </c>
+      <c r="K169">
+        <v>1.55</v>
+      </c>
+      <c r="L169">
+        <v>4</v>
+      </c>
+      <c r="M169">
+        <v>5.5</v>
+      </c>
+      <c r="N169">
+        <v>1.55</v>
+      </c>
+      <c r="O169">
+        <v>4</v>
+      </c>
+      <c r="P169">
+        <v>5.5</v>
+      </c>
+      <c r="Q169">
+        <v>-1</v>
+      </c>
+      <c r="R169">
+        <v>1.925</v>
+      </c>
+      <c r="S169">
+        <v>1.875</v>
+      </c>
+      <c r="T169">
+        <v>2.75</v>
+      </c>
+      <c r="U169">
         <v>1.825</v>
       </c>
-      <c r="S168">
+      <c r="V169">
         <v>1.975</v>
       </c>
-      <c r="T168">
-        <v>2.5</v>
-      </c>
-      <c r="U168">
-        <v>2.025</v>
-      </c>
-      <c r="V168">
-        <v>1.775</v>
-      </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-      <c r="X168">
-        <v>0</v>
-      </c>
-      <c r="Y168">
-        <v>0</v>
-      </c>
-      <c r="Z168">
-        <v>0</v>
-      </c>
-      <c r="AA168">
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
         <v>0</v>
       </c>
     </row>

--- a/South Korea K League 2/South Korea K League 2.xlsx
+++ b/South Korea K League 2/South Korea K League 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Busan I Park</t>
   </si>
   <si>
-    <t>Chungbuk Cheongju</t>
+    <t>Bucheon</t>
   </si>
   <si>
-    <t>Bucheon</t>
+    <t>Chungbuk Cheongju</t>
   </si>
   <si>
     <t>Seongnam FC</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC169"/>
+  <dimension ref="A1:AC172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,7 +803,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -892,7 +892,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6204719</v>
+        <v>6206186</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,73 +1426,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N11">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R11">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W11">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6206186</v>
+        <v>6204719</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,73 +1515,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X12">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1693,7 +1693,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1782,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
@@ -2568,7 +2568,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6204317</v>
+        <v>6206197</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2580,76 +2580,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>45</v>
       </c>
       <c r="K24">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,7 +2657,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6206197</v>
+        <v>6204317</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2669,76 +2669,76 @@
         <v>45110.29166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
+        <v>2.625</v>
+      </c>
+      <c r="N25">
+        <v>2.15</v>
+      </c>
+      <c r="O25">
+        <v>3.4</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>-0.25</v>
+      </c>
+      <c r="R25">
+        <v>1.9</v>
+      </c>
+      <c r="S25">
+        <v>1.9</v>
+      </c>
+      <c r="T25">
         <v>2.5</v>
       </c>
-      <c r="N25">
-        <v>2.7</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>2.55</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
-      </c>
-      <c r="T25">
-        <v>2.25</v>
-      </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6206198</v>
+        <v>6206199</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2758,40 +2758,40 @@
         <v>45115.25</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M26">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="N26">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O26">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -2803,31 +2803,31 @@
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V26">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6206199</v>
+        <v>6206198</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,40 +2847,40 @@
         <v>45115.25</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N27">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Q27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -2892,31 +2892,31 @@
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X27">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC27">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6206204</v>
+        <v>6206205</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,37 +3381,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L33">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="N33">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q33">
         <v>0.25</v>
@@ -3423,7 +3423,7 @@
         <v>2.05</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
         <v>1.925</v>
@@ -3432,25 +3432,25 @@
         <v>1.875</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA33">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6206205</v>
+        <v>6206204</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,37 +3470,37 @@
         <v>45122.3125</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="N34">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O34">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P34">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Q34">
         <v>0.25</v>
@@ -3512,7 +3512,7 @@
         <v>2.05</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
         <v>1.925</v>
@@ -3521,25 +3521,25 @@
         <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6206208</v>
+        <v>6206209</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,76 +3826,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="L38">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N38">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P38">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R38">
+        <v>1.825</v>
+      </c>
+      <c r="S38">
         <v>1.975</v>
       </c>
-      <c r="S38">
-        <v>1.825</v>
-      </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
+        <v>1.95</v>
+      </c>
+      <c r="V38">
         <v>1.85</v>
       </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6206209</v>
+        <v>6206208</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,76 +3915,76 @@
         <v>45125.29166666666</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M39">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O39">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
+        <v>1.975</v>
+      </c>
+      <c r="S39">
         <v>1.825</v>
       </c>
-      <c r="S39">
-        <v>1.975</v>
-      </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
         <v>1.95</v>
       </c>
-      <c r="V39">
-        <v>1.85</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y39">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6206214</v>
+        <v>6206215</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,49 +4449,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O45">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U45">
         <v>2</v>
@@ -4500,19 +4500,19 @@
         <v>1.8</v>
       </c>
       <c r="W45">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6206215</v>
+        <v>6206214</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,49 +4538,49 @@
         <v>45130.3125</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P46">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q46">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U46">
         <v>2</v>
@@ -4589,19 +4589,19 @@
         <v>1.8</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -5072,7 +5072,7 @@
         <v>45137.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5431,7 +5431,7 @@
         <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5876,7 +5876,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>45152.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6496,7 +6496,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
         <v>32</v>
@@ -6766,7 +6766,7 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7018,7 +7018,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6206241</v>
+        <v>6206240</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7030,56 +7030,56 @@
         <v>45164.3125</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
+        <v>1.875</v>
+      </c>
+      <c r="S74">
+        <v>1.925</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
+        <v>1.95</v>
+      </c>
+      <c r="V74">
         <v>1.85</v>
       </c>
-      <c r="S74">
-        <v>1.95</v>
-      </c>
-      <c r="T74">
-        <v>2.5</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7087,19 +7087,19 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.925</v>
+      </c>
+      <c r="AB74">
         <v>0.95</v>
       </c>
-      <c r="AB74">
-        <v>-1</v>
-      </c>
       <c r="AC74">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7107,7 +7107,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6206240</v>
+        <v>6206241</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7119,55 +7119,55 @@
         <v>45164.3125</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>43</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N75">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="O75">
+        <v>3.4</v>
+      </c>
+      <c r="P75">
         <v>3</v>
       </c>
-      <c r="P75">
-        <v>2.2</v>
-      </c>
       <c r="Q75">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7176,19 +7176,19 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>45164.33333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -7389,7 +7389,7 @@
         <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7567,7 +7567,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7831,7 +7831,7 @@
         <v>45168.3125</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -8009,7 +8009,7 @@
         <v>45171.16666666666</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8101,7 +8101,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8635,7 +8635,7 @@
         <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>45186.27083333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>32</v>
@@ -9166,7 +9166,7 @@
         <v>45188.3125</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
         <v>33</v>
@@ -9525,7 +9525,7 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9614,7 +9614,7 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -10056,7 +10056,7 @@
         <v>45193.27083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
         <v>36</v>
@@ -10412,10 +10412,10 @@
         <v>45200.0625</v>
       </c>
       <c r="F112" t="s">
+        <v>39</v>
+      </c>
+      <c r="G112" t="s">
         <v>38</v>
-      </c>
-      <c r="G112" t="s">
-        <v>39</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6352816</v>
+        <v>6414604</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,58 +10857,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>44</v>
       </c>
       <c r="K117">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L117">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N117">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O117">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R117">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
-        <v>0.7270000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10917,16 +10917,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6414604</v>
+        <v>6352816</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,58 +10946,58 @@
         <v>45206.16666666666</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>44</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N118">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P118">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W118">
-        <v>1.4</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11006,16 +11006,16 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6357145</v>
+        <v>6388120</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,73 +11035,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>44</v>
+      </c>
+      <c r="K119">
+        <v>2.8</v>
+      </c>
+      <c r="L119">
+        <v>3.2</v>
+      </c>
+      <c r="M119">
+        <v>2.5</v>
+      </c>
+      <c r="N119">
         <v>3</v>
       </c>
-      <c r="J119" t="s">
-        <v>43</v>
-      </c>
-      <c r="K119">
-        <v>3</v>
-      </c>
-      <c r="L119">
-        <v>3.25</v>
-      </c>
-      <c r="M119">
-        <v>2.375</v>
-      </c>
-      <c r="N119">
+      <c r="O119">
         <v>3.1</v>
       </c>
-      <c r="O119">
-        <v>3.25</v>
-      </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q119">
         <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11112,7 +11112,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6388120</v>
+        <v>6357145</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11124,73 +11124,73 @@
         <v>45206.27083333334</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O120">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q120">
         <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z120">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11216,7 +11216,7 @@
         <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11391,7 +11391,7 @@
         <v>45220.16666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
         <v>31</v>
@@ -11658,7 +11658,7 @@
         <v>45221.16666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
         <v>36</v>
@@ -12106,7 +12106,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12195,7 +12195,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12459,7 +12459,7 @@
         <v>45241.16666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -13070,7 +13070,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6537915</v>
+        <v>6531883</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13082,76 +13082,76 @@
         <v>45256.125</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K142">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L142">
+        <v>3.8</v>
+      </c>
+      <c r="M142">
+        <v>4.2</v>
+      </c>
+      <c r="N142">
+        <v>1.75</v>
+      </c>
+      <c r="O142">
         <v>4</v>
       </c>
-      <c r="M142">
-        <v>5.25</v>
-      </c>
-      <c r="N142">
-        <v>1.444</v>
-      </c>
-      <c r="O142">
-        <v>4.2</v>
-      </c>
       <c r="P142">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q142">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6531883</v>
+        <v>6537915</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45256.125</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L143">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M143">
+        <v>5.25</v>
+      </c>
+      <c r="N143">
+        <v>1.444</v>
+      </c>
+      <c r="O143">
         <v>4.2</v>
       </c>
-      <c r="N143">
-        <v>1.75</v>
-      </c>
-      <c r="O143">
-        <v>4</v>
-      </c>
       <c r="P143">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="Q143">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T143">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y143">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>45256.125</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G144" t="s">
         <v>34</v>
@@ -13441,7 +13441,7 @@
         <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13794,7 +13794,7 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -13883,7 +13883,7 @@
         <v>45353.1875</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+       